--- a/グループ開発スケジュール.xlsx
+++ b/グループ開発スケジュール.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\file-srv\share\05_グループ開発\グループD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FD3DBB6-F840-4895-AC36-65FEAB3DE8B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D635BA26-BA48-4FEA-AFDF-D1F936B6FE6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5115" yWindow="870" windowWidth="15375" windowHeight="10050" tabRatio="560" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="15375" windowHeight="10050" tabRatio="560" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="マイルストーン" sheetId="7" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="180">
   <si>
     <t>No.</t>
   </si>
@@ -3464,57 +3464,54 @@
     <xf numFmtId="179" fontId="0" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="88" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="86" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="87" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="86" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="98" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="94" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="86" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="88" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="100" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="102" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="98" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="94" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="86" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="88" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="86" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="88" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="87" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="86" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="83" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="88" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3522,6 +3519,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="83" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="87" xfId="0" applyBorder="1" applyAlignment="1">
@@ -4508,7 +4508,7 @@
               <a:picLocks noChangeAspect="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="マイルストーン!A1:U20" spid="_x0000_s9519"/>
+                  <a14:cameraTool cellRange="マイルストーン!A1:U20" spid="_x0000_s9523"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -4886,7 +4886,7 @@
               <a:picLocks noChangeAspect="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="マイルストーン!A1:U20" spid="_x0000_s10496"/>
+                  <a14:cameraTool cellRange="マイルストーン!A1:U20" spid="_x0000_s10500"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -5362,7 +5362,7 @@
               <a:picLocks noChangeAspect="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="マイルストーン!A1:U20" spid="_x0000_s2344"/>
+                  <a14:cameraTool cellRange="マイルストーン!A1:U20" spid="_x0000_s2348"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -5884,7 +5884,7 @@
               <a:picLocks noChangeAspect="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="マイルストーン!A1:U20" spid="_x0000_s4395"/>
+                  <a14:cameraTool cellRange="マイルストーン!A1:U20" spid="_x0000_s4399"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -6210,7 +6210,7 @@
               <a:picLocks noChangeAspect="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="マイルストーン!A1:U20" spid="_x0000_s5483"/>
+                  <a14:cameraTool cellRange="マイルストーン!A1:U20" spid="_x0000_s5491"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -6487,7 +6487,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="マイルストーン!A1:U20" spid="_x0000_s5484"/>
+                  <a14:cameraTool cellRange="マイルストーン!A1:U20" spid="_x0000_s5492"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -6918,7 +6918,7 @@
               <a:picLocks noChangeAspect="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="マイルストーン!A1:U20" spid="_x0000_s7512"/>
+                  <a14:cameraTool cellRange="マイルストーン!A1:U20" spid="_x0000_s7516"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -9594,10 +9594,10 @@
       <c r="I23" s="7"/>
       <c r="J23" s="7"/>
       <c r="K23" s="7"/>
-      <c r="L23" s="284" t="s">
+      <c r="L23" s="283" t="s">
         <v>130</v>
       </c>
-      <c r="M23" s="285"/>
+      <c r="M23" s="284"/>
       <c r="N23" s="212"/>
       <c r="O23" s="212"/>
       <c r="P23" s="212"/>
@@ -9615,22 +9615,22 @@
       <c r="Z23" s="264"/>
       <c r="AA23" s="264"/>
       <c r="AB23" s="264"/>
-      <c r="AC23" s="268" t="s">
+      <c r="AC23" s="272" t="s">
         <v>131</v>
       </c>
       <c r="AD23" s="300"/>
-      <c r="AE23" s="268" t="s">
+      <c r="AE23" s="272" t="s">
         <v>138</v>
       </c>
-      <c r="AF23" s="269"/>
-      <c r="AG23" s="268" t="s">
+      <c r="AF23" s="273"/>
+      <c r="AG23" s="272" t="s">
         <v>177</v>
       </c>
-      <c r="AH23" s="269"/>
-      <c r="AI23" s="268" t="s">
+      <c r="AH23" s="273"/>
+      <c r="AI23" s="272" t="s">
         <v>178</v>
       </c>
-      <c r="AJ23" s="269"/>
+      <c r="AJ23" s="273"/>
       <c r="AK23" s="294" t="s">
         <v>179</v>
       </c>
@@ -9649,8 +9649,8 @@
       <c r="I24" s="12"/>
       <c r="J24" s="12"/>
       <c r="K24" s="12"/>
-      <c r="L24" s="285"/>
-      <c r="M24" s="285"/>
+      <c r="L24" s="284"/>
+      <c r="M24" s="284"/>
       <c r="N24" s="212"/>
       <c r="O24" s="212"/>
       <c r="P24" s="212"/>
@@ -9666,14 +9666,14 @@
       <c r="Z24" s="264"/>
       <c r="AA24" s="264"/>
       <c r="AB24" s="264"/>
-      <c r="AC24" s="270"/>
+      <c r="AC24" s="274"/>
       <c r="AD24" s="301"/>
-      <c r="AE24" s="270"/>
-      <c r="AF24" s="271"/>
-      <c r="AG24" s="270"/>
-      <c r="AH24" s="271"/>
-      <c r="AI24" s="270"/>
-      <c r="AJ24" s="271"/>
+      <c r="AE24" s="274"/>
+      <c r="AF24" s="275"/>
+      <c r="AG24" s="274"/>
+      <c r="AH24" s="275"/>
+      <c r="AI24" s="274"/>
+      <c r="AJ24" s="275"/>
       <c r="AK24" s="296"/>
       <c r="AL24" s="297"/>
       <c r="AM24" s="293"/>
@@ -9688,8 +9688,8 @@
       <c r="I25" s="17"/>
       <c r="J25" s="17"/>
       <c r="K25" s="17"/>
-      <c r="L25" s="285"/>
-      <c r="M25" s="285"/>
+      <c r="L25" s="284"/>
+      <c r="M25" s="284"/>
       <c r="N25" s="212"/>
       <c r="O25" s="212"/>
       <c r="P25" s="212"/>
@@ -9705,14 +9705,14 @@
       <c r="Z25" s="264"/>
       <c r="AA25" s="264"/>
       <c r="AB25" s="264"/>
-      <c r="AC25" s="272"/>
+      <c r="AC25" s="276"/>
       <c r="AD25" s="302"/>
-      <c r="AE25" s="272"/>
-      <c r="AF25" s="273"/>
-      <c r="AG25" s="272"/>
-      <c r="AH25" s="273"/>
-      <c r="AI25" s="272"/>
-      <c r="AJ25" s="273"/>
+      <c r="AE25" s="276"/>
+      <c r="AF25" s="277"/>
+      <c r="AG25" s="276"/>
+      <c r="AH25" s="277"/>
+      <c r="AI25" s="276"/>
+      <c r="AJ25" s="277"/>
       <c r="AK25" s="298"/>
       <c r="AL25" s="299"/>
       <c r="AM25" s="293"/>
@@ -9731,8 +9731,8 @@
       <c r="I26" s="20"/>
       <c r="J26" s="20"/>
       <c r="K26" s="218"/>
-      <c r="L26" s="281"/>
-      <c r="M26" s="282"/>
+      <c r="L26" s="266"/>
+      <c r="M26" s="267"/>
       <c r="N26" s="212"/>
       <c r="O26" s="212"/>
       <c r="P26" s="212"/>
@@ -9749,15 +9749,15 @@
       <c r="Y26" s="265"/>
       <c r="Z26" s="265"/>
       <c r="AA26" s="265"/>
-      <c r="AB26" s="274"/>
+      <c r="AB26" s="278"/>
       <c r="AC26" s="226"/>
       <c r="AD26" s="227"/>
-      <c r="AE26" s="274"/>
-      <c r="AF26" s="275"/>
-      <c r="AG26" s="274"/>
-      <c r="AH26" s="275"/>
-      <c r="AI26" s="274"/>
-      <c r="AJ26" s="275"/>
+      <c r="AE26" s="278"/>
+      <c r="AF26" s="279"/>
+      <c r="AG26" s="278"/>
+      <c r="AH26" s="279"/>
+      <c r="AI26" s="278"/>
+      <c r="AJ26" s="279"/>
       <c r="AK26" s="286"/>
       <c r="AL26" s="287"/>
       <c r="AM26" s="213"/>
@@ -9776,15 +9776,15 @@
       <c r="I27" s="29"/>
       <c r="J27" s="29"/>
       <c r="K27" s="219"/>
-      <c r="L27" s="281">
+      <c r="L27" s="266">
         <f>6*1.5</f>
         <v>9</v>
       </c>
-      <c r="M27" s="282"/>
+      <c r="M27" s="267"/>
       <c r="N27" s="303">
         <v>0.2</v>
       </c>
-      <c r="O27" s="282"/>
+      <c r="O27" s="267"/>
       <c r="P27" s="212"/>
       <c r="Q27" s="212"/>
       <c r="R27" s="212"/>
@@ -9792,11 +9792,11 @@
       <c r="T27" s="212"/>
       <c r="U27" s="212"/>
       <c r="V27" s="212"/>
-      <c r="W27" s="280">
+      <c r="W27" s="285">
         <f>SUM(X27:AB28)/X38</f>
         <v>0.18072289156626506</v>
       </c>
-      <c r="X27" s="277">
+      <c r="X27" s="268">
         <f>AC27*(1.5+AK27)</f>
         <v>9</v>
       </c>
@@ -9804,22 +9804,22 @@
       <c r="Z27" s="262"/>
       <c r="AA27" s="262"/>
       <c r="AB27" s="262"/>
-      <c r="AC27" s="279">
+      <c r="AC27" s="269">
         <v>6</v>
       </c>
-      <c r="AD27" s="278"/>
-      <c r="AE27" s="276">
+      <c r="AD27" s="270"/>
+      <c r="AE27" s="271">
         <v>44362</v>
       </c>
-      <c r="AF27" s="277"/>
-      <c r="AG27" s="276">
+      <c r="AF27" s="268"/>
+      <c r="AG27" s="271">
         <v>44362</v>
       </c>
-      <c r="AH27" s="277"/>
-      <c r="AI27" s="279">
+      <c r="AH27" s="268"/>
+      <c r="AI27" s="269">
         <v>1.5</v>
       </c>
-      <c r="AJ27" s="277"/>
+      <c r="AJ27" s="268"/>
       <c r="AK27" s="286">
         <v>0</v>
       </c>
@@ -9842,13 +9842,13 @@
       <c r="I28" s="29"/>
       <c r="J28" s="29"/>
       <c r="K28" s="219"/>
-      <c r="L28" s="281">
+      <c r="L28" s="266">
         <f>6*1.5</f>
         <v>9</v>
       </c>
-      <c r="M28" s="282"/>
-      <c r="N28" s="282"/>
-      <c r="O28" s="282"/>
+      <c r="M28" s="267"/>
+      <c r="N28" s="267"/>
+      <c r="O28" s="267"/>
       <c r="P28" s="212"/>
       <c r="Q28" s="212"/>
       <c r="R28" s="212"/>
@@ -9856,8 +9856,8 @@
       <c r="T28" s="212"/>
       <c r="U28" s="212"/>
       <c r="V28" s="212"/>
-      <c r="W28" s="280"/>
-      <c r="X28" s="277">
+      <c r="W28" s="285"/>
+      <c r="X28" s="268">
         <f>AC28*(1.5+AK28)</f>
         <v>9</v>
       </c>
@@ -9865,22 +9865,22 @@
       <c r="Z28" s="262"/>
       <c r="AA28" s="262"/>
       <c r="AB28" s="262"/>
-      <c r="AC28" s="279">
+      <c r="AC28" s="269">
         <v>6</v>
       </c>
-      <c r="AD28" s="278"/>
-      <c r="AE28" s="276">
+      <c r="AD28" s="270"/>
+      <c r="AE28" s="271">
         <v>44363</v>
       </c>
-      <c r="AF28" s="277"/>
-      <c r="AG28" s="276">
+      <c r="AF28" s="268"/>
+      <c r="AG28" s="271">
         <v>44362</v>
       </c>
-      <c r="AH28" s="277"/>
-      <c r="AI28" s="279">
+      <c r="AH28" s="268"/>
+      <c r="AI28" s="269">
         <v>1.5</v>
       </c>
-      <c r="AJ28" s="277"/>
+      <c r="AJ28" s="268"/>
       <c r="AK28" s="286">
         <v>0</v>
       </c>
@@ -9903,15 +9903,15 @@
       <c r="I29" s="29"/>
       <c r="J29" s="29"/>
       <c r="K29" s="219"/>
-      <c r="L29" s="281">
+      <c r="L29" s="266">
         <f>2*1.5</f>
         <v>3</v>
       </c>
-      <c r="M29" s="282"/>
+      <c r="M29" s="267"/>
       <c r="N29" s="303">
         <v>0.1</v>
       </c>
-      <c r="O29" s="282"/>
+      <c r="O29" s="267"/>
       <c r="P29" s="212"/>
       <c r="Q29" s="212"/>
       <c r="R29" s="212"/>
@@ -9919,11 +9919,11 @@
       <c r="T29" s="212"/>
       <c r="U29" s="212"/>
       <c r="V29" s="212"/>
-      <c r="W29" s="280">
+      <c r="W29" s="285">
         <f>SUM(X29:AB30)/X38</f>
         <v>0.18072289156626506</v>
       </c>
-      <c r="X29" s="277">
+      <c r="X29" s="268">
         <f>AC29*(1.5+AK29)</f>
         <v>6</v>
       </c>
@@ -9931,22 +9931,22 @@
       <c r="Z29" s="262"/>
       <c r="AA29" s="262"/>
       <c r="AB29" s="262"/>
-      <c r="AC29" s="279">
+      <c r="AC29" s="269">
         <v>2</v>
       </c>
-      <c r="AD29" s="278"/>
-      <c r="AE29" s="276">
+      <c r="AD29" s="270"/>
+      <c r="AE29" s="271">
         <v>44363</v>
       </c>
-      <c r="AF29" s="277"/>
-      <c r="AG29" s="276">
+      <c r="AF29" s="268"/>
+      <c r="AG29" s="271">
         <v>44364</v>
       </c>
-      <c r="AH29" s="277"/>
-      <c r="AI29" s="279">
+      <c r="AH29" s="268"/>
+      <c r="AI29" s="269">
         <v>1.5</v>
       </c>
-      <c r="AJ29" s="277"/>
+      <c r="AJ29" s="268"/>
       <c r="AK29" s="286">
         <v>1.5</v>
       </c>
@@ -9967,13 +9967,13 @@
       <c r="I30" s="29"/>
       <c r="J30" s="29"/>
       <c r="K30" s="219"/>
-      <c r="L30" s="281">
+      <c r="L30" s="266">
         <f>4*1.5</f>
         <v>6</v>
       </c>
-      <c r="M30" s="282"/>
-      <c r="N30" s="282"/>
-      <c r="O30" s="282"/>
+      <c r="M30" s="267"/>
+      <c r="N30" s="267"/>
+      <c r="O30" s="267"/>
       <c r="P30" s="212"/>
       <c r="Q30" s="212"/>
       <c r="R30" s="212"/>
@@ -9981,8 +9981,8 @@
       <c r="T30" s="212"/>
       <c r="U30" s="212"/>
       <c r="V30" s="212"/>
-      <c r="W30" s="280"/>
-      <c r="X30" s="277">
+      <c r="W30" s="285"/>
+      <c r="X30" s="268">
         <f>AC30*(1.5+AK30)</f>
         <v>12</v>
       </c>
@@ -9990,22 +9990,22 @@
       <c r="Z30" s="262"/>
       <c r="AA30" s="262"/>
       <c r="AB30" s="262"/>
-      <c r="AC30" s="279">
+      <c r="AC30" s="269">
         <v>4</v>
       </c>
-      <c r="AD30" s="278"/>
-      <c r="AE30" s="276">
+      <c r="AD30" s="270"/>
+      <c r="AE30" s="271">
         <v>44363</v>
       </c>
-      <c r="AF30" s="277"/>
-      <c r="AG30" s="276">
+      <c r="AF30" s="268"/>
+      <c r="AG30" s="271">
         <v>44364</v>
       </c>
-      <c r="AH30" s="277"/>
-      <c r="AI30" s="279">
+      <c r="AH30" s="268"/>
+      <c r="AI30" s="269">
         <v>1.5</v>
       </c>
-      <c r="AJ30" s="277"/>
+      <c r="AJ30" s="268"/>
       <c r="AK30" s="286">
         <v>1.5</v>
       </c>
@@ -10026,15 +10026,15 @@
       <c r="I31" s="29"/>
       <c r="J31" s="29"/>
       <c r="K31" s="219"/>
-      <c r="L31" s="281">
+      <c r="L31" s="266">
         <f>6*2</f>
         <v>12</v>
       </c>
-      <c r="M31" s="282"/>
+      <c r="M31" s="267"/>
       <c r="N31" s="303">
         <v>0.13</v>
       </c>
-      <c r="O31" s="282"/>
+      <c r="O31" s="267"/>
       <c r="P31" s="212"/>
       <c r="Q31" s="212"/>
       <c r="R31" s="212"/>
@@ -10046,7 +10046,7 @@
         <f>SUM(X31)/X38</f>
         <v>0.12650602409638556</v>
       </c>
-      <c r="X31" s="277">
+      <c r="X31" s="268">
         <f>AC31*(2+AK31)</f>
         <v>12.600000000000001</v>
       </c>
@@ -10054,20 +10054,20 @@
       <c r="Z31" s="262"/>
       <c r="AA31" s="262"/>
       <c r="AB31" s="262"/>
-      <c r="AC31" s="279">
+      <c r="AC31" s="269">
         <v>6</v>
       </c>
-      <c r="AD31" s="278"/>
-      <c r="AE31" s="276">
+      <c r="AD31" s="270"/>
+      <c r="AE31" s="271">
         <v>44365</v>
       </c>
-      <c r="AF31" s="277"/>
-      <c r="AG31" s="279"/>
-      <c r="AH31" s="277"/>
-      <c r="AI31" s="279">
+      <c r="AF31" s="268"/>
+      <c r="AG31" s="269"/>
+      <c r="AH31" s="268"/>
+      <c r="AI31" s="269">
         <v>2</v>
       </c>
-      <c r="AJ31" s="277"/>
+      <c r="AJ31" s="268"/>
       <c r="AK31" s="286">
         <v>0.1</v>
       </c>
@@ -10088,10 +10088,10 @@
       <c r="I32" s="29"/>
       <c r="J32" s="29"/>
       <c r="K32" s="219"/>
-      <c r="L32" s="281">
+      <c r="L32" s="266">
         <v>27</v>
       </c>
-      <c r="M32" s="282"/>
+      <c r="M32" s="267"/>
       <c r="N32" s="303">
         <v>0.3</v>
       </c>
@@ -10107,7 +10107,7 @@
         <f>SUM(X32)/X38</f>
         <v>0.27108433734939763</v>
       </c>
-      <c r="X32" s="277">
+      <c r="X32" s="268">
         <f>AC32*(4.5+AK32)</f>
         <v>27</v>
       </c>
@@ -10115,20 +10115,20 @@
       <c r="Z32" s="262"/>
       <c r="AA32" s="262"/>
       <c r="AB32" s="262"/>
-      <c r="AC32" s="279">
+      <c r="AC32" s="269">
         <v>6</v>
       </c>
-      <c r="AD32" s="278"/>
-      <c r="AE32" s="276">
+      <c r="AD32" s="270"/>
+      <c r="AE32" s="271">
         <v>44372</v>
       </c>
-      <c r="AF32" s="277"/>
-      <c r="AG32" s="279"/>
-      <c r="AH32" s="277"/>
-      <c r="AI32" s="279">
+      <c r="AF32" s="268"/>
+      <c r="AG32" s="269"/>
+      <c r="AH32" s="268"/>
+      <c r="AI32" s="269">
         <v>4.5</v>
       </c>
-      <c r="AJ32" s="277"/>
+      <c r="AJ32" s="268"/>
       <c r="AK32" s="286">
         <v>0</v>
       </c>
@@ -10149,14 +10149,14 @@
       <c r="I33" s="29"/>
       <c r="J33" s="29"/>
       <c r="K33" s="219"/>
-      <c r="L33" s="281">
+      <c r="L33" s="266">
         <v>6</v>
       </c>
-      <c r="M33" s="282"/>
+      <c r="M33" s="267"/>
       <c r="N33" s="303">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="O33" s="282"/>
+      <c r="O33" s="267"/>
       <c r="P33" s="212"/>
       <c r="Q33" s="212"/>
       <c r="R33" s="212"/>
@@ -10168,7 +10168,7 @@
         <f>SUM(X33)/X38</f>
         <v>6.0240963855421693E-2</v>
       </c>
-      <c r="X33" s="277">
+      <c r="X33" s="268">
         <f>AC33*(2+AK33)</f>
         <v>6</v>
       </c>
@@ -10176,20 +10176,20 @@
       <c r="Z33" s="262"/>
       <c r="AA33" s="262"/>
       <c r="AB33" s="262"/>
-      <c r="AC33" s="279">
+      <c r="AC33" s="269">
         <v>3</v>
       </c>
-      <c r="AD33" s="278"/>
-      <c r="AE33" s="276">
+      <c r="AD33" s="270"/>
+      <c r="AE33" s="271">
         <v>44375</v>
       </c>
-      <c r="AF33" s="277"/>
-      <c r="AG33" s="279"/>
-      <c r="AH33" s="277"/>
-      <c r="AI33" s="279">
+      <c r="AF33" s="268"/>
+      <c r="AG33" s="269"/>
+      <c r="AH33" s="268"/>
+      <c r="AI33" s="269">
         <v>2</v>
       </c>
-      <c r="AJ33" s="277"/>
+      <c r="AJ33" s="268"/>
       <c r="AK33" s="286">
         <v>0</v>
       </c>
@@ -10211,14 +10211,14 @@
       <c r="I34" s="29"/>
       <c r="J34" s="29"/>
       <c r="K34" s="219"/>
-      <c r="L34" s="281">
+      <c r="L34" s="266">
         <v>6</v>
       </c>
-      <c r="M34" s="282"/>
+      <c r="M34" s="267"/>
       <c r="N34" s="303">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="O34" s="282"/>
+      <c r="O34" s="267"/>
       <c r="P34" s="212"/>
       <c r="Q34" s="212"/>
       <c r="R34" s="212"/>
@@ -10230,7 +10230,7 @@
         <f>SUM(X34)/X38</f>
         <v>6.0240963855421693E-2</v>
       </c>
-      <c r="X34" s="277">
+      <c r="X34" s="268">
         <f>AC34*(2+AK34)</f>
         <v>6</v>
       </c>
@@ -10238,20 +10238,20 @@
       <c r="Z34" s="262"/>
       <c r="AA34" s="262"/>
       <c r="AB34" s="262"/>
-      <c r="AC34" s="279">
+      <c r="AC34" s="269">
         <v>3</v>
       </c>
-      <c r="AD34" s="278"/>
-      <c r="AE34" s="276">
+      <c r="AD34" s="270"/>
+      <c r="AE34" s="271">
         <v>44375</v>
       </c>
-      <c r="AF34" s="277"/>
-      <c r="AG34" s="279"/>
-      <c r="AH34" s="277"/>
-      <c r="AI34" s="279">
+      <c r="AF34" s="268"/>
+      <c r="AG34" s="269"/>
+      <c r="AH34" s="268"/>
+      <c r="AI34" s="269">
         <v>2</v>
       </c>
-      <c r="AJ34" s="277"/>
+      <c r="AJ34" s="268"/>
       <c r="AK34" s="286">
         <v>0</v>
       </c>
@@ -10273,11 +10273,11 @@
       <c r="I35" s="120"/>
       <c r="J35" s="120"/>
       <c r="K35" s="220"/>
-      <c r="L35" s="281">
+      <c r="L35" s="266">
         <f>6*1</f>
         <v>6</v>
       </c>
-      <c r="M35" s="282"/>
+      <c r="M35" s="267"/>
       <c r="N35" s="303">
         <v>7.0000000000000007E-2</v>
       </c>
@@ -10293,7 +10293,7 @@
         <f>SUM(X35)/X38</f>
         <v>6.0240963855421693E-2</v>
       </c>
-      <c r="X35" s="277">
+      <c r="X35" s="268">
         <f>AC35*(1+AK35)</f>
         <v>6</v>
       </c>
@@ -10301,20 +10301,20 @@
       <c r="Z35" s="262"/>
       <c r="AA35" s="262"/>
       <c r="AB35" s="262"/>
-      <c r="AC35" s="279">
+      <c r="AC35" s="269">
         <v>6</v>
       </c>
-      <c r="AD35" s="278"/>
-      <c r="AE35" s="276">
+      <c r="AD35" s="270"/>
+      <c r="AE35" s="271">
         <v>44376</v>
       </c>
-      <c r="AF35" s="277"/>
-      <c r="AG35" s="279"/>
-      <c r="AH35" s="277"/>
-      <c r="AI35" s="279">
+      <c r="AF35" s="268"/>
+      <c r="AG35" s="269"/>
+      <c r="AH35" s="268"/>
+      <c r="AI35" s="269">
         <v>1</v>
       </c>
-      <c r="AJ35" s="277"/>
+      <c r="AJ35" s="268"/>
       <c r="AK35" s="286">
         <v>0</v>
       </c>
@@ -10336,11 +10336,11 @@
       <c r="I36" s="206"/>
       <c r="J36" s="206"/>
       <c r="K36" s="221"/>
-      <c r="L36" s="281">
+      <c r="L36" s="266">
         <f>6*1</f>
         <v>6</v>
       </c>
-      <c r="M36" s="282"/>
+      <c r="M36" s="267"/>
       <c r="N36" s="303">
         <v>7.0000000000000007E-2</v>
       </c>
@@ -10356,7 +10356,7 @@
         <f>SUM(X36)/X38</f>
         <v>6.0240963855421693E-2</v>
       </c>
-      <c r="X36" s="277">
+      <c r="X36" s="268">
         <f>AC36*(1+AK36)</f>
         <v>6</v>
       </c>
@@ -10364,20 +10364,20 @@
       <c r="Z36" s="262"/>
       <c r="AA36" s="262"/>
       <c r="AB36" s="262"/>
-      <c r="AC36" s="279">
+      <c r="AC36" s="269">
         <v>6</v>
       </c>
-      <c r="AD36" s="278"/>
-      <c r="AE36" s="276">
+      <c r="AD36" s="270"/>
+      <c r="AE36" s="271">
         <v>44377</v>
       </c>
-      <c r="AF36" s="277"/>
-      <c r="AG36" s="279"/>
-      <c r="AH36" s="277"/>
-      <c r="AI36" s="279">
+      <c r="AF36" s="268"/>
+      <c r="AG36" s="269"/>
+      <c r="AH36" s="268"/>
+      <c r="AI36" s="269">
         <v>1</v>
       </c>
-      <c r="AJ36" s="277"/>
+      <c r="AJ36" s="268"/>
       <c r="AK36" s="286">
         <v>0</v>
       </c>
@@ -10414,12 +10414,12 @@
       <c r="AB37" s="200"/>
       <c r="AC37" s="200"/>
       <c r="AD37" s="200"/>
-      <c r="AE37" s="278"/>
-      <c r="AF37" s="278"/>
-      <c r="AG37" s="278"/>
-      <c r="AH37" s="278"/>
-      <c r="AI37" s="278"/>
-      <c r="AJ37" s="278"/>
+      <c r="AE37" s="270"/>
+      <c r="AF37" s="270"/>
+      <c r="AG37" s="270"/>
+      <c r="AH37" s="270"/>
+      <c r="AI37" s="270"/>
+      <c r="AJ37" s="270"/>
       <c r="AK37" s="200"/>
       <c r="AL37" s="200"/>
       <c r="AM37" s="214"/>
@@ -10457,14 +10457,14 @@
       <c r="Z38" s="262"/>
       <c r="AA38" s="262"/>
       <c r="AB38" s="262"/>
-      <c r="AC38" s="266"/>
+      <c r="AC38" s="280"/>
       <c r="AD38" s="291"/>
-      <c r="AE38" s="266"/>
-      <c r="AF38" s="267"/>
-      <c r="AG38" s="266"/>
-      <c r="AH38" s="267"/>
-      <c r="AI38" s="266"/>
-      <c r="AJ38" s="267"/>
+      <c r="AE38" s="280"/>
+      <c r="AF38" s="281"/>
+      <c r="AG38" s="280"/>
+      <c r="AH38" s="281"/>
+      <c r="AI38" s="280"/>
+      <c r="AJ38" s="281"/>
       <c r="AK38" s="289"/>
       <c r="AL38" s="290"/>
       <c r="AM38" s="225"/>
@@ -10480,7 +10480,7 @@
       <c r="I39" s="200"/>
       <c r="J39" s="200"/>
       <c r="K39" s="201"/>
-      <c r="L39" s="283">
+      <c r="L39" s="282">
         <f>SUM(L27:M31)/L38</f>
         <v>0.43333333333333335</v>
       </c>
@@ -10502,14 +10502,14 @@
       <c r="Z39" s="262"/>
       <c r="AA39" s="262"/>
       <c r="AB39" s="262"/>
-      <c r="AC39" s="266"/>
+      <c r="AC39" s="280"/>
       <c r="AD39" s="291"/>
-      <c r="AE39" s="266"/>
-      <c r="AF39" s="267"/>
-      <c r="AG39" s="266"/>
-      <c r="AH39" s="267"/>
-      <c r="AI39" s="266"/>
-      <c r="AJ39" s="267"/>
+      <c r="AE39" s="280"/>
+      <c r="AF39" s="281"/>
+      <c r="AG39" s="280"/>
+      <c r="AH39" s="281"/>
+      <c r="AI39" s="280"/>
+      <c r="AJ39" s="281"/>
       <c r="AK39" s="289"/>
       <c r="AL39" s="290"/>
       <c r="AM39" s="225"/>
@@ -10525,7 +10525,7 @@
       <c r="I40" s="200"/>
       <c r="J40" s="200"/>
       <c r="K40" s="201"/>
-      <c r="L40" s="283">
+      <c r="L40" s="282">
         <f>SUM(L27:M30)/L38</f>
         <v>0.3</v>
       </c>
@@ -10555,11 +10555,6 @@
     </row>
   </sheetData>
   <mergeCells count="114">
-    <mergeCell ref="AC23:AD25"/>
-    <mergeCell ref="AC27:AD27"/>
-    <mergeCell ref="AC28:AD28"/>
-    <mergeCell ref="AC29:AD29"/>
-    <mergeCell ref="AC30:AD30"/>
     <mergeCell ref="AI39:AJ39"/>
     <mergeCell ref="N27:O28"/>
     <mergeCell ref="N29:O30"/>
@@ -10576,6 +10571,9 @@
     <mergeCell ref="AI37:AJ37"/>
     <mergeCell ref="AI38:AJ38"/>
     <mergeCell ref="AC39:AD39"/>
+    <mergeCell ref="AG27:AH27"/>
+    <mergeCell ref="AG28:AH28"/>
+    <mergeCell ref="AG29:AH29"/>
     <mergeCell ref="AM23:AM25"/>
     <mergeCell ref="AK28:AL28"/>
     <mergeCell ref="AK29:AL29"/>
@@ -10610,6 +10608,11 @@
     <mergeCell ref="AI32:AJ32"/>
     <mergeCell ref="AC32:AD32"/>
     <mergeCell ref="AG32:AH32"/>
+    <mergeCell ref="AE39:AF39"/>
+    <mergeCell ref="AG38:AH38"/>
+    <mergeCell ref="AG39:AH39"/>
+    <mergeCell ref="AE34:AF34"/>
+    <mergeCell ref="AE35:AF35"/>
     <mergeCell ref="L40:M40"/>
     <mergeCell ref="X39:AB39"/>
     <mergeCell ref="X31:AB31"/>
@@ -10632,11 +10635,17 @@
     <mergeCell ref="X26:AB26"/>
     <mergeCell ref="X27:AB27"/>
     <mergeCell ref="X34:AB34"/>
-    <mergeCell ref="AG27:AH27"/>
-    <mergeCell ref="AG28:AH28"/>
-    <mergeCell ref="AG29:AH29"/>
     <mergeCell ref="W27:W28"/>
     <mergeCell ref="W29:W30"/>
+    <mergeCell ref="AE37:AF37"/>
+    <mergeCell ref="AE38:AF38"/>
+    <mergeCell ref="AG33:AH33"/>
+    <mergeCell ref="AG34:AH34"/>
+    <mergeCell ref="AG35:AH35"/>
+    <mergeCell ref="AG36:AH36"/>
+    <mergeCell ref="AG37:AH37"/>
+    <mergeCell ref="AE32:AF32"/>
+    <mergeCell ref="AE33:AF33"/>
     <mergeCell ref="L30:M30"/>
     <mergeCell ref="L31:M31"/>
     <mergeCell ref="L32:M32"/>
@@ -10645,9 +10654,8 @@
     <mergeCell ref="AC31:AD31"/>
     <mergeCell ref="AG30:AH30"/>
     <mergeCell ref="AG31:AH31"/>
-    <mergeCell ref="AE39:AF39"/>
-    <mergeCell ref="AG38:AH38"/>
-    <mergeCell ref="AG39:AH39"/>
+    <mergeCell ref="AG23:AH25"/>
+    <mergeCell ref="AG26:AH26"/>
     <mergeCell ref="AE23:AF25"/>
     <mergeCell ref="AE26:AF26"/>
     <mergeCell ref="AE27:AF27"/>
@@ -10655,20 +10663,12 @@
     <mergeCell ref="AE29:AF29"/>
     <mergeCell ref="AE30:AF30"/>
     <mergeCell ref="AE31:AF31"/>
-    <mergeCell ref="AE32:AF32"/>
-    <mergeCell ref="AE33:AF33"/>
-    <mergeCell ref="AE34:AF34"/>
-    <mergeCell ref="AE35:AF35"/>
     <mergeCell ref="AE36:AF36"/>
-    <mergeCell ref="AE37:AF37"/>
-    <mergeCell ref="AE38:AF38"/>
-    <mergeCell ref="AG33:AH33"/>
-    <mergeCell ref="AG34:AH34"/>
-    <mergeCell ref="AG35:AH35"/>
-    <mergeCell ref="AG36:AH36"/>
-    <mergeCell ref="AG37:AH37"/>
-    <mergeCell ref="AG23:AH25"/>
-    <mergeCell ref="AG26:AH26"/>
+    <mergeCell ref="AC23:AD25"/>
+    <mergeCell ref="AC27:AD27"/>
+    <mergeCell ref="AC28:AD28"/>
+    <mergeCell ref="AC29:AD29"/>
+    <mergeCell ref="AC30:AD30"/>
   </mergeCells>
   <phoneticPr fontId="7"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12740,8 +12740,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B23:CL68"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A44" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K66" sqref="K66:K67"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S67" sqref="S67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.875" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
@@ -14878,7 +14878,7 @@
         <v>49</v>
       </c>
       <c r="O45" s="245"/>
-      <c r="P45" s="39"/>
+      <c r="P45" s="47"/>
       <c r="Q45" s="183"/>
       <c r="R45" s="184"/>
       <c r="S45" s="28"/>
@@ -14970,7 +14970,9 @@
         <v>158</v>
       </c>
       <c r="L46" s="310"/>
-      <c r="M46" s="314"/>
+      <c r="M46" s="314" t="s">
+        <v>40</v>
+      </c>
       <c r="N46" s="145" t="s">
         <v>48</v>
       </c>
@@ -15071,7 +15073,7 @@
       <c r="P47" s="39"/>
       <c r="Q47" s="183"/>
       <c r="R47" s="184"/>
-      <c r="S47" s="28"/>
+      <c r="S47" s="47"/>
       <c r="T47" s="28"/>
       <c r="U47" s="28"/>
       <c r="V47" s="28"/>
@@ -15261,7 +15263,7 @@
       <c r="P49" s="39"/>
       <c r="Q49" s="183"/>
       <c r="R49" s="184"/>
-      <c r="S49" s="28"/>
+      <c r="S49" s="47"/>
       <c r="T49" s="28"/>
       <c r="U49" s="28"/>
       <c r="V49" s="28"/>
@@ -15547,7 +15549,7 @@
         <v>159</v>
       </c>
       <c r="M52" s="314" t="s">
-        <v>175</v>
+        <v>40</v>
       </c>
       <c r="N52" s="145" t="s">
         <v>48</v>
@@ -15649,7 +15651,7 @@
       <c r="P53" s="39"/>
       <c r="Q53" s="183"/>
       <c r="R53" s="184"/>
-      <c r="S53" s="28"/>
+      <c r="S53" s="47"/>
       <c r="T53" s="28"/>
       <c r="U53" s="28"/>
       <c r="V53" s="28"/>
@@ -16513,7 +16515,7 @@
       </c>
       <c r="L62" s="310"/>
       <c r="M62" s="314" t="s">
-        <v>175</v>
+        <v>40</v>
       </c>
       <c r="N62" s="145" t="s">
         <v>48</v>
@@ -16615,7 +16617,7 @@
       <c r="P63" s="39"/>
       <c r="Q63" s="183"/>
       <c r="R63" s="184"/>
-      <c r="S63" s="28"/>
+      <c r="S63" s="47"/>
       <c r="T63" s="28"/>
       <c r="U63" s="28"/>
       <c r="V63" s="28"/>
@@ -16704,7 +16706,9 @@
         <v>159</v>
       </c>
       <c r="L64" s="310"/>
-      <c r="M64" s="314"/>
+      <c r="M64" s="314" t="s">
+        <v>40</v>
+      </c>
       <c r="N64" s="145" t="s">
         <v>48</v>
       </c>
@@ -16805,7 +16809,7 @@
       <c r="P65" s="39"/>
       <c r="Q65" s="185"/>
       <c r="R65" s="184"/>
-      <c r="S65" s="28"/>
+      <c r="S65" s="47"/>
       <c r="T65" s="28"/>
       <c r="U65" s="28"/>
       <c r="V65" s="28"/>
@@ -16896,7 +16900,9 @@
       <c r="L66" s="350" t="s">
         <v>157</v>
       </c>
-      <c r="M66" s="314"/>
+      <c r="M66" s="314" t="s">
+        <v>175</v>
+      </c>
       <c r="N66" s="145" t="s">
         <v>48</v>
       </c>
@@ -16997,7 +17003,7 @@
       <c r="P67" s="39"/>
       <c r="Q67" s="185"/>
       <c r="R67" s="184"/>
-      <c r="S67" s="28"/>
+      <c r="S67" s="47"/>
       <c r="T67" s="28"/>
       <c r="U67" s="28"/>
       <c r="V67" s="28"/>
@@ -17163,8 +17169,6 @@
     </row>
   </sheetData>
   <mergeCells count="78">
-    <mergeCell ref="M56:M57"/>
-    <mergeCell ref="M48:M49"/>
     <mergeCell ref="C38:J39"/>
     <mergeCell ref="K36:K37"/>
     <mergeCell ref="M38:M39"/>
@@ -17187,6 +17191,7 @@
     <mergeCell ref="L40:L41"/>
     <mergeCell ref="C42:J43"/>
     <mergeCell ref="K42:K43"/>
+    <mergeCell ref="M42:M43"/>
     <mergeCell ref="M58:M59"/>
     <mergeCell ref="L58:L59"/>
     <mergeCell ref="L66:L67"/>
@@ -17201,6 +17206,8 @@
     <mergeCell ref="C62:J63"/>
     <mergeCell ref="K62:K63"/>
     <mergeCell ref="M62:M63"/>
+    <mergeCell ref="L64:L65"/>
+    <mergeCell ref="L60:L61"/>
     <mergeCell ref="K25:K27"/>
     <mergeCell ref="M25:M27"/>
     <mergeCell ref="N25:N27"/>
@@ -17223,13 +17230,6 @@
     <mergeCell ref="L38:L39"/>
     <mergeCell ref="L50:L51"/>
     <mergeCell ref="L44:L45"/>
-    <mergeCell ref="M42:M43"/>
-    <mergeCell ref="C46:J47"/>
-    <mergeCell ref="K46:K47"/>
-    <mergeCell ref="L46:L47"/>
-    <mergeCell ref="M46:M47"/>
-    <mergeCell ref="L64:L65"/>
-    <mergeCell ref="L60:L61"/>
     <mergeCell ref="L62:L63"/>
     <mergeCell ref="C48:J49"/>
     <mergeCell ref="K48:K49"/>
@@ -17241,6 +17241,12 @@
     <mergeCell ref="K58:K59"/>
     <mergeCell ref="C56:J57"/>
     <mergeCell ref="K56:K57"/>
+    <mergeCell ref="C46:J47"/>
+    <mergeCell ref="K46:K47"/>
+    <mergeCell ref="L46:L47"/>
+    <mergeCell ref="M46:M47"/>
+    <mergeCell ref="M56:M57"/>
+    <mergeCell ref="M48:M49"/>
   </mergeCells>
   <phoneticPr fontId="7"/>
   <dataValidations count="1">

--- a/グループ開発スケジュール.xlsx
+++ b/グループ開発スケジュール.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\file-srv\share\05_グループ開発\グループD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D635BA26-BA48-4FEA-AFDF-D1F936B6FE6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A7C28B7-1B7D-4C6E-9BDB-F78C5D36E4CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="15375" windowHeight="10050" tabRatio="560" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="560" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="マイルストーン" sheetId="7" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="183">
   <si>
     <t>No.</t>
   </si>
@@ -910,19 +910,6 @@
     <phoneticPr fontId="7"/>
   </si>
   <si>
-    <t>手が空いた人</t>
-    <rPh sb="0" eb="1">
-      <t>テ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ア</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>ヒト</t>
-    </rPh>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
     <t>7. レシピ情報取得</t>
     <rPh sb="6" eb="10">
       <t>ジョウホウシュトク</t>
@@ -1057,16 +1044,48 @@
     </rPh>
     <phoneticPr fontId="7"/>
   </si>
+  <si>
+    <t>：プログラミング実績</t>
+    <rPh sb="8" eb="10">
+      <t>ジッセキ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>詳細設計作業状況</t>
+    <rPh sb="0" eb="4">
+      <t>ショウサイセッケイ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>プログラミング作業状況</t>
+    <rPh sb="7" eb="9">
+      <t>サギョウ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>1日当たりの予定進捗率</t>
+    <rPh sb="1" eb="3">
+      <t>ニチア</t>
+    </rPh>
+    <rPh sb="6" eb="11">
+      <t>ヨテイシンチョクリツ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="176" formatCode="d"/>
     <numFmt numFmtId="177" formatCode="h:mm;@"/>
     <numFmt numFmtId="178" formatCode="m/d;@"/>
     <numFmt numFmtId="179" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="180" formatCode="0.0%"/>
   </numFmts>
   <fonts count="10" x14ac:knownFonts="1">
     <font>
@@ -1151,7 +1170,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1222,6 +1241,12 @@
       <patternFill patternType="solid">
         <fgColor theme="0"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
   </fills>
@@ -2665,7 +2690,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="366">
+  <cellXfs count="375">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3431,177 +3456,174 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="49" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="86" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="87" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="98" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="94" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="86" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="88" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="86" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="88" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="88" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="83" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="87" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="88" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="101" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="102" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="100" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="101" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="102" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="98" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="83" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="85" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="94" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="49" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="88" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="86" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="87" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="86" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="98" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="94" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="86" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="88" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="100" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="102" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="88" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="83" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="87" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="88" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="101" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="102" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="101" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="98" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="83" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="85" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="94" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3763,6 +3785,36 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -4508,7 +4560,7 @@
               <a:picLocks noChangeAspect="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="マイルストーン!A1:U20" spid="_x0000_s9523"/>
+                  <a14:cameraTool cellRange="マイルストーン!A1:U20" spid="_x0000_s9536"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -4886,7 +4938,7 @@
               <a:picLocks noChangeAspect="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="マイルストーン!A1:U20" spid="_x0000_s10500"/>
+                  <a14:cameraTool cellRange="マイルストーン!A1:U20" spid="_x0000_s10513"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -5293,8 +5345,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>224872</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>148455</xdr:rowOff>
     </xdr:to>
@@ -5362,7 +5414,7 @@
               <a:picLocks noChangeAspect="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="マイルストーン!A1:U20" spid="_x0000_s2348"/>
+                  <a14:cameraTool cellRange="マイルストーン!A1:U20" spid="_x0000_s2361"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -5884,7 +5936,7 @@
               <a:picLocks noChangeAspect="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="マイルストーン!A1:U20" spid="_x0000_s4399"/>
+                  <a14:cameraTool cellRange="マイルストーン!A1:U20" spid="_x0000_s4412"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -6210,7 +6262,7 @@
               <a:picLocks noChangeAspect="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="マイルストーン!A1:U20" spid="_x0000_s5491"/>
+                  <a14:cameraTool cellRange="マイルストーン!A1:U20" spid="_x0000_s5517"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -6487,7 +6539,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="マイルストーン!A1:U20" spid="_x0000_s5492"/>
+                  <a14:cameraTool cellRange="マイルストーン!A1:U20" spid="_x0000_s5518"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -6574,7 +6626,7 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
+      <xdr:col>27</xdr:col>
       <xdr:colOff>285750</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -6635,7 +6687,7 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
+      <xdr:col>27</xdr:col>
       <xdr:colOff>228600</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
@@ -6687,8 +6739,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>211282</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>119880</xdr:rowOff>
     </xdr:to>
@@ -6918,7 +6970,7 @@
               <a:picLocks noChangeAspect="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="マイルストーン!A1:U20" spid="_x0000_s7516"/>
+                  <a14:cameraTool cellRange="マイルストーン!A1:U20" spid="_x0000_s7529"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -7558,25 +7610,25 @@
       <c r="H4" s="7"/>
       <c r="I4" s="7"/>
       <c r="J4" s="7"/>
-      <c r="K4" s="257">
+      <c r="K4" s="256">
         <v>2021</v>
       </c>
-      <c r="L4" s="257"/>
-      <c r="M4" s="257"/>
-      <c r="N4" s="257"/>
-      <c r="O4" s="257"/>
-      <c r="P4" s="257"/>
-      <c r="Q4" s="257"/>
-      <c r="R4" s="257"/>
-      <c r="S4" s="257"/>
-      <c r="T4" s="257"/>
-      <c r="U4" s="258"/>
-      <c r="V4" s="258"/>
-      <c r="W4" s="258"/>
-      <c r="X4" s="258"/>
-      <c r="Y4" s="258"/>
-      <c r="Z4" s="258"/>
-      <c r="AA4" s="258"/>
+      <c r="L4" s="256"/>
+      <c r="M4" s="256"/>
+      <c r="N4" s="256"/>
+      <c r="O4" s="256"/>
+      <c r="P4" s="256"/>
+      <c r="Q4" s="256"/>
+      <c r="R4" s="256"/>
+      <c r="S4" s="256"/>
+      <c r="T4" s="256"/>
+      <c r="U4" s="257"/>
+      <c r="V4" s="257"/>
+      <c r="W4" s="257"/>
+      <c r="X4" s="257"/>
+      <c r="Y4" s="257"/>
+      <c r="Z4" s="257"/>
+      <c r="AA4" s="257"/>
     </row>
     <row r="5" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B5" s="10"/>
@@ -7588,25 +7640,25 @@
       <c r="H5" s="12"/>
       <c r="I5" s="12"/>
       <c r="J5" s="12"/>
-      <c r="K5" s="257">
+      <c r="K5" s="256">
         <v>6</v>
       </c>
-      <c r="L5" s="257"/>
-      <c r="M5" s="257"/>
-      <c r="N5" s="257"/>
-      <c r="O5" s="257"/>
-      <c r="P5" s="257"/>
-      <c r="Q5" s="257"/>
-      <c r="R5" s="257"/>
-      <c r="S5" s="257"/>
-      <c r="T5" s="257"/>
-      <c r="U5" s="258"/>
-      <c r="V5" s="258"/>
-      <c r="W5" s="258"/>
-      <c r="X5" s="258"/>
-      <c r="Y5" s="258"/>
-      <c r="Z5" s="258"/>
-      <c r="AA5" s="258"/>
+      <c r="L5" s="256"/>
+      <c r="M5" s="256"/>
+      <c r="N5" s="256"/>
+      <c r="O5" s="256"/>
+      <c r="P5" s="256"/>
+      <c r="Q5" s="256"/>
+      <c r="R5" s="256"/>
+      <c r="S5" s="256"/>
+      <c r="T5" s="256"/>
+      <c r="U5" s="257"/>
+      <c r="V5" s="257"/>
+      <c r="W5" s="257"/>
+      <c r="X5" s="257"/>
+      <c r="Y5" s="257"/>
+      <c r="Z5" s="257"/>
+      <c r="AA5" s="257"/>
     </row>
     <row r="6" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B6" s="15"/>
@@ -8250,20 +8302,20 @@
     </row>
     <row r="30" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B30" s="3"/>
-      <c r="C30" s="364" t="s">
+      <c r="C30" s="363" t="s">
         <v>104</v>
       </c>
-      <c r="D30" s="326"/>
-      <c r="E30" s="326"/>
-      <c r="F30" s="326"/>
-      <c r="G30" s="326"/>
-      <c r="H30" s="326"/>
-      <c r="I30" s="326"/>
-      <c r="J30" s="327"/>
-      <c r="K30" s="310" t="s">
+      <c r="D30" s="325"/>
+      <c r="E30" s="325"/>
+      <c r="F30" s="325"/>
+      <c r="G30" s="325"/>
+      <c r="H30" s="325"/>
+      <c r="I30" s="325"/>
+      <c r="J30" s="326"/>
+      <c r="K30" s="309" t="s">
         <v>15</v>
       </c>
-      <c r="L30" s="314">
+      <c r="L30" s="313">
         <v>0</v>
       </c>
       <c r="M30" s="45" t="s">
@@ -8287,16 +8339,16 @@
     </row>
     <row r="31" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B31" s="3"/>
-      <c r="C31" s="328"/>
-      <c r="D31" s="329"/>
-      <c r="E31" s="329"/>
-      <c r="F31" s="329"/>
-      <c r="G31" s="329"/>
-      <c r="H31" s="329"/>
-      <c r="I31" s="329"/>
-      <c r="J31" s="330"/>
-      <c r="K31" s="311"/>
-      <c r="L31" s="311"/>
+      <c r="C31" s="327"/>
+      <c r="D31" s="328"/>
+      <c r="E31" s="328"/>
+      <c r="F31" s="328"/>
+      <c r="G31" s="328"/>
+      <c r="H31" s="328"/>
+      <c r="I31" s="328"/>
+      <c r="J31" s="329"/>
+      <c r="K31" s="310"/>
+      <c r="L31" s="310"/>
       <c r="M31" s="44" t="s">
         <v>49</v>
       </c>
@@ -8351,20 +8403,20 @@
     </row>
     <row r="33" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B33" s="3"/>
-      <c r="C33" s="364" t="s">
+      <c r="C33" s="363" t="s">
         <v>105</v>
       </c>
-      <c r="D33" s="326"/>
-      <c r="E33" s="326"/>
-      <c r="F33" s="326"/>
-      <c r="G33" s="326"/>
-      <c r="H33" s="326"/>
-      <c r="I33" s="326"/>
-      <c r="J33" s="327"/>
-      <c r="K33" s="310" t="s">
+      <c r="D33" s="325"/>
+      <c r="E33" s="325"/>
+      <c r="F33" s="325"/>
+      <c r="G33" s="325"/>
+      <c r="H33" s="325"/>
+      <c r="I33" s="325"/>
+      <c r="J33" s="326"/>
+      <c r="K33" s="309" t="s">
         <v>15</v>
       </c>
-      <c r="L33" s="314">
+      <c r="L33" s="313">
         <v>0</v>
       </c>
       <c r="M33" s="45" t="s">
@@ -8388,16 +8440,16 @@
     </row>
     <row r="34" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B34" s="3"/>
-      <c r="C34" s="328"/>
-      <c r="D34" s="329"/>
-      <c r="E34" s="329"/>
-      <c r="F34" s="329"/>
-      <c r="G34" s="329"/>
-      <c r="H34" s="329"/>
-      <c r="I34" s="329"/>
-      <c r="J34" s="330"/>
-      <c r="K34" s="311"/>
-      <c r="L34" s="311"/>
+      <c r="C34" s="327"/>
+      <c r="D34" s="328"/>
+      <c r="E34" s="328"/>
+      <c r="F34" s="328"/>
+      <c r="G34" s="328"/>
+      <c r="H34" s="328"/>
+      <c r="I34" s="328"/>
+      <c r="J34" s="329"/>
+      <c r="K34" s="310"/>
+      <c r="L34" s="310"/>
       <c r="M34" s="44" t="s">
         <v>49</v>
       </c>
@@ -8419,20 +8471,20 @@
     </row>
     <row r="35" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B35" s="3"/>
-      <c r="C35" s="325" t="s">
+      <c r="C35" s="324" t="s">
         <v>106</v>
       </c>
-      <c r="D35" s="326"/>
-      <c r="E35" s="326"/>
-      <c r="F35" s="326"/>
-      <c r="G35" s="326"/>
-      <c r="H35" s="326"/>
-      <c r="I35" s="326"/>
-      <c r="J35" s="327"/>
-      <c r="K35" s="310" t="s">
+      <c r="D35" s="325"/>
+      <c r="E35" s="325"/>
+      <c r="F35" s="325"/>
+      <c r="G35" s="325"/>
+      <c r="H35" s="325"/>
+      <c r="I35" s="325"/>
+      <c r="J35" s="326"/>
+      <c r="K35" s="309" t="s">
         <v>16</v>
       </c>
-      <c r="L35" s="314">
+      <c r="L35" s="313">
         <v>0</v>
       </c>
       <c r="M35" s="45" t="s">
@@ -8456,16 +8508,16 @@
     </row>
     <row r="36" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B36" s="3"/>
-      <c r="C36" s="328"/>
-      <c r="D36" s="329"/>
-      <c r="E36" s="329"/>
-      <c r="F36" s="329"/>
-      <c r="G36" s="329"/>
-      <c r="H36" s="329"/>
-      <c r="I36" s="329"/>
-      <c r="J36" s="330"/>
-      <c r="K36" s="311"/>
-      <c r="L36" s="311"/>
+      <c r="C36" s="327"/>
+      <c r="D36" s="328"/>
+      <c r="E36" s="328"/>
+      <c r="F36" s="328"/>
+      <c r="G36" s="328"/>
+      <c r="H36" s="328"/>
+      <c r="I36" s="328"/>
+      <c r="J36" s="329"/>
+      <c r="K36" s="310"/>
+      <c r="L36" s="310"/>
       <c r="M36" s="44" t="s">
         <v>49</v>
       </c>
@@ -8725,20 +8777,20 @@
     </row>
     <row r="29" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B29" s="3"/>
-      <c r="C29" s="365" t="s">
+      <c r="C29" s="364" t="s">
         <v>54</v>
       </c>
-      <c r="D29" s="334"/>
-      <c r="E29" s="334"/>
-      <c r="F29" s="334"/>
-      <c r="G29" s="334"/>
-      <c r="H29" s="334"/>
-      <c r="I29" s="334"/>
-      <c r="J29" s="346"/>
-      <c r="K29" s="310" t="s">
+      <c r="D29" s="333"/>
+      <c r="E29" s="333"/>
+      <c r="F29" s="333"/>
+      <c r="G29" s="333"/>
+      <c r="H29" s="333"/>
+      <c r="I29" s="333"/>
+      <c r="J29" s="345"/>
+      <c r="K29" s="309" t="s">
         <v>15</v>
       </c>
-      <c r="L29" s="314">
+      <c r="L29" s="313">
         <v>0</v>
       </c>
       <c r="M29" s="45" t="s">
@@ -8762,16 +8814,16 @@
     </row>
     <row r="30" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B30" s="3"/>
-      <c r="C30" s="335"/>
-      <c r="D30" s="336"/>
-      <c r="E30" s="336"/>
-      <c r="F30" s="336"/>
-      <c r="G30" s="336"/>
-      <c r="H30" s="336"/>
-      <c r="I30" s="336"/>
-      <c r="J30" s="347"/>
-      <c r="K30" s="311"/>
-      <c r="L30" s="311"/>
+      <c r="C30" s="334"/>
+      <c r="D30" s="335"/>
+      <c r="E30" s="335"/>
+      <c r="F30" s="335"/>
+      <c r="G30" s="335"/>
+      <c r="H30" s="335"/>
+      <c r="I30" s="335"/>
+      <c r="J30" s="346"/>
+      <c r="K30" s="310"/>
+      <c r="L30" s="310"/>
       <c r="M30" s="44" t="s">
         <v>49</v>
       </c>
@@ -8793,20 +8845,20 @@
     </row>
     <row r="31" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B31" s="3"/>
-      <c r="C31" s="333" t="s">
+      <c r="C31" s="332" t="s">
         <v>55</v>
       </c>
-      <c r="D31" s="334"/>
-      <c r="E31" s="334"/>
-      <c r="F31" s="334"/>
-      <c r="G31" s="334"/>
-      <c r="H31" s="334"/>
-      <c r="I31" s="334"/>
-      <c r="J31" s="346"/>
-      <c r="K31" s="310" t="s">
+      <c r="D31" s="333"/>
+      <c r="E31" s="333"/>
+      <c r="F31" s="333"/>
+      <c r="G31" s="333"/>
+      <c r="H31" s="333"/>
+      <c r="I31" s="333"/>
+      <c r="J31" s="345"/>
+      <c r="K31" s="309" t="s">
         <v>16</v>
       </c>
-      <c r="L31" s="314">
+      <c r="L31" s="313">
         <v>0</v>
       </c>
       <c r="M31" s="45" t="s">
@@ -8830,16 +8882,16 @@
     </row>
     <row r="32" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B32" s="3"/>
-      <c r="C32" s="335"/>
-      <c r="D32" s="336"/>
-      <c r="E32" s="336"/>
-      <c r="F32" s="336"/>
-      <c r="G32" s="336"/>
-      <c r="H32" s="336"/>
-      <c r="I32" s="336"/>
-      <c r="J32" s="347"/>
-      <c r="K32" s="311"/>
-      <c r="L32" s="311"/>
+      <c r="C32" s="334"/>
+      <c r="D32" s="335"/>
+      <c r="E32" s="335"/>
+      <c r="F32" s="335"/>
+      <c r="G32" s="335"/>
+      <c r="H32" s="335"/>
+      <c r="I32" s="335"/>
+      <c r="J32" s="346"/>
+      <c r="K32" s="310"/>
+      <c r="L32" s="310"/>
       <c r="M32" s="44" t="s">
         <v>49</v>
       </c>
@@ -8861,20 +8913,20 @@
     </row>
     <row r="33" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B33" s="3"/>
-      <c r="C33" s="333" t="s">
+      <c r="C33" s="332" t="s">
         <v>56</v>
       </c>
-      <c r="D33" s="334"/>
-      <c r="E33" s="334"/>
-      <c r="F33" s="334"/>
-      <c r="G33" s="334"/>
-      <c r="H33" s="334"/>
-      <c r="I33" s="334"/>
-      <c r="J33" s="346"/>
-      <c r="K33" s="310" t="s">
+      <c r="D33" s="333"/>
+      <c r="E33" s="333"/>
+      <c r="F33" s="333"/>
+      <c r="G33" s="333"/>
+      <c r="H33" s="333"/>
+      <c r="I33" s="333"/>
+      <c r="J33" s="345"/>
+      <c r="K33" s="309" t="s">
         <v>21</v>
       </c>
-      <c r="L33" s="314">
+      <c r="L33" s="313">
         <v>0</v>
       </c>
       <c r="M33" s="45" t="s">
@@ -8898,16 +8950,16 @@
     </row>
     <row r="34" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B34" s="3"/>
-      <c r="C34" s="335"/>
-      <c r="D34" s="336"/>
-      <c r="E34" s="336"/>
-      <c r="F34" s="336"/>
-      <c r="G34" s="336"/>
-      <c r="H34" s="336"/>
-      <c r="I34" s="336"/>
-      <c r="J34" s="347"/>
-      <c r="K34" s="311"/>
-      <c r="L34" s="311"/>
+      <c r="C34" s="334"/>
+      <c r="D34" s="335"/>
+      <c r="E34" s="335"/>
+      <c r="F34" s="335"/>
+      <c r="G34" s="335"/>
+      <c r="H34" s="335"/>
+      <c r="I34" s="335"/>
+      <c r="J34" s="346"/>
+      <c r="K34" s="310"/>
+      <c r="L34" s="310"/>
       <c r="M34" s="44" t="s">
         <v>49</v>
       </c>
@@ -9077,16 +9129,16 @@
       <c r="H23" s="7"/>
       <c r="I23" s="7"/>
       <c r="J23" s="7"/>
-      <c r="K23" s="259" t="s">
+      <c r="K23" s="258" t="s">
         <v>124</v>
       </c>
-      <c r="M23" s="264" t="s">
+      <c r="M23" s="263" t="s">
         <v>128</v>
       </c>
-      <c r="N23" s="264"/>
-      <c r="O23" s="264"/>
-      <c r="P23" s="264"/>
-      <c r="Q23" s="264"/>
+      <c r="N23" s="263"/>
+      <c r="O23" s="263"/>
+      <c r="P23" s="263"/>
+      <c r="Q23" s="263"/>
     </row>
     <row r="24" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B24" s="10"/>
@@ -9098,12 +9150,12 @@
       <c r="H24" s="12"/>
       <c r="I24" s="12"/>
       <c r="J24" s="12"/>
-      <c r="K24" s="260"/>
-      <c r="M24" s="264"/>
-      <c r="N24" s="264"/>
-      <c r="O24" s="264"/>
-      <c r="P24" s="264"/>
-      <c r="Q24" s="264"/>
+      <c r="K24" s="259"/>
+      <c r="M24" s="263"/>
+      <c r="N24" s="263"/>
+      <c r="O24" s="263"/>
+      <c r="P24" s="263"/>
+      <c r="Q24" s="263"/>
     </row>
     <row r="25" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B25" s="15"/>
@@ -9115,12 +9167,12 @@
       <c r="H25" s="17"/>
       <c r="I25" s="17"/>
       <c r="J25" s="17"/>
-      <c r="K25" s="261"/>
-      <c r="M25" s="264"/>
-      <c r="N25" s="264"/>
-      <c r="O25" s="264"/>
-      <c r="P25" s="264"/>
-      <c r="Q25" s="264"/>
+      <c r="K25" s="260"/>
+      <c r="M25" s="263"/>
+      <c r="N25" s="263"/>
+      <c r="O25" s="263"/>
+      <c r="P25" s="263"/>
+      <c r="Q25" s="263"/>
     </row>
     <row r="26" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B26" s="2">
@@ -9137,11 +9189,11 @@
       <c r="I26" s="20"/>
       <c r="J26" s="20"/>
       <c r="K26" s="217"/>
-      <c r="M26" s="265"/>
-      <c r="N26" s="265"/>
-      <c r="O26" s="265"/>
-      <c r="P26" s="265"/>
-      <c r="Q26" s="265"/>
+      <c r="M26" s="264"/>
+      <c r="N26" s="264"/>
+      <c r="O26" s="264"/>
+      <c r="P26" s="264"/>
+      <c r="Q26" s="264"/>
     </row>
     <row r="27" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B27" s="3"/>
@@ -9160,13 +9212,13 @@
       <c r="K27" s="83">
         <v>1.5</v>
       </c>
-      <c r="M27" s="262">
+      <c r="M27" s="261">
         <v>1.5</v>
       </c>
-      <c r="N27" s="262"/>
-      <c r="O27" s="262"/>
-      <c r="P27" s="262"/>
-      <c r="Q27" s="262"/>
+      <c r="N27" s="261"/>
+      <c r="O27" s="261"/>
+      <c r="P27" s="261"/>
+      <c r="Q27" s="261"/>
     </row>
     <row r="28" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B28" s="3"/>
@@ -9185,13 +9237,13 @@
       <c r="K28" s="83">
         <v>1.5</v>
       </c>
-      <c r="M28" s="262">
+      <c r="M28" s="261">
         <v>1.5</v>
       </c>
-      <c r="N28" s="262"/>
-      <c r="O28" s="262"/>
-      <c r="P28" s="262"/>
-      <c r="Q28" s="262"/>
+      <c r="N28" s="261"/>
+      <c r="O28" s="261"/>
+      <c r="P28" s="261"/>
+      <c r="Q28" s="261"/>
     </row>
     <row r="29" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B29" s="3"/>
@@ -9210,11 +9262,11 @@
       <c r="K29" s="83">
         <v>1.5</v>
       </c>
-      <c r="M29" s="262"/>
-      <c r="N29" s="262"/>
-      <c r="O29" s="262"/>
-      <c r="P29" s="262"/>
-      <c r="Q29" s="262"/>
+      <c r="M29" s="261"/>
+      <c r="N29" s="261"/>
+      <c r="O29" s="261"/>
+      <c r="P29" s="261"/>
+      <c r="Q29" s="261"/>
     </row>
     <row r="30" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B30" s="3"/>
@@ -9233,11 +9285,11 @@
       <c r="K30" s="83">
         <v>1.5</v>
       </c>
-      <c r="M30" s="262"/>
-      <c r="N30" s="262"/>
-      <c r="O30" s="262"/>
-      <c r="P30" s="262"/>
-      <c r="Q30" s="262"/>
+      <c r="M30" s="261"/>
+      <c r="N30" s="261"/>
+      <c r="O30" s="261"/>
+      <c r="P30" s="261"/>
+      <c r="Q30" s="261"/>
     </row>
     <row r="31" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B31" s="3"/>
@@ -9256,11 +9308,11 @@
       <c r="K31" s="83">
         <v>2</v>
       </c>
-      <c r="M31" s="262"/>
-      <c r="N31" s="262"/>
-      <c r="O31" s="262"/>
-      <c r="P31" s="262"/>
-      <c r="Q31" s="262"/>
+      <c r="M31" s="261"/>
+      <c r="N31" s="261"/>
+      <c r="O31" s="261"/>
+      <c r="P31" s="261"/>
+      <c r="Q31" s="261"/>
     </row>
     <row r="32" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B32" s="3"/>
@@ -9279,11 +9331,11 @@
       <c r="K32" s="83">
         <v>4.5</v>
       </c>
-      <c r="M32" s="262"/>
-      <c r="N32" s="262"/>
-      <c r="O32" s="262"/>
-      <c r="P32" s="262"/>
-      <c r="Q32" s="262"/>
+      <c r="M32" s="261"/>
+      <c r="N32" s="261"/>
+      <c r="O32" s="261"/>
+      <c r="P32" s="261"/>
+      <c r="Q32" s="261"/>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.15">
       <c r="B33" s="3"/>
@@ -9302,11 +9354,11 @@
       <c r="K33" s="83">
         <v>2</v>
       </c>
-      <c r="M33" s="262"/>
-      <c r="N33" s="262"/>
-      <c r="O33" s="262"/>
-      <c r="P33" s="262"/>
-      <c r="Q33" s="262"/>
+      <c r="M33" s="261"/>
+      <c r="N33" s="261"/>
+      <c r="O33" s="261"/>
+      <c r="P33" s="261"/>
+      <c r="Q33" s="261"/>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.15">
       <c r="B34" s="3"/>
@@ -9325,11 +9377,11 @@
       <c r="K34" s="83">
         <v>1</v>
       </c>
-      <c r="M34" s="262"/>
-      <c r="N34" s="262"/>
-      <c r="O34" s="262"/>
-      <c r="P34" s="262"/>
-      <c r="Q34" s="262"/>
+      <c r="M34" s="261"/>
+      <c r="N34" s="261"/>
+      <c r="O34" s="261"/>
+      <c r="P34" s="261"/>
+      <c r="Q34" s="261"/>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.15">
       <c r="B35" s="3"/>
@@ -9348,11 +9400,11 @@
       <c r="K35" s="83">
         <v>1</v>
       </c>
-      <c r="M35" s="262"/>
-      <c r="N35" s="262"/>
-      <c r="O35" s="262"/>
-      <c r="P35" s="262"/>
-      <c r="Q35" s="262"/>
+      <c r="M35" s="261"/>
+      <c r="N35" s="261"/>
+      <c r="O35" s="261"/>
+      <c r="P35" s="261"/>
+      <c r="Q35" s="261"/>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.15">
       <c r="B36" s="122"/>
@@ -9371,11 +9423,11 @@
       <c r="K36" s="198">
         <v>1</v>
       </c>
-      <c r="M36" s="262"/>
-      <c r="N36" s="262"/>
-      <c r="O36" s="262"/>
-      <c r="P36" s="262"/>
-      <c r="Q36" s="262"/>
+      <c r="M36" s="261"/>
+      <c r="N36" s="261"/>
+      <c r="O36" s="261"/>
+      <c r="P36" s="261"/>
+      <c r="Q36" s="261"/>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.15">
       <c r="B37" s="203"/>
@@ -9413,14 +9465,14 @@
         <v>17.5</v>
       </c>
       <c r="L38" s="192"/>
-      <c r="M38" s="262">
+      <c r="M38" s="261">
         <f>SUM(M27:Q36)</f>
         <v>3</v>
       </c>
-      <c r="N38" s="262"/>
-      <c r="O38" s="262"/>
-      <c r="P38" s="262"/>
-      <c r="Q38" s="262"/>
+      <c r="N38" s="261"/>
+      <c r="O38" s="261"/>
+      <c r="P38" s="261"/>
+      <c r="Q38" s="261"/>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.15">
       <c r="B39" s="197"/>
@@ -9438,14 +9490,14 @@
         <f>SUM(K27)/K38</f>
         <v>8.5714285714285715E-2</v>
       </c>
-      <c r="M39" s="263">
+      <c r="M39" s="262">
         <f>SUM(M27:Q28)/M38</f>
         <v>1</v>
       </c>
-      <c r="N39" s="263"/>
-      <c r="O39" s="263"/>
-      <c r="P39" s="263"/>
-      <c r="Q39" s="263"/>
+      <c r="N39" s="262"/>
+      <c r="O39" s="262"/>
+      <c r="P39" s="262"/>
+      <c r="Q39" s="262"/>
     </row>
   </sheetData>
   <mergeCells count="15">
@@ -9475,14 +9527,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6151F9F-0C3C-493F-A15D-BD44D6274607}">
   <dimension ref="C19:AN40"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AK40" sqref="AK40"/>
+    <sheetView showGridLines="0" topLeftCell="A24" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="P32" sqref="P32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="14" max="14" width="4.5" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="5.25" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="4.875" customWidth="1"/>
     <col min="34" max="34" width="4.875" customWidth="1"/>
     <col min="36" max="36" width="5.875" customWidth="1"/>
@@ -9608,34 +9661,34 @@
       <c r="U23" s="212"/>
       <c r="V23" s="212"/>
       <c r="W23" s="212"/>
-      <c r="X23" s="264" t="s">
+      <c r="X23" s="263" t="s">
         <v>129</v>
       </c>
-      <c r="Y23" s="264"/>
-      <c r="Z23" s="264"/>
-      <c r="AA23" s="264"/>
-      <c r="AB23" s="264"/>
-      <c r="AC23" s="272" t="s">
+      <c r="Y23" s="263"/>
+      <c r="Z23" s="263"/>
+      <c r="AA23" s="263"/>
+      <c r="AB23" s="263"/>
+      <c r="AC23" s="265" t="s">
         <v>131</v>
       </c>
-      <c r="AD23" s="300"/>
-      <c r="AE23" s="272" t="s">
+      <c r="AD23" s="266"/>
+      <c r="AE23" s="265" t="s">
         <v>138</v>
       </c>
       <c r="AF23" s="273"/>
-      <c r="AG23" s="272" t="s">
+      <c r="AG23" s="265" t="s">
+        <v>176</v>
+      </c>
+      <c r="AH23" s="273"/>
+      <c r="AI23" s="265" t="s">
         <v>177</v>
       </c>
-      <c r="AH23" s="273"/>
-      <c r="AI23" s="272" t="s">
+      <c r="AJ23" s="273"/>
+      <c r="AK23" s="296" t="s">
         <v>178</v>
       </c>
-      <c r="AJ23" s="273"/>
-      <c r="AK23" s="294" t="s">
-        <v>179</v>
-      </c>
-      <c r="AL23" s="295"/>
-      <c r="AM23" s="292" t="s">
+      <c r="AL23" s="297"/>
+      <c r="AM23" s="294" t="s">
         <v>132</v>
       </c>
     </row>
@@ -9661,22 +9714,22 @@
       <c r="U24" s="212"/>
       <c r="V24" s="212"/>
       <c r="W24" s="212"/>
-      <c r="X24" s="264"/>
-      <c r="Y24" s="264"/>
-      <c r="Z24" s="264"/>
-      <c r="AA24" s="264"/>
-      <c r="AB24" s="264"/>
-      <c r="AC24" s="274"/>
-      <c r="AD24" s="301"/>
-      <c r="AE24" s="274"/>
-      <c r="AF24" s="275"/>
-      <c r="AG24" s="274"/>
-      <c r="AH24" s="275"/>
-      <c r="AI24" s="274"/>
-      <c r="AJ24" s="275"/>
-      <c r="AK24" s="296"/>
-      <c r="AL24" s="297"/>
-      <c r="AM24" s="293"/>
+      <c r="X24" s="263"/>
+      <c r="Y24" s="263"/>
+      <c r="Z24" s="263"/>
+      <c r="AA24" s="263"/>
+      <c r="AB24" s="263"/>
+      <c r="AC24" s="267"/>
+      <c r="AD24" s="268"/>
+      <c r="AE24" s="267"/>
+      <c r="AF24" s="274"/>
+      <c r="AG24" s="267"/>
+      <c r="AH24" s="274"/>
+      <c r="AI24" s="267"/>
+      <c r="AJ24" s="274"/>
+      <c r="AK24" s="298"/>
+      <c r="AL24" s="299"/>
+      <c r="AM24" s="295"/>
     </row>
     <row r="25" spans="3:39" x14ac:dyDescent="0.15">
       <c r="C25" s="15"/>
@@ -9700,22 +9753,22 @@
       <c r="U25" s="212"/>
       <c r="V25" s="212"/>
       <c r="W25" s="212"/>
-      <c r="X25" s="264"/>
-      <c r="Y25" s="264"/>
-      <c r="Z25" s="264"/>
-      <c r="AA25" s="264"/>
-      <c r="AB25" s="264"/>
-      <c r="AC25" s="276"/>
-      <c r="AD25" s="302"/>
-      <c r="AE25" s="276"/>
-      <c r="AF25" s="277"/>
-      <c r="AG25" s="276"/>
-      <c r="AH25" s="277"/>
-      <c r="AI25" s="276"/>
-      <c r="AJ25" s="277"/>
-      <c r="AK25" s="298"/>
-      <c r="AL25" s="299"/>
-      <c r="AM25" s="293"/>
+      <c r="X25" s="263"/>
+      <c r="Y25" s="263"/>
+      <c r="Z25" s="263"/>
+      <c r="AA25" s="263"/>
+      <c r="AB25" s="263"/>
+      <c r="AC25" s="269"/>
+      <c r="AD25" s="270"/>
+      <c r="AE25" s="269"/>
+      <c r="AF25" s="275"/>
+      <c r="AG25" s="269"/>
+      <c r="AH25" s="275"/>
+      <c r="AI25" s="269"/>
+      <c r="AJ25" s="275"/>
+      <c r="AK25" s="300"/>
+      <c r="AL25" s="301"/>
+      <c r="AM25" s="295"/>
     </row>
     <row r="26" spans="3:39" x14ac:dyDescent="0.15">
       <c r="C26" s="2">
@@ -9731,8 +9784,8 @@
       <c r="I26" s="20"/>
       <c r="J26" s="20"/>
       <c r="K26" s="218"/>
-      <c r="L26" s="266"/>
-      <c r="M26" s="267"/>
+      <c r="L26" s="280"/>
+      <c r="M26" s="281"/>
       <c r="N26" s="212"/>
       <c r="O26" s="212"/>
       <c r="P26" s="212"/>
@@ -9745,19 +9798,19 @@
       <c r="W26" s="250" t="s">
         <v>149</v>
       </c>
-      <c r="X26" s="265"/>
-      <c r="Y26" s="265"/>
-      <c r="Z26" s="265"/>
-      <c r="AA26" s="265"/>
-      <c r="AB26" s="278"/>
+      <c r="X26" s="264"/>
+      <c r="Y26" s="264"/>
+      <c r="Z26" s="264"/>
+      <c r="AA26" s="264"/>
+      <c r="AB26" s="276"/>
       <c r="AC26" s="226"/>
       <c r="AD26" s="227"/>
-      <c r="AE26" s="278"/>
-      <c r="AF26" s="279"/>
-      <c r="AG26" s="278"/>
-      <c r="AH26" s="279"/>
-      <c r="AI26" s="278"/>
-      <c r="AJ26" s="279"/>
+      <c r="AE26" s="276"/>
+      <c r="AF26" s="277"/>
+      <c r="AG26" s="276"/>
+      <c r="AH26" s="277"/>
+      <c r="AI26" s="276"/>
+      <c r="AJ26" s="277"/>
       <c r="AK26" s="286"/>
       <c r="AL26" s="287"/>
       <c r="AM26" s="213"/>
@@ -9776,15 +9829,15 @@
       <c r="I27" s="29"/>
       <c r="J27" s="29"/>
       <c r="K27" s="219"/>
-      <c r="L27" s="266">
+      <c r="L27" s="280">
         <f>6*1.5</f>
         <v>9</v>
       </c>
-      <c r="M27" s="267"/>
-      <c r="N27" s="303">
+      <c r="M27" s="281"/>
+      <c r="N27" s="302">
         <v>0.2</v>
       </c>
-      <c r="O27" s="267"/>
+      <c r="O27" s="281"/>
       <c r="P27" s="212"/>
       <c r="Q27" s="212"/>
       <c r="R27" s="212"/>
@@ -9794,32 +9847,32 @@
       <c r="V27" s="212"/>
       <c r="W27" s="285">
         <f>SUM(X27:AB28)/X38</f>
-        <v>0.18072289156626506</v>
-      </c>
-      <c r="X27" s="268">
+        <v>0.17647058823529413</v>
+      </c>
+      <c r="X27" s="279">
         <f>AC27*(1.5+AK27)</f>
         <v>9</v>
       </c>
-      <c r="Y27" s="262"/>
-      <c r="Z27" s="262"/>
-      <c r="AA27" s="262"/>
-      <c r="AB27" s="262"/>
-      <c r="AC27" s="269">
+      <c r="Y27" s="261"/>
+      <c r="Z27" s="261"/>
+      <c r="AA27" s="261"/>
+      <c r="AB27" s="261"/>
+      <c r="AC27" s="271">
         <v>6</v>
       </c>
-      <c r="AD27" s="270"/>
-      <c r="AE27" s="271">
+      <c r="AD27" s="272"/>
+      <c r="AE27" s="278">
         <v>44362</v>
       </c>
-      <c r="AF27" s="268"/>
-      <c r="AG27" s="271">
+      <c r="AF27" s="279"/>
+      <c r="AG27" s="278">
         <v>44362</v>
       </c>
-      <c r="AH27" s="268"/>
-      <c r="AI27" s="269">
+      <c r="AH27" s="279"/>
+      <c r="AI27" s="271">
         <v>1.5</v>
       </c>
-      <c r="AJ27" s="268"/>
+      <c r="AJ27" s="279"/>
       <c r="AK27" s="286">
         <v>0</v>
       </c>
@@ -9842,13 +9895,13 @@
       <c r="I28" s="29"/>
       <c r="J28" s="29"/>
       <c r="K28" s="219"/>
-      <c r="L28" s="266">
+      <c r="L28" s="280">
         <f>6*1.5</f>
         <v>9</v>
       </c>
-      <c r="M28" s="267"/>
-      <c r="N28" s="267"/>
-      <c r="O28" s="267"/>
+      <c r="M28" s="281"/>
+      <c r="N28" s="281"/>
+      <c r="O28" s="281"/>
       <c r="P28" s="212"/>
       <c r="Q28" s="212"/>
       <c r="R28" s="212"/>
@@ -9857,30 +9910,30 @@
       <c r="U28" s="212"/>
       <c r="V28" s="212"/>
       <c r="W28" s="285"/>
-      <c r="X28" s="268">
+      <c r="X28" s="279">
         <f>AC28*(1.5+AK28)</f>
         <v>9</v>
       </c>
-      <c r="Y28" s="262"/>
-      <c r="Z28" s="262"/>
-      <c r="AA28" s="262"/>
-      <c r="AB28" s="262"/>
-      <c r="AC28" s="269">
+      <c r="Y28" s="261"/>
+      <c r="Z28" s="261"/>
+      <c r="AA28" s="261"/>
+      <c r="AB28" s="261"/>
+      <c r="AC28" s="271">
         <v>6</v>
       </c>
-      <c r="AD28" s="270"/>
-      <c r="AE28" s="271">
+      <c r="AD28" s="272"/>
+      <c r="AE28" s="278">
         <v>44363</v>
       </c>
-      <c r="AF28" s="268"/>
-      <c r="AG28" s="271">
+      <c r="AF28" s="279"/>
+      <c r="AG28" s="278">
         <v>44362</v>
       </c>
-      <c r="AH28" s="268"/>
-      <c r="AI28" s="269">
+      <c r="AH28" s="279"/>
+      <c r="AI28" s="271">
         <v>1.5</v>
       </c>
-      <c r="AJ28" s="268"/>
+      <c r="AJ28" s="279"/>
       <c r="AK28" s="286">
         <v>0</v>
       </c>
@@ -9903,15 +9956,15 @@
       <c r="I29" s="29"/>
       <c r="J29" s="29"/>
       <c r="K29" s="219"/>
-      <c r="L29" s="266">
+      <c r="L29" s="280">
         <f>2*1.5</f>
         <v>3</v>
       </c>
-      <c r="M29" s="267"/>
-      <c r="N29" s="303">
+      <c r="M29" s="281"/>
+      <c r="N29" s="302">
         <v>0.1</v>
       </c>
-      <c r="O29" s="267"/>
+      <c r="O29" s="281"/>
       <c r="P29" s="212"/>
       <c r="Q29" s="212"/>
       <c r="R29" s="212"/>
@@ -9921,37 +9974,39 @@
       <c r="V29" s="212"/>
       <c r="W29" s="285">
         <f>SUM(X29:AB30)/X38</f>
-        <v>0.18072289156626506</v>
-      </c>
-      <c r="X29" s="268">
+        <v>0.17647058823529413</v>
+      </c>
+      <c r="X29" s="279">
         <f>AC29*(1.5+AK29)</f>
         <v>6</v>
       </c>
-      <c r="Y29" s="262"/>
-      <c r="Z29" s="262"/>
-      <c r="AA29" s="262"/>
-      <c r="AB29" s="262"/>
-      <c r="AC29" s="269">
+      <c r="Y29" s="261"/>
+      <c r="Z29" s="261"/>
+      <c r="AA29" s="261"/>
+      <c r="AB29" s="261"/>
+      <c r="AC29" s="271">
         <v>2</v>
       </c>
-      <c r="AD29" s="270"/>
-      <c r="AE29" s="271">
+      <c r="AD29" s="272"/>
+      <c r="AE29" s="278">
         <v>44363</v>
       </c>
-      <c r="AF29" s="268"/>
-      <c r="AG29" s="271">
+      <c r="AF29" s="279"/>
+      <c r="AG29" s="278">
         <v>44364</v>
       </c>
-      <c r="AH29" s="268"/>
-      <c r="AI29" s="269">
+      <c r="AH29" s="279"/>
+      <c r="AI29" s="271">
         <v>1.5</v>
       </c>
-      <c r="AJ29" s="268"/>
+      <c r="AJ29" s="279"/>
       <c r="AK29" s="286">
         <v>1.5</v>
       </c>
       <c r="AL29" s="287"/>
-      <c r="AM29" s="213"/>
+      <c r="AM29" s="224" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="30" spans="3:39" x14ac:dyDescent="0.15">
       <c r="C30" s="3"/>
@@ -9967,13 +10022,13 @@
       <c r="I30" s="29"/>
       <c r="J30" s="29"/>
       <c r="K30" s="219"/>
-      <c r="L30" s="266">
+      <c r="L30" s="280">
         <f>4*1.5</f>
         <v>6</v>
       </c>
-      <c r="M30" s="267"/>
-      <c r="N30" s="267"/>
-      <c r="O30" s="267"/>
+      <c r="M30" s="281"/>
+      <c r="N30" s="281"/>
+      <c r="O30" s="281"/>
       <c r="P30" s="212"/>
       <c r="Q30" s="212"/>
       <c r="R30" s="212"/>
@@ -9982,35 +10037,37 @@
       <c r="U30" s="212"/>
       <c r="V30" s="212"/>
       <c r="W30" s="285"/>
-      <c r="X30" s="268">
+      <c r="X30" s="279">
         <f>AC30*(1.5+AK30)</f>
         <v>12</v>
       </c>
-      <c r="Y30" s="262"/>
-      <c r="Z30" s="262"/>
-      <c r="AA30" s="262"/>
-      <c r="AB30" s="262"/>
-      <c r="AC30" s="269">
+      <c r="Y30" s="261"/>
+      <c r="Z30" s="261"/>
+      <c r="AA30" s="261"/>
+      <c r="AB30" s="261"/>
+      <c r="AC30" s="271">
         <v>4</v>
       </c>
-      <c r="AD30" s="270"/>
-      <c r="AE30" s="271">
+      <c r="AD30" s="272"/>
+      <c r="AE30" s="278">
         <v>44363</v>
       </c>
-      <c r="AF30" s="268"/>
-      <c r="AG30" s="271">
+      <c r="AF30" s="279"/>
+      <c r="AG30" s="278">
         <v>44364</v>
       </c>
-      <c r="AH30" s="268"/>
-      <c r="AI30" s="269">
+      <c r="AH30" s="279"/>
+      <c r="AI30" s="271">
         <v>1.5</v>
       </c>
-      <c r="AJ30" s="268"/>
+      <c r="AJ30" s="279"/>
       <c r="AK30" s="286">
         <v>1.5</v>
       </c>
       <c r="AL30" s="287"/>
-      <c r="AM30" s="213"/>
+      <c r="AM30" s="224" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="31" spans="3:39" x14ac:dyDescent="0.15">
       <c r="C31" s="3"/>
@@ -10026,50 +10083,53 @@
       <c r="I31" s="29"/>
       <c r="J31" s="29"/>
       <c r="K31" s="219"/>
-      <c r="L31" s="266">
+      <c r="L31" s="280">
         <f>6*2</f>
         <v>12</v>
       </c>
-      <c r="M31" s="267"/>
-      <c r="N31" s="303">
+      <c r="M31" s="281"/>
+      <c r="N31" s="302">
         <v>0.13</v>
       </c>
-      <c r="O31" s="267"/>
+      <c r="O31" s="281"/>
       <c r="P31" s="212"/>
-      <c r="Q31" s="212"/>
-      <c r="R31" s="212"/>
+      <c r="R31" s="212" t="s">
+        <v>182</v>
+      </c>
       <c r="S31" s="212"/>
       <c r="T31" s="212"/>
       <c r="U31" s="212"/>
       <c r="V31" s="212"/>
       <c r="W31" s="249">
         <f>SUM(X31)/X38</f>
-        <v>0.12650602409638556</v>
-      </c>
-      <c r="X31" s="268">
+        <v>0.14705882352941177</v>
+      </c>
+      <c r="X31" s="279">
         <f>AC31*(2+AK31)</f>
-        <v>12.600000000000001</v>
-      </c>
-      <c r="Y31" s="262"/>
-      <c r="Z31" s="262"/>
-      <c r="AA31" s="262"/>
-      <c r="AB31" s="262"/>
-      <c r="AC31" s="269">
+        <v>15</v>
+      </c>
+      <c r="Y31" s="261"/>
+      <c r="Z31" s="261"/>
+      <c r="AA31" s="261"/>
+      <c r="AB31" s="261"/>
+      <c r="AC31" s="271">
         <v>6</v>
       </c>
-      <c r="AD31" s="270"/>
-      <c r="AE31" s="271">
+      <c r="AD31" s="272"/>
+      <c r="AE31" s="278">
         <v>44365</v>
       </c>
-      <c r="AF31" s="268"/>
-      <c r="AG31" s="269"/>
-      <c r="AH31" s="268"/>
-      <c r="AI31" s="269">
+      <c r="AF31" s="279"/>
+      <c r="AG31" s="278">
+        <v>44368</v>
+      </c>
+      <c r="AH31" s="279"/>
+      <c r="AI31" s="271">
         <v>2</v>
       </c>
-      <c r="AJ31" s="268"/>
+      <c r="AJ31" s="279"/>
       <c r="AK31" s="286">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="AL31" s="287"/>
       <c r="AM31" s="213"/>
@@ -10088,47 +10148,51 @@
       <c r="I32" s="29"/>
       <c r="J32" s="29"/>
       <c r="K32" s="219"/>
-      <c r="L32" s="266">
+      <c r="L32" s="280">
         <v>27</v>
       </c>
-      <c r="M32" s="267"/>
-      <c r="N32" s="303">
+      <c r="M32" s="281"/>
+      <c r="N32" s="302">
         <v>0.3</v>
       </c>
-      <c r="O32" s="303"/>
-      <c r="P32" s="247"/>
-      <c r="Q32" s="247"/>
-      <c r="R32" s="247"/>
+      <c r="O32" s="302"/>
+      <c r="P32" s="373">
+        <f>N32*0.37</f>
+        <v>0.111</v>
+      </c>
+      <c r="R32" s="374">
+        <v>6.5000000000000002E-2</v>
+      </c>
       <c r="S32" s="247"/>
       <c r="T32" s="212"/>
       <c r="U32" s="212"/>
       <c r="V32" s="212"/>
       <c r="W32" s="249">
         <f>SUM(X32)/X38</f>
-        <v>0.27108433734939763</v>
-      </c>
-      <c r="X32" s="268">
+        <v>0.26470588235294118</v>
+      </c>
+      <c r="X32" s="279">
         <f>AC32*(4.5+AK32)</f>
         <v>27</v>
       </c>
-      <c r="Y32" s="262"/>
-      <c r="Z32" s="262"/>
-      <c r="AA32" s="262"/>
-      <c r="AB32" s="262"/>
-      <c r="AC32" s="269">
+      <c r="Y32" s="261"/>
+      <c r="Z32" s="261"/>
+      <c r="AA32" s="261"/>
+      <c r="AB32" s="261"/>
+      <c r="AC32" s="271">
         <v>6</v>
       </c>
-      <c r="AD32" s="270"/>
-      <c r="AE32" s="271">
+      <c r="AD32" s="272"/>
+      <c r="AE32" s="278">
         <v>44372</v>
       </c>
-      <c r="AF32" s="268"/>
-      <c r="AG32" s="269"/>
-      <c r="AH32" s="268"/>
-      <c r="AI32" s="269">
+      <c r="AF32" s="279"/>
+      <c r="AG32" s="271"/>
+      <c r="AH32" s="279"/>
+      <c r="AI32" s="271">
         <v>4.5</v>
       </c>
-      <c r="AJ32" s="268"/>
+      <c r="AJ32" s="279"/>
       <c r="AK32" s="286">
         <v>0</v>
       </c>
@@ -10149,14 +10213,14 @@
       <c r="I33" s="29"/>
       <c r="J33" s="29"/>
       <c r="K33" s="219"/>
-      <c r="L33" s="266">
+      <c r="L33" s="280">
         <v>6</v>
       </c>
-      <c r="M33" s="267"/>
-      <c r="N33" s="303">
+      <c r="M33" s="281"/>
+      <c r="N33" s="302">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="O33" s="267"/>
+      <c r="O33" s="281"/>
       <c r="P33" s="212"/>
       <c r="Q33" s="212"/>
       <c r="R33" s="212"/>
@@ -10166,30 +10230,30 @@
       <c r="V33" s="212"/>
       <c r="W33" s="249">
         <f>SUM(X33)/X38</f>
-        <v>6.0240963855421693E-2</v>
-      </c>
-      <c r="X33" s="268">
+        <v>5.8823529411764705E-2</v>
+      </c>
+      <c r="X33" s="279">
         <f>AC33*(2+AK33)</f>
         <v>6</v>
       </c>
-      <c r="Y33" s="262"/>
-      <c r="Z33" s="262"/>
-      <c r="AA33" s="262"/>
-      <c r="AB33" s="262"/>
-      <c r="AC33" s="269">
+      <c r="Y33" s="261"/>
+      <c r="Z33" s="261"/>
+      <c r="AA33" s="261"/>
+      <c r="AB33" s="261"/>
+      <c r="AC33" s="271">
         <v>3</v>
       </c>
-      <c r="AD33" s="270"/>
-      <c r="AE33" s="271">
+      <c r="AD33" s="272"/>
+      <c r="AE33" s="278">
         <v>44375</v>
       </c>
-      <c r="AF33" s="268"/>
-      <c r="AG33" s="269"/>
-      <c r="AH33" s="268"/>
-      <c r="AI33" s="269">
+      <c r="AF33" s="279"/>
+      <c r="AG33" s="271"/>
+      <c r="AH33" s="279"/>
+      <c r="AI33" s="271">
         <v>2</v>
       </c>
-      <c r="AJ33" s="268"/>
+      <c r="AJ33" s="279"/>
       <c r="AK33" s="286">
         <v>0</v>
       </c>
@@ -10211,14 +10275,14 @@
       <c r="I34" s="29"/>
       <c r="J34" s="29"/>
       <c r="K34" s="219"/>
-      <c r="L34" s="266">
+      <c r="L34" s="280">
         <v>6</v>
       </c>
-      <c r="M34" s="267"/>
-      <c r="N34" s="303">
+      <c r="M34" s="281"/>
+      <c r="N34" s="302">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="O34" s="267"/>
+      <c r="O34" s="281"/>
       <c r="P34" s="212"/>
       <c r="Q34" s="212"/>
       <c r="R34" s="212"/>
@@ -10228,30 +10292,30 @@
       <c r="V34" s="212"/>
       <c r="W34" s="249">
         <f>SUM(X34)/X38</f>
-        <v>6.0240963855421693E-2</v>
-      </c>
-      <c r="X34" s="268">
+        <v>5.8823529411764705E-2</v>
+      </c>
+      <c r="X34" s="279">
         <f>AC34*(2+AK34)</f>
         <v>6</v>
       </c>
-      <c r="Y34" s="262"/>
-      <c r="Z34" s="262"/>
-      <c r="AA34" s="262"/>
-      <c r="AB34" s="262"/>
-      <c r="AC34" s="269">
+      <c r="Y34" s="261"/>
+      <c r="Z34" s="261"/>
+      <c r="AA34" s="261"/>
+      <c r="AB34" s="261"/>
+      <c r="AC34" s="271">
         <v>3</v>
       </c>
-      <c r="AD34" s="270"/>
-      <c r="AE34" s="271">
+      <c r="AD34" s="272"/>
+      <c r="AE34" s="278">
         <v>44375</v>
       </c>
-      <c r="AF34" s="268"/>
-      <c r="AG34" s="269"/>
-      <c r="AH34" s="268"/>
-      <c r="AI34" s="269">
+      <c r="AF34" s="279"/>
+      <c r="AG34" s="271"/>
+      <c r="AH34" s="279"/>
+      <c r="AI34" s="271">
         <v>2</v>
       </c>
-      <c r="AJ34" s="268"/>
+      <c r="AJ34" s="279"/>
       <c r="AK34" s="286">
         <v>0</v>
       </c>
@@ -10273,15 +10337,15 @@
       <c r="I35" s="120"/>
       <c r="J35" s="120"/>
       <c r="K35" s="220"/>
-      <c r="L35" s="266">
+      <c r="L35" s="280">
         <f>6*1</f>
         <v>6</v>
       </c>
-      <c r="M35" s="267"/>
-      <c r="N35" s="303">
+      <c r="M35" s="281"/>
+      <c r="N35" s="302">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="O35" s="303"/>
+      <c r="O35" s="302"/>
       <c r="P35" s="247"/>
       <c r="Q35" s="247"/>
       <c r="R35" s="247"/>
@@ -10291,30 +10355,30 @@
       <c r="V35" s="212"/>
       <c r="W35" s="249">
         <f>SUM(X35)/X38</f>
-        <v>6.0240963855421693E-2</v>
-      </c>
-      <c r="X35" s="268">
+        <v>5.8823529411764705E-2</v>
+      </c>
+      <c r="X35" s="279">
         <f>AC35*(1+AK35)</f>
         <v>6</v>
       </c>
-      <c r="Y35" s="262"/>
-      <c r="Z35" s="262"/>
-      <c r="AA35" s="262"/>
-      <c r="AB35" s="262"/>
-      <c r="AC35" s="269">
+      <c r="Y35" s="261"/>
+      <c r="Z35" s="261"/>
+      <c r="AA35" s="261"/>
+      <c r="AB35" s="261"/>
+      <c r="AC35" s="271">
         <v>6</v>
       </c>
-      <c r="AD35" s="270"/>
-      <c r="AE35" s="271">
+      <c r="AD35" s="272"/>
+      <c r="AE35" s="278">
         <v>44376</v>
       </c>
-      <c r="AF35" s="268"/>
-      <c r="AG35" s="269"/>
-      <c r="AH35" s="268"/>
-      <c r="AI35" s="269">
+      <c r="AF35" s="279"/>
+      <c r="AG35" s="271"/>
+      <c r="AH35" s="279"/>
+      <c r="AI35" s="271">
         <v>1</v>
       </c>
-      <c r="AJ35" s="268"/>
+      <c r="AJ35" s="279"/>
       <c r="AK35" s="286">
         <v>0</v>
       </c>
@@ -10336,15 +10400,15 @@
       <c r="I36" s="206"/>
       <c r="J36" s="206"/>
       <c r="K36" s="221"/>
-      <c r="L36" s="266">
+      <c r="L36" s="280">
         <f>6*1</f>
         <v>6</v>
       </c>
-      <c r="M36" s="267"/>
-      <c r="N36" s="303">
+      <c r="M36" s="281"/>
+      <c r="N36" s="302">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="O36" s="303"/>
+      <c r="O36" s="302"/>
       <c r="P36" s="247"/>
       <c r="Q36" s="247"/>
       <c r="R36" s="247"/>
@@ -10354,30 +10418,30 @@
       <c r="V36" s="212"/>
       <c r="W36" s="249">
         <f>SUM(X36)/X38</f>
-        <v>6.0240963855421693E-2</v>
-      </c>
-      <c r="X36" s="268">
+        <v>5.8823529411764705E-2</v>
+      </c>
+      <c r="X36" s="279">
         <f>AC36*(1+AK36)</f>
         <v>6</v>
       </c>
-      <c r="Y36" s="262"/>
-      <c r="Z36" s="262"/>
-      <c r="AA36" s="262"/>
-      <c r="AB36" s="262"/>
-      <c r="AC36" s="269">
+      <c r="Y36" s="261"/>
+      <c r="Z36" s="261"/>
+      <c r="AA36" s="261"/>
+      <c r="AB36" s="261"/>
+      <c r="AC36" s="271">
         <v>6</v>
       </c>
-      <c r="AD36" s="270"/>
-      <c r="AE36" s="271">
+      <c r="AD36" s="272"/>
+      <c r="AE36" s="278">
         <v>44377</v>
       </c>
-      <c r="AF36" s="268"/>
-      <c r="AG36" s="269"/>
-      <c r="AH36" s="268"/>
-      <c r="AI36" s="269">
+      <c r="AF36" s="279"/>
+      <c r="AG36" s="271"/>
+      <c r="AH36" s="279"/>
+      <c r="AI36" s="271">
         <v>1</v>
       </c>
-      <c r="AJ36" s="268"/>
+      <c r="AJ36" s="279"/>
       <c r="AK36" s="286">
         <v>0</v>
       </c>
@@ -10414,12 +10478,12 @@
       <c r="AB37" s="200"/>
       <c r="AC37" s="200"/>
       <c r="AD37" s="200"/>
-      <c r="AE37" s="270"/>
-      <c r="AF37" s="270"/>
-      <c r="AG37" s="270"/>
-      <c r="AH37" s="270"/>
-      <c r="AI37" s="270"/>
-      <c r="AJ37" s="270"/>
+      <c r="AE37" s="272"/>
+      <c r="AF37" s="272"/>
+      <c r="AG37" s="272"/>
+      <c r="AH37" s="272"/>
+      <c r="AI37" s="272"/>
+      <c r="AJ37" s="272"/>
       <c r="AK37" s="200"/>
       <c r="AL37" s="200"/>
       <c r="AM37" s="214"/>
@@ -10449,22 +10513,22 @@
       <c r="W38" s="228" t="s">
         <v>148</v>
       </c>
-      <c r="X38" s="262">
+      <c r="X38" s="261">
         <f>SUM(X27:AB36)</f>
-        <v>99.6</v>
-      </c>
-      <c r="Y38" s="262"/>
-      <c r="Z38" s="262"/>
-      <c r="AA38" s="262"/>
-      <c r="AB38" s="262"/>
-      <c r="AC38" s="280"/>
-      <c r="AD38" s="291"/>
-      <c r="AE38" s="280"/>
-      <c r="AF38" s="281"/>
-      <c r="AG38" s="280"/>
-      <c r="AH38" s="281"/>
-      <c r="AI38" s="280"/>
-      <c r="AJ38" s="281"/>
+        <v>102</v>
+      </c>
+      <c r="Y38" s="261"/>
+      <c r="Z38" s="261"/>
+      <c r="AA38" s="261"/>
+      <c r="AB38" s="261"/>
+      <c r="AC38" s="291"/>
+      <c r="AD38" s="292"/>
+      <c r="AE38" s="291"/>
+      <c r="AF38" s="293"/>
+      <c r="AG38" s="291"/>
+      <c r="AH38" s="293"/>
+      <c r="AI38" s="291"/>
+      <c r="AJ38" s="293"/>
       <c r="AK38" s="289"/>
       <c r="AL38" s="290"/>
       <c r="AM38" s="225"/>
@@ -10484,8 +10548,10 @@
         <f>SUM(L27:M31)/L38</f>
         <v>0.43333333333333335</v>
       </c>
-      <c r="M39" s="263"/>
-      <c r="O39" s="216"/>
+      <c r="M39" s="262"/>
+      <c r="O39" s="255">
+        <v>0.56000000000000005</v>
+      </c>
       <c r="P39" s="216"/>
       <c r="Q39" s="216"/>
       <c r="R39" s="216"/>
@@ -10494,22 +10560,22 @@
       <c r="W39" s="228" t="s">
         <v>147</v>
       </c>
-      <c r="X39" s="262">
+      <c r="X39" s="261">
         <f>SUM(X27:AB36)-SUM(L27:M36)</f>
-        <v>9.5999999999999943</v>
-      </c>
-      <c r="Y39" s="262"/>
-      <c r="Z39" s="262"/>
-      <c r="AA39" s="262"/>
-      <c r="AB39" s="262"/>
-      <c r="AC39" s="280"/>
-      <c r="AD39" s="291"/>
-      <c r="AE39" s="280"/>
-      <c r="AF39" s="281"/>
-      <c r="AG39" s="280"/>
-      <c r="AH39" s="281"/>
-      <c r="AI39" s="280"/>
-      <c r="AJ39" s="281"/>
+        <v>12</v>
+      </c>
+      <c r="Y39" s="261"/>
+      <c r="Z39" s="261"/>
+      <c r="AA39" s="261"/>
+      <c r="AB39" s="261"/>
+      <c r="AC39" s="291"/>
+      <c r="AD39" s="292"/>
+      <c r="AE39" s="291"/>
+      <c r="AF39" s="293"/>
+      <c r="AG39" s="291"/>
+      <c r="AH39" s="293"/>
+      <c r="AI39" s="291"/>
+      <c r="AJ39" s="293"/>
       <c r="AK39" s="289"/>
       <c r="AL39" s="290"/>
       <c r="AM39" s="225"/>
@@ -10526,31 +10592,31 @@
       <c r="J40" s="200"/>
       <c r="K40" s="201"/>
       <c r="L40" s="282">
-        <f>SUM(L27:M30)/L38</f>
-        <v>0.3</v>
-      </c>
-      <c r="M40" s="263"/>
+        <f>SUM(L27:M31)/L38</f>
+        <v>0.43333333333333335</v>
+      </c>
+      <c r="M40" s="262"/>
       <c r="O40" s="248">
-        <v>0.35</v>
+        <v>0.54</v>
       </c>
       <c r="U40" s="216"/>
       <c r="V40" s="229"/>
       <c r="W40" s="229" t="s">
         <v>127</v>
       </c>
-      <c r="X40" s="263">
-        <f>SUM(X27:AB30)/X38</f>
-        <v>0.36144578313253012</v>
-      </c>
-      <c r="Y40" s="263"/>
-      <c r="Z40" s="263"/>
-      <c r="AA40" s="263"/>
-      <c r="AB40" s="263"/>
+      <c r="X40" s="262">
+        <f>SUM(X27:AB31)/X38</f>
+        <v>0.5</v>
+      </c>
+      <c r="Y40" s="262"/>
+      <c r="Z40" s="262"/>
+      <c r="AA40" s="262"/>
+      <c r="AB40" s="262"/>
       <c r="AC40">
         <v>25</v>
       </c>
       <c r="AK40" s="230" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
   </sheetData>
@@ -10574,6 +10640,11 @@
     <mergeCell ref="AG27:AH27"/>
     <mergeCell ref="AG28:AH28"/>
     <mergeCell ref="AG29:AH29"/>
+    <mergeCell ref="AE37:AF37"/>
+    <mergeCell ref="AE38:AF38"/>
+    <mergeCell ref="AG33:AH33"/>
+    <mergeCell ref="AG34:AH34"/>
+    <mergeCell ref="AG35:AH35"/>
     <mergeCell ref="AM23:AM25"/>
     <mergeCell ref="AK28:AL28"/>
     <mergeCell ref="AK29:AL29"/>
@@ -10637,11 +10708,7 @@
     <mergeCell ref="X34:AB34"/>
     <mergeCell ref="W27:W28"/>
     <mergeCell ref="W29:W30"/>
-    <mergeCell ref="AE37:AF37"/>
-    <mergeCell ref="AE38:AF38"/>
-    <mergeCell ref="AG33:AH33"/>
-    <mergeCell ref="AG34:AH34"/>
-    <mergeCell ref="AG35:AH35"/>
+    <mergeCell ref="AE31:AF31"/>
     <mergeCell ref="AG36:AH36"/>
     <mergeCell ref="AG37:AH37"/>
     <mergeCell ref="AE32:AF32"/>
@@ -10654,6 +10721,12 @@
     <mergeCell ref="AC31:AD31"/>
     <mergeCell ref="AG30:AH30"/>
     <mergeCell ref="AG31:AH31"/>
+    <mergeCell ref="AE36:AF36"/>
+    <mergeCell ref="AC23:AD25"/>
+    <mergeCell ref="AC27:AD27"/>
+    <mergeCell ref="AC28:AD28"/>
+    <mergeCell ref="AC29:AD29"/>
+    <mergeCell ref="AC30:AD30"/>
     <mergeCell ref="AG23:AH25"/>
     <mergeCell ref="AG26:AH26"/>
     <mergeCell ref="AE23:AF25"/>
@@ -10662,13 +10735,6 @@
     <mergeCell ref="AE28:AF28"/>
     <mergeCell ref="AE29:AF29"/>
     <mergeCell ref="AE30:AF30"/>
-    <mergeCell ref="AE31:AF31"/>
-    <mergeCell ref="AE36:AF36"/>
-    <mergeCell ref="AC23:AD25"/>
-    <mergeCell ref="AC27:AD27"/>
-    <mergeCell ref="AC28:AD28"/>
-    <mergeCell ref="AC29:AD29"/>
-    <mergeCell ref="AC30:AD30"/>
   </mergeCells>
   <phoneticPr fontId="7"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10871,20 +10937,20 @@
     </row>
     <row r="29" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B29" s="3"/>
-      <c r="C29" s="304" t="s">
+      <c r="C29" s="303" t="s">
         <v>72</v>
       </c>
-      <c r="D29" s="305"/>
-      <c r="E29" s="305"/>
-      <c r="F29" s="305"/>
-      <c r="G29" s="305"/>
-      <c r="H29" s="305"/>
-      <c r="I29" s="305"/>
-      <c r="J29" s="306"/>
-      <c r="K29" s="310" t="s">
+      <c r="D29" s="304"/>
+      <c r="E29" s="304"/>
+      <c r="F29" s="304"/>
+      <c r="G29" s="304"/>
+      <c r="H29" s="304"/>
+      <c r="I29" s="304"/>
+      <c r="J29" s="305"/>
+      <c r="K29" s="309" t="s">
         <v>21</v>
       </c>
-      <c r="L29" s="312">
+      <c r="L29" s="311">
         <v>1</v>
       </c>
       <c r="M29" s="45" t="s">
@@ -10908,18 +10974,18 @@
     </row>
     <row r="30" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B30" s="3"/>
-      <c r="C30" s="307"/>
-      <c r="D30" s="308"/>
-      <c r="E30" s="308"/>
-      <c r="F30" s="308"/>
-      <c r="G30" s="308"/>
-      <c r="H30" s="308"/>
-      <c r="I30" s="308"/>
-      <c r="J30" s="309"/>
-      <c r="K30" s="311" t="s">
+      <c r="C30" s="306"/>
+      <c r="D30" s="307"/>
+      <c r="E30" s="307"/>
+      <c r="F30" s="307"/>
+      <c r="G30" s="307"/>
+      <c r="H30" s="307"/>
+      <c r="I30" s="307"/>
+      <c r="J30" s="308"/>
+      <c r="K30" s="310" t="s">
         <v>21</v>
       </c>
-      <c r="L30" s="313" t="s">
+      <c r="L30" s="312" t="s">
         <v>40</v>
       </c>
       <c r="M30" s="44" t="s">
@@ -10943,20 +11009,20 @@
     </row>
     <row r="31" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B31" s="3"/>
-      <c r="C31" s="304" t="s">
+      <c r="C31" s="303" t="s">
         <v>73</v>
       </c>
-      <c r="D31" s="305"/>
-      <c r="E31" s="305"/>
-      <c r="F31" s="305"/>
-      <c r="G31" s="305"/>
-      <c r="H31" s="305"/>
-      <c r="I31" s="305"/>
-      <c r="J31" s="306"/>
-      <c r="K31" s="310" t="s">
+      <c r="D31" s="304"/>
+      <c r="E31" s="304"/>
+      <c r="F31" s="304"/>
+      <c r="G31" s="304"/>
+      <c r="H31" s="304"/>
+      <c r="I31" s="304"/>
+      <c r="J31" s="305"/>
+      <c r="K31" s="309" t="s">
         <v>21</v>
       </c>
-      <c r="L31" s="312">
+      <c r="L31" s="311">
         <v>1</v>
       </c>
       <c r="M31" s="45" t="s">
@@ -10980,18 +11046,18 @@
     </row>
     <row r="32" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B32" s="3"/>
-      <c r="C32" s="307"/>
-      <c r="D32" s="308"/>
-      <c r="E32" s="308"/>
-      <c r="F32" s="308"/>
-      <c r="G32" s="308"/>
-      <c r="H32" s="308"/>
-      <c r="I32" s="308"/>
-      <c r="J32" s="309"/>
-      <c r="K32" s="311" t="s">
+      <c r="C32" s="306"/>
+      <c r="D32" s="307"/>
+      <c r="E32" s="307"/>
+      <c r="F32" s="307"/>
+      <c r="G32" s="307"/>
+      <c r="H32" s="307"/>
+      <c r="I32" s="307"/>
+      <c r="J32" s="308"/>
+      <c r="K32" s="310" t="s">
         <v>21</v>
       </c>
-      <c r="L32" s="313" t="s">
+      <c r="L32" s="312" t="s">
         <v>40</v>
       </c>
       <c r="M32" s="44" t="s">
@@ -11015,20 +11081,20 @@
     </row>
     <row r="33" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B33" s="3"/>
-      <c r="C33" s="304" t="s">
+      <c r="C33" s="303" t="s">
         <v>74</v>
       </c>
-      <c r="D33" s="305"/>
-      <c r="E33" s="305"/>
-      <c r="F33" s="305"/>
-      <c r="G33" s="305"/>
-      <c r="H33" s="305"/>
-      <c r="I33" s="305"/>
-      <c r="J33" s="306"/>
-      <c r="K33" s="310" t="s">
+      <c r="D33" s="304"/>
+      <c r="E33" s="304"/>
+      <c r="F33" s="304"/>
+      <c r="G33" s="304"/>
+      <c r="H33" s="304"/>
+      <c r="I33" s="304"/>
+      <c r="J33" s="305"/>
+      <c r="K33" s="309" t="s">
         <v>21</v>
       </c>
-      <c r="L33" s="312">
+      <c r="L33" s="311">
         <v>1</v>
       </c>
       <c r="M33" s="45" t="s">
@@ -11052,18 +11118,18 @@
     </row>
     <row r="34" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B34" s="3"/>
-      <c r="C34" s="307"/>
-      <c r="D34" s="308"/>
-      <c r="E34" s="308"/>
-      <c r="F34" s="308"/>
-      <c r="G34" s="308"/>
-      <c r="H34" s="308"/>
-      <c r="I34" s="308"/>
-      <c r="J34" s="309"/>
-      <c r="K34" s="311" t="s">
+      <c r="C34" s="306"/>
+      <c r="D34" s="307"/>
+      <c r="E34" s="307"/>
+      <c r="F34" s="307"/>
+      <c r="G34" s="307"/>
+      <c r="H34" s="307"/>
+      <c r="I34" s="307"/>
+      <c r="J34" s="308"/>
+      <c r="K34" s="310" t="s">
         <v>21</v>
       </c>
-      <c r="L34" s="313" t="s">
+      <c r="L34" s="312" t="s">
         <v>39</v>
       </c>
       <c r="M34" s="44" t="s">
@@ -11298,16 +11364,16 @@
       <c r="B28" s="2">
         <v>4</v>
       </c>
-      <c r="C28" s="316" t="s">
+      <c r="C28" s="315" t="s">
         <v>114</v>
       </c>
-      <c r="D28" s="317"/>
-      <c r="E28" s="317"/>
-      <c r="F28" s="317"/>
-      <c r="G28" s="317"/>
-      <c r="H28" s="317"/>
-      <c r="I28" s="317"/>
-      <c r="J28" s="318"/>
+      <c r="D28" s="316"/>
+      <c r="E28" s="316"/>
+      <c r="F28" s="316"/>
+      <c r="G28" s="316"/>
+      <c r="H28" s="316"/>
+      <c r="I28" s="316"/>
+      <c r="J28" s="317"/>
       <c r="K28" s="55"/>
       <c r="L28" s="65"/>
       <c r="M28" s="144"/>
@@ -11328,20 +11394,20 @@
     </row>
     <row r="29" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B29" s="3"/>
-      <c r="C29" s="319" t="s">
+      <c r="C29" s="318" t="s">
         <v>115</v>
       </c>
-      <c r="D29" s="320"/>
-      <c r="E29" s="320"/>
-      <c r="F29" s="320"/>
-      <c r="G29" s="320"/>
-      <c r="H29" s="320"/>
-      <c r="I29" s="320"/>
-      <c r="J29" s="321"/>
-      <c r="K29" s="310" t="s">
+      <c r="D29" s="319"/>
+      <c r="E29" s="319"/>
+      <c r="F29" s="319"/>
+      <c r="G29" s="319"/>
+      <c r="H29" s="319"/>
+      <c r="I29" s="319"/>
+      <c r="J29" s="320"/>
+      <c r="K29" s="309" t="s">
         <v>116</v>
       </c>
-      <c r="L29" s="314">
+      <c r="L29" s="313">
         <v>1</v>
       </c>
       <c r="M29" s="145" t="s">
@@ -11364,16 +11430,16 @@
     </row>
     <row r="30" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B30" s="3"/>
-      <c r="C30" s="322"/>
-      <c r="D30" s="323"/>
-      <c r="E30" s="323"/>
-      <c r="F30" s="323"/>
-      <c r="G30" s="323"/>
-      <c r="H30" s="323"/>
-      <c r="I30" s="323"/>
-      <c r="J30" s="324"/>
-      <c r="K30" s="311"/>
-      <c r="L30" s="315"/>
+      <c r="C30" s="321"/>
+      <c r="D30" s="322"/>
+      <c r="E30" s="322"/>
+      <c r="F30" s="322"/>
+      <c r="G30" s="322"/>
+      <c r="H30" s="322"/>
+      <c r="I30" s="322"/>
+      <c r="J30" s="323"/>
+      <c r="K30" s="310"/>
+      <c r="L30" s="314"/>
       <c r="M30" s="146" t="s">
         <v>49</v>
       </c>
@@ -11394,18 +11460,18 @@
     </row>
     <row r="31" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B31" s="3"/>
-      <c r="C31" s="322"/>
-      <c r="D31" s="323"/>
-      <c r="E31" s="323"/>
-      <c r="F31" s="323"/>
-      <c r="G31" s="323"/>
-      <c r="H31" s="323"/>
-      <c r="I31" s="323"/>
-      <c r="J31" s="324"/>
-      <c r="K31" s="310" t="s">
+      <c r="C31" s="321"/>
+      <c r="D31" s="322"/>
+      <c r="E31" s="322"/>
+      <c r="F31" s="322"/>
+      <c r="G31" s="322"/>
+      <c r="H31" s="322"/>
+      <c r="I31" s="322"/>
+      <c r="J31" s="323"/>
+      <c r="K31" s="309" t="s">
         <v>117</v>
       </c>
-      <c r="L31" s="314">
+      <c r="L31" s="313">
         <v>1</v>
       </c>
       <c r="M31" s="145" t="s">
@@ -11428,18 +11494,18 @@
     </row>
     <row r="32" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B32" s="3"/>
-      <c r="C32" s="322"/>
-      <c r="D32" s="323"/>
-      <c r="E32" s="323"/>
-      <c r="F32" s="323"/>
-      <c r="G32" s="323"/>
-      <c r="H32" s="323"/>
-      <c r="I32" s="323"/>
-      <c r="J32" s="324"/>
-      <c r="K32" s="311" t="s">
+      <c r="C32" s="321"/>
+      <c r="D32" s="322"/>
+      <c r="E32" s="322"/>
+      <c r="F32" s="322"/>
+      <c r="G32" s="322"/>
+      <c r="H32" s="322"/>
+      <c r="I32" s="322"/>
+      <c r="J32" s="323"/>
+      <c r="K32" s="310" t="s">
         <v>11</v>
       </c>
-      <c r="L32" s="311"/>
+      <c r="L32" s="310"/>
       <c r="M32" s="146" t="s">
         <v>49</v>
       </c>
@@ -11520,20 +11586,20 @@
     </row>
     <row r="35" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B35" s="3"/>
-      <c r="C35" s="325" t="s">
+      <c r="C35" s="324" t="s">
         <v>77</v>
       </c>
-      <c r="D35" s="326"/>
-      <c r="E35" s="326"/>
-      <c r="F35" s="326"/>
-      <c r="G35" s="326"/>
-      <c r="H35" s="326"/>
-      <c r="I35" s="326"/>
-      <c r="J35" s="327"/>
-      <c r="K35" s="310" t="s">
+      <c r="D35" s="325"/>
+      <c r="E35" s="325"/>
+      <c r="F35" s="325"/>
+      <c r="G35" s="325"/>
+      <c r="H35" s="325"/>
+      <c r="I35" s="325"/>
+      <c r="J35" s="326"/>
+      <c r="K35" s="309" t="s">
         <v>42</v>
       </c>
-      <c r="L35" s="314">
+      <c r="L35" s="313">
         <v>1</v>
       </c>
       <c r="M35" s="145" t="s">
@@ -11556,16 +11622,16 @@
     </row>
     <row r="36" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B36" s="3"/>
-      <c r="C36" s="328"/>
-      <c r="D36" s="329"/>
-      <c r="E36" s="329"/>
-      <c r="F36" s="329"/>
-      <c r="G36" s="329"/>
-      <c r="H36" s="329"/>
-      <c r="I36" s="329"/>
-      <c r="J36" s="330"/>
-      <c r="K36" s="311"/>
-      <c r="L36" s="311"/>
+      <c r="C36" s="327"/>
+      <c r="D36" s="328"/>
+      <c r="E36" s="328"/>
+      <c r="F36" s="328"/>
+      <c r="G36" s="328"/>
+      <c r="H36" s="328"/>
+      <c r="I36" s="328"/>
+      <c r="J36" s="329"/>
+      <c r="K36" s="310"/>
+      <c r="L36" s="310"/>
       <c r="M36" s="146" t="s">
         <v>49</v>
       </c>
@@ -11586,20 +11652,20 @@
     </row>
     <row r="37" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B37" s="3"/>
-      <c r="C37" s="325" t="s">
+      <c r="C37" s="324" t="s">
         <v>78</v>
       </c>
-      <c r="D37" s="326"/>
-      <c r="E37" s="326"/>
-      <c r="F37" s="326"/>
-      <c r="G37" s="326"/>
-      <c r="H37" s="326"/>
-      <c r="I37" s="326"/>
-      <c r="J37" s="327"/>
-      <c r="K37" s="310" t="s">
+      <c r="D37" s="325"/>
+      <c r="E37" s="325"/>
+      <c r="F37" s="325"/>
+      <c r="G37" s="325"/>
+      <c r="H37" s="325"/>
+      <c r="I37" s="325"/>
+      <c r="J37" s="326"/>
+      <c r="K37" s="309" t="s">
         <v>21</v>
       </c>
-      <c r="L37" s="314">
+      <c r="L37" s="313">
         <v>1</v>
       </c>
       <c r="M37" s="145" t="s">
@@ -11622,16 +11688,16 @@
     </row>
     <row r="38" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B38" s="3"/>
-      <c r="C38" s="328"/>
-      <c r="D38" s="329"/>
-      <c r="E38" s="329"/>
-      <c r="F38" s="329"/>
-      <c r="G38" s="329"/>
-      <c r="H38" s="329"/>
-      <c r="I38" s="329"/>
-      <c r="J38" s="330"/>
-      <c r="K38" s="311"/>
-      <c r="L38" s="311"/>
+      <c r="C38" s="327"/>
+      <c r="D38" s="328"/>
+      <c r="E38" s="328"/>
+      <c r="F38" s="328"/>
+      <c r="G38" s="328"/>
+      <c r="H38" s="328"/>
+      <c r="I38" s="328"/>
+      <c r="J38" s="329"/>
+      <c r="K38" s="310"/>
+      <c r="L38" s="310"/>
       <c r="M38" s="146" t="s">
         <v>49</v>
       </c>
@@ -11652,20 +11718,20 @@
     </row>
     <row r="39" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B39" s="3"/>
-      <c r="C39" s="325" t="s">
+      <c r="C39" s="324" t="s">
         <v>79</v>
       </c>
-      <c r="D39" s="326"/>
-      <c r="E39" s="326"/>
-      <c r="F39" s="326"/>
-      <c r="G39" s="326"/>
-      <c r="H39" s="326"/>
-      <c r="I39" s="326"/>
-      <c r="J39" s="327"/>
-      <c r="K39" s="310" t="s">
+      <c r="D39" s="325"/>
+      <c r="E39" s="325"/>
+      <c r="F39" s="325"/>
+      <c r="G39" s="325"/>
+      <c r="H39" s="325"/>
+      <c r="I39" s="325"/>
+      <c r="J39" s="326"/>
+      <c r="K39" s="309" t="s">
         <v>21</v>
       </c>
-      <c r="L39" s="310" t="s">
+      <c r="L39" s="309" t="s">
         <v>70</v>
       </c>
       <c r="M39" s="145" t="s">
@@ -11688,16 +11754,16 @@
     </row>
     <row r="40" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B40" s="3"/>
-      <c r="C40" s="328"/>
-      <c r="D40" s="329"/>
-      <c r="E40" s="329"/>
-      <c r="F40" s="329"/>
-      <c r="G40" s="329"/>
-      <c r="H40" s="329"/>
-      <c r="I40" s="329"/>
-      <c r="J40" s="330"/>
-      <c r="K40" s="311"/>
-      <c r="L40" s="311" t="s">
+      <c r="C40" s="327"/>
+      <c r="D40" s="328"/>
+      <c r="E40" s="328"/>
+      <c r="F40" s="328"/>
+      <c r="G40" s="328"/>
+      <c r="H40" s="328"/>
+      <c r="I40" s="328"/>
+      <c r="J40" s="329"/>
+      <c r="K40" s="310"/>
+      <c r="L40" s="310" t="s">
         <v>40</v>
       </c>
       <c r="M40" s="146" t="s">
@@ -11720,20 +11786,20 @@
     </row>
     <row r="41" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B41" s="3"/>
-      <c r="C41" s="325" t="s">
+      <c r="C41" s="324" t="s">
         <v>80</v>
       </c>
-      <c r="D41" s="326"/>
-      <c r="E41" s="326"/>
-      <c r="F41" s="326"/>
-      <c r="G41" s="326"/>
-      <c r="H41" s="326"/>
-      <c r="I41" s="326"/>
-      <c r="J41" s="327"/>
-      <c r="K41" s="310" t="s">
+      <c r="D41" s="325"/>
+      <c r="E41" s="325"/>
+      <c r="F41" s="325"/>
+      <c r="G41" s="325"/>
+      <c r="H41" s="325"/>
+      <c r="I41" s="325"/>
+      <c r="J41" s="326"/>
+      <c r="K41" s="309" t="s">
         <v>21</v>
       </c>
-      <c r="L41" s="310" t="s">
+      <c r="L41" s="309" t="s">
         <v>70</v>
       </c>
       <c r="M41" s="145" t="s">
@@ -11756,16 +11822,16 @@
     </row>
     <row r="42" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B42" s="3"/>
-      <c r="C42" s="328"/>
-      <c r="D42" s="329"/>
-      <c r="E42" s="329"/>
-      <c r="F42" s="329"/>
-      <c r="G42" s="329"/>
-      <c r="H42" s="329"/>
-      <c r="I42" s="329"/>
-      <c r="J42" s="330"/>
-      <c r="K42" s="311"/>
-      <c r="L42" s="311" t="s">
+      <c r="C42" s="327"/>
+      <c r="D42" s="328"/>
+      <c r="E42" s="328"/>
+      <c r="F42" s="328"/>
+      <c r="G42" s="328"/>
+      <c r="H42" s="328"/>
+      <c r="I42" s="328"/>
+      <c r="J42" s="329"/>
+      <c r="K42" s="310"/>
+      <c r="L42" s="310" t="s">
         <v>40</v>
       </c>
       <c r="M42" s="146" t="s">
@@ -12046,20 +12112,20 @@
     </row>
     <row r="29" spans="2:30" x14ac:dyDescent="0.15">
       <c r="B29" s="3"/>
-      <c r="C29" s="339" t="s">
+      <c r="C29" s="338" t="s">
         <v>81</v>
       </c>
-      <c r="D29" s="340"/>
-      <c r="E29" s="340"/>
-      <c r="F29" s="340"/>
-      <c r="G29" s="340"/>
-      <c r="H29" s="340"/>
-      <c r="I29" s="340"/>
-      <c r="J29" s="341"/>
-      <c r="K29" s="310" t="s">
+      <c r="D29" s="339"/>
+      <c r="E29" s="339"/>
+      <c r="F29" s="339"/>
+      <c r="G29" s="339"/>
+      <c r="H29" s="339"/>
+      <c r="I29" s="339"/>
+      <c r="J29" s="340"/>
+      <c r="K29" s="309" t="s">
         <v>119</v>
       </c>
-      <c r="L29" s="312">
+      <c r="L29" s="311">
         <v>1</v>
       </c>
       <c r="M29" s="45" t="s">
@@ -12085,16 +12151,16 @@
     </row>
     <row r="30" spans="2:30" x14ac:dyDescent="0.15">
       <c r="B30" s="3"/>
-      <c r="C30" s="322"/>
-      <c r="D30" s="323"/>
-      <c r="E30" s="323"/>
-      <c r="F30" s="323"/>
-      <c r="G30" s="323"/>
-      <c r="H30" s="323"/>
-      <c r="I30" s="323"/>
-      <c r="J30" s="324"/>
-      <c r="K30" s="331"/>
-      <c r="L30" s="332"/>
+      <c r="C30" s="321"/>
+      <c r="D30" s="322"/>
+      <c r="E30" s="322"/>
+      <c r="F30" s="322"/>
+      <c r="G30" s="322"/>
+      <c r="H30" s="322"/>
+      <c r="I30" s="322"/>
+      <c r="J30" s="323"/>
+      <c r="K30" s="330"/>
+      <c r="L30" s="331"/>
       <c r="M30" s="44" t="s">
         <v>49</v>
       </c>
@@ -12118,18 +12184,18 @@
     </row>
     <row r="31" spans="2:30" x14ac:dyDescent="0.15">
       <c r="B31" s="3"/>
-      <c r="C31" s="322"/>
-      <c r="D31" s="323"/>
-      <c r="E31" s="323"/>
-      <c r="F31" s="323"/>
-      <c r="G31" s="323"/>
-      <c r="H31" s="323"/>
-      <c r="I31" s="323"/>
-      <c r="J31" s="323"/>
-      <c r="K31" s="337" t="s">
+      <c r="C31" s="321"/>
+      <c r="D31" s="322"/>
+      <c r="E31" s="322"/>
+      <c r="F31" s="322"/>
+      <c r="G31" s="322"/>
+      <c r="H31" s="322"/>
+      <c r="I31" s="322"/>
+      <c r="J31" s="322"/>
+      <c r="K31" s="336" t="s">
         <v>120</v>
       </c>
-      <c r="L31" s="344">
+      <c r="L31" s="343">
         <v>1</v>
       </c>
       <c r="M31" s="45" t="s">
@@ -12155,16 +12221,16 @@
     </row>
     <row r="32" spans="2:30" x14ac:dyDescent="0.15">
       <c r="B32" s="3"/>
-      <c r="C32" s="322"/>
-      <c r="D32" s="323"/>
-      <c r="E32" s="323"/>
-      <c r="F32" s="323"/>
-      <c r="G32" s="323"/>
-      <c r="H32" s="323"/>
-      <c r="I32" s="323"/>
-      <c r="J32" s="323"/>
-      <c r="K32" s="337"/>
-      <c r="L32" s="345"/>
+      <c r="C32" s="321"/>
+      <c r="D32" s="322"/>
+      <c r="E32" s="322"/>
+      <c r="F32" s="322"/>
+      <c r="G32" s="322"/>
+      <c r="H32" s="322"/>
+      <c r="I32" s="322"/>
+      <c r="J32" s="322"/>
+      <c r="K32" s="336"/>
+      <c r="L32" s="344"/>
       <c r="M32" s="44" t="s">
         <v>49</v>
       </c>
@@ -12188,18 +12254,18 @@
     </row>
     <row r="33" spans="2:30" x14ac:dyDescent="0.15">
       <c r="B33" s="3"/>
-      <c r="C33" s="322"/>
-      <c r="D33" s="323"/>
-      <c r="E33" s="323"/>
-      <c r="F33" s="323"/>
-      <c r="G33" s="323"/>
-      <c r="H33" s="323"/>
-      <c r="I33" s="323"/>
-      <c r="J33" s="323"/>
-      <c r="K33" s="337" t="s">
+      <c r="C33" s="321"/>
+      <c r="D33" s="322"/>
+      <c r="E33" s="322"/>
+      <c r="F33" s="322"/>
+      <c r="G33" s="322"/>
+      <c r="H33" s="322"/>
+      <c r="I33" s="322"/>
+      <c r="J33" s="322"/>
+      <c r="K33" s="336" t="s">
         <v>121</v>
       </c>
-      <c r="L33" s="344">
+      <c r="L33" s="343">
         <v>1</v>
       </c>
       <c r="M33" s="45" t="s">
@@ -12225,16 +12291,16 @@
     </row>
     <row r="34" spans="2:30" x14ac:dyDescent="0.15">
       <c r="B34" s="3"/>
-      <c r="C34" s="322"/>
-      <c r="D34" s="323"/>
-      <c r="E34" s="323"/>
-      <c r="F34" s="323"/>
-      <c r="G34" s="323"/>
-      <c r="H34" s="323"/>
-      <c r="I34" s="323"/>
-      <c r="J34" s="323"/>
-      <c r="K34" s="337"/>
-      <c r="L34" s="345"/>
+      <c r="C34" s="321"/>
+      <c r="D34" s="322"/>
+      <c r="E34" s="322"/>
+      <c r="F34" s="322"/>
+      <c r="G34" s="322"/>
+      <c r="H34" s="322"/>
+      <c r="I34" s="322"/>
+      <c r="J34" s="322"/>
+      <c r="K34" s="336"/>
+      <c r="L34" s="344"/>
       <c r="M34" s="44" t="s">
         <v>49</v>
       </c>
@@ -12258,18 +12324,18 @@
     </row>
     <row r="35" spans="2:30" x14ac:dyDescent="0.15">
       <c r="B35" s="3"/>
-      <c r="C35" s="322"/>
-      <c r="D35" s="323"/>
-      <c r="E35" s="323"/>
-      <c r="F35" s="323"/>
-      <c r="G35" s="323"/>
-      <c r="H35" s="323"/>
-      <c r="I35" s="323"/>
-      <c r="J35" s="323"/>
-      <c r="K35" s="337" t="s">
+      <c r="C35" s="321"/>
+      <c r="D35" s="322"/>
+      <c r="E35" s="322"/>
+      <c r="F35" s="322"/>
+      <c r="G35" s="322"/>
+      <c r="H35" s="322"/>
+      <c r="I35" s="322"/>
+      <c r="J35" s="322"/>
+      <c r="K35" s="336" t="s">
         <v>122</v>
       </c>
-      <c r="L35" s="344">
+      <c r="L35" s="343">
         <v>1</v>
       </c>
       <c r="M35" s="45" t="s">
@@ -12295,16 +12361,16 @@
     </row>
     <row r="36" spans="2:30" x14ac:dyDescent="0.15">
       <c r="B36" s="3"/>
-      <c r="C36" s="342"/>
-      <c r="D36" s="343"/>
-      <c r="E36" s="343"/>
-      <c r="F36" s="343"/>
-      <c r="G36" s="343"/>
-      <c r="H36" s="343"/>
-      <c r="I36" s="343"/>
-      <c r="J36" s="343"/>
-      <c r="K36" s="337"/>
-      <c r="L36" s="345"/>
+      <c r="C36" s="341"/>
+      <c r="D36" s="342"/>
+      <c r="E36" s="342"/>
+      <c r="F36" s="342"/>
+      <c r="G36" s="342"/>
+      <c r="H36" s="342"/>
+      <c r="I36" s="342"/>
+      <c r="J36" s="342"/>
+      <c r="K36" s="336"/>
+      <c r="L36" s="344"/>
       <c r="M36" s="44" t="s">
         <v>49</v>
       </c>
@@ -12359,20 +12425,20 @@
     </row>
     <row r="38" spans="2:30" x14ac:dyDescent="0.15">
       <c r="B38" s="3"/>
-      <c r="C38" s="333" t="s">
+      <c r="C38" s="332" t="s">
         <v>73</v>
       </c>
-      <c r="D38" s="334"/>
-      <c r="E38" s="334"/>
-      <c r="F38" s="334"/>
-      <c r="G38" s="334"/>
-      <c r="H38" s="334"/>
-      <c r="I38" s="334"/>
-      <c r="J38" s="334"/>
-      <c r="K38" s="337" t="s">
+      <c r="D38" s="333"/>
+      <c r="E38" s="333"/>
+      <c r="F38" s="333"/>
+      <c r="G38" s="333"/>
+      <c r="H38" s="333"/>
+      <c r="I38" s="333"/>
+      <c r="J38" s="333"/>
+      <c r="K38" s="336" t="s">
         <v>21</v>
       </c>
-      <c r="L38" s="338">
+      <c r="L38" s="337">
         <v>1</v>
       </c>
       <c r="M38" s="162" t="s">
@@ -12398,18 +12464,18 @@
     </row>
     <row r="39" spans="2:30" x14ac:dyDescent="0.15">
       <c r="B39" s="3"/>
-      <c r="C39" s="335"/>
-      <c r="D39" s="336"/>
-      <c r="E39" s="336"/>
-      <c r="F39" s="336"/>
-      <c r="G39" s="336"/>
-      <c r="H39" s="336"/>
-      <c r="I39" s="336"/>
-      <c r="J39" s="336"/>
-      <c r="K39" s="337" t="s">
+      <c r="C39" s="334"/>
+      <c r="D39" s="335"/>
+      <c r="E39" s="335"/>
+      <c r="F39" s="335"/>
+      <c r="G39" s="335"/>
+      <c r="H39" s="335"/>
+      <c r="I39" s="335"/>
+      <c r="J39" s="335"/>
+      <c r="K39" s="336" t="s">
         <v>21</v>
       </c>
-      <c r="L39" s="337"/>
+      <c r="L39" s="336"/>
       <c r="M39" s="163" t="s">
         <v>49</v>
       </c>
@@ -12433,20 +12499,20 @@
     </row>
     <row r="40" spans="2:30" x14ac:dyDescent="0.15">
       <c r="B40" s="3"/>
-      <c r="C40" s="333" t="s">
+      <c r="C40" s="332" t="s">
         <v>82</v>
       </c>
-      <c r="D40" s="334"/>
-      <c r="E40" s="334"/>
-      <c r="F40" s="334"/>
-      <c r="G40" s="334"/>
-      <c r="H40" s="334"/>
-      <c r="I40" s="334"/>
-      <c r="J40" s="346"/>
-      <c r="K40" s="331" t="s">
+      <c r="D40" s="333"/>
+      <c r="E40" s="333"/>
+      <c r="F40" s="333"/>
+      <c r="G40" s="333"/>
+      <c r="H40" s="333"/>
+      <c r="I40" s="333"/>
+      <c r="J40" s="345"/>
+      <c r="K40" s="330" t="s">
         <v>21</v>
       </c>
-      <c r="L40" s="348">
+      <c r="L40" s="347">
         <v>1</v>
       </c>
       <c r="M40" s="45" t="s">
@@ -12472,18 +12538,18 @@
     </row>
     <row r="41" spans="2:30" x14ac:dyDescent="0.15">
       <c r="B41" s="3"/>
-      <c r="C41" s="335"/>
-      <c r="D41" s="336"/>
-      <c r="E41" s="336"/>
-      <c r="F41" s="336"/>
-      <c r="G41" s="336"/>
-      <c r="H41" s="336"/>
-      <c r="I41" s="336"/>
-      <c r="J41" s="347"/>
-      <c r="K41" s="311" t="s">
+      <c r="C41" s="334"/>
+      <c r="D41" s="335"/>
+      <c r="E41" s="335"/>
+      <c r="F41" s="335"/>
+      <c r="G41" s="335"/>
+      <c r="H41" s="335"/>
+      <c r="I41" s="335"/>
+      <c r="J41" s="346"/>
+      <c r="K41" s="310" t="s">
         <v>21</v>
       </c>
-      <c r="L41" s="313"/>
+      <c r="L41" s="312"/>
       <c r="M41" s="44" t="s">
         <v>49</v>
       </c>
@@ -12507,20 +12573,20 @@
     </row>
     <row r="42" spans="2:30" x14ac:dyDescent="0.15">
       <c r="B42" s="3"/>
-      <c r="C42" s="333" t="s">
+      <c r="C42" s="332" t="s">
         <v>83</v>
       </c>
-      <c r="D42" s="334"/>
-      <c r="E42" s="334"/>
-      <c r="F42" s="334"/>
-      <c r="G42" s="334"/>
-      <c r="H42" s="334"/>
-      <c r="I42" s="334"/>
-      <c r="J42" s="346"/>
-      <c r="K42" s="310" t="s">
+      <c r="D42" s="333"/>
+      <c r="E42" s="333"/>
+      <c r="F42" s="333"/>
+      <c r="G42" s="333"/>
+      <c r="H42" s="333"/>
+      <c r="I42" s="333"/>
+      <c r="J42" s="345"/>
+      <c r="K42" s="309" t="s">
         <v>21</v>
       </c>
-      <c r="L42" s="312">
+      <c r="L42" s="311">
         <v>1</v>
       </c>
       <c r="M42" s="45" t="s">
@@ -12546,18 +12612,18 @@
     </row>
     <row r="43" spans="2:30" x14ac:dyDescent="0.15">
       <c r="B43" s="3"/>
-      <c r="C43" s="335"/>
-      <c r="D43" s="336"/>
-      <c r="E43" s="336"/>
-      <c r="F43" s="336"/>
-      <c r="G43" s="336"/>
-      <c r="H43" s="336"/>
-      <c r="I43" s="336"/>
-      <c r="J43" s="347"/>
-      <c r="K43" s="311" t="s">
+      <c r="C43" s="334"/>
+      <c r="D43" s="335"/>
+      <c r="E43" s="335"/>
+      <c r="F43" s="335"/>
+      <c r="G43" s="335"/>
+      <c r="H43" s="335"/>
+      <c r="I43" s="335"/>
+      <c r="J43" s="346"/>
+      <c r="K43" s="310" t="s">
         <v>21</v>
       </c>
-      <c r="L43" s="313"/>
+      <c r="L43" s="312"/>
       <c r="M43" s="44" t="s">
         <v>49</v>
       </c>
@@ -12581,20 +12647,20 @@
     </row>
     <row r="44" spans="2:30" x14ac:dyDescent="0.15">
       <c r="B44" s="3"/>
-      <c r="C44" s="333" t="s">
+      <c r="C44" s="332" t="s">
         <v>84</v>
       </c>
-      <c r="D44" s="334"/>
-      <c r="E44" s="334"/>
-      <c r="F44" s="334"/>
-      <c r="G44" s="334"/>
-      <c r="H44" s="334"/>
-      <c r="I44" s="334"/>
-      <c r="J44" s="346"/>
-      <c r="K44" s="310" t="s">
+      <c r="D44" s="333"/>
+      <c r="E44" s="333"/>
+      <c r="F44" s="333"/>
+      <c r="G44" s="333"/>
+      <c r="H44" s="333"/>
+      <c r="I44" s="333"/>
+      <c r="J44" s="345"/>
+      <c r="K44" s="309" t="s">
         <v>21</v>
       </c>
-      <c r="L44" s="312">
+      <c r="L44" s="311">
         <v>1</v>
       </c>
       <c r="M44" s="45" t="s">
@@ -12620,18 +12686,18 @@
     </row>
     <row r="45" spans="2:30" x14ac:dyDescent="0.15">
       <c r="B45" s="3"/>
-      <c r="C45" s="335"/>
-      <c r="D45" s="336"/>
-      <c r="E45" s="336"/>
-      <c r="F45" s="336"/>
-      <c r="G45" s="336"/>
-      <c r="H45" s="336"/>
-      <c r="I45" s="336"/>
-      <c r="J45" s="347"/>
-      <c r="K45" s="311" t="s">
+      <c r="C45" s="334"/>
+      <c r="D45" s="335"/>
+      <c r="E45" s="335"/>
+      <c r="F45" s="335"/>
+      <c r="G45" s="335"/>
+      <c r="H45" s="335"/>
+      <c r="I45" s="335"/>
+      <c r="J45" s="346"/>
+      <c r="K45" s="310" t="s">
         <v>21</v>
       </c>
-      <c r="L45" s="313"/>
+      <c r="L45" s="312"/>
       <c r="M45" s="44" t="s">
         <v>49</v>
       </c>
@@ -12738,10 +12804,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="B23:CL68"/>
+  <dimension ref="B23:CN68"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S67" sqref="S67"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="M24" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AI29" sqref="AI29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.875" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
@@ -12750,16 +12816,15 @@
     <col min="11" max="11" width="8" style="1" customWidth="1"/>
     <col min="12" max="12" width="10.25" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="8" style="1" customWidth="1"/>
-    <col min="14" max="16" width="4.875" style="1" customWidth="1"/>
-    <col min="17" max="16384" width="4.875" style="1"/>
+    <col min="14" max="15" width="9.875" style="1" customWidth="1"/>
+    <col min="16" max="18" width="4.875" style="1" customWidth="1"/>
+    <col min="19" max="16384" width="4.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="23" spans="2:90" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:92" ht="17.25" x14ac:dyDescent="0.15">
       <c r="B23" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="X23" s="97"/>
-      <c r="Y23" s="97"/>
       <c r="Z23" s="97"/>
       <c r="AA23" s="97"/>
       <c r="AB23" s="97"/>
@@ -12825,18 +12890,22 @@
       <c r="CJ23" s="97"/>
       <c r="CK23" s="97"/>
       <c r="CL23" s="97"/>
-    </row>
-    <row r="24" spans="2:90" x14ac:dyDescent="0.15">
-      <c r="O24" s="46"/>
-      <c r="P24" s="1" t="s">
+      <c r="CM23" s="97"/>
+      <c r="CN23" s="97"/>
+    </row>
+    <row r="24" spans="2:92" x14ac:dyDescent="0.15">
+      <c r="Q24" s="46"/>
+      <c r="R24" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="Q24" s="47"/>
-      <c r="R24" s="1" t="s">
+      <c r="S24" s="47"/>
+      <c r="T24" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="X24" s="97"/>
-      <c r="Y24" s="97"/>
+      <c r="U24" s="365"/>
+      <c r="V24" s="1" t="s">
+        <v>179</v>
+      </c>
       <c r="Z24" s="97"/>
       <c r="AA24" s="97"/>
       <c r="AB24" s="97"/>
@@ -12902,8 +12971,10 @@
       <c r="CJ24" s="97"/>
       <c r="CK24" s="97"/>
       <c r="CL24" s="97"/>
-    </row>
-    <row r="25" spans="2:90" s="85" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="CM24" s="97"/>
+      <c r="CN24" s="97"/>
+    </row>
+    <row r="25" spans="2:92" s="85" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B25" s="98"/>
       <c r="C25" s="99"/>
       <c r="D25" s="100"/>
@@ -12913,21 +12984,23 @@
       <c r="H25" s="100"/>
       <c r="I25" s="100"/>
       <c r="J25" s="100"/>
-      <c r="K25" s="352" t="s">
+      <c r="K25" s="351" t="s">
         <v>3</v>
       </c>
       <c r="L25" s="252"/>
-      <c r="M25" s="355" t="s">
-        <v>38</v>
-      </c>
-      <c r="N25" s="355" t="s">
+      <c r="M25" s="366" t="s">
+        <v>180</v>
+      </c>
+      <c r="N25" s="366" t="s">
+        <v>181</v>
+      </c>
+      <c r="O25" s="369"/>
+      <c r="P25" s="354" t="s">
         <v>47</v>
       </c>
-      <c r="O25" s="101">
+      <c r="Q25" s="101">
         <v>2020</v>
       </c>
-      <c r="P25" s="102"/>
-      <c r="Q25" s="102"/>
       <c r="R25" s="102"/>
       <c r="S25" s="102"/>
       <c r="T25" s="102"/>
@@ -12938,9 +13011,9 @@
       <c r="Y25" s="102"/>
       <c r="Z25" s="102"/>
       <c r="AA25" s="102"/>
-      <c r="AB25" s="103"/>
-      <c r="AC25" s="96"/>
-      <c r="AD25" s="96"/>
+      <c r="AB25" s="102"/>
+      <c r="AC25" s="102"/>
+      <c r="AD25" s="103"/>
       <c r="AE25" s="96"/>
       <c r="AF25" s="96"/>
       <c r="AG25" s="96"/>
@@ -13001,8 +13074,10 @@
       <c r="CJ25" s="96"/>
       <c r="CK25" s="96"/>
       <c r="CL25" s="96"/>
-    </row>
-    <row r="26" spans="2:90" s="85" customFormat="1" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="CM25" s="96"/>
+      <c r="CN25" s="96"/>
+    </row>
+    <row r="26" spans="2:92" s="85" customFormat="1" ht="22.5" x14ac:dyDescent="0.15">
       <c r="B26" s="124"/>
       <c r="C26" s="170"/>
       <c r="D26" s="171"/>
@@ -13012,18 +13087,18 @@
       <c r="H26" s="171"/>
       <c r="I26" s="171"/>
       <c r="J26" s="171"/>
-      <c r="K26" s="353"/>
+      <c r="K26" s="352"/>
       <c r="L26" s="254" t="s">
         <v>154</v>
       </c>
-      <c r="M26" s="356"/>
-      <c r="N26" s="356"/>
-      <c r="O26" s="99" t="s">
+      <c r="M26" s="367"/>
+      <c r="N26" s="367"/>
+      <c r="O26" s="370"/>
+      <c r="P26" s="355"/>
+      <c r="Q26" s="99" t="s">
         <v>123</v>
       </c>
-      <c r="P26" s="100"/>
-      <c r="Q26" s="171"/>
-      <c r="R26" s="171"/>
+      <c r="R26" s="100"/>
       <c r="S26" s="171"/>
       <c r="T26" s="171"/>
       <c r="U26" s="171"/>
@@ -13034,8 +13109,8 @@
       <c r="Z26" s="171"/>
       <c r="AA26" s="171"/>
       <c r="AB26" s="171"/>
-      <c r="AC26" s="96"/>
-      <c r="AD26" s="96"/>
+      <c r="AC26" s="171"/>
+      <c r="AD26" s="171"/>
       <c r="AE26" s="96"/>
       <c r="AF26" s="96"/>
       <c r="AG26" s="96"/>
@@ -13096,8 +13171,10 @@
       <c r="CJ26" s="96"/>
       <c r="CK26" s="96"/>
       <c r="CL26" s="96"/>
-    </row>
-    <row r="27" spans="2:90" s="85" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="CM26" s="96"/>
+      <c r="CN26" s="96"/>
+    </row>
+    <row r="27" spans="2:92" s="85" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B27" s="124"/>
       <c r="C27" s="88"/>
       <c r="D27" s="90"/>
@@ -13107,54 +13184,54 @@
       <c r="H27" s="90"/>
       <c r="I27" s="90"/>
       <c r="J27" s="90"/>
-      <c r="K27" s="354"/>
+      <c r="K27" s="353"/>
       <c r="L27" s="253"/>
-      <c r="M27" s="357"/>
-      <c r="N27" s="357"/>
-      <c r="O27" s="84">
+      <c r="M27" s="368"/>
+      <c r="N27" s="368"/>
+      <c r="O27" s="371"/>
+      <c r="P27" s="356"/>
+      <c r="Q27" s="84">
         <v>17</v>
       </c>
-      <c r="P27" s="84">
+      <c r="R27" s="84">
         <v>18</v>
       </c>
-      <c r="Q27" s="84">
+      <c r="S27" s="84">
         <v>19</v>
       </c>
-      <c r="R27" s="84">
+      <c r="T27" s="84">
         <v>20</v>
       </c>
-      <c r="S27" s="84">
+      <c r="U27" s="84">
         <v>21</v>
       </c>
-      <c r="T27" s="84">
+      <c r="V27" s="84">
         <v>22</v>
       </c>
-      <c r="U27" s="84">
+      <c r="W27" s="84">
         <v>23</v>
       </c>
-      <c r="V27" s="84">
+      <c r="X27" s="84">
         <v>24</v>
       </c>
-      <c r="W27" s="84">
+      <c r="Y27" s="84">
         <v>25</v>
       </c>
-      <c r="X27" s="84">
+      <c r="Z27" s="84">
         <v>26</v>
       </c>
-      <c r="Y27" s="84">
+      <c r="AA27" s="84">
         <v>27</v>
       </c>
-      <c r="Z27" s="84">
+      <c r="AB27" s="84">
         <v>28</v>
       </c>
-      <c r="AA27" s="84">
+      <c r="AC27" s="84">
         <v>29</v>
       </c>
-      <c r="AB27" s="84">
+      <c r="AD27" s="84">
         <v>30</v>
       </c>
-      <c r="AC27" s="96"/>
-      <c r="AD27" s="96"/>
       <c r="AE27" s="96"/>
       <c r="AF27" s="96"/>
       <c r="AG27" s="96"/>
@@ -13215,8 +13292,10 @@
       <c r="CJ27" s="96"/>
       <c r="CK27" s="96"/>
       <c r="CL27" s="96"/>
-    </row>
-    <row r="28" spans="2:90" s="85" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="CM27" s="96"/>
+      <c r="CN27" s="96"/>
+    </row>
+    <row r="28" spans="2:92" s="85" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B28" s="125">
         <v>6</v>
       </c>
@@ -13234,22 +13313,22 @@
       <c r="L28" s="92"/>
       <c r="M28" s="93"/>
       <c r="N28" s="92"/>
-      <c r="O28" s="116"/>
-      <c r="P28" s="176"/>
-      <c r="Q28" s="178"/>
-      <c r="R28" s="179"/>
-      <c r="S28" s="95"/>
-      <c r="T28" s="95"/>
+      <c r="O28" s="92"/>
+      <c r="P28" s="92"/>
+      <c r="Q28" s="116"/>
+      <c r="R28" s="176"/>
+      <c r="S28" s="178"/>
+      <c r="T28" s="179"/>
       <c r="U28" s="95"/>
       <c r="V28" s="95"/>
-      <c r="W28" s="173"/>
-      <c r="X28" s="172"/>
-      <c r="Y28" s="95"/>
-      <c r="Z28" s="173"/>
-      <c r="AA28" s="172"/>
-      <c r="AB28" s="95"/>
-      <c r="AC28" s="96"/>
-      <c r="AD28" s="96"/>
+      <c r="W28" s="95"/>
+      <c r="X28" s="95"/>
+      <c r="Y28" s="173"/>
+      <c r="Z28" s="172"/>
+      <c r="AA28" s="95"/>
+      <c r="AB28" s="173"/>
+      <c r="AC28" s="172"/>
+      <c r="AD28" s="95"/>
       <c r="AE28" s="96"/>
       <c r="AF28" s="96"/>
       <c r="AG28" s="96"/>
@@ -13310,8 +13389,10 @@
       <c r="CJ28" s="96"/>
       <c r="CK28" s="96"/>
       <c r="CL28" s="96"/>
-    </row>
-    <row r="29" spans="2:90" s="85" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="CM28" s="96"/>
+      <c r="CN28" s="96"/>
+    </row>
+    <row r="29" spans="2:92" s="85" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B29" s="126"/>
       <c r="C29" s="123" t="s">
         <v>86</v>
@@ -13327,27 +13408,30 @@
       <c r="L29" s="92"/>
       <c r="M29" s="93"/>
       <c r="N29" s="117"/>
-      <c r="O29" s="118"/>
-      <c r="P29" s="119"/>
-      <c r="Q29" s="180"/>
-      <c r="R29" s="179"/>
-      <c r="S29" s="95"/>
-      <c r="T29" s="95"/>
+      <c r="O29" s="117"/>
+      <c r="P29" s="117"/>
+      <c r="Q29" s="118"/>
+      <c r="R29" s="119"/>
+      <c r="S29" s="180"/>
+      <c r="T29" s="179"/>
       <c r="U29" s="95"/>
       <c r="V29" s="95"/>
-      <c r="W29" s="173"/>
-      <c r="X29" s="172"/>
-      <c r="Y29" s="95"/>
-      <c r="Z29" s="173"/>
-      <c r="AA29" s="172"/>
-      <c r="AB29" s="95"/>
-      <c r="AC29" s="96"/>
-      <c r="AD29" s="96"/>
+      <c r="W29" s="95"/>
+      <c r="X29" s="95"/>
+      <c r="Y29" s="173"/>
+      <c r="Z29" s="172"/>
+      <c r="AA29" s="95"/>
+      <c r="AB29" s="173"/>
+      <c r="AC29" s="172"/>
+      <c r="AD29" s="95"/>
       <c r="AE29" s="96"/>
       <c r="AF29" s="96"/>
       <c r="AG29" s="96"/>
       <c r="AH29" s="96"/>
-      <c r="AI29" s="96"/>
+      <c r="AI29" s="96">
+        <f>SUM(O30:O67)</f>
+        <v>710</v>
+      </c>
       <c r="AJ29" s="96"/>
       <c r="AK29" s="96"/>
       <c r="AL29" s="96"/>
@@ -13403,52 +13487,61 @@
       <c r="CJ29" s="96"/>
       <c r="CK29" s="96"/>
       <c r="CL29" s="96"/>
-    </row>
-    <row r="30" spans="2:90" s="85" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="CM29" s="96"/>
+      <c r="CN29" s="96"/>
+    </row>
+    <row r="30" spans="2:92" s="85" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B30" s="126"/>
-      <c r="C30" s="349" t="s">
+      <c r="C30" s="348" t="s">
         <v>145</v>
       </c>
-      <c r="D30" s="334"/>
-      <c r="E30" s="334"/>
-      <c r="F30" s="334"/>
-      <c r="G30" s="334"/>
-      <c r="H30" s="334"/>
-      <c r="I30" s="334"/>
-      <c r="J30" s="346"/>
-      <c r="K30" s="310" t="s">
+      <c r="D30" s="333"/>
+      <c r="E30" s="333"/>
+      <c r="F30" s="333"/>
+      <c r="G30" s="333"/>
+      <c r="H30" s="333"/>
+      <c r="I30" s="333"/>
+      <c r="J30" s="345"/>
+      <c r="K30" s="309" t="s">
         <v>158</v>
       </c>
-      <c r="L30" s="350" t="s">
+      <c r="L30" s="349" t="s">
         <v>155</v>
       </c>
-      <c r="M30" s="314" t="s">
+      <c r="M30" s="313" t="s">
         <v>40</v>
       </c>
-      <c r="N30" s="145" t="s">
+      <c r="N30" s="313" t="s">
+        <v>40</v>
+      </c>
+      <c r="O30" s="349">
+        <v>100</v>
+      </c>
+      <c r="P30" s="145" t="s">
         <v>48</v>
       </c>
-      <c r="O30" s="46"/>
-      <c r="P30" s="46"/>
-      <c r="Q30" s="239"/>
-      <c r="R30" s="179"/>
-      <c r="S30" s="95"/>
-      <c r="T30" s="95"/>
+      <c r="Q30" s="46"/>
+      <c r="R30" s="46"/>
+      <c r="S30" s="239"/>
+      <c r="T30" s="179"/>
       <c r="U30" s="95"/>
-      <c r="V30" s="95"/>
-      <c r="W30" s="173"/>
-      <c r="X30" s="172"/>
-      <c r="Y30" s="95"/>
-      <c r="Z30" s="173"/>
-      <c r="AA30" s="172"/>
-      <c r="AB30" s="95"/>
-      <c r="AC30" s="96"/>
-      <c r="AD30" s="96"/>
+      <c r="V30" s="365"/>
+      <c r="W30" s="95"/>
+      <c r="X30" s="95"/>
+      <c r="Y30" s="173"/>
+      <c r="Z30" s="172"/>
+      <c r="AA30" s="95"/>
+      <c r="AB30" s="173"/>
+      <c r="AC30" s="172"/>
+      <c r="AD30" s="95"/>
       <c r="AE30" s="96"/>
       <c r="AF30" s="96"/>
       <c r="AG30" s="96"/>
       <c r="AH30" s="96"/>
-      <c r="AI30" s="96"/>
+      <c r="AI30" s="372">
+        <f>SUM(O30:O67)/1900</f>
+        <v>0.37368421052631579</v>
+      </c>
       <c r="AJ30" s="96"/>
       <c r="AK30" s="96"/>
       <c r="AL30" s="96"/>
@@ -13504,39 +13597,41 @@
       <c r="CJ30" s="96"/>
       <c r="CK30" s="96"/>
       <c r="CL30" s="96"/>
-    </row>
-    <row r="31" spans="2:90" x14ac:dyDescent="0.15">
+      <c r="CM30" s="96"/>
+      <c r="CN30" s="96"/>
+    </row>
+    <row r="31" spans="2:92" x14ac:dyDescent="0.15">
       <c r="B31" s="122"/>
-      <c r="C31" s="336"/>
-      <c r="D31" s="336"/>
-      <c r="E31" s="336"/>
-      <c r="F31" s="336"/>
-      <c r="G31" s="336"/>
-      <c r="H31" s="336"/>
-      <c r="I31" s="336"/>
-      <c r="J31" s="347"/>
-      <c r="K31" s="311"/>
-      <c r="L31" s="351"/>
-      <c r="M31" s="311"/>
-      <c r="N31" s="146" t="s">
+      <c r="C31" s="335"/>
+      <c r="D31" s="335"/>
+      <c r="E31" s="335"/>
+      <c r="F31" s="335"/>
+      <c r="G31" s="335"/>
+      <c r="H31" s="335"/>
+      <c r="I31" s="335"/>
+      <c r="J31" s="346"/>
+      <c r="K31" s="310"/>
+      <c r="L31" s="350"/>
+      <c r="M31" s="310"/>
+      <c r="N31" s="310"/>
+      <c r="O31" s="350"/>
+      <c r="P31" s="146" t="s">
         <v>49</v>
       </c>
-      <c r="O31" s="245"/>
-      <c r="P31" s="47"/>
-      <c r="Q31" s="183"/>
-      <c r="R31" s="184"/>
-      <c r="S31" s="28"/>
-      <c r="T31" s="28"/>
+      <c r="Q31" s="245"/>
+      <c r="R31" s="47"/>
+      <c r="S31" s="183"/>
+      <c r="T31" s="184"/>
       <c r="U31" s="28"/>
       <c r="V31" s="28"/>
-      <c r="W31" s="175"/>
-      <c r="X31" s="27"/>
-      <c r="Y31" s="28"/>
-      <c r="Z31" s="175"/>
-      <c r="AA31" s="27"/>
-      <c r="AB31" s="28"/>
-      <c r="AC31" s="97"/>
-      <c r="AD31" s="97"/>
+      <c r="W31" s="28"/>
+      <c r="X31" s="28"/>
+      <c r="Y31" s="175"/>
+      <c r="Z31" s="27"/>
+      <c r="AA31" s="28"/>
+      <c r="AB31" s="175"/>
+      <c r="AC31" s="27"/>
+      <c r="AD31" s="28"/>
       <c r="AE31" s="97"/>
       <c r="AF31" s="97"/>
       <c r="AG31" s="97"/>
@@ -13597,47 +13692,53 @@
       <c r="CJ31" s="97"/>
       <c r="CK31" s="97"/>
       <c r="CL31" s="97"/>
-    </row>
-    <row r="32" spans="2:90" x14ac:dyDescent="0.15">
+      <c r="CM31" s="97"/>
+      <c r="CN31" s="97"/>
+    </row>
+    <row r="32" spans="2:92" x14ac:dyDescent="0.15">
       <c r="B32" s="122"/>
-      <c r="C32" s="349" t="s">
+      <c r="C32" s="348" t="s">
         <v>146</v>
       </c>
-      <c r="D32" s="334"/>
-      <c r="E32" s="334"/>
-      <c r="F32" s="334"/>
-      <c r="G32" s="334"/>
-      <c r="H32" s="334"/>
-      <c r="I32" s="334"/>
-      <c r="J32" s="346"/>
-      <c r="K32" s="350" t="s">
+      <c r="D32" s="333"/>
+      <c r="E32" s="333"/>
+      <c r="F32" s="333"/>
+      <c r="G32" s="333"/>
+      <c r="H32" s="333"/>
+      <c r="I32" s="333"/>
+      <c r="J32" s="345"/>
+      <c r="K32" s="349" t="s">
         <v>156</v>
       </c>
-      <c r="L32" s="350" t="s">
+      <c r="L32" s="349" t="s">
         <v>157</v>
       </c>
-      <c r="M32" s="314" t="s">
+      <c r="M32" s="313" t="s">
         <v>40</v>
       </c>
-      <c r="N32" s="145" t="s">
+      <c r="N32" s="313" t="s">
+        <v>174</v>
+      </c>
+      <c r="O32" s="349">
+        <v>80</v>
+      </c>
+      <c r="P32" s="145" t="s">
         <v>48</v>
       </c>
-      <c r="O32" s="46"/>
-      <c r="P32" s="46"/>
-      <c r="Q32" s="181"/>
-      <c r="R32" s="182"/>
-      <c r="S32" s="24"/>
-      <c r="T32" s="24"/>
+      <c r="Q32" s="46"/>
+      <c r="R32" s="46"/>
+      <c r="S32" s="181"/>
+      <c r="T32" s="182"/>
       <c r="U32" s="24"/>
-      <c r="V32" s="24"/>
-      <c r="W32" s="174"/>
-      <c r="X32" s="23"/>
-      <c r="Y32" s="24"/>
-      <c r="Z32" s="174"/>
-      <c r="AA32" s="23"/>
-      <c r="AB32" s="24"/>
-      <c r="AC32" s="97"/>
-      <c r="AD32" s="97"/>
+      <c r="V32" s="365"/>
+      <c r="W32" s="24"/>
+      <c r="X32" s="24"/>
+      <c r="Y32" s="174"/>
+      <c r="Z32" s="23"/>
+      <c r="AA32" s="24"/>
+      <c r="AB32" s="174"/>
+      <c r="AC32" s="23"/>
+      <c r="AD32" s="24"/>
       <c r="AE32" s="97"/>
       <c r="AF32" s="97"/>
       <c r="AG32" s="97"/>
@@ -13698,39 +13799,41 @@
       <c r="CJ32" s="97"/>
       <c r="CK32" s="97"/>
       <c r="CL32" s="97"/>
-    </row>
-    <row r="33" spans="2:90" x14ac:dyDescent="0.15">
+      <c r="CM32" s="97"/>
+      <c r="CN32" s="97"/>
+    </row>
+    <row r="33" spans="2:92" x14ac:dyDescent="0.15">
       <c r="B33" s="122"/>
-      <c r="C33" s="336"/>
-      <c r="D33" s="336"/>
-      <c r="E33" s="336"/>
-      <c r="F33" s="336"/>
-      <c r="G33" s="336"/>
-      <c r="H33" s="336"/>
-      <c r="I33" s="336"/>
-      <c r="J33" s="347"/>
-      <c r="K33" s="351"/>
-      <c r="L33" s="351"/>
-      <c r="M33" s="311"/>
-      <c r="N33" s="146" t="s">
+      <c r="C33" s="335"/>
+      <c r="D33" s="335"/>
+      <c r="E33" s="335"/>
+      <c r="F33" s="335"/>
+      <c r="G33" s="335"/>
+      <c r="H33" s="335"/>
+      <c r="I33" s="335"/>
+      <c r="J33" s="346"/>
+      <c r="K33" s="350"/>
+      <c r="L33" s="350"/>
+      <c r="M33" s="310"/>
+      <c r="N33" s="310"/>
+      <c r="O33" s="350"/>
+      <c r="P33" s="146" t="s">
         <v>49</v>
       </c>
-      <c r="O33" s="245"/>
-      <c r="P33" s="47"/>
-      <c r="Q33" s="183"/>
-      <c r="R33" s="184"/>
-      <c r="S33" s="28"/>
-      <c r="T33" s="28"/>
+      <c r="Q33" s="245"/>
+      <c r="R33" s="47"/>
+      <c r="S33" s="183"/>
+      <c r="T33" s="184"/>
       <c r="U33" s="28"/>
       <c r="V33" s="28"/>
-      <c r="W33" s="175"/>
-      <c r="X33" s="27"/>
-      <c r="Y33" s="28"/>
-      <c r="Z33" s="175"/>
-      <c r="AA33" s="27"/>
-      <c r="AB33" s="28"/>
-      <c r="AC33" s="97"/>
-      <c r="AD33" s="97"/>
+      <c r="W33" s="28"/>
+      <c r="X33" s="28"/>
+      <c r="Y33" s="175"/>
+      <c r="Z33" s="27"/>
+      <c r="AA33" s="28"/>
+      <c r="AB33" s="175"/>
+      <c r="AC33" s="27"/>
+      <c r="AD33" s="28"/>
       <c r="AE33" s="97"/>
       <c r="AF33" s="97"/>
       <c r="AG33" s="97"/>
@@ -13791,47 +13894,53 @@
       <c r="CJ33" s="97"/>
       <c r="CK33" s="97"/>
       <c r="CL33" s="97"/>
-    </row>
-    <row r="34" spans="2:90" x14ac:dyDescent="0.15">
+      <c r="CM33" s="97"/>
+      <c r="CN33" s="97"/>
+    </row>
+    <row r="34" spans="2:92" x14ac:dyDescent="0.15">
       <c r="B34" s="122"/>
-      <c r="C34" s="349" t="s">
+      <c r="C34" s="348" t="s">
         <v>150</v>
       </c>
-      <c r="D34" s="334"/>
-      <c r="E34" s="334"/>
-      <c r="F34" s="334"/>
-      <c r="G34" s="334"/>
-      <c r="H34" s="334"/>
-      <c r="I34" s="334"/>
-      <c r="J34" s="346"/>
-      <c r="K34" s="350" t="s">
+      <c r="D34" s="333"/>
+      <c r="E34" s="333"/>
+      <c r="F34" s="333"/>
+      <c r="G34" s="333"/>
+      <c r="H34" s="333"/>
+      <c r="I34" s="333"/>
+      <c r="J34" s="345"/>
+      <c r="K34" s="349" t="s">
         <v>157</v>
       </c>
-      <c r="L34" s="350" t="s">
-        <v>161</v>
-      </c>
-      <c r="M34" s="314" t="s">
+      <c r="L34" s="349" t="s">
+        <v>155</v>
+      </c>
+      <c r="M34" s="313" t="s">
         <v>40</v>
       </c>
-      <c r="N34" s="145" t="s">
+      <c r="N34" s="313" t="s">
+        <v>40</v>
+      </c>
+      <c r="O34" s="349">
+        <v>100</v>
+      </c>
+      <c r="P34" s="145" t="s">
         <v>48</v>
       </c>
-      <c r="O34" s="46"/>
-      <c r="P34" s="46"/>
-      <c r="Q34" s="181"/>
-      <c r="R34" s="182"/>
-      <c r="S34" s="24"/>
-      <c r="T34" s="24"/>
+      <c r="Q34" s="46"/>
+      <c r="R34" s="46"/>
+      <c r="S34" s="181"/>
+      <c r="T34" s="182"/>
       <c r="U34" s="24"/>
-      <c r="V34" s="24"/>
-      <c r="W34" s="174"/>
-      <c r="X34" s="23"/>
-      <c r="Y34" s="24"/>
-      <c r="Z34" s="174"/>
-      <c r="AA34" s="23"/>
-      <c r="AB34" s="24"/>
-      <c r="AC34" s="97"/>
-      <c r="AD34" s="97"/>
+      <c r="V34" s="365"/>
+      <c r="W34" s="24"/>
+      <c r="X34" s="24"/>
+      <c r="Y34" s="174"/>
+      <c r="Z34" s="23"/>
+      <c r="AA34" s="24"/>
+      <c r="AB34" s="174"/>
+      <c r="AC34" s="23"/>
+      <c r="AD34" s="24"/>
       <c r="AE34" s="97"/>
       <c r="AF34" s="97"/>
       <c r="AG34" s="97"/>
@@ -13892,39 +14001,41 @@
       <c r="CJ34" s="97"/>
       <c r="CK34" s="97"/>
       <c r="CL34" s="97"/>
-    </row>
-    <row r="35" spans="2:90" x14ac:dyDescent="0.15">
+      <c r="CM34" s="97"/>
+      <c r="CN34" s="97"/>
+    </row>
+    <row r="35" spans="2:92" x14ac:dyDescent="0.15">
       <c r="B35" s="122"/>
-      <c r="C35" s="336"/>
-      <c r="D35" s="336"/>
-      <c r="E35" s="336"/>
-      <c r="F35" s="336"/>
-      <c r="G35" s="336"/>
-      <c r="H35" s="336"/>
-      <c r="I35" s="336"/>
-      <c r="J35" s="347"/>
-      <c r="K35" s="351"/>
-      <c r="L35" s="351"/>
-      <c r="M35" s="311"/>
-      <c r="N35" s="146" t="s">
+      <c r="C35" s="335"/>
+      <c r="D35" s="335"/>
+      <c r="E35" s="335"/>
+      <c r="F35" s="335"/>
+      <c r="G35" s="335"/>
+      <c r="H35" s="335"/>
+      <c r="I35" s="335"/>
+      <c r="J35" s="346"/>
+      <c r="K35" s="350"/>
+      <c r="L35" s="350"/>
+      <c r="M35" s="310"/>
+      <c r="N35" s="310"/>
+      <c r="O35" s="350"/>
+      <c r="P35" s="146" t="s">
         <v>49</v>
       </c>
-      <c r="O35" s="245"/>
-      <c r="P35" s="47"/>
-      <c r="Q35" s="183"/>
-      <c r="R35" s="184"/>
-      <c r="S35" s="28"/>
-      <c r="T35" s="28"/>
+      <c r="Q35" s="245"/>
+      <c r="R35" s="47"/>
+      <c r="S35" s="183"/>
+      <c r="T35" s="184"/>
       <c r="U35" s="28"/>
       <c r="V35" s="28"/>
-      <c r="W35" s="175"/>
-      <c r="X35" s="27"/>
-      <c r="Y35" s="28"/>
-      <c r="Z35" s="175"/>
-      <c r="AA35" s="27"/>
-      <c r="AB35" s="28"/>
-      <c r="AC35" s="97"/>
-      <c r="AD35" s="97"/>
+      <c r="W35" s="28"/>
+      <c r="X35" s="28"/>
+      <c r="Y35" s="175"/>
+      <c r="Z35" s="27"/>
+      <c r="AA35" s="28"/>
+      <c r="AB35" s="175"/>
+      <c r="AC35" s="27"/>
+      <c r="AD35" s="28"/>
       <c r="AE35" s="97"/>
       <c r="AF35" s="97"/>
       <c r="AG35" s="97"/>
@@ -13985,47 +14096,53 @@
       <c r="CJ35" s="97"/>
       <c r="CK35" s="97"/>
       <c r="CL35" s="97"/>
-    </row>
-    <row r="36" spans="2:90" x14ac:dyDescent="0.15">
+      <c r="CM35" s="97"/>
+      <c r="CN35" s="97"/>
+    </row>
+    <row r="36" spans="2:92" x14ac:dyDescent="0.15">
       <c r="B36" s="122"/>
-      <c r="C36" s="349" t="s">
+      <c r="C36" s="348" t="s">
         <v>151</v>
       </c>
-      <c r="D36" s="334"/>
-      <c r="E36" s="334"/>
-      <c r="F36" s="334"/>
-      <c r="G36" s="334"/>
-      <c r="H36" s="334"/>
-      <c r="I36" s="334"/>
-      <c r="J36" s="346"/>
-      <c r="K36" s="310" t="s">
+      <c r="D36" s="333"/>
+      <c r="E36" s="333"/>
+      <c r="F36" s="333"/>
+      <c r="G36" s="333"/>
+      <c r="H36" s="333"/>
+      <c r="I36" s="333"/>
+      <c r="J36" s="345"/>
+      <c r="K36" s="309" t="s">
         <v>159</v>
       </c>
-      <c r="L36" s="310" t="s">
+      <c r="L36" s="309" t="s">
         <v>158</v>
       </c>
-      <c r="M36" s="314" t="s">
+      <c r="M36" s="313" t="s">
         <v>40</v>
       </c>
-      <c r="N36" s="145" t="s">
+      <c r="N36" s="313" t="s">
+        <v>174</v>
+      </c>
+      <c r="O36" s="349">
+        <v>80</v>
+      </c>
+      <c r="P36" s="145" t="s">
         <v>48</v>
       </c>
-      <c r="O36" s="46"/>
-      <c r="P36" s="46"/>
-      <c r="Q36" s="181"/>
-      <c r="R36" s="182"/>
-      <c r="S36" s="24"/>
-      <c r="T36" s="24"/>
+      <c r="Q36" s="46"/>
+      <c r="R36" s="46"/>
+      <c r="S36" s="181"/>
+      <c r="T36" s="182"/>
       <c r="U36" s="24"/>
-      <c r="V36" s="24"/>
-      <c r="W36" s="174"/>
-      <c r="X36" s="23"/>
-      <c r="Y36" s="24"/>
-      <c r="Z36" s="174"/>
-      <c r="AA36" s="23"/>
-      <c r="AB36" s="24"/>
-      <c r="AC36" s="97"/>
-      <c r="AD36" s="97"/>
+      <c r="V36" s="365"/>
+      <c r="W36" s="24"/>
+      <c r="X36" s="24"/>
+      <c r="Y36" s="174"/>
+      <c r="Z36" s="23"/>
+      <c r="AA36" s="24"/>
+      <c r="AB36" s="174"/>
+      <c r="AC36" s="23"/>
+      <c r="AD36" s="24"/>
       <c r="AE36" s="97"/>
       <c r="AF36" s="97"/>
       <c r="AG36" s="97"/>
@@ -14086,39 +14203,41 @@
       <c r="CJ36" s="97"/>
       <c r="CK36" s="97"/>
       <c r="CL36" s="97"/>
-    </row>
-    <row r="37" spans="2:90" x14ac:dyDescent="0.15">
+      <c r="CM36" s="97"/>
+      <c r="CN36" s="97"/>
+    </row>
+    <row r="37" spans="2:92" x14ac:dyDescent="0.15">
       <c r="B37" s="122"/>
-      <c r="C37" s="336"/>
-      <c r="D37" s="336"/>
-      <c r="E37" s="336"/>
-      <c r="F37" s="336"/>
-      <c r="G37" s="336"/>
-      <c r="H37" s="336"/>
-      <c r="I37" s="336"/>
-      <c r="J37" s="347"/>
-      <c r="K37" s="311"/>
-      <c r="L37" s="311"/>
-      <c r="M37" s="311"/>
-      <c r="N37" s="146" t="s">
+      <c r="C37" s="335"/>
+      <c r="D37" s="335"/>
+      <c r="E37" s="335"/>
+      <c r="F37" s="335"/>
+      <c r="G37" s="335"/>
+      <c r="H37" s="335"/>
+      <c r="I37" s="335"/>
+      <c r="J37" s="346"/>
+      <c r="K37" s="310"/>
+      <c r="L37" s="310"/>
+      <c r="M37" s="310"/>
+      <c r="N37" s="310"/>
+      <c r="O37" s="350"/>
+      <c r="P37" s="146" t="s">
         <v>49</v>
       </c>
-      <c r="O37" s="245"/>
-      <c r="P37" s="47"/>
-      <c r="Q37" s="183"/>
-      <c r="R37" s="184"/>
-      <c r="S37" s="28"/>
-      <c r="T37" s="28"/>
+      <c r="Q37" s="245"/>
+      <c r="R37" s="47"/>
+      <c r="S37" s="183"/>
+      <c r="T37" s="184"/>
       <c r="U37" s="28"/>
       <c r="V37" s="28"/>
-      <c r="W37" s="175"/>
-      <c r="X37" s="27"/>
-      <c r="Y37" s="28"/>
-      <c r="Z37" s="175"/>
-      <c r="AA37" s="27"/>
-      <c r="AB37" s="28"/>
-      <c r="AC37" s="97"/>
-      <c r="AD37" s="97"/>
+      <c r="W37" s="28"/>
+      <c r="X37" s="28"/>
+      <c r="Y37" s="175"/>
+      <c r="Z37" s="27"/>
+      <c r="AA37" s="28"/>
+      <c r="AB37" s="175"/>
+      <c r="AC37" s="27"/>
+      <c r="AD37" s="28"/>
       <c r="AE37" s="97"/>
       <c r="AF37" s="97"/>
       <c r="AG37" s="97"/>
@@ -14179,47 +14298,49 @@
       <c r="CJ37" s="97"/>
       <c r="CK37" s="97"/>
       <c r="CL37" s="97"/>
-    </row>
-    <row r="38" spans="2:90" x14ac:dyDescent="0.15">
+      <c r="CM37" s="97"/>
+      <c r="CN37" s="97"/>
+    </row>
+    <row r="38" spans="2:92" x14ac:dyDescent="0.15">
       <c r="B38" s="122"/>
-      <c r="C38" s="349" t="s">
+      <c r="C38" s="348" t="s">
         <v>152</v>
       </c>
-      <c r="D38" s="334"/>
-      <c r="E38" s="334"/>
-      <c r="F38" s="334"/>
-      <c r="G38" s="334"/>
-      <c r="H38" s="334"/>
-      <c r="I38" s="334"/>
-      <c r="J38" s="346"/>
-      <c r="K38" s="350" t="s">
+      <c r="D38" s="333"/>
+      <c r="E38" s="333"/>
+      <c r="F38" s="333"/>
+      <c r="G38" s="333"/>
+      <c r="H38" s="333"/>
+      <c r="I38" s="333"/>
+      <c r="J38" s="345"/>
+      <c r="K38" s="349" t="s">
         <v>155</v>
       </c>
-      <c r="L38" s="310" t="s">
+      <c r="L38" s="309" t="s">
         <v>158</v>
       </c>
-      <c r="M38" s="314" t="s">
+      <c r="M38" s="313" t="s">
         <v>40</v>
       </c>
-      <c r="N38" s="145" t="s">
+      <c r="N38" s="313"/>
+      <c r="O38" s="349"/>
+      <c r="P38" s="145" t="s">
         <v>48</v>
       </c>
-      <c r="O38" s="46"/>
-      <c r="P38" s="46"/>
-      <c r="Q38" s="181"/>
-      <c r="R38" s="182"/>
-      <c r="S38" s="24"/>
-      <c r="T38" s="24"/>
+      <c r="Q38" s="46"/>
+      <c r="R38" s="46"/>
+      <c r="S38" s="181"/>
+      <c r="T38" s="182"/>
       <c r="U38" s="24"/>
       <c r="V38" s="24"/>
-      <c r="W38" s="174"/>
-      <c r="X38" s="23"/>
-      <c r="Y38" s="24"/>
-      <c r="Z38" s="174"/>
-      <c r="AA38" s="23"/>
-      <c r="AB38" s="24"/>
-      <c r="AC38" s="97"/>
-      <c r="AD38" s="97"/>
+      <c r="W38" s="24"/>
+      <c r="X38" s="24"/>
+      <c r="Y38" s="174"/>
+      <c r="Z38" s="23"/>
+      <c r="AA38" s="24"/>
+      <c r="AB38" s="174"/>
+      <c r="AC38" s="23"/>
+      <c r="AD38" s="24"/>
       <c r="AE38" s="97"/>
       <c r="AF38" s="97"/>
       <c r="AG38" s="97"/>
@@ -14280,39 +14401,41 @@
       <c r="CJ38" s="97"/>
       <c r="CK38" s="97"/>
       <c r="CL38" s="97"/>
-    </row>
-    <row r="39" spans="2:90" x14ac:dyDescent="0.15">
+      <c r="CM38" s="97"/>
+      <c r="CN38" s="97"/>
+    </row>
+    <row r="39" spans="2:92" x14ac:dyDescent="0.15">
       <c r="B39" s="122"/>
-      <c r="C39" s="336"/>
-      <c r="D39" s="336"/>
-      <c r="E39" s="336"/>
-      <c r="F39" s="336"/>
-      <c r="G39" s="336"/>
-      <c r="H39" s="336"/>
-      <c r="I39" s="336"/>
-      <c r="J39" s="347"/>
-      <c r="K39" s="351"/>
-      <c r="L39" s="311"/>
-      <c r="M39" s="311"/>
-      <c r="N39" s="146" t="s">
+      <c r="C39" s="335"/>
+      <c r="D39" s="335"/>
+      <c r="E39" s="335"/>
+      <c r="F39" s="335"/>
+      <c r="G39" s="335"/>
+      <c r="H39" s="335"/>
+      <c r="I39" s="335"/>
+      <c r="J39" s="346"/>
+      <c r="K39" s="350"/>
+      <c r="L39" s="310"/>
+      <c r="M39" s="310"/>
+      <c r="N39" s="310"/>
+      <c r="O39" s="350"/>
+      <c r="P39" s="146" t="s">
         <v>49</v>
       </c>
-      <c r="O39" s="245"/>
-      <c r="P39" s="47"/>
-      <c r="Q39" s="183"/>
-      <c r="R39" s="184"/>
-      <c r="S39" s="28"/>
-      <c r="T39" s="28"/>
+      <c r="Q39" s="245"/>
+      <c r="R39" s="47"/>
+      <c r="S39" s="183"/>
+      <c r="T39" s="184"/>
       <c r="U39" s="28"/>
       <c r="V39" s="28"/>
-      <c r="W39" s="175"/>
-      <c r="X39" s="27"/>
-      <c r="Y39" s="28"/>
-      <c r="Z39" s="175"/>
-      <c r="AA39" s="27"/>
-      <c r="AB39" s="28"/>
-      <c r="AC39" s="97"/>
-      <c r="AD39" s="97"/>
+      <c r="W39" s="28"/>
+      <c r="X39" s="28"/>
+      <c r="Y39" s="175"/>
+      <c r="Z39" s="27"/>
+      <c r="AA39" s="28"/>
+      <c r="AB39" s="175"/>
+      <c r="AC39" s="27"/>
+      <c r="AD39" s="28"/>
       <c r="AE39" s="97"/>
       <c r="AF39" s="97"/>
       <c r="AG39" s="97"/>
@@ -14373,47 +14496,53 @@
       <c r="CJ39" s="97"/>
       <c r="CK39" s="97"/>
       <c r="CL39" s="97"/>
-    </row>
-    <row r="40" spans="2:90" x14ac:dyDescent="0.15">
+      <c r="CM39" s="97"/>
+      <c r="CN39" s="97"/>
+    </row>
+    <row r="40" spans="2:92" x14ac:dyDescent="0.15">
       <c r="B40" s="122"/>
-      <c r="C40" s="349" t="s">
+      <c r="C40" s="348" t="s">
         <v>153</v>
       </c>
-      <c r="D40" s="334"/>
-      <c r="E40" s="334"/>
-      <c r="F40" s="334"/>
-      <c r="G40" s="334"/>
-      <c r="H40" s="334"/>
-      <c r="I40" s="334"/>
-      <c r="J40" s="346"/>
-      <c r="K40" s="310" t="s">
+      <c r="D40" s="333"/>
+      <c r="E40" s="333"/>
+      <c r="F40" s="333"/>
+      <c r="G40" s="333"/>
+      <c r="H40" s="333"/>
+      <c r="I40" s="333"/>
+      <c r="J40" s="345"/>
+      <c r="K40" s="309" t="s">
         <v>160</v>
       </c>
-      <c r="L40" s="350" t="s">
-        <v>155</v>
-      </c>
-      <c r="M40" s="314" t="s">
+      <c r="L40" s="309" t="s">
+        <v>158</v>
+      </c>
+      <c r="M40" s="313" t="s">
         <v>40</v>
       </c>
-      <c r="N40" s="145" t="s">
+      <c r="N40" s="313" t="s">
+        <v>174</v>
+      </c>
+      <c r="O40" s="349">
+        <v>60</v>
+      </c>
+      <c r="P40" s="145" t="s">
         <v>48</v>
       </c>
-      <c r="O40" s="46"/>
-      <c r="P40" s="46"/>
-      <c r="Q40" s="181"/>
-      <c r="R40" s="182"/>
-      <c r="S40" s="24"/>
-      <c r="T40" s="24"/>
+      <c r="Q40" s="46"/>
+      <c r="R40" s="46"/>
+      <c r="S40" s="181"/>
+      <c r="T40" s="182"/>
       <c r="U40" s="24"/>
       <c r="V40" s="24"/>
-      <c r="W40" s="174"/>
-      <c r="X40" s="23"/>
-      <c r="Y40" s="24"/>
-      <c r="Z40" s="174"/>
-      <c r="AA40" s="23"/>
-      <c r="AB40" s="24"/>
-      <c r="AC40" s="97"/>
-      <c r="AD40" s="97"/>
+      <c r="W40" s="24"/>
+      <c r="X40" s="24"/>
+      <c r="Y40" s="174"/>
+      <c r="Z40" s="23"/>
+      <c r="AA40" s="24"/>
+      <c r="AB40" s="174"/>
+      <c r="AC40" s="23"/>
+      <c r="AD40" s="24"/>
       <c r="AE40" s="97"/>
       <c r="AF40" s="97"/>
       <c r="AG40" s="97"/>
@@ -14474,39 +14603,41 @@
       <c r="CJ40" s="97"/>
       <c r="CK40" s="97"/>
       <c r="CL40" s="97"/>
-    </row>
-    <row r="41" spans="2:90" x14ac:dyDescent="0.15">
+      <c r="CM40" s="97"/>
+      <c r="CN40" s="97"/>
+    </row>
+    <row r="41" spans="2:92" x14ac:dyDescent="0.15">
       <c r="B41" s="122"/>
-      <c r="C41" s="336"/>
-      <c r="D41" s="336"/>
-      <c r="E41" s="336"/>
-      <c r="F41" s="336"/>
-      <c r="G41" s="336"/>
-      <c r="H41" s="336"/>
-      <c r="I41" s="336"/>
-      <c r="J41" s="347"/>
-      <c r="K41" s="311"/>
-      <c r="L41" s="351"/>
-      <c r="M41" s="311"/>
-      <c r="N41" s="146" t="s">
+      <c r="C41" s="335"/>
+      <c r="D41" s="335"/>
+      <c r="E41" s="335"/>
+      <c r="F41" s="335"/>
+      <c r="G41" s="335"/>
+      <c r="H41" s="335"/>
+      <c r="I41" s="335"/>
+      <c r="J41" s="346"/>
+      <c r="K41" s="310"/>
+      <c r="L41" s="310"/>
+      <c r="M41" s="310"/>
+      <c r="N41" s="310"/>
+      <c r="O41" s="350"/>
+      <c r="P41" s="146" t="s">
         <v>49</v>
       </c>
-      <c r="O41" s="245"/>
-      <c r="P41" s="47"/>
-      <c r="Q41" s="183"/>
-      <c r="R41" s="184"/>
-      <c r="S41" s="28"/>
-      <c r="T41" s="28"/>
+      <c r="Q41" s="245"/>
+      <c r="R41" s="47"/>
+      <c r="S41" s="183"/>
+      <c r="T41" s="184"/>
       <c r="U41" s="28"/>
       <c r="V41" s="28"/>
-      <c r="W41" s="175"/>
-      <c r="X41" s="27"/>
-      <c r="Y41" s="28"/>
-      <c r="Z41" s="175"/>
-      <c r="AA41" s="27"/>
-      <c r="AB41" s="28"/>
-      <c r="AC41" s="97"/>
-      <c r="AD41" s="97"/>
+      <c r="W41" s="28"/>
+      <c r="X41" s="28"/>
+      <c r="Y41" s="175"/>
+      <c r="Z41" s="27"/>
+      <c r="AA41" s="28"/>
+      <c r="AB41" s="175"/>
+      <c r="AC41" s="27"/>
+      <c r="AD41" s="28"/>
       <c r="AE41" s="97"/>
       <c r="AF41" s="97"/>
       <c r="AG41" s="97"/>
@@ -14567,45 +14698,53 @@
       <c r="CJ41" s="97"/>
       <c r="CK41" s="97"/>
       <c r="CL41" s="97"/>
-    </row>
-    <row r="42" spans="2:90" x14ac:dyDescent="0.15">
+      <c r="CM41" s="97"/>
+      <c r="CN41" s="97"/>
+    </row>
+    <row r="42" spans="2:92" x14ac:dyDescent="0.15">
       <c r="B42" s="122"/>
-      <c r="C42" s="349" t="s">
-        <v>162</v>
-      </c>
-      <c r="D42" s="334"/>
-      <c r="E42" s="334"/>
-      <c r="F42" s="334"/>
-      <c r="G42" s="334"/>
-      <c r="H42" s="334"/>
-      <c r="I42" s="334"/>
-      <c r="J42" s="346"/>
-      <c r="K42" s="310" t="s">
+      <c r="C42" s="348" t="s">
+        <v>161</v>
+      </c>
+      <c r="D42" s="333"/>
+      <c r="E42" s="333"/>
+      <c r="F42" s="333"/>
+      <c r="G42" s="333"/>
+      <c r="H42" s="333"/>
+      <c r="I42" s="333"/>
+      <c r="J42" s="345"/>
+      <c r="K42" s="309" t="s">
         <v>159</v>
       </c>
-      <c r="L42" s="255"/>
-      <c r="M42" s="314" t="s">
+      <c r="L42" s="309" t="s">
+        <v>159</v>
+      </c>
+      <c r="M42" s="313" t="s">
         <v>40</v>
       </c>
-      <c r="N42" s="145" t="s">
+      <c r="N42" s="313" t="s">
+        <v>174</v>
+      </c>
+      <c r="O42" s="349">
+        <v>80</v>
+      </c>
+      <c r="P42" s="145" t="s">
         <v>48</v>
       </c>
-      <c r="O42" s="46"/>
-      <c r="P42" s="46"/>
-      <c r="Q42" s="181"/>
-      <c r="R42" s="182"/>
-      <c r="S42" s="24"/>
-      <c r="T42" s="24"/>
+      <c r="Q42" s="46"/>
+      <c r="R42" s="46"/>
+      <c r="S42" s="181"/>
+      <c r="T42" s="182"/>
       <c r="U42" s="24"/>
-      <c r="V42" s="24"/>
-      <c r="W42" s="174"/>
-      <c r="X42" s="23"/>
-      <c r="Y42" s="24"/>
-      <c r="Z42" s="174"/>
-      <c r="AA42" s="23"/>
-      <c r="AB42" s="24"/>
-      <c r="AC42" s="97"/>
-      <c r="AD42" s="97"/>
+      <c r="V42" s="365"/>
+      <c r="W42" s="24"/>
+      <c r="X42" s="24"/>
+      <c r="Y42" s="174"/>
+      <c r="Z42" s="23"/>
+      <c r="AA42" s="24"/>
+      <c r="AB42" s="174"/>
+      <c r="AC42" s="23"/>
+      <c r="AD42" s="24"/>
       <c r="AE42" s="97"/>
       <c r="AF42" s="97"/>
       <c r="AG42" s="97"/>
@@ -14666,39 +14805,41 @@
       <c r="CJ42" s="97"/>
       <c r="CK42" s="97"/>
       <c r="CL42" s="97"/>
-    </row>
-    <row r="43" spans="2:90" x14ac:dyDescent="0.15">
+      <c r="CM42" s="97"/>
+      <c r="CN42" s="97"/>
+    </row>
+    <row r="43" spans="2:92" x14ac:dyDescent="0.15">
       <c r="B43" s="122"/>
-      <c r="C43" s="336"/>
-      <c r="D43" s="336"/>
-      <c r="E43" s="336"/>
-      <c r="F43" s="336"/>
-      <c r="G43" s="336"/>
-      <c r="H43" s="336"/>
-      <c r="I43" s="336"/>
-      <c r="J43" s="347"/>
-      <c r="K43" s="311"/>
-      <c r="L43" s="256"/>
-      <c r="M43" s="311"/>
-      <c r="N43" s="146" t="s">
+      <c r="C43" s="335"/>
+      <c r="D43" s="335"/>
+      <c r="E43" s="335"/>
+      <c r="F43" s="335"/>
+      <c r="G43" s="335"/>
+      <c r="H43" s="335"/>
+      <c r="I43" s="335"/>
+      <c r="J43" s="346"/>
+      <c r="K43" s="310"/>
+      <c r="L43" s="310"/>
+      <c r="M43" s="310"/>
+      <c r="N43" s="310"/>
+      <c r="O43" s="350"/>
+      <c r="P43" s="146" t="s">
         <v>49</v>
       </c>
-      <c r="O43" s="245"/>
-      <c r="P43" s="47"/>
-      <c r="Q43" s="183"/>
-      <c r="R43" s="184"/>
-      <c r="S43" s="28"/>
-      <c r="T43" s="28"/>
+      <c r="Q43" s="245"/>
+      <c r="R43" s="47"/>
+      <c r="S43" s="183"/>
+      <c r="T43" s="184"/>
       <c r="U43" s="28"/>
       <c r="V43" s="28"/>
-      <c r="W43" s="175"/>
-      <c r="X43" s="27"/>
-      <c r="Y43" s="28"/>
-      <c r="Z43" s="175"/>
-      <c r="AA43" s="27"/>
-      <c r="AB43" s="28"/>
-      <c r="AC43" s="97"/>
-      <c r="AD43" s="97"/>
+      <c r="W43" s="28"/>
+      <c r="X43" s="28"/>
+      <c r="Y43" s="175"/>
+      <c r="Z43" s="27"/>
+      <c r="AA43" s="28"/>
+      <c r="AB43" s="175"/>
+      <c r="AC43" s="27"/>
+      <c r="AD43" s="28"/>
       <c r="AE43" s="97"/>
       <c r="AF43" s="97"/>
       <c r="AG43" s="97"/>
@@ -14759,47 +14900,53 @@
       <c r="CJ43" s="97"/>
       <c r="CK43" s="97"/>
       <c r="CL43" s="97"/>
-    </row>
-    <row r="44" spans="2:90" x14ac:dyDescent="0.15">
+      <c r="CM43" s="97"/>
+      <c r="CN43" s="97"/>
+    </row>
+    <row r="44" spans="2:92" x14ac:dyDescent="0.15">
       <c r="B44" s="122"/>
-      <c r="C44" s="349" t="s">
-        <v>163</v>
-      </c>
-      <c r="D44" s="334"/>
-      <c r="E44" s="334"/>
-      <c r="F44" s="334"/>
-      <c r="G44" s="334"/>
-      <c r="H44" s="334"/>
-      <c r="I44" s="334"/>
-      <c r="J44" s="346"/>
-      <c r="K44" s="350" t="s">
+      <c r="C44" s="348" t="s">
+        <v>162</v>
+      </c>
+      <c r="D44" s="333"/>
+      <c r="E44" s="333"/>
+      <c r="F44" s="333"/>
+      <c r="G44" s="333"/>
+      <c r="H44" s="333"/>
+      <c r="I44" s="333"/>
+      <c r="J44" s="345"/>
+      <c r="K44" s="349" t="s">
         <v>155</v>
       </c>
-      <c r="L44" s="310" t="s">
-        <v>160</v>
-      </c>
-      <c r="M44" s="314" t="s">
+      <c r="L44" s="309" t="s">
+        <v>159</v>
+      </c>
+      <c r="M44" s="313" t="s">
         <v>40</v>
       </c>
-      <c r="N44" s="145" t="s">
+      <c r="N44" s="313" t="s">
+        <v>174</v>
+      </c>
+      <c r="O44" s="349">
+        <v>80</v>
+      </c>
+      <c r="P44" s="145" t="s">
         <v>48</v>
       </c>
-      <c r="O44" s="46"/>
-      <c r="P44" s="46"/>
-      <c r="Q44" s="181"/>
-      <c r="R44" s="182"/>
-      <c r="S44" s="24"/>
-      <c r="T44" s="24"/>
+      <c r="Q44" s="46"/>
+      <c r="R44" s="46"/>
+      <c r="S44" s="181"/>
+      <c r="T44" s="182"/>
       <c r="U44" s="24"/>
-      <c r="V44" s="24"/>
-      <c r="W44" s="174"/>
-      <c r="X44" s="23"/>
-      <c r="Y44" s="24"/>
-      <c r="Z44" s="174"/>
-      <c r="AA44" s="23"/>
-      <c r="AB44" s="24"/>
-      <c r="AC44" s="97"/>
-      <c r="AD44" s="97"/>
+      <c r="V44" s="365"/>
+      <c r="W44" s="24"/>
+      <c r="X44" s="24"/>
+      <c r="Y44" s="174"/>
+      <c r="Z44" s="23"/>
+      <c r="AA44" s="24"/>
+      <c r="AB44" s="174"/>
+      <c r="AC44" s="23"/>
+      <c r="AD44" s="24"/>
       <c r="AE44" s="97"/>
       <c r="AF44" s="97"/>
       <c r="AG44" s="97"/>
@@ -14860,39 +15007,41 @@
       <c r="CJ44" s="97"/>
       <c r="CK44" s="97"/>
       <c r="CL44" s="97"/>
-    </row>
-    <row r="45" spans="2:90" x14ac:dyDescent="0.15">
+      <c r="CM44" s="97"/>
+      <c r="CN44" s="97"/>
+    </row>
+    <row r="45" spans="2:92" x14ac:dyDescent="0.15">
       <c r="B45" s="122"/>
-      <c r="C45" s="336"/>
-      <c r="D45" s="336"/>
-      <c r="E45" s="336"/>
-      <c r="F45" s="336"/>
-      <c r="G45" s="336"/>
-      <c r="H45" s="336"/>
-      <c r="I45" s="336"/>
-      <c r="J45" s="347"/>
-      <c r="K45" s="351"/>
-      <c r="L45" s="311"/>
-      <c r="M45" s="311"/>
-      <c r="N45" s="146" t="s">
+      <c r="C45" s="335"/>
+      <c r="D45" s="335"/>
+      <c r="E45" s="335"/>
+      <c r="F45" s="335"/>
+      <c r="G45" s="335"/>
+      <c r="H45" s="335"/>
+      <c r="I45" s="335"/>
+      <c r="J45" s="346"/>
+      <c r="K45" s="350"/>
+      <c r="L45" s="310"/>
+      <c r="M45" s="310"/>
+      <c r="N45" s="310"/>
+      <c r="O45" s="350"/>
+      <c r="P45" s="146" t="s">
         <v>49</v>
       </c>
-      <c r="O45" s="245"/>
-      <c r="P45" s="47"/>
-      <c r="Q45" s="183"/>
-      <c r="R45" s="184"/>
-      <c r="S45" s="28"/>
-      <c r="T45" s="28"/>
+      <c r="Q45" s="245"/>
+      <c r="R45" s="47"/>
+      <c r="S45" s="183"/>
+      <c r="T45" s="184"/>
       <c r="U45" s="28"/>
       <c r="V45" s="28"/>
-      <c r="W45" s="175"/>
-      <c r="X45" s="27"/>
-      <c r="Y45" s="28"/>
-      <c r="Z45" s="175"/>
-      <c r="AA45" s="27"/>
-      <c r="AB45" s="28"/>
-      <c r="AC45" s="97"/>
-      <c r="AD45" s="97"/>
+      <c r="W45" s="28"/>
+      <c r="X45" s="28"/>
+      <c r="Y45" s="175"/>
+      <c r="Z45" s="27"/>
+      <c r="AA45" s="28"/>
+      <c r="AB45" s="175"/>
+      <c r="AC45" s="27"/>
+      <c r="AD45" s="28"/>
       <c r="AE45" s="97"/>
       <c r="AF45" s="97"/>
       <c r="AG45" s="97"/>
@@ -14953,45 +15102,47 @@
       <c r="CJ45" s="97"/>
       <c r="CK45" s="97"/>
       <c r="CL45" s="97"/>
-    </row>
-    <row r="46" spans="2:90" x14ac:dyDescent="0.15">
+      <c r="CM45" s="97"/>
+      <c r="CN45" s="97"/>
+    </row>
+    <row r="46" spans="2:92" x14ac:dyDescent="0.15">
       <c r="B46" s="122"/>
-      <c r="C46" s="349" t="s">
-        <v>164</v>
-      </c>
-      <c r="D46" s="334"/>
-      <c r="E46" s="334"/>
-      <c r="F46" s="334"/>
-      <c r="G46" s="334"/>
-      <c r="H46" s="334"/>
-      <c r="I46" s="334"/>
-      <c r="J46" s="346"/>
-      <c r="K46" s="350" t="s">
+      <c r="C46" s="348" t="s">
+        <v>163</v>
+      </c>
+      <c r="D46" s="333"/>
+      <c r="E46" s="333"/>
+      <c r="F46" s="333"/>
+      <c r="G46" s="333"/>
+      <c r="H46" s="333"/>
+      <c r="I46" s="333"/>
+      <c r="J46" s="345"/>
+      <c r="K46" s="349" t="s">
         <v>158</v>
       </c>
-      <c r="L46" s="310"/>
-      <c r="M46" s="314" t="s">
+      <c r="L46" s="309"/>
+      <c r="M46" s="313" t="s">
         <v>40</v>
       </c>
-      <c r="N46" s="145" t="s">
+      <c r="N46" s="313"/>
+      <c r="O46" s="349"/>
+      <c r="P46" s="145" t="s">
         <v>48</v>
       </c>
-      <c r="O46" s="46"/>
-      <c r="P46" s="46"/>
-      <c r="Q46" s="181"/>
-      <c r="R46" s="182"/>
-      <c r="S46" s="24"/>
-      <c r="T46" s="24"/>
+      <c r="Q46" s="46"/>
+      <c r="R46" s="46"/>
+      <c r="S46" s="181"/>
+      <c r="T46" s="182"/>
       <c r="U46" s="24"/>
       <c r="V46" s="24"/>
-      <c r="W46" s="174"/>
-      <c r="X46" s="23"/>
-      <c r="Y46" s="24"/>
-      <c r="Z46" s="174"/>
-      <c r="AA46" s="23"/>
-      <c r="AB46" s="24"/>
-      <c r="AC46" s="97"/>
-      <c r="AD46" s="97"/>
+      <c r="W46" s="24"/>
+      <c r="X46" s="24"/>
+      <c r="Y46" s="174"/>
+      <c r="Z46" s="23"/>
+      <c r="AA46" s="24"/>
+      <c r="AB46" s="174"/>
+      <c r="AC46" s="23"/>
+      <c r="AD46" s="24"/>
       <c r="AE46" s="97"/>
       <c r="AF46" s="97"/>
       <c r="AG46" s="97"/>
@@ -15052,39 +15203,41 @@
       <c r="CJ46" s="97"/>
       <c r="CK46" s="97"/>
       <c r="CL46" s="97"/>
-    </row>
-    <row r="47" spans="2:90" x14ac:dyDescent="0.15">
+      <c r="CM46" s="97"/>
+      <c r="CN46" s="97"/>
+    </row>
+    <row r="47" spans="2:92" x14ac:dyDescent="0.15">
       <c r="B47" s="122"/>
-      <c r="C47" s="336"/>
-      <c r="D47" s="336"/>
-      <c r="E47" s="336"/>
-      <c r="F47" s="336"/>
-      <c r="G47" s="336"/>
-      <c r="H47" s="336"/>
-      <c r="I47" s="336"/>
-      <c r="J47" s="347"/>
-      <c r="K47" s="351"/>
-      <c r="L47" s="311"/>
-      <c r="M47" s="311"/>
-      <c r="N47" s="146" t="s">
+      <c r="C47" s="335"/>
+      <c r="D47" s="335"/>
+      <c r="E47" s="335"/>
+      <c r="F47" s="335"/>
+      <c r="G47" s="335"/>
+      <c r="H47" s="335"/>
+      <c r="I47" s="335"/>
+      <c r="J47" s="346"/>
+      <c r="K47" s="350"/>
+      <c r="L47" s="310"/>
+      <c r="M47" s="310"/>
+      <c r="N47" s="310"/>
+      <c r="O47" s="350"/>
+      <c r="P47" s="146" t="s">
         <v>49</v>
       </c>
-      <c r="O47" s="245"/>
-      <c r="P47" s="39"/>
-      <c r="Q47" s="183"/>
-      <c r="R47" s="184"/>
-      <c r="S47" s="47"/>
-      <c r="T47" s="28"/>
-      <c r="U47" s="28"/>
+      <c r="Q47" s="245"/>
+      <c r="R47" s="39"/>
+      <c r="S47" s="183"/>
+      <c r="T47" s="184"/>
+      <c r="U47" s="47"/>
       <c r="V47" s="28"/>
-      <c r="W47" s="175"/>
-      <c r="X47" s="27"/>
-      <c r="Y47" s="28"/>
-      <c r="Z47" s="175"/>
-      <c r="AA47" s="27"/>
-      <c r="AB47" s="28"/>
-      <c r="AC47" s="97"/>
-      <c r="AD47" s="97"/>
+      <c r="W47" s="28"/>
+      <c r="X47" s="28"/>
+      <c r="Y47" s="175"/>
+      <c r="Z47" s="27"/>
+      <c r="AA47" s="28"/>
+      <c r="AB47" s="175"/>
+      <c r="AC47" s="27"/>
+      <c r="AD47" s="28"/>
       <c r="AE47" s="97"/>
       <c r="AF47" s="97"/>
       <c r="AG47" s="97"/>
@@ -15145,43 +15298,47 @@
       <c r="CJ47" s="97"/>
       <c r="CK47" s="97"/>
       <c r="CL47" s="97"/>
-    </row>
-    <row r="48" spans="2:90" x14ac:dyDescent="0.15">
+      <c r="CM47" s="97"/>
+      <c r="CN47" s="97"/>
+    </row>
+    <row r="48" spans="2:92" x14ac:dyDescent="0.15">
       <c r="B48" s="122"/>
-      <c r="C48" s="349" t="s">
-        <v>165</v>
-      </c>
-      <c r="D48" s="334"/>
-      <c r="E48" s="334"/>
-      <c r="F48" s="334"/>
-      <c r="G48" s="334"/>
-      <c r="H48" s="334"/>
-      <c r="I48" s="334"/>
-      <c r="J48" s="346"/>
-      <c r="K48" s="350" t="s">
+      <c r="C48" s="348" t="s">
+        <v>164</v>
+      </c>
+      <c r="D48" s="333"/>
+      <c r="E48" s="333"/>
+      <c r="F48" s="333"/>
+      <c r="G48" s="333"/>
+      <c r="H48" s="333"/>
+      <c r="I48" s="333"/>
+      <c r="J48" s="345"/>
+      <c r="K48" s="349" t="s">
         <v>156</v>
       </c>
-      <c r="L48" s="310"/>
-      <c r="M48" s="314"/>
-      <c r="N48" s="145" t="s">
+      <c r="L48" s="309"/>
+      <c r="M48" s="313" t="s">
+        <v>40</v>
+      </c>
+      <c r="N48" s="313"/>
+      <c r="O48" s="349"/>
+      <c r="P48" s="145" t="s">
         <v>48</v>
       </c>
-      <c r="O48" s="46"/>
-      <c r="P48" s="46"/>
-      <c r="Q48" s="181"/>
-      <c r="R48" s="182"/>
-      <c r="S48" s="24"/>
-      <c r="T48" s="24"/>
+      <c r="Q48" s="46"/>
+      <c r="R48" s="46"/>
+      <c r="S48" s="181"/>
+      <c r="T48" s="182"/>
       <c r="U48" s="24"/>
       <c r="V48" s="24"/>
-      <c r="W48" s="174"/>
-      <c r="X48" s="23"/>
-      <c r="Y48" s="24"/>
-      <c r="Z48" s="174"/>
-      <c r="AA48" s="23"/>
-      <c r="AB48" s="24"/>
-      <c r="AC48" s="97"/>
-      <c r="AD48" s="97"/>
+      <c r="W48" s="24"/>
+      <c r="X48" s="24"/>
+      <c r="Y48" s="174"/>
+      <c r="Z48" s="23"/>
+      <c r="AA48" s="24"/>
+      <c r="AB48" s="174"/>
+      <c r="AC48" s="23"/>
+      <c r="AD48" s="24"/>
       <c r="AE48" s="97"/>
       <c r="AF48" s="97"/>
       <c r="AG48" s="97"/>
@@ -15242,39 +15399,41 @@
       <c r="CJ48" s="97"/>
       <c r="CK48" s="97"/>
       <c r="CL48" s="97"/>
-    </row>
-    <row r="49" spans="2:90" x14ac:dyDescent="0.15">
+      <c r="CM48" s="97"/>
+      <c r="CN48" s="97"/>
+    </row>
+    <row r="49" spans="2:92" x14ac:dyDescent="0.15">
       <c r="B49" s="122"/>
-      <c r="C49" s="336"/>
-      <c r="D49" s="336"/>
-      <c r="E49" s="336"/>
-      <c r="F49" s="336"/>
-      <c r="G49" s="336"/>
-      <c r="H49" s="336"/>
-      <c r="I49" s="336"/>
-      <c r="J49" s="347"/>
-      <c r="K49" s="351"/>
-      <c r="L49" s="311"/>
-      <c r="M49" s="311"/>
-      <c r="N49" s="146" t="s">
+      <c r="C49" s="335"/>
+      <c r="D49" s="335"/>
+      <c r="E49" s="335"/>
+      <c r="F49" s="335"/>
+      <c r="G49" s="335"/>
+      <c r="H49" s="335"/>
+      <c r="I49" s="335"/>
+      <c r="J49" s="346"/>
+      <c r="K49" s="350"/>
+      <c r="L49" s="310"/>
+      <c r="M49" s="310"/>
+      <c r="N49" s="310"/>
+      <c r="O49" s="350"/>
+      <c r="P49" s="146" t="s">
         <v>49</v>
       </c>
-      <c r="O49" s="245"/>
-      <c r="P49" s="39"/>
-      <c r="Q49" s="183"/>
-      <c r="R49" s="184"/>
-      <c r="S49" s="47"/>
-      <c r="T49" s="28"/>
-      <c r="U49" s="28"/>
+      <c r="Q49" s="245"/>
+      <c r="R49" s="39"/>
+      <c r="S49" s="183"/>
+      <c r="T49" s="184"/>
+      <c r="U49" s="47"/>
       <c r="V49" s="28"/>
-      <c r="W49" s="175"/>
-      <c r="X49" s="27"/>
-      <c r="Y49" s="28"/>
-      <c r="Z49" s="175"/>
-      <c r="AA49" s="27"/>
-      <c r="AB49" s="28"/>
-      <c r="AC49" s="97"/>
-      <c r="AD49" s="97"/>
+      <c r="W49" s="28"/>
+      <c r="X49" s="28"/>
+      <c r="Y49" s="175"/>
+      <c r="Z49" s="27"/>
+      <c r="AA49" s="28"/>
+      <c r="AB49" s="175"/>
+      <c r="AC49" s="27"/>
+      <c r="AD49" s="28"/>
       <c r="AE49" s="97"/>
       <c r="AF49" s="97"/>
       <c r="AG49" s="97"/>
@@ -15335,47 +15494,53 @@
       <c r="CJ49" s="97"/>
       <c r="CK49" s="97"/>
       <c r="CL49" s="97"/>
-    </row>
-    <row r="50" spans="2:90" x14ac:dyDescent="0.15">
+      <c r="CM49" s="97"/>
+      <c r="CN49" s="97"/>
+    </row>
+    <row r="50" spans="2:92" x14ac:dyDescent="0.15">
       <c r="B50" s="122"/>
-      <c r="C50" s="349" t="s">
-        <v>166</v>
-      </c>
-      <c r="D50" s="334"/>
-      <c r="E50" s="334"/>
-      <c r="F50" s="334"/>
-      <c r="G50" s="334"/>
-      <c r="H50" s="334"/>
-      <c r="I50" s="334"/>
-      <c r="J50" s="346"/>
-      <c r="K50" s="350" t="s">
+      <c r="C50" s="348" t="s">
+        <v>165</v>
+      </c>
+      <c r="D50" s="333"/>
+      <c r="E50" s="333"/>
+      <c r="F50" s="333"/>
+      <c r="G50" s="333"/>
+      <c r="H50" s="333"/>
+      <c r="I50" s="333"/>
+      <c r="J50" s="345"/>
+      <c r="K50" s="349" t="s">
         <v>156</v>
       </c>
-      <c r="L50" s="310" t="s">
+      <c r="L50" s="309" t="s">
         <v>159</v>
       </c>
-      <c r="M50" s="314" t="s">
+      <c r="M50" s="313" t="s">
         <v>40</v>
       </c>
-      <c r="N50" s="145" t="s">
+      <c r="N50" s="313" t="s">
+        <v>174</v>
+      </c>
+      <c r="O50" s="349">
+        <v>20</v>
+      </c>
+      <c r="P50" s="145" t="s">
         <v>48</v>
       </c>
-      <c r="O50" s="46"/>
-      <c r="P50" s="46"/>
-      <c r="Q50" s="181"/>
-      <c r="R50" s="182"/>
-      <c r="S50" s="24"/>
-      <c r="T50" s="24"/>
+      <c r="Q50" s="46"/>
+      <c r="R50" s="46"/>
+      <c r="S50" s="181"/>
+      <c r="T50" s="182"/>
       <c r="U50" s="24"/>
-      <c r="V50" s="24"/>
-      <c r="W50" s="174"/>
-      <c r="X50" s="23"/>
-      <c r="Y50" s="24"/>
-      <c r="Z50" s="174"/>
-      <c r="AA50" s="23"/>
-      <c r="AB50" s="24"/>
-      <c r="AC50" s="97"/>
-      <c r="AD50" s="97"/>
+      <c r="V50" s="365"/>
+      <c r="W50" s="24"/>
+      <c r="X50" s="24"/>
+      <c r="Y50" s="174"/>
+      <c r="Z50" s="23"/>
+      <c r="AA50" s="24"/>
+      <c r="AB50" s="174"/>
+      <c r="AC50" s="23"/>
+      <c r="AD50" s="24"/>
       <c r="AE50" s="97"/>
       <c r="AF50" s="97"/>
       <c r="AG50" s="97"/>
@@ -15436,39 +15601,41 @@
       <c r="CJ50" s="97"/>
       <c r="CK50" s="97"/>
       <c r="CL50" s="97"/>
-    </row>
-    <row r="51" spans="2:90" x14ac:dyDescent="0.15">
+      <c r="CM50" s="97"/>
+      <c r="CN50" s="97"/>
+    </row>
+    <row r="51" spans="2:92" x14ac:dyDescent="0.15">
       <c r="B51" s="122"/>
-      <c r="C51" s="336"/>
-      <c r="D51" s="336"/>
-      <c r="E51" s="336"/>
-      <c r="F51" s="336"/>
-      <c r="G51" s="336"/>
-      <c r="H51" s="336"/>
-      <c r="I51" s="336"/>
-      <c r="J51" s="347"/>
-      <c r="K51" s="351"/>
-      <c r="L51" s="311"/>
-      <c r="M51" s="311"/>
-      <c r="N51" s="146" t="s">
+      <c r="C51" s="335"/>
+      <c r="D51" s="335"/>
+      <c r="E51" s="335"/>
+      <c r="F51" s="335"/>
+      <c r="G51" s="335"/>
+      <c r="H51" s="335"/>
+      <c r="I51" s="335"/>
+      <c r="J51" s="346"/>
+      <c r="K51" s="350"/>
+      <c r="L51" s="310"/>
+      <c r="M51" s="310"/>
+      <c r="N51" s="310"/>
+      <c r="O51" s="350"/>
+      <c r="P51" s="146" t="s">
         <v>49</v>
       </c>
-      <c r="O51" s="245"/>
-      <c r="P51" s="47"/>
-      <c r="Q51" s="183"/>
-      <c r="R51" s="184"/>
-      <c r="S51" s="28"/>
-      <c r="T51" s="28"/>
+      <c r="Q51" s="245"/>
+      <c r="R51" s="47"/>
+      <c r="S51" s="183"/>
+      <c r="T51" s="184"/>
       <c r="U51" s="28"/>
       <c r="V51" s="28"/>
-      <c r="W51" s="175"/>
-      <c r="X51" s="27"/>
-      <c r="Y51" s="28"/>
-      <c r="Z51" s="175"/>
-      <c r="AA51" s="27"/>
-      <c r="AB51" s="28"/>
-      <c r="AC51" s="97"/>
-      <c r="AD51" s="97"/>
+      <c r="W51" s="28"/>
+      <c r="X51" s="28"/>
+      <c r="Y51" s="175"/>
+      <c r="Z51" s="27"/>
+      <c r="AA51" s="28"/>
+      <c r="AB51" s="175"/>
+      <c r="AC51" s="27"/>
+      <c r="AD51" s="28"/>
       <c r="AE51" s="97"/>
       <c r="AF51" s="97"/>
       <c r="AG51" s="97"/>
@@ -15529,47 +15696,49 @@
       <c r="CJ51" s="97"/>
       <c r="CK51" s="97"/>
       <c r="CL51" s="97"/>
-    </row>
-    <row r="52" spans="2:90" x14ac:dyDescent="0.15">
+      <c r="CM51" s="97"/>
+      <c r="CN51" s="97"/>
+    </row>
+    <row r="52" spans="2:92" x14ac:dyDescent="0.15">
       <c r="B52" s="122"/>
-      <c r="C52" s="349" t="s">
-        <v>167</v>
-      </c>
-      <c r="D52" s="334"/>
-      <c r="E52" s="334"/>
-      <c r="F52" s="334"/>
-      <c r="G52" s="334"/>
-      <c r="H52" s="334"/>
-      <c r="I52" s="334"/>
-      <c r="J52" s="346"/>
-      <c r="K52" s="350" t="s">
+      <c r="C52" s="348" t="s">
+        <v>166</v>
+      </c>
+      <c r="D52" s="333"/>
+      <c r="E52" s="333"/>
+      <c r="F52" s="333"/>
+      <c r="G52" s="333"/>
+      <c r="H52" s="333"/>
+      <c r="I52" s="333"/>
+      <c r="J52" s="345"/>
+      <c r="K52" s="349" t="s">
         <v>157</v>
       </c>
-      <c r="L52" s="310" t="s">
+      <c r="L52" s="309" t="s">
         <v>159</v>
       </c>
-      <c r="M52" s="314" t="s">
+      <c r="M52" s="313" t="s">
         <v>40</v>
       </c>
-      <c r="N52" s="145" t="s">
+      <c r="N52" s="313"/>
+      <c r="O52" s="349"/>
+      <c r="P52" s="145" t="s">
         <v>48</v>
       </c>
-      <c r="O52" s="46"/>
-      <c r="P52" s="46"/>
-      <c r="Q52" s="181"/>
-      <c r="R52" s="182"/>
-      <c r="S52" s="24"/>
-      <c r="T52" s="24"/>
+      <c r="Q52" s="46"/>
+      <c r="R52" s="46"/>
+      <c r="S52" s="181"/>
+      <c r="T52" s="182"/>
       <c r="U52" s="24"/>
       <c r="V52" s="24"/>
-      <c r="W52" s="174"/>
-      <c r="X52" s="23"/>
-      <c r="Y52" s="24"/>
-      <c r="Z52" s="174"/>
-      <c r="AA52" s="23"/>
-      <c r="AB52" s="24"/>
-      <c r="AC52" s="97"/>
-      <c r="AD52" s="97"/>
+      <c r="W52" s="24"/>
+      <c r="X52" s="24"/>
+      <c r="Y52" s="174"/>
+      <c r="Z52" s="23"/>
+      <c r="AA52" s="24"/>
+      <c r="AB52" s="174"/>
+      <c r="AC52" s="23"/>
+      <c r="AD52" s="24"/>
       <c r="AE52" s="97"/>
       <c r="AF52" s="97"/>
       <c r="AG52" s="97"/>
@@ -15630,39 +15799,41 @@
       <c r="CJ52" s="97"/>
       <c r="CK52" s="97"/>
       <c r="CL52" s="97"/>
-    </row>
-    <row r="53" spans="2:90" x14ac:dyDescent="0.15">
+      <c r="CM52" s="97"/>
+      <c r="CN52" s="97"/>
+    </row>
+    <row r="53" spans="2:92" x14ac:dyDescent="0.15">
       <c r="B53" s="122"/>
-      <c r="C53" s="336"/>
-      <c r="D53" s="336"/>
-      <c r="E53" s="336"/>
-      <c r="F53" s="336"/>
-      <c r="G53" s="336"/>
-      <c r="H53" s="336"/>
-      <c r="I53" s="336"/>
-      <c r="J53" s="347"/>
-      <c r="K53" s="351"/>
-      <c r="L53" s="311"/>
-      <c r="M53" s="311"/>
-      <c r="N53" s="146" t="s">
+      <c r="C53" s="335"/>
+      <c r="D53" s="335"/>
+      <c r="E53" s="335"/>
+      <c r="F53" s="335"/>
+      <c r="G53" s="335"/>
+      <c r="H53" s="335"/>
+      <c r="I53" s="335"/>
+      <c r="J53" s="346"/>
+      <c r="K53" s="350"/>
+      <c r="L53" s="310"/>
+      <c r="M53" s="310"/>
+      <c r="N53" s="310"/>
+      <c r="O53" s="350"/>
+      <c r="P53" s="146" t="s">
         <v>49</v>
       </c>
-      <c r="O53" s="246"/>
-      <c r="P53" s="39"/>
-      <c r="Q53" s="183"/>
-      <c r="R53" s="184"/>
-      <c r="S53" s="47"/>
-      <c r="T53" s="28"/>
-      <c r="U53" s="28"/>
+      <c r="Q53" s="246"/>
+      <c r="R53" s="39"/>
+      <c r="S53" s="183"/>
+      <c r="T53" s="184"/>
+      <c r="U53" s="47"/>
       <c r="V53" s="28"/>
-      <c r="W53" s="175"/>
-      <c r="X53" s="27"/>
-      <c r="Y53" s="28"/>
-      <c r="Z53" s="175"/>
-      <c r="AA53" s="27"/>
-      <c r="AB53" s="28"/>
-      <c r="AC53" s="97"/>
-      <c r="AD53" s="97"/>
+      <c r="W53" s="28"/>
+      <c r="X53" s="28"/>
+      <c r="Y53" s="175"/>
+      <c r="Z53" s="27"/>
+      <c r="AA53" s="28"/>
+      <c r="AB53" s="175"/>
+      <c r="AC53" s="27"/>
+      <c r="AD53" s="28"/>
       <c r="AE53" s="97"/>
       <c r="AF53" s="97"/>
       <c r="AG53" s="97"/>
@@ -15723,47 +15894,49 @@
       <c r="CJ53" s="97"/>
       <c r="CK53" s="97"/>
       <c r="CL53" s="97"/>
-    </row>
-    <row r="54" spans="2:90" x14ac:dyDescent="0.15">
+      <c r="CM53" s="97"/>
+      <c r="CN53" s="97"/>
+    </row>
+    <row r="54" spans="2:92" x14ac:dyDescent="0.15">
       <c r="B54" s="122"/>
-      <c r="C54" s="349" t="s">
-        <v>168</v>
-      </c>
-      <c r="D54" s="334"/>
-      <c r="E54" s="334"/>
-      <c r="F54" s="334"/>
-      <c r="G54" s="334"/>
-      <c r="H54" s="334"/>
-      <c r="I54" s="334"/>
-      <c r="J54" s="346"/>
-      <c r="K54" s="310" t="s">
+      <c r="C54" s="348" t="s">
+        <v>167</v>
+      </c>
+      <c r="D54" s="333"/>
+      <c r="E54" s="333"/>
+      <c r="F54" s="333"/>
+      <c r="G54" s="333"/>
+      <c r="H54" s="333"/>
+      <c r="I54" s="333"/>
+      <c r="J54" s="345"/>
+      <c r="K54" s="309" t="s">
         <v>159</v>
       </c>
-      <c r="L54" s="350" t="s">
+      <c r="L54" s="349" t="s">
         <v>156</v>
       </c>
-      <c r="M54" s="314" t="s">
+      <c r="M54" s="313" t="s">
         <v>40</v>
       </c>
-      <c r="N54" s="145" t="s">
+      <c r="N54" s="313"/>
+      <c r="O54" s="349"/>
+      <c r="P54" s="145" t="s">
         <v>48</v>
       </c>
-      <c r="O54" s="46"/>
-      <c r="P54" s="46"/>
-      <c r="Q54" s="181"/>
-      <c r="R54" s="182"/>
-      <c r="S54" s="24"/>
-      <c r="T54" s="24"/>
+      <c r="Q54" s="46"/>
+      <c r="R54" s="46"/>
+      <c r="S54" s="181"/>
+      <c r="T54" s="182"/>
       <c r="U54" s="24"/>
       <c r="V54" s="24"/>
-      <c r="W54" s="174"/>
-      <c r="X54" s="23"/>
-      <c r="Y54" s="24"/>
-      <c r="Z54" s="174"/>
-      <c r="AA54" s="23"/>
-      <c r="AB54" s="24"/>
-      <c r="AC54" s="97"/>
-      <c r="AD54" s="97"/>
+      <c r="W54" s="24"/>
+      <c r="X54" s="24"/>
+      <c r="Y54" s="174"/>
+      <c r="Z54" s="23"/>
+      <c r="AA54" s="24"/>
+      <c r="AB54" s="174"/>
+      <c r="AC54" s="23"/>
+      <c r="AD54" s="24"/>
       <c r="AE54" s="97"/>
       <c r="AF54" s="97"/>
       <c r="AG54" s="97"/>
@@ -15824,39 +15997,41 @@
       <c r="CJ54" s="97"/>
       <c r="CK54" s="97"/>
       <c r="CL54" s="97"/>
-    </row>
-    <row r="55" spans="2:90" x14ac:dyDescent="0.15">
+      <c r="CM54" s="97"/>
+      <c r="CN54" s="97"/>
+    </row>
+    <row r="55" spans="2:92" x14ac:dyDescent="0.15">
       <c r="B55" s="122"/>
-      <c r="C55" s="336"/>
-      <c r="D55" s="336"/>
-      <c r="E55" s="336"/>
-      <c r="F55" s="336"/>
-      <c r="G55" s="336"/>
-      <c r="H55" s="336"/>
-      <c r="I55" s="336"/>
-      <c r="J55" s="347"/>
-      <c r="K55" s="311"/>
-      <c r="L55" s="351"/>
-      <c r="M55" s="311"/>
-      <c r="N55" s="146" t="s">
+      <c r="C55" s="335"/>
+      <c r="D55" s="335"/>
+      <c r="E55" s="335"/>
+      <c r="F55" s="335"/>
+      <c r="G55" s="335"/>
+      <c r="H55" s="335"/>
+      <c r="I55" s="335"/>
+      <c r="J55" s="346"/>
+      <c r="K55" s="310"/>
+      <c r="L55" s="350"/>
+      <c r="M55" s="310"/>
+      <c r="N55" s="310"/>
+      <c r="O55" s="350"/>
+      <c r="P55" s="146" t="s">
         <v>49</v>
       </c>
-      <c r="O55" s="246"/>
-      <c r="P55" s="47"/>
-      <c r="Q55" s="183"/>
-      <c r="R55" s="184"/>
-      <c r="S55" s="28"/>
-      <c r="T55" s="28"/>
+      <c r="Q55" s="246"/>
+      <c r="R55" s="47"/>
+      <c r="S55" s="183"/>
+      <c r="T55" s="184"/>
       <c r="U55" s="28"/>
       <c r="V55" s="28"/>
-      <c r="W55" s="175"/>
-      <c r="X55" s="27"/>
-      <c r="Y55" s="28"/>
-      <c r="Z55" s="175"/>
-      <c r="AA55" s="27"/>
-      <c r="AB55" s="28"/>
-      <c r="AC55" s="97"/>
-      <c r="AD55" s="97"/>
+      <c r="W55" s="28"/>
+      <c r="X55" s="28"/>
+      <c r="Y55" s="175"/>
+      <c r="Z55" s="27"/>
+      <c r="AA55" s="28"/>
+      <c r="AB55" s="175"/>
+      <c r="AC55" s="27"/>
+      <c r="AD55" s="28"/>
       <c r="AE55" s="97"/>
       <c r="AF55" s="97"/>
       <c r="AG55" s="97"/>
@@ -15917,47 +16092,53 @@
       <c r="CJ55" s="97"/>
       <c r="CK55" s="97"/>
       <c r="CL55" s="97"/>
-    </row>
-    <row r="56" spans="2:90" x14ac:dyDescent="0.15">
+      <c r="CM55" s="97"/>
+      <c r="CN55" s="97"/>
+    </row>
+    <row r="56" spans="2:92" x14ac:dyDescent="0.15">
       <c r="B56" s="122"/>
-      <c r="C56" s="349" t="s">
-        <v>169</v>
-      </c>
-      <c r="D56" s="334"/>
-      <c r="E56" s="334"/>
-      <c r="F56" s="334"/>
-      <c r="G56" s="334"/>
-      <c r="H56" s="334"/>
-      <c r="I56" s="334"/>
-      <c r="J56" s="346"/>
-      <c r="K56" s="310" t="s">
+      <c r="C56" s="348" t="s">
+        <v>168</v>
+      </c>
+      <c r="D56" s="333"/>
+      <c r="E56" s="333"/>
+      <c r="F56" s="333"/>
+      <c r="G56" s="333"/>
+      <c r="H56" s="333"/>
+      <c r="I56" s="333"/>
+      <c r="J56" s="345"/>
+      <c r="K56" s="309" t="s">
         <v>158</v>
       </c>
-      <c r="L56" s="350" t="s">
+      <c r="L56" s="349" t="s">
         <v>156</v>
       </c>
-      <c r="M56" s="314" t="s">
+      <c r="M56" s="313" t="s">
         <v>40</v>
       </c>
-      <c r="N56" s="145" t="s">
+      <c r="N56" s="313" t="s">
+        <v>40</v>
+      </c>
+      <c r="O56" s="349">
+        <v>90</v>
+      </c>
+      <c r="P56" s="145" t="s">
         <v>48</v>
       </c>
-      <c r="O56" s="46"/>
-      <c r="P56" s="46"/>
-      <c r="Q56" s="181"/>
-      <c r="R56" s="182"/>
-      <c r="S56" s="24"/>
-      <c r="T56" s="24"/>
+      <c r="Q56" s="46"/>
+      <c r="R56" s="46"/>
+      <c r="S56" s="181"/>
+      <c r="T56" s="182"/>
       <c r="U56" s="24"/>
-      <c r="V56" s="24"/>
-      <c r="W56" s="174"/>
-      <c r="X56" s="23"/>
-      <c r="Y56" s="24"/>
-      <c r="Z56" s="174"/>
-      <c r="AA56" s="23"/>
-      <c r="AB56" s="24"/>
-      <c r="AC56" s="97"/>
-      <c r="AD56" s="97"/>
+      <c r="V56" s="365"/>
+      <c r="W56" s="24"/>
+      <c r="X56" s="24"/>
+      <c r="Y56" s="174"/>
+      <c r="Z56" s="23"/>
+      <c r="AA56" s="24"/>
+      <c r="AB56" s="174"/>
+      <c r="AC56" s="23"/>
+      <c r="AD56" s="24"/>
       <c r="AE56" s="97"/>
       <c r="AF56" s="97"/>
       <c r="AG56" s="97"/>
@@ -16018,39 +16199,41 @@
       <c r="CJ56" s="97"/>
       <c r="CK56" s="97"/>
       <c r="CL56" s="97"/>
-    </row>
-    <row r="57" spans="2:90" x14ac:dyDescent="0.15">
+      <c r="CM56" s="97"/>
+      <c r="CN56" s="97"/>
+    </row>
+    <row r="57" spans="2:92" x14ac:dyDescent="0.15">
       <c r="B57" s="122"/>
-      <c r="C57" s="336"/>
-      <c r="D57" s="336"/>
-      <c r="E57" s="336"/>
-      <c r="F57" s="336"/>
-      <c r="G57" s="336"/>
-      <c r="H57" s="336"/>
-      <c r="I57" s="336"/>
-      <c r="J57" s="347"/>
-      <c r="K57" s="311"/>
-      <c r="L57" s="351"/>
-      <c r="M57" s="311"/>
-      <c r="N57" s="146" t="s">
+      <c r="C57" s="335"/>
+      <c r="D57" s="335"/>
+      <c r="E57" s="335"/>
+      <c r="F57" s="335"/>
+      <c r="G57" s="335"/>
+      <c r="H57" s="335"/>
+      <c r="I57" s="335"/>
+      <c r="J57" s="346"/>
+      <c r="K57" s="310"/>
+      <c r="L57" s="350"/>
+      <c r="M57" s="310"/>
+      <c r="N57" s="310"/>
+      <c r="O57" s="350"/>
+      <c r="P57" s="146" t="s">
         <v>49</v>
       </c>
-      <c r="O57" s="246"/>
-      <c r="P57" s="47"/>
-      <c r="Q57" s="183"/>
-      <c r="R57" s="184"/>
-      <c r="S57" s="28"/>
-      <c r="T57" s="28"/>
+      <c r="Q57" s="246"/>
+      <c r="R57" s="47"/>
+      <c r="S57" s="183"/>
+      <c r="T57" s="184"/>
       <c r="U57" s="28"/>
       <c r="V57" s="28"/>
-      <c r="W57" s="175"/>
-      <c r="X57" s="27"/>
-      <c r="Y57" s="28"/>
-      <c r="Z57" s="175"/>
-      <c r="AA57" s="27"/>
-      <c r="AB57" s="28"/>
-      <c r="AC57" s="97"/>
-      <c r="AD57" s="97"/>
+      <c r="W57" s="28"/>
+      <c r="X57" s="28"/>
+      <c r="Y57" s="175"/>
+      <c r="Z57" s="27"/>
+      <c r="AA57" s="28"/>
+      <c r="AB57" s="175"/>
+      <c r="AC57" s="27"/>
+      <c r="AD57" s="28"/>
       <c r="AE57" s="97"/>
       <c r="AF57" s="97"/>
       <c r="AG57" s="97"/>
@@ -16111,47 +16294,53 @@
       <c r="CJ57" s="97"/>
       <c r="CK57" s="97"/>
       <c r="CL57" s="97"/>
-    </row>
-    <row r="58" spans="2:90" x14ac:dyDescent="0.15">
+      <c r="CM57" s="97"/>
+      <c r="CN57" s="97"/>
+    </row>
+    <row r="58" spans="2:92" x14ac:dyDescent="0.15">
       <c r="B58" s="122"/>
-      <c r="C58" s="349" t="s">
-        <v>170</v>
-      </c>
-      <c r="D58" s="334"/>
-      <c r="E58" s="334"/>
-      <c r="F58" s="334"/>
-      <c r="G58" s="334"/>
-      <c r="H58" s="334"/>
-      <c r="I58" s="334"/>
-      <c r="J58" s="346"/>
-      <c r="K58" s="310" t="s">
+      <c r="C58" s="348" t="s">
+        <v>169</v>
+      </c>
+      <c r="D58" s="333"/>
+      <c r="E58" s="333"/>
+      <c r="F58" s="333"/>
+      <c r="G58" s="333"/>
+      <c r="H58" s="333"/>
+      <c r="I58" s="333"/>
+      <c r="J58" s="345"/>
+      <c r="K58" s="309" t="s">
         <v>160</v>
       </c>
-      <c r="L58" s="310" t="s">
+      <c r="L58" s="309" t="s">
         <v>160</v>
       </c>
-      <c r="M58" s="314" t="s">
+      <c r="M58" s="313" t="s">
         <v>40</v>
       </c>
-      <c r="N58" s="145" t="s">
+      <c r="N58" s="313" t="s">
+        <v>174</v>
+      </c>
+      <c r="O58" s="349">
+        <v>20</v>
+      </c>
+      <c r="P58" s="145" t="s">
         <v>48</v>
       </c>
-      <c r="O58" s="46"/>
-      <c r="P58" s="46"/>
-      <c r="Q58" s="181"/>
-      <c r="R58" s="182"/>
-      <c r="S58" s="24"/>
-      <c r="T58" s="24"/>
+      <c r="Q58" s="46"/>
+      <c r="R58" s="46"/>
+      <c r="S58" s="181"/>
+      <c r="T58" s="182"/>
       <c r="U58" s="24"/>
-      <c r="V58" s="24"/>
-      <c r="W58" s="174"/>
-      <c r="X58" s="23"/>
-      <c r="Y58" s="24"/>
-      <c r="Z58" s="174"/>
-      <c r="AA58" s="23"/>
-      <c r="AB58" s="24"/>
-      <c r="AC58" s="97"/>
-      <c r="AD58" s="97"/>
+      <c r="V58" s="365"/>
+      <c r="W58" s="24"/>
+      <c r="X58" s="24"/>
+      <c r="Y58" s="174"/>
+      <c r="Z58" s="23"/>
+      <c r="AA58" s="24"/>
+      <c r="AB58" s="174"/>
+      <c r="AC58" s="23"/>
+      <c r="AD58" s="24"/>
       <c r="AE58" s="97"/>
       <c r="AF58" s="97"/>
       <c r="AG58" s="97"/>
@@ -16212,39 +16401,41 @@
       <c r="CJ58" s="97"/>
       <c r="CK58" s="97"/>
       <c r="CL58" s="97"/>
-    </row>
-    <row r="59" spans="2:90" x14ac:dyDescent="0.15">
+      <c r="CM58" s="97"/>
+      <c r="CN58" s="97"/>
+    </row>
+    <row r="59" spans="2:92" x14ac:dyDescent="0.15">
       <c r="B59" s="122"/>
-      <c r="C59" s="336"/>
-      <c r="D59" s="336"/>
-      <c r="E59" s="336"/>
-      <c r="F59" s="336"/>
-      <c r="G59" s="336"/>
-      <c r="H59" s="336"/>
-      <c r="I59" s="336"/>
-      <c r="J59" s="347"/>
-      <c r="K59" s="311"/>
-      <c r="L59" s="311"/>
-      <c r="M59" s="311"/>
-      <c r="N59" s="146" t="s">
+      <c r="C59" s="335"/>
+      <c r="D59" s="335"/>
+      <c r="E59" s="335"/>
+      <c r="F59" s="335"/>
+      <c r="G59" s="335"/>
+      <c r="H59" s="335"/>
+      <c r="I59" s="335"/>
+      <c r="J59" s="346"/>
+      <c r="K59" s="310"/>
+      <c r="L59" s="310"/>
+      <c r="M59" s="310"/>
+      <c r="N59" s="310"/>
+      <c r="O59" s="350"/>
+      <c r="P59" s="146" t="s">
         <v>49</v>
       </c>
-      <c r="O59" s="246"/>
-      <c r="P59" s="47"/>
-      <c r="Q59" s="183"/>
-      <c r="R59" s="184"/>
-      <c r="S59" s="28"/>
-      <c r="T59" s="28"/>
+      <c r="Q59" s="246"/>
+      <c r="R59" s="47"/>
+      <c r="S59" s="183"/>
+      <c r="T59" s="184"/>
       <c r="U59" s="28"/>
       <c r="V59" s="28"/>
-      <c r="W59" s="175"/>
-      <c r="X59" s="27"/>
-      <c r="Y59" s="28"/>
-      <c r="Z59" s="175"/>
-      <c r="AA59" s="27"/>
-      <c r="AB59" s="28"/>
-      <c r="AC59" s="97"/>
-      <c r="AD59" s="97"/>
+      <c r="W59" s="28"/>
+      <c r="X59" s="28"/>
+      <c r="Y59" s="175"/>
+      <c r="Z59" s="27"/>
+      <c r="AA59" s="28"/>
+      <c r="AB59" s="175"/>
+      <c r="AC59" s="27"/>
+      <c r="AD59" s="28"/>
       <c r="AE59" s="97"/>
       <c r="AF59" s="97"/>
       <c r="AG59" s="97"/>
@@ -16305,45 +16496,47 @@
       <c r="CJ59" s="97"/>
       <c r="CK59" s="97"/>
       <c r="CL59" s="97"/>
-    </row>
-    <row r="60" spans="2:90" x14ac:dyDescent="0.15">
+      <c r="CM59" s="97"/>
+      <c r="CN59" s="97"/>
+    </row>
+    <row r="60" spans="2:92" x14ac:dyDescent="0.15">
       <c r="B60" s="122"/>
-      <c r="C60" s="349" t="s">
-        <v>171</v>
-      </c>
-      <c r="D60" s="334"/>
-      <c r="E60" s="334"/>
-      <c r="F60" s="334"/>
-      <c r="G60" s="334"/>
-      <c r="H60" s="334"/>
-      <c r="I60" s="334"/>
-      <c r="J60" s="346"/>
-      <c r="K60" s="310" t="s">
+      <c r="C60" s="348" t="s">
+        <v>170</v>
+      </c>
+      <c r="D60" s="333"/>
+      <c r="E60" s="333"/>
+      <c r="F60" s="333"/>
+      <c r="G60" s="333"/>
+      <c r="H60" s="333"/>
+      <c r="I60" s="333"/>
+      <c r="J60" s="345"/>
+      <c r="K60" s="309" t="s">
         <v>159</v>
       </c>
-      <c r="L60" s="310"/>
-      <c r="M60" s="314" t="s">
+      <c r="L60" s="309"/>
+      <c r="M60" s="313" t="s">
         <v>40</v>
       </c>
-      <c r="N60" s="145" t="s">
+      <c r="N60" s="313"/>
+      <c r="O60" s="349"/>
+      <c r="P60" s="145" t="s">
         <v>48</v>
       </c>
-      <c r="O60" s="46"/>
-      <c r="P60" s="46"/>
-      <c r="Q60" s="238"/>
-      <c r="R60" s="182"/>
-      <c r="S60" s="24"/>
-      <c r="T60" s="24"/>
+      <c r="Q60" s="46"/>
+      <c r="R60" s="46"/>
+      <c r="S60" s="238"/>
+      <c r="T60" s="182"/>
       <c r="U60" s="24"/>
       <c r="V60" s="24"/>
-      <c r="W60" s="174"/>
-      <c r="X60" s="23"/>
-      <c r="Y60" s="24"/>
-      <c r="Z60" s="174"/>
-      <c r="AA60" s="23"/>
-      <c r="AB60" s="24"/>
-      <c r="AC60" s="97"/>
-      <c r="AD60" s="97"/>
+      <c r="W60" s="24"/>
+      <c r="X60" s="24"/>
+      <c r="Y60" s="174"/>
+      <c r="Z60" s="23"/>
+      <c r="AA60" s="24"/>
+      <c r="AB60" s="174"/>
+      <c r="AC60" s="23"/>
+      <c r="AD60" s="24"/>
       <c r="AE60" s="97"/>
       <c r="AF60" s="97"/>
       <c r="AG60" s="97"/>
@@ -16404,39 +16597,41 @@
       <c r="CJ60" s="97"/>
       <c r="CK60" s="97"/>
       <c r="CL60" s="97"/>
-    </row>
-    <row r="61" spans="2:90" x14ac:dyDescent="0.15">
+      <c r="CM60" s="97"/>
+      <c r="CN60" s="97"/>
+    </row>
+    <row r="61" spans="2:92" x14ac:dyDescent="0.15">
       <c r="B61" s="122"/>
-      <c r="C61" s="336"/>
-      <c r="D61" s="336"/>
-      <c r="E61" s="336"/>
-      <c r="F61" s="336"/>
-      <c r="G61" s="336"/>
-      <c r="H61" s="336"/>
-      <c r="I61" s="336"/>
-      <c r="J61" s="347"/>
-      <c r="K61" s="311"/>
-      <c r="L61" s="311"/>
-      <c r="M61" s="311"/>
-      <c r="N61" s="146" t="s">
+      <c r="C61" s="335"/>
+      <c r="D61" s="335"/>
+      <c r="E61" s="335"/>
+      <c r="F61" s="335"/>
+      <c r="G61" s="335"/>
+      <c r="H61" s="335"/>
+      <c r="I61" s="335"/>
+      <c r="J61" s="346"/>
+      <c r="K61" s="310"/>
+      <c r="L61" s="310"/>
+      <c r="M61" s="310"/>
+      <c r="N61" s="310"/>
+      <c r="O61" s="350"/>
+      <c r="P61" s="146" t="s">
         <v>49</v>
       </c>
-      <c r="O61" s="245"/>
-      <c r="P61" s="47"/>
-      <c r="Q61" s="183"/>
-      <c r="R61" s="184"/>
-      <c r="S61" s="28"/>
-      <c r="T61" s="28"/>
+      <c r="Q61" s="245"/>
+      <c r="R61" s="47"/>
+      <c r="S61" s="183"/>
+      <c r="T61" s="184"/>
       <c r="U61" s="28"/>
       <c r="V61" s="28"/>
-      <c r="W61" s="175"/>
-      <c r="X61" s="27"/>
-      <c r="Y61" s="28"/>
-      <c r="Z61" s="175"/>
-      <c r="AA61" s="27"/>
-      <c r="AB61" s="28"/>
-      <c r="AC61" s="97"/>
-      <c r="AD61" s="97"/>
+      <c r="W61" s="28"/>
+      <c r="X61" s="28"/>
+      <c r="Y61" s="175"/>
+      <c r="Z61" s="27"/>
+      <c r="AA61" s="28"/>
+      <c r="AB61" s="175"/>
+      <c r="AC61" s="27"/>
+      <c r="AD61" s="28"/>
       <c r="AE61" s="97"/>
       <c r="AF61" s="97"/>
       <c r="AG61" s="97"/>
@@ -16497,45 +16692,47 @@
       <c r="CJ61" s="97"/>
       <c r="CK61" s="97"/>
       <c r="CL61" s="97"/>
-    </row>
-    <row r="62" spans="2:90" x14ac:dyDescent="0.15">
+      <c r="CM61" s="97"/>
+      <c r="CN61" s="97"/>
+    </row>
+    <row r="62" spans="2:92" x14ac:dyDescent="0.15">
       <c r="B62" s="122"/>
-      <c r="C62" s="349" t="s">
-        <v>172</v>
-      </c>
-      <c r="D62" s="334"/>
-      <c r="E62" s="334"/>
-      <c r="F62" s="334"/>
-      <c r="G62" s="334"/>
-      <c r="H62" s="334"/>
-      <c r="I62" s="334"/>
-      <c r="J62" s="346"/>
-      <c r="K62" s="310" t="s">
+      <c r="C62" s="348" t="s">
+        <v>171</v>
+      </c>
+      <c r="D62" s="333"/>
+      <c r="E62" s="333"/>
+      <c r="F62" s="333"/>
+      <c r="G62" s="333"/>
+      <c r="H62" s="333"/>
+      <c r="I62" s="333"/>
+      <c r="J62" s="345"/>
+      <c r="K62" s="309" t="s">
         <v>159</v>
       </c>
-      <c r="L62" s="310"/>
-      <c r="M62" s="314" t="s">
+      <c r="L62" s="309"/>
+      <c r="M62" s="313" t="s">
         <v>40</v>
       </c>
-      <c r="N62" s="145" t="s">
+      <c r="N62" s="313"/>
+      <c r="O62" s="349"/>
+      <c r="P62" s="145" t="s">
         <v>48</v>
       </c>
-      <c r="O62" s="46"/>
-      <c r="P62" s="46"/>
-      <c r="Q62" s="181"/>
-      <c r="R62" s="182"/>
-      <c r="S62" s="24"/>
-      <c r="T62" s="24"/>
+      <c r="Q62" s="46"/>
+      <c r="R62" s="46"/>
+      <c r="S62" s="181"/>
+      <c r="T62" s="182"/>
       <c r="U62" s="24"/>
       <c r="V62" s="24"/>
-      <c r="W62" s="174"/>
-      <c r="X62" s="23"/>
-      <c r="Y62" s="24"/>
-      <c r="Z62" s="174"/>
-      <c r="AA62" s="23"/>
-      <c r="AB62" s="24"/>
-      <c r="AC62" s="97"/>
-      <c r="AD62" s="97"/>
+      <c r="W62" s="24"/>
+      <c r="X62" s="24"/>
+      <c r="Y62" s="174"/>
+      <c r="Z62" s="23"/>
+      <c r="AA62" s="24"/>
+      <c r="AB62" s="174"/>
+      <c r="AC62" s="23"/>
+      <c r="AD62" s="24"/>
       <c r="AE62" s="97"/>
       <c r="AF62" s="97"/>
       <c r="AG62" s="97"/>
@@ -16596,39 +16793,41 @@
       <c r="CJ62" s="97"/>
       <c r="CK62" s="97"/>
       <c r="CL62" s="97"/>
-    </row>
-    <row r="63" spans="2:90" x14ac:dyDescent="0.15">
+      <c r="CM62" s="97"/>
+      <c r="CN62" s="97"/>
+    </row>
+    <row r="63" spans="2:92" x14ac:dyDescent="0.15">
       <c r="B63" s="122"/>
-      <c r="C63" s="336"/>
-      <c r="D63" s="336"/>
-      <c r="E63" s="336"/>
-      <c r="F63" s="336"/>
-      <c r="G63" s="336"/>
-      <c r="H63" s="336"/>
-      <c r="I63" s="336"/>
-      <c r="J63" s="347"/>
-      <c r="K63" s="311"/>
-      <c r="L63" s="311"/>
-      <c r="M63" s="311"/>
-      <c r="N63" s="146" t="s">
+      <c r="C63" s="335"/>
+      <c r="D63" s="335"/>
+      <c r="E63" s="335"/>
+      <c r="F63" s="335"/>
+      <c r="G63" s="335"/>
+      <c r="H63" s="335"/>
+      <c r="I63" s="335"/>
+      <c r="J63" s="346"/>
+      <c r="K63" s="310"/>
+      <c r="L63" s="310"/>
+      <c r="M63" s="310"/>
+      <c r="N63" s="310"/>
+      <c r="O63" s="350"/>
+      <c r="P63" s="146" t="s">
         <v>49</v>
       </c>
-      <c r="O63" s="245"/>
-      <c r="P63" s="39"/>
-      <c r="Q63" s="183"/>
-      <c r="R63" s="184"/>
-      <c r="S63" s="47"/>
-      <c r="T63" s="28"/>
-      <c r="U63" s="28"/>
+      <c r="Q63" s="245"/>
+      <c r="R63" s="39"/>
+      <c r="S63" s="183"/>
+      <c r="T63" s="184"/>
+      <c r="U63" s="47"/>
       <c r="V63" s="28"/>
-      <c r="W63" s="175"/>
-      <c r="X63" s="27"/>
-      <c r="Y63" s="28"/>
-      <c r="Z63" s="175"/>
-      <c r="AA63" s="27"/>
-      <c r="AB63" s="28"/>
-      <c r="AC63" s="97"/>
-      <c r="AD63" s="97"/>
+      <c r="W63" s="28"/>
+      <c r="X63" s="28"/>
+      <c r="Y63" s="175"/>
+      <c r="Z63" s="27"/>
+      <c r="AA63" s="28"/>
+      <c r="AB63" s="175"/>
+      <c r="AC63" s="27"/>
+      <c r="AD63" s="28"/>
       <c r="AE63" s="97"/>
       <c r="AF63" s="97"/>
       <c r="AG63" s="97"/>
@@ -16689,45 +16888,47 @@
       <c r="CJ63" s="97"/>
       <c r="CK63" s="97"/>
       <c r="CL63" s="97"/>
-    </row>
-    <row r="64" spans="2:90" x14ac:dyDescent="0.15">
+      <c r="CM63" s="97"/>
+      <c r="CN63" s="97"/>
+    </row>
+    <row r="64" spans="2:92" x14ac:dyDescent="0.15">
       <c r="B64" s="122"/>
-      <c r="C64" s="358" t="s">
-        <v>173</v>
-      </c>
-      <c r="D64" s="349"/>
-      <c r="E64" s="349"/>
-      <c r="F64" s="349"/>
-      <c r="G64" s="349"/>
-      <c r="H64" s="349"/>
-      <c r="I64" s="349"/>
-      <c r="J64" s="359"/>
-      <c r="K64" s="310" t="s">
+      <c r="C64" s="357" t="s">
+        <v>172</v>
+      </c>
+      <c r="D64" s="348"/>
+      <c r="E64" s="348"/>
+      <c r="F64" s="348"/>
+      <c r="G64" s="348"/>
+      <c r="H64" s="348"/>
+      <c r="I64" s="348"/>
+      <c r="J64" s="358"/>
+      <c r="K64" s="309" t="s">
         <v>159</v>
       </c>
-      <c r="L64" s="310"/>
-      <c r="M64" s="314" t="s">
+      <c r="L64" s="309"/>
+      <c r="M64" s="313" t="s">
         <v>40</v>
       </c>
-      <c r="N64" s="145" t="s">
+      <c r="N64" s="313"/>
+      <c r="O64" s="349"/>
+      <c r="P64" s="145" t="s">
         <v>48</v>
       </c>
-      <c r="O64" s="46"/>
-      <c r="P64" s="46"/>
-      <c r="Q64" s="181"/>
-      <c r="R64" s="182"/>
-      <c r="S64" s="24"/>
-      <c r="T64" s="24"/>
+      <c r="Q64" s="46"/>
+      <c r="R64" s="46"/>
+      <c r="S64" s="181"/>
+      <c r="T64" s="182"/>
       <c r="U64" s="24"/>
       <c r="V64" s="24"/>
-      <c r="W64" s="174"/>
-      <c r="X64" s="23"/>
-      <c r="Y64" s="24"/>
-      <c r="Z64" s="174"/>
-      <c r="AA64" s="23"/>
-      <c r="AB64" s="24"/>
-      <c r="AC64" s="97"/>
-      <c r="AD64" s="97"/>
+      <c r="W64" s="24"/>
+      <c r="X64" s="24"/>
+      <c r="Y64" s="174"/>
+      <c r="Z64" s="23"/>
+      <c r="AA64" s="24"/>
+      <c r="AB64" s="174"/>
+      <c r="AC64" s="23"/>
+      <c r="AD64" s="24"/>
       <c r="AE64" s="97"/>
       <c r="AF64" s="97"/>
       <c r="AG64" s="97"/>
@@ -16788,39 +16989,41 @@
       <c r="CJ64" s="97"/>
       <c r="CK64" s="97"/>
       <c r="CL64" s="97"/>
-    </row>
-    <row r="65" spans="2:90" x14ac:dyDescent="0.15">
+      <c r="CM64" s="97"/>
+      <c r="CN64" s="97"/>
+    </row>
+    <row r="65" spans="2:92" x14ac:dyDescent="0.15">
       <c r="B65" s="122"/>
-      <c r="C65" s="360"/>
-      <c r="D65" s="361"/>
-      <c r="E65" s="361"/>
-      <c r="F65" s="361"/>
-      <c r="G65" s="361"/>
-      <c r="H65" s="361"/>
-      <c r="I65" s="361"/>
-      <c r="J65" s="362"/>
-      <c r="K65" s="311"/>
-      <c r="L65" s="311"/>
-      <c r="M65" s="311"/>
-      <c r="N65" s="146" t="s">
+      <c r="C65" s="359"/>
+      <c r="D65" s="360"/>
+      <c r="E65" s="360"/>
+      <c r="F65" s="360"/>
+      <c r="G65" s="360"/>
+      <c r="H65" s="360"/>
+      <c r="I65" s="360"/>
+      <c r="J65" s="361"/>
+      <c r="K65" s="310"/>
+      <c r="L65" s="310"/>
+      <c r="M65" s="310"/>
+      <c r="N65" s="310"/>
+      <c r="O65" s="350"/>
+      <c r="P65" s="146" t="s">
         <v>49</v>
       </c>
-      <c r="O65" s="245"/>
-      <c r="P65" s="39"/>
-      <c r="Q65" s="185"/>
-      <c r="R65" s="184"/>
-      <c r="S65" s="47"/>
-      <c r="T65" s="28"/>
-      <c r="U65" s="28"/>
+      <c r="Q65" s="245"/>
+      <c r="R65" s="39"/>
+      <c r="S65" s="185"/>
+      <c r="T65" s="184"/>
+      <c r="U65" s="47"/>
       <c r="V65" s="28"/>
-      <c r="W65" s="175"/>
-      <c r="X65" s="27"/>
-      <c r="Y65" s="28"/>
-      <c r="Z65" s="175"/>
-      <c r="AA65" s="27"/>
-      <c r="AB65" s="28"/>
-      <c r="AC65" s="97"/>
-      <c r="AD65" s="97"/>
+      <c r="W65" s="28"/>
+      <c r="X65" s="28"/>
+      <c r="Y65" s="175"/>
+      <c r="Z65" s="27"/>
+      <c r="AA65" s="28"/>
+      <c r="AB65" s="175"/>
+      <c r="AC65" s="27"/>
+      <c r="AD65" s="28"/>
       <c r="AE65" s="97"/>
       <c r="AF65" s="97"/>
       <c r="AG65" s="97"/>
@@ -16881,47 +17084,51 @@
       <c r="CJ65" s="97"/>
       <c r="CK65" s="97"/>
       <c r="CL65" s="97"/>
-    </row>
-    <row r="66" spans="2:90" x14ac:dyDescent="0.15">
+      <c r="CM65" s="97"/>
+      <c r="CN65" s="97"/>
+    </row>
+    <row r="66" spans="2:92" x14ac:dyDescent="0.15">
       <c r="B66" s="122"/>
-      <c r="C66" s="349" t="s">
-        <v>174</v>
-      </c>
-      <c r="D66" s="334"/>
-      <c r="E66" s="334"/>
-      <c r="F66" s="334"/>
-      <c r="G66" s="334"/>
-      <c r="H66" s="334"/>
-      <c r="I66" s="334"/>
-      <c r="J66" s="346"/>
-      <c r="K66" s="310" t="s">
+      <c r="C66" s="348" t="s">
+        <v>173</v>
+      </c>
+      <c r="D66" s="333"/>
+      <c r="E66" s="333"/>
+      <c r="F66" s="333"/>
+      <c r="G66" s="333"/>
+      <c r="H66" s="333"/>
+      <c r="I66" s="333"/>
+      <c r="J66" s="345"/>
+      <c r="K66" s="309" t="s">
         <v>157</v>
       </c>
-      <c r="L66" s="350" t="s">
+      <c r="L66" s="349" t="s">
         <v>157</v>
       </c>
-      <c r="M66" s="314" t="s">
-        <v>175</v>
-      </c>
-      <c r="N66" s="145" t="s">
+      <c r="M66" s="313" t="s">
+        <v>40</v>
+      </c>
+      <c r="N66" s="313"/>
+      <c r="O66" s="349">
+        <v>0</v>
+      </c>
+      <c r="P66" s="145" t="s">
         <v>48</v>
       </c>
-      <c r="O66" s="46"/>
-      <c r="P66" s="46"/>
-      <c r="Q66" s="181"/>
-      <c r="R66" s="182"/>
-      <c r="S66" s="24"/>
-      <c r="T66" s="24"/>
+      <c r="Q66" s="46"/>
+      <c r="R66" s="46"/>
+      <c r="S66" s="181"/>
+      <c r="T66" s="182"/>
       <c r="U66" s="24"/>
       <c r="V66" s="24"/>
-      <c r="W66" s="174"/>
-      <c r="X66" s="23"/>
-      <c r="Y66" s="24"/>
-      <c r="Z66" s="174"/>
-      <c r="AA66" s="23"/>
-      <c r="AB66" s="24"/>
-      <c r="AC66" s="97"/>
-      <c r="AD66" s="97"/>
+      <c r="W66" s="24"/>
+      <c r="X66" s="24"/>
+      <c r="Y66" s="174"/>
+      <c r="Z66" s="23"/>
+      <c r="AA66" s="24"/>
+      <c r="AB66" s="174"/>
+      <c r="AC66" s="23"/>
+      <c r="AD66" s="24"/>
       <c r="AE66" s="97"/>
       <c r="AF66" s="97"/>
       <c r="AG66" s="97"/>
@@ -16982,39 +17189,41 @@
       <c r="CJ66" s="97"/>
       <c r="CK66" s="97"/>
       <c r="CL66" s="97"/>
-    </row>
-    <row r="67" spans="2:90" x14ac:dyDescent="0.15">
+      <c r="CM66" s="97"/>
+      <c r="CN66" s="97"/>
+    </row>
+    <row r="67" spans="2:92" x14ac:dyDescent="0.15">
       <c r="B67" s="122"/>
-      <c r="C67" s="336"/>
-      <c r="D67" s="336"/>
-      <c r="E67" s="336"/>
-      <c r="F67" s="336"/>
-      <c r="G67" s="336"/>
-      <c r="H67" s="336"/>
-      <c r="I67" s="336"/>
-      <c r="J67" s="347"/>
-      <c r="K67" s="311"/>
-      <c r="L67" s="351"/>
-      <c r="M67" s="311"/>
-      <c r="N67" s="146" t="s">
+      <c r="C67" s="335"/>
+      <c r="D67" s="335"/>
+      <c r="E67" s="335"/>
+      <c r="F67" s="335"/>
+      <c r="G67" s="335"/>
+      <c r="H67" s="335"/>
+      <c r="I67" s="335"/>
+      <c r="J67" s="346"/>
+      <c r="K67" s="310"/>
+      <c r="L67" s="350"/>
+      <c r="M67" s="310"/>
+      <c r="N67" s="310"/>
+      <c r="O67" s="350"/>
+      <c r="P67" s="146" t="s">
         <v>49</v>
       </c>
-      <c r="O67" s="187"/>
-      <c r="P67" s="39"/>
-      <c r="Q67" s="185"/>
-      <c r="R67" s="184"/>
-      <c r="S67" s="47"/>
-      <c r="T67" s="28"/>
-      <c r="U67" s="28"/>
+      <c r="Q67" s="187"/>
+      <c r="R67" s="39"/>
+      <c r="S67" s="185"/>
+      <c r="T67" s="184"/>
+      <c r="U67" s="47"/>
       <c r="V67" s="28"/>
-      <c r="W67" s="175"/>
-      <c r="X67" s="27"/>
-      <c r="Y67" s="28"/>
-      <c r="Z67" s="175"/>
-      <c r="AA67" s="27"/>
-      <c r="AB67" s="28"/>
-      <c r="AC67" s="97"/>
-      <c r="AD67" s="97"/>
+      <c r="W67" s="28"/>
+      <c r="X67" s="28"/>
+      <c r="Y67" s="175"/>
+      <c r="Z67" s="27"/>
+      <c r="AA67" s="28"/>
+      <c r="AB67" s="175"/>
+      <c r="AC67" s="27"/>
+      <c r="AD67" s="28"/>
       <c r="AE67" s="97"/>
       <c r="AF67" s="97"/>
       <c r="AG67" s="97"/>
@@ -17075,8 +17284,10 @@
       <c r="CJ67" s="97"/>
       <c r="CK67" s="97"/>
       <c r="CL67" s="97"/>
-    </row>
-    <row r="68" spans="2:90" x14ac:dyDescent="0.15">
+      <c r="CM67" s="97"/>
+      <c r="CN67" s="97"/>
+    </row>
+    <row r="68" spans="2:92" x14ac:dyDescent="0.15">
       <c r="B68" s="122"/>
       <c r="C68" s="234"/>
       <c r="D68" s="235"/>
@@ -17089,23 +17300,23 @@
       <c r="K68" s="240"/>
       <c r="L68" s="236"/>
       <c r="M68" s="236"/>
-      <c r="N68" s="240"/>
-      <c r="O68" s="237"/>
-      <c r="P68" s="237"/>
-      <c r="Q68" s="241"/>
-      <c r="R68" s="242"/>
-      <c r="S68" s="244"/>
-      <c r="T68" s="244"/>
+      <c r="N68" s="236"/>
+      <c r="O68" s="236"/>
+      <c r="P68" s="240"/>
+      <c r="Q68" s="237"/>
+      <c r="R68" s="237"/>
+      <c r="S68" s="241"/>
+      <c r="T68" s="242"/>
       <c r="U68" s="244"/>
-      <c r="V68" s="237"/>
+      <c r="V68" s="244"/>
       <c r="W68" s="244"/>
       <c r="X68" s="237"/>
       <c r="Y68" s="244"/>
-      <c r="Z68" s="244"/>
-      <c r="AA68" s="237"/>
-      <c r="AB68" s="243"/>
-      <c r="AC68" s="97"/>
-      <c r="AD68" s="97"/>
+      <c r="Z68" s="237"/>
+      <c r="AA68" s="244"/>
+      <c r="AB68" s="244"/>
+      <c r="AC68" s="237"/>
+      <c r="AD68" s="243"/>
       <c r="AE68" s="97"/>
       <c r="AF68" s="97"/>
       <c r="AG68" s="97"/>
@@ -17166,9 +17377,50 @@
       <c r="CJ68" s="97"/>
       <c r="CK68" s="97"/>
       <c r="CL68" s="97"/>
+      <c r="CM68" s="97"/>
+      <c r="CN68" s="97"/>
     </row>
   </sheetData>
-  <mergeCells count="78">
+  <mergeCells count="118">
+    <mergeCell ref="O60:O61"/>
+    <mergeCell ref="O62:O63"/>
+    <mergeCell ref="O64:O65"/>
+    <mergeCell ref="O66:O67"/>
+    <mergeCell ref="O50:O51"/>
+    <mergeCell ref="O52:O53"/>
+    <mergeCell ref="O54:O55"/>
+    <mergeCell ref="O56:O57"/>
+    <mergeCell ref="O58:O59"/>
+    <mergeCell ref="O40:O41"/>
+    <mergeCell ref="O42:O43"/>
+    <mergeCell ref="O44:O45"/>
+    <mergeCell ref="O46:O47"/>
+    <mergeCell ref="O48:O49"/>
+    <mergeCell ref="O30:O31"/>
+    <mergeCell ref="O32:O33"/>
+    <mergeCell ref="O34:O35"/>
+    <mergeCell ref="O36:O37"/>
+    <mergeCell ref="O38:O39"/>
+    <mergeCell ref="N58:N59"/>
+    <mergeCell ref="N60:N61"/>
+    <mergeCell ref="N62:N63"/>
+    <mergeCell ref="N64:N65"/>
+    <mergeCell ref="N66:N67"/>
+    <mergeCell ref="N48:N49"/>
+    <mergeCell ref="N50:N51"/>
+    <mergeCell ref="N52:N53"/>
+    <mergeCell ref="N54:N55"/>
+    <mergeCell ref="N56:N57"/>
+    <mergeCell ref="N38:N39"/>
+    <mergeCell ref="N40:N41"/>
+    <mergeCell ref="N42:N43"/>
+    <mergeCell ref="N44:N45"/>
+    <mergeCell ref="N46:N47"/>
+    <mergeCell ref="N25:N27"/>
+    <mergeCell ref="N30:N31"/>
+    <mergeCell ref="N32:N33"/>
+    <mergeCell ref="N34:N35"/>
+    <mergeCell ref="N36:N37"/>
     <mergeCell ref="C38:J39"/>
     <mergeCell ref="K36:K37"/>
     <mergeCell ref="M38:M39"/>
@@ -17192,6 +17444,7 @@
     <mergeCell ref="C42:J43"/>
     <mergeCell ref="K42:K43"/>
     <mergeCell ref="M42:M43"/>
+    <mergeCell ref="L42:L43"/>
     <mergeCell ref="M58:M59"/>
     <mergeCell ref="L58:L59"/>
     <mergeCell ref="L66:L67"/>
@@ -17210,7 +17463,7 @@
     <mergeCell ref="L60:L61"/>
     <mergeCell ref="K25:K27"/>
     <mergeCell ref="M25:M27"/>
-    <mergeCell ref="N25:N27"/>
+    <mergeCell ref="P25:P27"/>
     <mergeCell ref="C30:J31"/>
     <mergeCell ref="K38:K39"/>
     <mergeCell ref="M30:M31"/>
@@ -17250,7 +17503,7 @@
   </mergeCells>
   <phoneticPr fontId="7"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M28:M30 M32 M36 M40 M44 M62 M50 M52 M58 M60 M64 M66 M34 M38 M54 M56 M42 M46 M48" xr:uid="{00000000-0002-0000-0400-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M36:N36 M40:N40 M44:N44 M62:N62 M50:N50 M52:N52 M58:N58 M60:N60 M64:N64 M66:N66 M34:N34 M38:N38 M54:N54 M56:N56 M42:N42 M46:N46 M48:N48 O28:O29 M28:N30 M32:N32" xr:uid="{00000000-0002-0000-0400-000000000000}">
       <formula1>"未着手,作業中,作業完"</formula1>
     </dataValidation>
   </dataValidations>
@@ -17264,8 +17517,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="B23:CK47"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q42" sqref="Q42"/>
+    <sheetView showGridLines="0" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M51" sqref="M51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.875" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
@@ -17435,13 +17688,13 @@
       <c r="H25" s="100"/>
       <c r="I25" s="100"/>
       <c r="J25" s="100"/>
-      <c r="K25" s="352" t="s">
+      <c r="K25" s="351" t="s">
         <v>3</v>
       </c>
-      <c r="L25" s="355" t="s">
+      <c r="L25" s="354" t="s">
         <v>52</v>
       </c>
-      <c r="M25" s="355" t="s">
+      <c r="M25" s="354" t="s">
         <v>47</v>
       </c>
       <c r="N25" s="101">
@@ -17533,9 +17786,9 @@
       <c r="H26" s="171"/>
       <c r="I26" s="171"/>
       <c r="J26" s="171"/>
-      <c r="K26" s="353"/>
-      <c r="L26" s="356"/>
-      <c r="M26" s="356"/>
+      <c r="K26" s="352"/>
+      <c r="L26" s="355"/>
+      <c r="M26" s="355"/>
       <c r="N26" s="170" t="s">
         <v>118</v>
       </c>
@@ -17625,9 +17878,9 @@
       <c r="H27" s="90"/>
       <c r="I27" s="90"/>
       <c r="J27" s="90"/>
-      <c r="K27" s="354"/>
-      <c r="L27" s="357"/>
-      <c r="M27" s="357"/>
+      <c r="K27" s="353"/>
+      <c r="L27" s="356"/>
+      <c r="M27" s="356"/>
       <c r="N27" s="84">
         <v>21</v>
       </c>
@@ -17819,20 +18072,20 @@
     </row>
     <row r="29" spans="2:89" x14ac:dyDescent="0.15">
       <c r="B29" s="3"/>
-      <c r="C29" s="363" t="s">
+      <c r="C29" s="362" t="s">
         <v>87</v>
       </c>
-      <c r="D29" s="334"/>
-      <c r="E29" s="334"/>
-      <c r="F29" s="334"/>
-      <c r="G29" s="334"/>
-      <c r="H29" s="334"/>
-      <c r="I29" s="334"/>
-      <c r="J29" s="346"/>
-      <c r="K29" s="310" t="s">
+      <c r="D29" s="333"/>
+      <c r="E29" s="333"/>
+      <c r="F29" s="333"/>
+      <c r="G29" s="333"/>
+      <c r="H29" s="333"/>
+      <c r="I29" s="333"/>
+      <c r="J29" s="345"/>
+      <c r="K29" s="309" t="s">
         <v>58</v>
       </c>
-      <c r="L29" s="314">
+      <c r="L29" s="313">
         <v>1</v>
       </c>
       <c r="M29" s="80" t="s">
@@ -17917,16 +18170,16 @@
     </row>
     <row r="30" spans="2:89" x14ac:dyDescent="0.15">
       <c r="B30" s="3"/>
-      <c r="C30" s="335"/>
-      <c r="D30" s="336"/>
-      <c r="E30" s="336"/>
-      <c r="F30" s="336"/>
-      <c r="G30" s="336"/>
-      <c r="H30" s="336"/>
-      <c r="I30" s="336"/>
-      <c r="J30" s="347"/>
-      <c r="K30" s="311"/>
-      <c r="L30" s="311"/>
+      <c r="C30" s="334"/>
+      <c r="D30" s="335"/>
+      <c r="E30" s="335"/>
+      <c r="F30" s="335"/>
+      <c r="G30" s="335"/>
+      <c r="H30" s="335"/>
+      <c r="I30" s="335"/>
+      <c r="J30" s="346"/>
+      <c r="K30" s="310"/>
+      <c r="L30" s="310"/>
       <c r="M30" s="81" t="s">
         <v>49</v>
       </c>
@@ -18009,20 +18262,20 @@
     </row>
     <row r="31" spans="2:89" x14ac:dyDescent="0.15">
       <c r="B31" s="3"/>
-      <c r="C31" s="363" t="s">
+      <c r="C31" s="362" t="s">
         <v>88</v>
       </c>
-      <c r="D31" s="334"/>
-      <c r="E31" s="334"/>
-      <c r="F31" s="334"/>
-      <c r="G31" s="334"/>
-      <c r="H31" s="334"/>
-      <c r="I31" s="334"/>
-      <c r="J31" s="346"/>
-      <c r="K31" s="310" t="s">
+      <c r="D31" s="333"/>
+      <c r="E31" s="333"/>
+      <c r="F31" s="333"/>
+      <c r="G31" s="333"/>
+      <c r="H31" s="333"/>
+      <c r="I31" s="333"/>
+      <c r="J31" s="345"/>
+      <c r="K31" s="309" t="s">
         <v>58</v>
       </c>
-      <c r="L31" s="314">
+      <c r="L31" s="313">
         <v>1</v>
       </c>
       <c r="M31" s="80" t="s">
@@ -18107,16 +18360,16 @@
     </row>
     <row r="32" spans="2:89" x14ac:dyDescent="0.15">
       <c r="B32" s="3"/>
-      <c r="C32" s="335"/>
-      <c r="D32" s="336"/>
-      <c r="E32" s="336"/>
-      <c r="F32" s="336"/>
-      <c r="G32" s="336"/>
-      <c r="H32" s="336"/>
-      <c r="I32" s="336"/>
-      <c r="J32" s="347"/>
-      <c r="K32" s="311"/>
-      <c r="L32" s="311" t="s">
+      <c r="C32" s="334"/>
+      <c r="D32" s="335"/>
+      <c r="E32" s="335"/>
+      <c r="F32" s="335"/>
+      <c r="G32" s="335"/>
+      <c r="H32" s="335"/>
+      <c r="I32" s="335"/>
+      <c r="J32" s="346"/>
+      <c r="K32" s="310"/>
+      <c r="L32" s="310" t="s">
         <v>39</v>
       </c>
       <c r="M32" s="81" t="s">
@@ -18201,20 +18454,20 @@
     </row>
     <row r="33" spans="2:89" x14ac:dyDescent="0.15">
       <c r="B33" s="3"/>
-      <c r="C33" s="363" t="s">
+      <c r="C33" s="362" t="s">
         <v>90</v>
       </c>
-      <c r="D33" s="334"/>
-      <c r="E33" s="334"/>
-      <c r="F33" s="334"/>
-      <c r="G33" s="334"/>
-      <c r="H33" s="334"/>
-      <c r="I33" s="334"/>
-      <c r="J33" s="346"/>
-      <c r="K33" s="310" t="s">
+      <c r="D33" s="333"/>
+      <c r="E33" s="333"/>
+      <c r="F33" s="333"/>
+      <c r="G33" s="333"/>
+      <c r="H33" s="333"/>
+      <c r="I33" s="333"/>
+      <c r="J33" s="345"/>
+      <c r="K33" s="309" t="s">
         <v>58</v>
       </c>
-      <c r="L33" s="314">
+      <c r="L33" s="313">
         <v>1</v>
       </c>
       <c r="M33" s="80" t="s">
@@ -18299,16 +18552,16 @@
     </row>
     <row r="34" spans="2:89" x14ac:dyDescent="0.15">
       <c r="B34" s="3"/>
-      <c r="C34" s="335"/>
-      <c r="D34" s="336"/>
-      <c r="E34" s="336"/>
-      <c r="F34" s="336"/>
-      <c r="G34" s="336"/>
-      <c r="H34" s="336"/>
-      <c r="I34" s="336"/>
-      <c r="J34" s="347"/>
-      <c r="K34" s="311"/>
-      <c r="L34" s="311" t="s">
+      <c r="C34" s="334"/>
+      <c r="D34" s="335"/>
+      <c r="E34" s="335"/>
+      <c r="F34" s="335"/>
+      <c r="G34" s="335"/>
+      <c r="H34" s="335"/>
+      <c r="I34" s="335"/>
+      <c r="J34" s="346"/>
+      <c r="K34" s="310"/>
+      <c r="L34" s="310" t="s">
         <v>39</v>
       </c>
       <c r="M34" s="81" t="s">
@@ -18393,20 +18646,20 @@
     </row>
     <row r="35" spans="2:89" x14ac:dyDescent="0.15">
       <c r="B35" s="3"/>
-      <c r="C35" s="363" t="s">
+      <c r="C35" s="362" t="s">
         <v>91</v>
       </c>
-      <c r="D35" s="334"/>
-      <c r="E35" s="334"/>
-      <c r="F35" s="334"/>
-      <c r="G35" s="334"/>
-      <c r="H35" s="334"/>
-      <c r="I35" s="334"/>
-      <c r="J35" s="346"/>
-      <c r="K35" s="310" t="s">
+      <c r="D35" s="333"/>
+      <c r="E35" s="333"/>
+      <c r="F35" s="333"/>
+      <c r="G35" s="333"/>
+      <c r="H35" s="333"/>
+      <c r="I35" s="333"/>
+      <c r="J35" s="345"/>
+      <c r="K35" s="309" t="s">
         <v>58</v>
       </c>
-      <c r="L35" s="314">
+      <c r="L35" s="313">
         <v>1</v>
       </c>
       <c r="M35" s="80" t="s">
@@ -18491,16 +18744,16 @@
     </row>
     <row r="36" spans="2:89" x14ac:dyDescent="0.15">
       <c r="B36" s="3"/>
-      <c r="C36" s="335"/>
-      <c r="D36" s="336"/>
-      <c r="E36" s="336"/>
-      <c r="F36" s="336"/>
-      <c r="G36" s="336"/>
-      <c r="H36" s="336"/>
-      <c r="I36" s="336"/>
-      <c r="J36" s="347"/>
-      <c r="K36" s="311"/>
-      <c r="L36" s="311" t="s">
+      <c r="C36" s="334"/>
+      <c r="D36" s="335"/>
+      <c r="E36" s="335"/>
+      <c r="F36" s="335"/>
+      <c r="G36" s="335"/>
+      <c r="H36" s="335"/>
+      <c r="I36" s="335"/>
+      <c r="J36" s="346"/>
+      <c r="K36" s="310"/>
+      <c r="L36" s="310" t="s">
         <v>39</v>
       </c>
       <c r="M36" s="81" t="s">
@@ -18585,20 +18838,20 @@
     </row>
     <row r="37" spans="2:89" x14ac:dyDescent="0.15">
       <c r="B37" s="3"/>
-      <c r="C37" s="363" t="s">
+      <c r="C37" s="362" t="s">
         <v>92</v>
       </c>
-      <c r="D37" s="334"/>
-      <c r="E37" s="334"/>
-      <c r="F37" s="334"/>
-      <c r="G37" s="334"/>
-      <c r="H37" s="334"/>
-      <c r="I37" s="334"/>
-      <c r="J37" s="346"/>
-      <c r="K37" s="310" t="s">
+      <c r="D37" s="333"/>
+      <c r="E37" s="333"/>
+      <c r="F37" s="333"/>
+      <c r="G37" s="333"/>
+      <c r="H37" s="333"/>
+      <c r="I37" s="333"/>
+      <c r="J37" s="345"/>
+      <c r="K37" s="309" t="s">
         <v>59</v>
       </c>
-      <c r="L37" s="314">
+      <c r="L37" s="313">
         <v>0.7</v>
       </c>
       <c r="M37" s="80" t="s">
@@ -18683,18 +18936,18 @@
     </row>
     <row r="38" spans="2:89" x14ac:dyDescent="0.15">
       <c r="B38" s="3"/>
-      <c r="C38" s="335"/>
-      <c r="D38" s="336"/>
-      <c r="E38" s="336"/>
-      <c r="F38" s="336"/>
-      <c r="G38" s="336"/>
-      <c r="H38" s="336"/>
-      <c r="I38" s="336"/>
-      <c r="J38" s="347"/>
-      <c r="K38" s="311" t="s">
+      <c r="C38" s="334"/>
+      <c r="D38" s="335"/>
+      <c r="E38" s="335"/>
+      <c r="F38" s="335"/>
+      <c r="G38" s="335"/>
+      <c r="H38" s="335"/>
+      <c r="I38" s="335"/>
+      <c r="J38" s="346"/>
+      <c r="K38" s="310" t="s">
         <v>15</v>
       </c>
-      <c r="L38" s="311" t="s">
+      <c r="L38" s="310" t="s">
         <v>39</v>
       </c>
       <c r="M38" s="81" t="s">
@@ -18779,20 +19032,20 @@
     </row>
     <row r="39" spans="2:89" x14ac:dyDescent="0.15">
       <c r="B39" s="3"/>
-      <c r="C39" s="363" t="s">
+      <c r="C39" s="362" t="s">
         <v>93</v>
       </c>
-      <c r="D39" s="334"/>
-      <c r="E39" s="334"/>
-      <c r="F39" s="334"/>
-      <c r="G39" s="334"/>
-      <c r="H39" s="334"/>
-      <c r="I39" s="334"/>
-      <c r="J39" s="346"/>
-      <c r="K39" s="310" t="s">
+      <c r="D39" s="333"/>
+      <c r="E39" s="333"/>
+      <c r="F39" s="333"/>
+      <c r="G39" s="333"/>
+      <c r="H39" s="333"/>
+      <c r="I39" s="333"/>
+      <c r="J39" s="345"/>
+      <c r="K39" s="309" t="s">
         <v>59</v>
       </c>
-      <c r="L39" s="314">
+      <c r="L39" s="313">
         <v>1</v>
       </c>
       <c r="M39" s="80" t="s">
@@ -18877,18 +19130,18 @@
     </row>
     <row r="40" spans="2:89" x14ac:dyDescent="0.15">
       <c r="B40" s="3"/>
-      <c r="C40" s="335"/>
-      <c r="D40" s="336"/>
-      <c r="E40" s="336"/>
-      <c r="F40" s="336"/>
-      <c r="G40" s="336"/>
-      <c r="H40" s="336"/>
-      <c r="I40" s="336"/>
-      <c r="J40" s="347"/>
-      <c r="K40" s="311" t="s">
+      <c r="C40" s="334"/>
+      <c r="D40" s="335"/>
+      <c r="E40" s="335"/>
+      <c r="F40" s="335"/>
+      <c r="G40" s="335"/>
+      <c r="H40" s="335"/>
+      <c r="I40" s="335"/>
+      <c r="J40" s="346"/>
+      <c r="K40" s="310" t="s">
         <v>15</v>
       </c>
-      <c r="L40" s="311" t="s">
+      <c r="L40" s="310" t="s">
         <v>39</v>
       </c>
       <c r="M40" s="81" t="s">
@@ -18973,20 +19226,20 @@
     </row>
     <row r="41" spans="2:89" x14ac:dyDescent="0.15">
       <c r="B41" s="3"/>
-      <c r="C41" s="363" t="s">
+      <c r="C41" s="362" t="s">
         <v>94</v>
       </c>
-      <c r="D41" s="334"/>
-      <c r="E41" s="334"/>
-      <c r="F41" s="334"/>
-      <c r="G41" s="334"/>
-      <c r="H41" s="334"/>
-      <c r="I41" s="334"/>
-      <c r="J41" s="346"/>
-      <c r="K41" s="310" t="s">
+      <c r="D41" s="333"/>
+      <c r="E41" s="333"/>
+      <c r="F41" s="333"/>
+      <c r="G41" s="333"/>
+      <c r="H41" s="333"/>
+      <c r="I41" s="333"/>
+      <c r="J41" s="345"/>
+      <c r="K41" s="309" t="s">
         <v>59</v>
       </c>
-      <c r="L41" s="314">
+      <c r="L41" s="313">
         <v>1</v>
       </c>
       <c r="M41" s="80" t="s">
@@ -19071,18 +19324,18 @@
     </row>
     <row r="42" spans="2:89" x14ac:dyDescent="0.15">
       <c r="B42" s="3"/>
-      <c r="C42" s="335"/>
-      <c r="D42" s="336"/>
-      <c r="E42" s="336"/>
-      <c r="F42" s="336"/>
-      <c r="G42" s="336"/>
-      <c r="H42" s="336"/>
-      <c r="I42" s="336"/>
-      <c r="J42" s="347"/>
-      <c r="K42" s="311" t="s">
+      <c r="C42" s="334"/>
+      <c r="D42" s="335"/>
+      <c r="E42" s="335"/>
+      <c r="F42" s="335"/>
+      <c r="G42" s="335"/>
+      <c r="H42" s="335"/>
+      <c r="I42" s="335"/>
+      <c r="J42" s="346"/>
+      <c r="K42" s="310" t="s">
         <v>15</v>
       </c>
-      <c r="L42" s="311" t="s">
+      <c r="L42" s="310" t="s">
         <v>39</v>
       </c>
       <c r="M42" s="81" t="s">
@@ -19167,20 +19420,20 @@
     </row>
     <row r="43" spans="2:89" x14ac:dyDescent="0.15">
       <c r="B43" s="3"/>
-      <c r="C43" s="363" t="s">
+      <c r="C43" s="362" t="s">
         <v>95</v>
       </c>
-      <c r="D43" s="334"/>
-      <c r="E43" s="334"/>
-      <c r="F43" s="334"/>
-      <c r="G43" s="334"/>
-      <c r="H43" s="334"/>
-      <c r="I43" s="334"/>
-      <c r="J43" s="346"/>
-      <c r="K43" s="310" t="s">
+      <c r="D43" s="333"/>
+      <c r="E43" s="333"/>
+      <c r="F43" s="333"/>
+      <c r="G43" s="333"/>
+      <c r="H43" s="333"/>
+      <c r="I43" s="333"/>
+      <c r="J43" s="345"/>
+      <c r="K43" s="309" t="s">
         <v>59</v>
       </c>
-      <c r="L43" s="314">
+      <c r="L43" s="313">
         <v>1</v>
       </c>
       <c r="M43" s="80" t="s">
@@ -19265,18 +19518,18 @@
     </row>
     <row r="44" spans="2:89" x14ac:dyDescent="0.15">
       <c r="B44" s="3"/>
-      <c r="C44" s="335"/>
-      <c r="D44" s="336"/>
-      <c r="E44" s="336"/>
-      <c r="F44" s="336"/>
-      <c r="G44" s="336"/>
-      <c r="H44" s="336"/>
-      <c r="I44" s="336"/>
-      <c r="J44" s="347"/>
-      <c r="K44" s="311" t="s">
+      <c r="C44" s="334"/>
+      <c r="D44" s="335"/>
+      <c r="E44" s="335"/>
+      <c r="F44" s="335"/>
+      <c r="G44" s="335"/>
+      <c r="H44" s="335"/>
+      <c r="I44" s="335"/>
+      <c r="J44" s="346"/>
+      <c r="K44" s="310" t="s">
         <v>15</v>
       </c>
-      <c r="L44" s="311" t="s">
+      <c r="L44" s="310" t="s">
         <v>39</v>
       </c>
       <c r="M44" s="81" t="s">
@@ -19849,24 +20102,24 @@
     </row>
     <row r="30" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B30" s="3"/>
-      <c r="C30" s="325" t="s">
+      <c r="C30" s="324" t="s">
         <v>87</v>
       </c>
-      <c r="D30" s="326"/>
-      <c r="E30" s="326" t="s">
+      <c r="D30" s="325"/>
+      <c r="E30" s="325" t="s">
         <v>30</v>
       </c>
-      <c r="F30" s="326" t="s">
+      <c r="F30" s="325" t="s">
         <v>17</v>
       </c>
-      <c r="G30" s="326"/>
-      <c r="H30" s="326"/>
-      <c r="I30" s="326"/>
-      <c r="J30" s="327"/>
-      <c r="K30" s="310" t="s">
+      <c r="G30" s="325"/>
+      <c r="H30" s="325"/>
+      <c r="I30" s="325"/>
+      <c r="J30" s="326"/>
+      <c r="K30" s="309" t="s">
         <v>11</v>
       </c>
-      <c r="L30" s="312">
+      <c r="L30" s="311">
         <v>0</v>
       </c>
       <c r="M30" s="45" t="s">
@@ -19890,16 +20143,16 @@
     </row>
     <row r="31" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B31" s="3"/>
-      <c r="C31" s="328"/>
-      <c r="D31" s="329"/>
-      <c r="E31" s="329"/>
-      <c r="F31" s="329"/>
-      <c r="G31" s="329"/>
-      <c r="H31" s="329"/>
-      <c r="I31" s="329"/>
-      <c r="J31" s="330"/>
-      <c r="K31" s="311"/>
-      <c r="L31" s="313"/>
+      <c r="C31" s="327"/>
+      <c r="D31" s="328"/>
+      <c r="E31" s="328"/>
+      <c r="F31" s="328"/>
+      <c r="G31" s="328"/>
+      <c r="H31" s="328"/>
+      <c r="I31" s="328"/>
+      <c r="J31" s="329"/>
+      <c r="K31" s="310"/>
+      <c r="L31" s="312"/>
       <c r="M31" s="44" t="s">
         <v>49</v>
       </c>
@@ -19921,24 +20174,24 @@
     </row>
     <row r="32" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B32" s="3"/>
-      <c r="C32" s="325" t="s">
+      <c r="C32" s="324" t="s">
         <v>102</v>
       </c>
-      <c r="D32" s="326"/>
-      <c r="E32" s="326" t="s">
+      <c r="D32" s="325"/>
+      <c r="E32" s="325" t="s">
         <v>31</v>
       </c>
-      <c r="F32" s="326" t="s">
+      <c r="F32" s="325" t="s">
         <v>18</v>
       </c>
-      <c r="G32" s="326"/>
-      <c r="H32" s="326"/>
-      <c r="I32" s="326"/>
-      <c r="J32" s="327"/>
-      <c r="K32" s="310" t="s">
+      <c r="G32" s="325"/>
+      <c r="H32" s="325"/>
+      <c r="I32" s="325"/>
+      <c r="J32" s="326"/>
+      <c r="K32" s="309" t="s">
         <v>15</v>
       </c>
-      <c r="L32" s="312">
+      <c r="L32" s="311">
         <v>0</v>
       </c>
       <c r="M32" s="45" t="s">
@@ -19962,16 +20215,16 @@
     </row>
     <row r="33" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B33" s="3"/>
-      <c r="C33" s="328"/>
-      <c r="D33" s="329"/>
-      <c r="E33" s="329"/>
-      <c r="F33" s="329"/>
-      <c r="G33" s="329"/>
-      <c r="H33" s="329"/>
-      <c r="I33" s="329"/>
-      <c r="J33" s="330"/>
-      <c r="K33" s="311"/>
-      <c r="L33" s="313"/>
+      <c r="C33" s="327"/>
+      <c r="D33" s="328"/>
+      <c r="E33" s="328"/>
+      <c r="F33" s="328"/>
+      <c r="G33" s="328"/>
+      <c r="H33" s="328"/>
+      <c r="I33" s="328"/>
+      <c r="J33" s="329"/>
+      <c r="K33" s="310"/>
+      <c r="L33" s="312"/>
       <c r="M33" s="44" t="s">
         <v>49</v>
       </c>
@@ -19993,24 +20246,24 @@
     </row>
     <row r="34" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B34" s="3"/>
-      <c r="C34" s="325" t="s">
+      <c r="C34" s="324" t="s">
         <v>101</v>
       </c>
-      <c r="D34" s="326"/>
-      <c r="E34" s="326" t="s">
+      <c r="D34" s="325"/>
+      <c r="E34" s="325" t="s">
         <v>32</v>
       </c>
-      <c r="F34" s="326" t="s">
+      <c r="F34" s="325" t="s">
         <v>19</v>
       </c>
-      <c r="G34" s="326"/>
-      <c r="H34" s="326"/>
-      <c r="I34" s="326"/>
-      <c r="J34" s="327"/>
-      <c r="K34" s="310" t="s">
+      <c r="G34" s="325"/>
+      <c r="H34" s="325"/>
+      <c r="I34" s="325"/>
+      <c r="J34" s="326"/>
+      <c r="K34" s="309" t="s">
         <v>15</v>
       </c>
-      <c r="L34" s="312">
+      <c r="L34" s="311">
         <v>0</v>
       </c>
       <c r="M34" s="45" t="s">
@@ -20034,16 +20287,16 @@
     </row>
     <row r="35" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B35" s="3"/>
-      <c r="C35" s="328"/>
-      <c r="D35" s="329"/>
-      <c r="E35" s="329"/>
-      <c r="F35" s="329"/>
-      <c r="G35" s="329"/>
-      <c r="H35" s="329"/>
-      <c r="I35" s="329"/>
-      <c r="J35" s="330"/>
-      <c r="K35" s="311"/>
-      <c r="L35" s="313"/>
+      <c r="C35" s="327"/>
+      <c r="D35" s="328"/>
+      <c r="E35" s="328"/>
+      <c r="F35" s="328"/>
+      <c r="G35" s="328"/>
+      <c r="H35" s="328"/>
+      <c r="I35" s="328"/>
+      <c r="J35" s="329"/>
+      <c r="K35" s="310"/>
+      <c r="L35" s="312"/>
       <c r="M35" s="44" t="s">
         <v>49</v>
       </c>
@@ -20065,24 +20318,24 @@
     </row>
     <row r="36" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B36" s="3"/>
-      <c r="C36" s="364" t="s">
+      <c r="C36" s="363" t="s">
         <v>100</v>
       </c>
-      <c r="D36" s="326"/>
-      <c r="E36" s="326" t="s">
+      <c r="D36" s="325"/>
+      <c r="E36" s="325" t="s">
         <v>33</v>
       </c>
-      <c r="F36" s="326" t="s">
+      <c r="F36" s="325" t="s">
         <v>20</v>
       </c>
-      <c r="G36" s="326"/>
-      <c r="H36" s="326"/>
-      <c r="I36" s="326"/>
-      <c r="J36" s="327"/>
-      <c r="K36" s="310" t="s">
+      <c r="G36" s="325"/>
+      <c r="H36" s="325"/>
+      <c r="I36" s="325"/>
+      <c r="J36" s="326"/>
+      <c r="K36" s="309" t="s">
         <v>15</v>
       </c>
-      <c r="L36" s="312">
+      <c r="L36" s="311">
         <v>0</v>
       </c>
       <c r="M36" s="45" t="s">
@@ -20106,16 +20359,16 @@
     </row>
     <row r="37" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B37" s="3"/>
-      <c r="C37" s="328"/>
-      <c r="D37" s="329"/>
-      <c r="E37" s="329"/>
-      <c r="F37" s="329"/>
-      <c r="G37" s="329"/>
-      <c r="H37" s="329"/>
-      <c r="I37" s="329"/>
-      <c r="J37" s="330"/>
-      <c r="K37" s="311"/>
-      <c r="L37" s="313"/>
+      <c r="C37" s="327"/>
+      <c r="D37" s="328"/>
+      <c r="E37" s="328"/>
+      <c r="F37" s="328"/>
+      <c r="G37" s="328"/>
+      <c r="H37" s="328"/>
+      <c r="I37" s="328"/>
+      <c r="J37" s="329"/>
+      <c r="K37" s="310"/>
+      <c r="L37" s="312"/>
       <c r="M37" s="44" t="s">
         <v>49</v>
       </c>
@@ -20137,24 +20390,24 @@
     </row>
     <row r="38" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B38" s="3"/>
-      <c r="C38" s="325" t="s">
+      <c r="C38" s="324" t="s">
         <v>99</v>
       </c>
-      <c r="D38" s="326"/>
-      <c r="E38" s="326" t="s">
+      <c r="D38" s="325"/>
+      <c r="E38" s="325" t="s">
         <v>34</v>
       </c>
-      <c r="F38" s="326" t="s">
+      <c r="F38" s="325" t="s">
         <v>24</v>
       </c>
-      <c r="G38" s="326"/>
-      <c r="H38" s="326"/>
-      <c r="I38" s="326"/>
-      <c r="J38" s="327"/>
-      <c r="K38" s="310" t="s">
+      <c r="G38" s="325"/>
+      <c r="H38" s="325"/>
+      <c r="I38" s="325"/>
+      <c r="J38" s="326"/>
+      <c r="K38" s="309" t="s">
         <v>16</v>
       </c>
-      <c r="L38" s="312">
+      <c r="L38" s="311">
         <v>0</v>
       </c>
       <c r="M38" s="45" t="s">
@@ -20178,16 +20431,16 @@
     </row>
     <row r="39" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B39" s="3"/>
-      <c r="C39" s="328"/>
-      <c r="D39" s="329"/>
-      <c r="E39" s="329"/>
-      <c r="F39" s="329"/>
-      <c r="G39" s="329"/>
-      <c r="H39" s="329"/>
-      <c r="I39" s="329"/>
-      <c r="J39" s="330"/>
-      <c r="K39" s="311"/>
-      <c r="L39" s="313"/>
+      <c r="C39" s="327"/>
+      <c r="D39" s="328"/>
+      <c r="E39" s="328"/>
+      <c r="F39" s="328"/>
+      <c r="G39" s="328"/>
+      <c r="H39" s="328"/>
+      <c r="I39" s="328"/>
+      <c r="J39" s="329"/>
+      <c r="K39" s="310"/>
+      <c r="L39" s="312"/>
       <c r="M39" s="44" t="s">
         <v>49</v>
       </c>
@@ -20209,24 +20462,24 @@
     </row>
     <row r="40" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B40" s="3"/>
-      <c r="C40" s="325" t="s">
+      <c r="C40" s="324" t="s">
         <v>98</v>
       </c>
-      <c r="D40" s="326"/>
-      <c r="E40" s="326" t="s">
+      <c r="D40" s="325"/>
+      <c r="E40" s="325" t="s">
         <v>35</v>
       </c>
-      <c r="F40" s="326" t="s">
+      <c r="F40" s="325" t="s">
         <v>25</v>
       </c>
-      <c r="G40" s="326"/>
-      <c r="H40" s="326"/>
-      <c r="I40" s="326"/>
-      <c r="J40" s="327"/>
-      <c r="K40" s="310" t="s">
+      <c r="G40" s="325"/>
+      <c r="H40" s="325"/>
+      <c r="I40" s="325"/>
+      <c r="J40" s="326"/>
+      <c r="K40" s="309" t="s">
         <v>16</v>
       </c>
-      <c r="L40" s="312">
+      <c r="L40" s="311">
         <v>0</v>
       </c>
       <c r="M40" s="45" t="s">
@@ -20250,16 +20503,16 @@
     </row>
     <row r="41" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B41" s="3"/>
-      <c r="C41" s="328"/>
-      <c r="D41" s="329"/>
-      <c r="E41" s="329"/>
-      <c r="F41" s="329"/>
-      <c r="G41" s="329"/>
-      <c r="H41" s="329"/>
-      <c r="I41" s="329"/>
-      <c r="J41" s="330"/>
-      <c r="K41" s="311"/>
-      <c r="L41" s="313"/>
+      <c r="C41" s="327"/>
+      <c r="D41" s="328"/>
+      <c r="E41" s="328"/>
+      <c r="F41" s="328"/>
+      <c r="G41" s="328"/>
+      <c r="H41" s="328"/>
+      <c r="I41" s="328"/>
+      <c r="J41" s="329"/>
+      <c r="K41" s="310"/>
+      <c r="L41" s="312"/>
       <c r="M41" s="44" t="s">
         <v>49</v>
       </c>
@@ -20281,24 +20534,24 @@
     </row>
     <row r="42" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B42" s="3"/>
-      <c r="C42" s="325" t="s">
+      <c r="C42" s="324" t="s">
         <v>97</v>
       </c>
-      <c r="D42" s="326"/>
-      <c r="E42" s="326" t="s">
+      <c r="D42" s="325"/>
+      <c r="E42" s="325" t="s">
         <v>36</v>
       </c>
-      <c r="F42" s="326" t="s">
+      <c r="F42" s="325" t="s">
         <v>26</v>
       </c>
-      <c r="G42" s="326"/>
-      <c r="H42" s="326"/>
-      <c r="I42" s="326"/>
-      <c r="J42" s="327"/>
-      <c r="K42" s="310" t="s">
+      <c r="G42" s="325"/>
+      <c r="H42" s="325"/>
+      <c r="I42" s="325"/>
+      <c r="J42" s="326"/>
+      <c r="K42" s="309" t="s">
         <v>16</v>
       </c>
-      <c r="L42" s="312">
+      <c r="L42" s="311">
         <v>0</v>
       </c>
       <c r="M42" s="45" t="s">
@@ -20322,16 +20575,16 @@
     </row>
     <row r="43" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B43" s="3"/>
-      <c r="C43" s="328"/>
-      <c r="D43" s="329"/>
-      <c r="E43" s="329"/>
-      <c r="F43" s="329"/>
-      <c r="G43" s="329"/>
-      <c r="H43" s="329"/>
-      <c r="I43" s="329"/>
-      <c r="J43" s="330"/>
-      <c r="K43" s="311"/>
-      <c r="L43" s="313"/>
+      <c r="C43" s="327"/>
+      <c r="D43" s="328"/>
+      <c r="E43" s="328"/>
+      <c r="F43" s="328"/>
+      <c r="G43" s="328"/>
+      <c r="H43" s="328"/>
+      <c r="I43" s="328"/>
+      <c r="J43" s="329"/>
+      <c r="K43" s="310"/>
+      <c r="L43" s="312"/>
       <c r="M43" s="44" t="s">
         <v>49</v>
       </c>
@@ -20353,24 +20606,24 @@
     </row>
     <row r="44" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B44" s="3"/>
-      <c r="C44" s="325" t="s">
+      <c r="C44" s="324" t="s">
         <v>96</v>
       </c>
-      <c r="D44" s="326"/>
-      <c r="E44" s="326" t="s">
+      <c r="D44" s="325"/>
+      <c r="E44" s="325" t="s">
         <v>37</v>
       </c>
-      <c r="F44" s="326" t="s">
+      <c r="F44" s="325" t="s">
         <v>27</v>
       </c>
-      <c r="G44" s="326"/>
-      <c r="H44" s="326"/>
-      <c r="I44" s="326"/>
-      <c r="J44" s="327"/>
-      <c r="K44" s="310" t="s">
+      <c r="G44" s="325"/>
+      <c r="H44" s="325"/>
+      <c r="I44" s="325"/>
+      <c r="J44" s="326"/>
+      <c r="K44" s="309" t="s">
         <v>22</v>
       </c>
-      <c r="L44" s="312">
+      <c r="L44" s="311">
         <v>0</v>
       </c>
       <c r="M44" s="45" t="s">
@@ -20394,16 +20647,16 @@
     </row>
     <row r="45" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B45" s="3"/>
-      <c r="C45" s="328"/>
-      <c r="D45" s="329"/>
-      <c r="E45" s="329"/>
-      <c r="F45" s="329"/>
-      <c r="G45" s="329"/>
-      <c r="H45" s="329"/>
-      <c r="I45" s="329"/>
-      <c r="J45" s="330"/>
-      <c r="K45" s="311"/>
-      <c r="L45" s="313"/>
+      <c r="C45" s="327"/>
+      <c r="D45" s="328"/>
+      <c r="E45" s="328"/>
+      <c r="F45" s="328"/>
+      <c r="G45" s="328"/>
+      <c r="H45" s="328"/>
+      <c r="I45" s="328"/>
+      <c r="J45" s="329"/>
+      <c r="K45" s="310"/>
+      <c r="L45" s="312"/>
       <c r="M45" s="44" t="s">
         <v>49</v>
       </c>
@@ -20458,24 +20711,24 @@
     </row>
     <row r="47" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B47" s="3"/>
-      <c r="C47" s="325" t="s">
+      <c r="C47" s="324" t="s">
         <v>87</v>
       </c>
-      <c r="D47" s="326"/>
-      <c r="E47" s="326" t="s">
+      <c r="D47" s="325"/>
+      <c r="E47" s="325" t="s">
         <v>30</v>
       </c>
-      <c r="F47" s="326" t="s">
+      <c r="F47" s="325" t="s">
         <v>17</v>
       </c>
-      <c r="G47" s="326"/>
-      <c r="H47" s="326"/>
-      <c r="I47" s="326"/>
-      <c r="J47" s="327"/>
-      <c r="K47" s="310" t="s">
+      <c r="G47" s="325"/>
+      <c r="H47" s="325"/>
+      <c r="I47" s="325"/>
+      <c r="J47" s="326"/>
+      <c r="K47" s="309" t="s">
         <v>15</v>
       </c>
-      <c r="L47" s="312">
+      <c r="L47" s="311">
         <v>0</v>
       </c>
       <c r="M47" s="45" t="s">
@@ -20499,16 +20752,16 @@
     </row>
     <row r="48" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B48" s="3"/>
-      <c r="C48" s="328"/>
-      <c r="D48" s="329"/>
-      <c r="E48" s="329"/>
-      <c r="F48" s="329"/>
-      <c r="G48" s="329"/>
-      <c r="H48" s="329"/>
-      <c r="I48" s="329"/>
-      <c r="J48" s="330"/>
-      <c r="K48" s="311"/>
-      <c r="L48" s="313"/>
+      <c r="C48" s="327"/>
+      <c r="D48" s="328"/>
+      <c r="E48" s="328"/>
+      <c r="F48" s="328"/>
+      <c r="G48" s="328"/>
+      <c r="H48" s="328"/>
+      <c r="I48" s="328"/>
+      <c r="J48" s="329"/>
+      <c r="K48" s="310"/>
+      <c r="L48" s="312"/>
       <c r="M48" s="44" t="s">
         <v>49</v>
       </c>
@@ -20530,24 +20783,24 @@
     </row>
     <row r="49" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B49" s="3"/>
-      <c r="C49" s="325" t="s">
+      <c r="C49" s="324" t="s">
         <v>102</v>
       </c>
-      <c r="D49" s="326"/>
-      <c r="E49" s="326" t="s">
+      <c r="D49" s="325"/>
+      <c r="E49" s="325" t="s">
         <v>31</v>
       </c>
-      <c r="F49" s="326" t="s">
+      <c r="F49" s="325" t="s">
         <v>18</v>
       </c>
-      <c r="G49" s="326"/>
-      <c r="H49" s="326"/>
-      <c r="I49" s="326"/>
-      <c r="J49" s="327"/>
-      <c r="K49" s="310" t="s">
+      <c r="G49" s="325"/>
+      <c r="H49" s="325"/>
+      <c r="I49" s="325"/>
+      <c r="J49" s="326"/>
+      <c r="K49" s="309" t="s">
         <v>16</v>
       </c>
-      <c r="L49" s="312">
+      <c r="L49" s="311">
         <v>0</v>
       </c>
       <c r="M49" s="45" t="s">
@@ -20571,16 +20824,16 @@
     </row>
     <row r="50" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B50" s="3"/>
-      <c r="C50" s="328"/>
-      <c r="D50" s="329"/>
-      <c r="E50" s="329"/>
-      <c r="F50" s="329"/>
-      <c r="G50" s="329"/>
-      <c r="H50" s="329"/>
-      <c r="I50" s="329"/>
-      <c r="J50" s="330"/>
-      <c r="K50" s="311"/>
-      <c r="L50" s="313"/>
+      <c r="C50" s="327"/>
+      <c r="D50" s="328"/>
+      <c r="E50" s="328"/>
+      <c r="F50" s="328"/>
+      <c r="G50" s="328"/>
+      <c r="H50" s="328"/>
+      <c r="I50" s="328"/>
+      <c r="J50" s="329"/>
+      <c r="K50" s="310"/>
+      <c r="L50" s="312"/>
       <c r="M50" s="44" t="s">
         <v>49</v>
       </c>
@@ -20602,24 +20855,24 @@
     </row>
     <row r="51" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B51" s="3"/>
-      <c r="C51" s="325" t="s">
+      <c r="C51" s="324" t="s">
         <v>101</v>
       </c>
-      <c r="D51" s="326"/>
-      <c r="E51" s="326" t="s">
+      <c r="D51" s="325"/>
+      <c r="E51" s="325" t="s">
         <v>32</v>
       </c>
-      <c r="F51" s="326" t="s">
+      <c r="F51" s="325" t="s">
         <v>19</v>
       </c>
-      <c r="G51" s="326"/>
-      <c r="H51" s="326"/>
-      <c r="I51" s="326"/>
-      <c r="J51" s="327"/>
-      <c r="K51" s="310" t="s">
+      <c r="G51" s="325"/>
+      <c r="H51" s="325"/>
+      <c r="I51" s="325"/>
+      <c r="J51" s="326"/>
+      <c r="K51" s="309" t="s">
         <v>16</v>
       </c>
-      <c r="L51" s="312">
+      <c r="L51" s="311">
         <v>0</v>
       </c>
       <c r="M51" s="45" t="s">
@@ -20643,16 +20896,16 @@
     </row>
     <row r="52" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B52" s="3"/>
-      <c r="C52" s="328"/>
-      <c r="D52" s="329"/>
-      <c r="E52" s="329"/>
-      <c r="F52" s="329"/>
-      <c r="G52" s="329"/>
-      <c r="H52" s="329"/>
-      <c r="I52" s="329"/>
-      <c r="J52" s="330"/>
-      <c r="K52" s="311"/>
-      <c r="L52" s="313"/>
+      <c r="C52" s="327"/>
+      <c r="D52" s="328"/>
+      <c r="E52" s="328"/>
+      <c r="F52" s="328"/>
+      <c r="G52" s="328"/>
+      <c r="H52" s="328"/>
+      <c r="I52" s="328"/>
+      <c r="J52" s="329"/>
+      <c r="K52" s="310"/>
+      <c r="L52" s="312"/>
       <c r="M52" s="44" t="s">
         <v>49</v>
       </c>
@@ -20674,24 +20927,24 @@
     </row>
     <row r="53" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B53" s="3"/>
-      <c r="C53" s="364" t="s">
+      <c r="C53" s="363" t="s">
         <v>100</v>
       </c>
-      <c r="D53" s="326"/>
-      <c r="E53" s="326" t="s">
+      <c r="D53" s="325"/>
+      <c r="E53" s="325" t="s">
         <v>33</v>
       </c>
-      <c r="F53" s="326" t="s">
+      <c r="F53" s="325" t="s">
         <v>20</v>
       </c>
-      <c r="G53" s="326"/>
-      <c r="H53" s="326"/>
-      <c r="I53" s="326"/>
-      <c r="J53" s="327"/>
-      <c r="K53" s="310" t="s">
+      <c r="G53" s="325"/>
+      <c r="H53" s="325"/>
+      <c r="I53" s="325"/>
+      <c r="J53" s="326"/>
+      <c r="K53" s="309" t="s">
         <v>16</v>
       </c>
-      <c r="L53" s="312">
+      <c r="L53" s="311">
         <v>0</v>
       </c>
       <c r="M53" s="45" t="s">
@@ -20715,16 +20968,16 @@
     </row>
     <row r="54" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B54" s="3"/>
-      <c r="C54" s="328"/>
-      <c r="D54" s="329"/>
-      <c r="E54" s="329"/>
-      <c r="F54" s="329"/>
-      <c r="G54" s="329"/>
-      <c r="H54" s="329"/>
-      <c r="I54" s="329"/>
-      <c r="J54" s="330"/>
-      <c r="K54" s="311"/>
-      <c r="L54" s="313"/>
+      <c r="C54" s="327"/>
+      <c r="D54" s="328"/>
+      <c r="E54" s="328"/>
+      <c r="F54" s="328"/>
+      <c r="G54" s="328"/>
+      <c r="H54" s="328"/>
+      <c r="I54" s="328"/>
+      <c r="J54" s="329"/>
+      <c r="K54" s="310"/>
+      <c r="L54" s="312"/>
       <c r="M54" s="44" t="s">
         <v>49</v>
       </c>
@@ -20746,24 +20999,24 @@
     </row>
     <row r="55" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B55" s="3"/>
-      <c r="C55" s="325" t="s">
+      <c r="C55" s="324" t="s">
         <v>99</v>
       </c>
-      <c r="D55" s="326"/>
-      <c r="E55" s="326" t="s">
+      <c r="D55" s="325"/>
+      <c r="E55" s="325" t="s">
         <v>34</v>
       </c>
-      <c r="F55" s="326" t="s">
+      <c r="F55" s="325" t="s">
         <v>24</v>
       </c>
-      <c r="G55" s="326"/>
-      <c r="H55" s="326"/>
-      <c r="I55" s="326"/>
-      <c r="J55" s="327"/>
-      <c r="K55" s="310" t="s">
+      <c r="G55" s="325"/>
+      <c r="H55" s="325"/>
+      <c r="I55" s="325"/>
+      <c r="J55" s="326"/>
+      <c r="K55" s="309" t="s">
         <v>22</v>
       </c>
-      <c r="L55" s="312">
+      <c r="L55" s="311">
         <v>0</v>
       </c>
       <c r="M55" s="45" t="s">
@@ -20787,16 +21040,16 @@
     </row>
     <row r="56" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B56" s="3"/>
-      <c r="C56" s="328"/>
-      <c r="D56" s="329"/>
-      <c r="E56" s="329"/>
-      <c r="F56" s="329"/>
-      <c r="G56" s="329"/>
-      <c r="H56" s="329"/>
-      <c r="I56" s="329"/>
-      <c r="J56" s="330"/>
-      <c r="K56" s="311"/>
-      <c r="L56" s="313"/>
+      <c r="C56" s="327"/>
+      <c r="D56" s="328"/>
+      <c r="E56" s="328"/>
+      <c r="F56" s="328"/>
+      <c r="G56" s="328"/>
+      <c r="H56" s="328"/>
+      <c r="I56" s="328"/>
+      <c r="J56" s="329"/>
+      <c r="K56" s="310"/>
+      <c r="L56" s="312"/>
       <c r="M56" s="44" t="s">
         <v>49</v>
       </c>
@@ -20818,24 +21071,24 @@
     </row>
     <row r="57" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B57" s="3"/>
-      <c r="C57" s="325" t="s">
+      <c r="C57" s="324" t="s">
         <v>98</v>
       </c>
-      <c r="D57" s="326"/>
-      <c r="E57" s="326" t="s">
+      <c r="D57" s="325"/>
+      <c r="E57" s="325" t="s">
         <v>35</v>
       </c>
-      <c r="F57" s="326" t="s">
+      <c r="F57" s="325" t="s">
         <v>25</v>
       </c>
-      <c r="G57" s="326"/>
-      <c r="H57" s="326"/>
-      <c r="I57" s="326"/>
-      <c r="J57" s="327"/>
-      <c r="K57" s="310" t="s">
+      <c r="G57" s="325"/>
+      <c r="H57" s="325"/>
+      <c r="I57" s="325"/>
+      <c r="J57" s="326"/>
+      <c r="K57" s="309" t="s">
         <v>22</v>
       </c>
-      <c r="L57" s="312">
+      <c r="L57" s="311">
         <v>0</v>
       </c>
       <c r="M57" s="45" t="s">
@@ -20859,16 +21112,16 @@
     </row>
     <row r="58" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B58" s="3"/>
-      <c r="C58" s="328"/>
-      <c r="D58" s="329"/>
-      <c r="E58" s="329"/>
-      <c r="F58" s="329"/>
-      <c r="G58" s="329"/>
-      <c r="H58" s="329"/>
-      <c r="I58" s="329"/>
-      <c r="J58" s="330"/>
-      <c r="K58" s="311"/>
-      <c r="L58" s="313"/>
+      <c r="C58" s="327"/>
+      <c r="D58" s="328"/>
+      <c r="E58" s="328"/>
+      <c r="F58" s="328"/>
+      <c r="G58" s="328"/>
+      <c r="H58" s="328"/>
+      <c r="I58" s="328"/>
+      <c r="J58" s="329"/>
+      <c r="K58" s="310"/>
+      <c r="L58" s="312"/>
       <c r="M58" s="44" t="s">
         <v>49</v>
       </c>
@@ -20890,24 +21143,24 @@
     </row>
     <row r="59" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B59" s="3"/>
-      <c r="C59" s="325" t="s">
+      <c r="C59" s="324" t="s">
         <v>97</v>
       </c>
-      <c r="D59" s="326"/>
-      <c r="E59" s="326" t="s">
+      <c r="D59" s="325"/>
+      <c r="E59" s="325" t="s">
         <v>36</v>
       </c>
-      <c r="F59" s="326" t="s">
+      <c r="F59" s="325" t="s">
         <v>26</v>
       </c>
-      <c r="G59" s="326"/>
-      <c r="H59" s="326"/>
-      <c r="I59" s="326"/>
-      <c r="J59" s="327"/>
-      <c r="K59" s="310" t="s">
+      <c r="G59" s="325"/>
+      <c r="H59" s="325"/>
+      <c r="I59" s="325"/>
+      <c r="J59" s="326"/>
+      <c r="K59" s="309" t="s">
         <v>22</v>
       </c>
-      <c r="L59" s="312">
+      <c r="L59" s="311">
         <v>0</v>
       </c>
       <c r="M59" s="45" t="s">
@@ -20931,16 +21184,16 @@
     </row>
     <row r="60" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B60" s="3"/>
-      <c r="C60" s="328"/>
-      <c r="D60" s="329"/>
-      <c r="E60" s="329"/>
-      <c r="F60" s="329"/>
-      <c r="G60" s="329"/>
-      <c r="H60" s="329"/>
-      <c r="I60" s="329"/>
-      <c r="J60" s="330"/>
-      <c r="K60" s="311"/>
-      <c r="L60" s="313"/>
+      <c r="C60" s="327"/>
+      <c r="D60" s="328"/>
+      <c r="E60" s="328"/>
+      <c r="F60" s="328"/>
+      <c r="G60" s="328"/>
+      <c r="H60" s="328"/>
+      <c r="I60" s="328"/>
+      <c r="J60" s="329"/>
+      <c r="K60" s="310"/>
+      <c r="L60" s="312"/>
       <c r="M60" s="44" t="s">
         <v>49</v>
       </c>
@@ -20962,24 +21215,24 @@
     </row>
     <row r="61" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B61" s="3"/>
-      <c r="C61" s="325" t="s">
+      <c r="C61" s="324" t="s">
         <v>96</v>
       </c>
-      <c r="D61" s="326"/>
-      <c r="E61" s="326" t="s">
+      <c r="D61" s="325"/>
+      <c r="E61" s="325" t="s">
         <v>37</v>
       </c>
-      <c r="F61" s="326" t="s">
+      <c r="F61" s="325" t="s">
         <v>27</v>
       </c>
-      <c r="G61" s="326"/>
-      <c r="H61" s="326"/>
-      <c r="I61" s="326"/>
-      <c r="J61" s="327"/>
-      <c r="K61" s="310" t="s">
+      <c r="G61" s="325"/>
+      <c r="H61" s="325"/>
+      <c r="I61" s="325"/>
+      <c r="J61" s="326"/>
+      <c r="K61" s="309" t="s">
         <v>23</v>
       </c>
-      <c r="L61" s="312">
+      <c r="L61" s="311">
         <v>0</v>
       </c>
       <c r="M61" s="45" t="s">
@@ -21003,16 +21256,16 @@
     </row>
     <row r="62" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B62" s="3"/>
-      <c r="C62" s="328"/>
-      <c r="D62" s="329"/>
-      <c r="E62" s="329"/>
-      <c r="F62" s="329"/>
-      <c r="G62" s="329"/>
-      <c r="H62" s="329"/>
-      <c r="I62" s="329"/>
-      <c r="J62" s="330"/>
-      <c r="K62" s="311"/>
-      <c r="L62" s="313"/>
+      <c r="C62" s="327"/>
+      <c r="D62" s="328"/>
+      <c r="E62" s="328"/>
+      <c r="F62" s="328"/>
+      <c r="G62" s="328"/>
+      <c r="H62" s="328"/>
+      <c r="I62" s="328"/>
+      <c r="J62" s="329"/>
+      <c r="K62" s="310"/>
+      <c r="L62" s="312"/>
       <c r="M62" s="44" t="s">
         <v>49</v>
       </c>

--- a/グループ開発スケジュール.xlsx
+++ b/グループ開発スケジュール.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\file-srv\share\05_グループ開発\グループD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A7C28B7-1B7D-4C6E-9BDB-F78C5D36E4CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF4AC66B-D5C5-4572-B7CB-AFBF24F1EAC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="560" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11550" yWindow="2535" windowWidth="15375" windowHeight="10050" tabRatio="560" firstSheet="5" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="マイルストーン" sheetId="7" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="184">
   <si>
     <t>No.</t>
   </si>
@@ -1066,11 +1066,24 @@
     <phoneticPr fontId="7"/>
   </si>
   <si>
-    <t>1日当たりの予定進捗率</t>
+    <t>4日目進捗率</t>
     <rPh sb="1" eb="3">
-      <t>ニチア</t>
+      <t>カメ</t>
     </rPh>
-    <rPh sb="6" eb="11">
+    <rPh sb="3" eb="6">
+      <t>シンチョクリツ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>4日目予定進捗率</t>
+    <rPh sb="1" eb="2">
+      <t>ニチ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="3" eb="8">
       <t>ヨテイシンチョクリツ</t>
     </rPh>
     <phoneticPr fontId="7"/>
@@ -1250,7 +1263,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="112">
+  <borders count="111">
     <border>
       <left/>
       <right/>
@@ -2464,19 +2477,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="hair">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -2690,7 +2690,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="375">
+  <cellXfs count="373">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3351,12 +3351,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="95" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="83" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="96" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="94" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -3366,7 +3360,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="99" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="98" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="86" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -3405,10 +3399,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="105" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="104" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="106" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="105" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="90" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3420,21 +3414,18 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="106" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="107" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="108" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="109" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -3459,6 +3450,30 @@
     <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3486,33 +3501,33 @@
     <xf numFmtId="179" fontId="0" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="96" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="86" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="87" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="86" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="87" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="98" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3558,10 +3573,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="100" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="101" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="102" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="99" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="100" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -3570,9 +3588,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="101" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="102" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="10" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3582,7 +3597,7 @@
     <xf numFmtId="0" fontId="8" fillId="10" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="98" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="97" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3720,12 +3735,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="109" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="110" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="111" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
@@ -3754,6 +3769,15 @@
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3762,15 +3786,15 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="102" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="103" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="104" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
@@ -3785,36 +3809,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -4560,7 +4554,7 @@
               <a:picLocks noChangeAspect="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="マイルストーン!A1:U20" spid="_x0000_s9536"/>
+                  <a14:cameraTool cellRange="マイルストーン!A1:U20" spid="_x0000_s9543"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -4938,7 +4932,7 @@
               <a:picLocks noChangeAspect="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="マイルストーン!A1:U20" spid="_x0000_s10513"/>
+                  <a14:cameraTool cellRange="マイルストーン!A1:U20" spid="_x0000_s10520"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -5346,7 +5340,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>224872</xdr:colOff>
+      <xdr:colOff>108916</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>148455</xdr:rowOff>
     </xdr:to>
@@ -5414,7 +5408,7 @@
               <a:picLocks noChangeAspect="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="マイルストーン!A1:U20" spid="_x0000_s2361"/>
+                  <a14:cameraTool cellRange="マイルストーン!A1:U20" spid="_x0000_s2368"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -5936,7 +5930,7 @@
               <a:picLocks noChangeAspect="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="マイルストーン!A1:U20" spid="_x0000_s4412"/>
+                  <a14:cameraTool cellRange="マイルストーン!A1:U20" spid="_x0000_s4419"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -6262,7 +6256,7 @@
               <a:picLocks noChangeAspect="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="マイルストーン!A1:U20" spid="_x0000_s5517"/>
+                  <a14:cameraTool cellRange="マイルストーン!A1:U20" spid="_x0000_s5531"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -6539,7 +6533,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="マイルストーン!A1:U20" spid="_x0000_s5518"/>
+                  <a14:cameraTool cellRange="マイルストーン!A1:U20" spid="_x0000_s5532"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -6970,7 +6964,7 @@
               <a:picLocks noChangeAspect="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="マイルストーン!A1:U20" spid="_x0000_s7529"/>
+                  <a14:cameraTool cellRange="マイルストーン!A1:U20" spid="_x0000_s7536"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -7610,25 +7604,25 @@
       <c r="H4" s="7"/>
       <c r="I4" s="7"/>
       <c r="J4" s="7"/>
-      <c r="K4" s="256">
+      <c r="K4" s="261">
         <v>2021</v>
       </c>
-      <c r="L4" s="256"/>
-      <c r="M4" s="256"/>
-      <c r="N4" s="256"/>
-      <c r="O4" s="256"/>
-      <c r="P4" s="256"/>
-      <c r="Q4" s="256"/>
-      <c r="R4" s="256"/>
-      <c r="S4" s="256"/>
-      <c r="T4" s="256"/>
-      <c r="U4" s="257"/>
-      <c r="V4" s="257"/>
-      <c r="W4" s="257"/>
-      <c r="X4" s="257"/>
-      <c r="Y4" s="257"/>
-      <c r="Z4" s="257"/>
-      <c r="AA4" s="257"/>
+      <c r="L4" s="261"/>
+      <c r="M4" s="261"/>
+      <c r="N4" s="261"/>
+      <c r="O4" s="261"/>
+      <c r="P4" s="261"/>
+      <c r="Q4" s="261"/>
+      <c r="R4" s="261"/>
+      <c r="S4" s="261"/>
+      <c r="T4" s="261"/>
+      <c r="U4" s="262"/>
+      <c r="V4" s="262"/>
+      <c r="W4" s="262"/>
+      <c r="X4" s="262"/>
+      <c r="Y4" s="262"/>
+      <c r="Z4" s="262"/>
+      <c r="AA4" s="262"/>
     </row>
     <row r="5" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B5" s="10"/>
@@ -7640,25 +7634,25 @@
       <c r="H5" s="12"/>
       <c r="I5" s="12"/>
       <c r="J5" s="12"/>
-      <c r="K5" s="256">
+      <c r="K5" s="261">
         <v>6</v>
       </c>
-      <c r="L5" s="256"/>
-      <c r="M5" s="256"/>
-      <c r="N5" s="256"/>
-      <c r="O5" s="256"/>
-      <c r="P5" s="256"/>
-      <c r="Q5" s="256"/>
-      <c r="R5" s="256"/>
-      <c r="S5" s="256"/>
-      <c r="T5" s="256"/>
-      <c r="U5" s="257"/>
-      <c r="V5" s="257"/>
-      <c r="W5" s="257"/>
-      <c r="X5" s="257"/>
-      <c r="Y5" s="257"/>
-      <c r="Z5" s="257"/>
-      <c r="AA5" s="257"/>
+      <c r="L5" s="261"/>
+      <c r="M5" s="261"/>
+      <c r="N5" s="261"/>
+      <c r="O5" s="261"/>
+      <c r="P5" s="261"/>
+      <c r="Q5" s="261"/>
+      <c r="R5" s="261"/>
+      <c r="S5" s="261"/>
+      <c r="T5" s="261"/>
+      <c r="U5" s="262"/>
+      <c r="V5" s="262"/>
+      <c r="W5" s="262"/>
+      <c r="X5" s="262"/>
+      <c r="Y5" s="262"/>
+      <c r="Z5" s="262"/>
+      <c r="AA5" s="262"/>
     </row>
     <row r="6" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B6" s="15"/>
@@ -8302,20 +8296,20 @@
     </row>
     <row r="30" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B30" s="3"/>
-      <c r="C30" s="363" t="s">
+      <c r="C30" s="371" t="s">
         <v>104</v>
       </c>
-      <c r="D30" s="325"/>
-      <c r="E30" s="325"/>
-      <c r="F30" s="325"/>
-      <c r="G30" s="325"/>
-      <c r="H30" s="325"/>
-      <c r="I30" s="325"/>
-      <c r="J30" s="326"/>
-      <c r="K30" s="309" t="s">
+      <c r="D30" s="330"/>
+      <c r="E30" s="330"/>
+      <c r="F30" s="330"/>
+      <c r="G30" s="330"/>
+      <c r="H30" s="330"/>
+      <c r="I30" s="330"/>
+      <c r="J30" s="331"/>
+      <c r="K30" s="314" t="s">
         <v>15</v>
       </c>
-      <c r="L30" s="313">
+      <c r="L30" s="318">
         <v>0</v>
       </c>
       <c r="M30" s="45" t="s">
@@ -8339,16 +8333,16 @@
     </row>
     <row r="31" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B31" s="3"/>
-      <c r="C31" s="327"/>
-      <c r="D31" s="328"/>
-      <c r="E31" s="328"/>
-      <c r="F31" s="328"/>
-      <c r="G31" s="328"/>
-      <c r="H31" s="328"/>
-      <c r="I31" s="328"/>
-      <c r="J31" s="329"/>
-      <c r="K31" s="310"/>
-      <c r="L31" s="310"/>
+      <c r="C31" s="332"/>
+      <c r="D31" s="333"/>
+      <c r="E31" s="333"/>
+      <c r="F31" s="333"/>
+      <c r="G31" s="333"/>
+      <c r="H31" s="333"/>
+      <c r="I31" s="333"/>
+      <c r="J31" s="334"/>
+      <c r="K31" s="315"/>
+      <c r="L31" s="315"/>
       <c r="M31" s="44" t="s">
         <v>49</v>
       </c>
@@ -8403,20 +8397,20 @@
     </row>
     <row r="33" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B33" s="3"/>
-      <c r="C33" s="363" t="s">
+      <c r="C33" s="371" t="s">
         <v>105</v>
       </c>
-      <c r="D33" s="325"/>
-      <c r="E33" s="325"/>
-      <c r="F33" s="325"/>
-      <c r="G33" s="325"/>
-      <c r="H33" s="325"/>
-      <c r="I33" s="325"/>
-      <c r="J33" s="326"/>
-      <c r="K33" s="309" t="s">
+      <c r="D33" s="330"/>
+      <c r="E33" s="330"/>
+      <c r="F33" s="330"/>
+      <c r="G33" s="330"/>
+      <c r="H33" s="330"/>
+      <c r="I33" s="330"/>
+      <c r="J33" s="331"/>
+      <c r="K33" s="314" t="s">
         <v>15</v>
       </c>
-      <c r="L33" s="313">
+      <c r="L33" s="318">
         <v>0</v>
       </c>
       <c r="M33" s="45" t="s">
@@ -8440,16 +8434,16 @@
     </row>
     <row r="34" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B34" s="3"/>
-      <c r="C34" s="327"/>
-      <c r="D34" s="328"/>
-      <c r="E34" s="328"/>
-      <c r="F34" s="328"/>
-      <c r="G34" s="328"/>
-      <c r="H34" s="328"/>
-      <c r="I34" s="328"/>
-      <c r="J34" s="329"/>
-      <c r="K34" s="310"/>
-      <c r="L34" s="310"/>
+      <c r="C34" s="332"/>
+      <c r="D34" s="333"/>
+      <c r="E34" s="333"/>
+      <c r="F34" s="333"/>
+      <c r="G34" s="333"/>
+      <c r="H34" s="333"/>
+      <c r="I34" s="333"/>
+      <c r="J34" s="334"/>
+      <c r="K34" s="315"/>
+      <c r="L34" s="315"/>
       <c r="M34" s="44" t="s">
         <v>49</v>
       </c>
@@ -8471,20 +8465,20 @@
     </row>
     <row r="35" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B35" s="3"/>
-      <c r="C35" s="324" t="s">
+      <c r="C35" s="329" t="s">
         <v>106</v>
       </c>
-      <c r="D35" s="325"/>
-      <c r="E35" s="325"/>
-      <c r="F35" s="325"/>
-      <c r="G35" s="325"/>
-      <c r="H35" s="325"/>
-      <c r="I35" s="325"/>
-      <c r="J35" s="326"/>
-      <c r="K35" s="309" t="s">
+      <c r="D35" s="330"/>
+      <c r="E35" s="330"/>
+      <c r="F35" s="330"/>
+      <c r="G35" s="330"/>
+      <c r="H35" s="330"/>
+      <c r="I35" s="330"/>
+      <c r="J35" s="331"/>
+      <c r="K35" s="314" t="s">
         <v>16</v>
       </c>
-      <c r="L35" s="313">
+      <c r="L35" s="318">
         <v>0</v>
       </c>
       <c r="M35" s="45" t="s">
@@ -8508,16 +8502,16 @@
     </row>
     <row r="36" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B36" s="3"/>
-      <c r="C36" s="327"/>
-      <c r="D36" s="328"/>
-      <c r="E36" s="328"/>
-      <c r="F36" s="328"/>
-      <c r="G36" s="328"/>
-      <c r="H36" s="328"/>
-      <c r="I36" s="328"/>
-      <c r="J36" s="329"/>
-      <c r="K36" s="310"/>
-      <c r="L36" s="310"/>
+      <c r="C36" s="332"/>
+      <c r="D36" s="333"/>
+      <c r="E36" s="333"/>
+      <c r="F36" s="333"/>
+      <c r="G36" s="333"/>
+      <c r="H36" s="333"/>
+      <c r="I36" s="333"/>
+      <c r="J36" s="334"/>
+      <c r="K36" s="315"/>
+      <c r="L36" s="315"/>
       <c r="M36" s="44" t="s">
         <v>49</v>
       </c>
@@ -8777,20 +8771,20 @@
     </row>
     <row r="29" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B29" s="3"/>
-      <c r="C29" s="364" t="s">
+      <c r="C29" s="372" t="s">
         <v>54</v>
       </c>
-      <c r="D29" s="333"/>
-      <c r="E29" s="333"/>
-      <c r="F29" s="333"/>
-      <c r="G29" s="333"/>
-      <c r="H29" s="333"/>
-      <c r="I29" s="333"/>
-      <c r="J29" s="345"/>
-      <c r="K29" s="309" t="s">
+      <c r="D29" s="338"/>
+      <c r="E29" s="338"/>
+      <c r="F29" s="338"/>
+      <c r="G29" s="338"/>
+      <c r="H29" s="338"/>
+      <c r="I29" s="338"/>
+      <c r="J29" s="350"/>
+      <c r="K29" s="314" t="s">
         <v>15</v>
       </c>
-      <c r="L29" s="313">
+      <c r="L29" s="318">
         <v>0</v>
       </c>
       <c r="M29" s="45" t="s">
@@ -8814,16 +8808,16 @@
     </row>
     <row r="30" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B30" s="3"/>
-      <c r="C30" s="334"/>
-      <c r="D30" s="335"/>
-      <c r="E30" s="335"/>
-      <c r="F30" s="335"/>
-      <c r="G30" s="335"/>
-      <c r="H30" s="335"/>
-      <c r="I30" s="335"/>
-      <c r="J30" s="346"/>
-      <c r="K30" s="310"/>
-      <c r="L30" s="310"/>
+      <c r="C30" s="339"/>
+      <c r="D30" s="340"/>
+      <c r="E30" s="340"/>
+      <c r="F30" s="340"/>
+      <c r="G30" s="340"/>
+      <c r="H30" s="340"/>
+      <c r="I30" s="340"/>
+      <c r="J30" s="351"/>
+      <c r="K30" s="315"/>
+      <c r="L30" s="315"/>
       <c r="M30" s="44" t="s">
         <v>49</v>
       </c>
@@ -8845,20 +8839,20 @@
     </row>
     <row r="31" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B31" s="3"/>
-      <c r="C31" s="332" t="s">
+      <c r="C31" s="337" t="s">
         <v>55</v>
       </c>
-      <c r="D31" s="333"/>
-      <c r="E31" s="333"/>
-      <c r="F31" s="333"/>
-      <c r="G31" s="333"/>
-      <c r="H31" s="333"/>
-      <c r="I31" s="333"/>
-      <c r="J31" s="345"/>
-      <c r="K31" s="309" t="s">
+      <c r="D31" s="338"/>
+      <c r="E31" s="338"/>
+      <c r="F31" s="338"/>
+      <c r="G31" s="338"/>
+      <c r="H31" s="338"/>
+      <c r="I31" s="338"/>
+      <c r="J31" s="350"/>
+      <c r="K31" s="314" t="s">
         <v>16</v>
       </c>
-      <c r="L31" s="313">
+      <c r="L31" s="318">
         <v>0</v>
       </c>
       <c r="M31" s="45" t="s">
@@ -8882,16 +8876,16 @@
     </row>
     <row r="32" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B32" s="3"/>
-      <c r="C32" s="334"/>
-      <c r="D32" s="335"/>
-      <c r="E32" s="335"/>
-      <c r="F32" s="335"/>
-      <c r="G32" s="335"/>
-      <c r="H32" s="335"/>
-      <c r="I32" s="335"/>
-      <c r="J32" s="346"/>
-      <c r="K32" s="310"/>
-      <c r="L32" s="310"/>
+      <c r="C32" s="339"/>
+      <c r="D32" s="340"/>
+      <c r="E32" s="340"/>
+      <c r="F32" s="340"/>
+      <c r="G32" s="340"/>
+      <c r="H32" s="340"/>
+      <c r="I32" s="340"/>
+      <c r="J32" s="351"/>
+      <c r="K32" s="315"/>
+      <c r="L32" s="315"/>
       <c r="M32" s="44" t="s">
         <v>49</v>
       </c>
@@ -8913,20 +8907,20 @@
     </row>
     <row r="33" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B33" s="3"/>
-      <c r="C33" s="332" t="s">
+      <c r="C33" s="337" t="s">
         <v>56</v>
       </c>
-      <c r="D33" s="333"/>
-      <c r="E33" s="333"/>
-      <c r="F33" s="333"/>
-      <c r="G33" s="333"/>
-      <c r="H33" s="333"/>
-      <c r="I33" s="333"/>
-      <c r="J33" s="345"/>
-      <c r="K33" s="309" t="s">
+      <c r="D33" s="338"/>
+      <c r="E33" s="338"/>
+      <c r="F33" s="338"/>
+      <c r="G33" s="338"/>
+      <c r="H33" s="338"/>
+      <c r="I33" s="338"/>
+      <c r="J33" s="350"/>
+      <c r="K33" s="314" t="s">
         <v>21</v>
       </c>
-      <c r="L33" s="313">
+      <c r="L33" s="318">
         <v>0</v>
       </c>
       <c r="M33" s="45" t="s">
@@ -8950,16 +8944,16 @@
     </row>
     <row r="34" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B34" s="3"/>
-      <c r="C34" s="334"/>
-      <c r="D34" s="335"/>
-      <c r="E34" s="335"/>
-      <c r="F34" s="335"/>
-      <c r="G34" s="335"/>
-      <c r="H34" s="335"/>
-      <c r="I34" s="335"/>
-      <c r="J34" s="346"/>
-      <c r="K34" s="310"/>
-      <c r="L34" s="310"/>
+      <c r="C34" s="339"/>
+      <c r="D34" s="340"/>
+      <c r="E34" s="340"/>
+      <c r="F34" s="340"/>
+      <c r="G34" s="340"/>
+      <c r="H34" s="340"/>
+      <c r="I34" s="340"/>
+      <c r="J34" s="351"/>
+      <c r="K34" s="315"/>
+      <c r="L34" s="315"/>
       <c r="M34" s="44" t="s">
         <v>49</v>
       </c>
@@ -9129,16 +9123,16 @@
       <c r="H23" s="7"/>
       <c r="I23" s="7"/>
       <c r="J23" s="7"/>
-      <c r="K23" s="258" t="s">
+      <c r="K23" s="263" t="s">
         <v>124</v>
       </c>
-      <c r="M23" s="263" t="s">
+      <c r="M23" s="268" t="s">
         <v>128</v>
       </c>
-      <c r="N23" s="263"/>
-      <c r="O23" s="263"/>
-      <c r="P23" s="263"/>
-      <c r="Q23" s="263"/>
+      <c r="N23" s="268"/>
+      <c r="O23" s="268"/>
+      <c r="P23" s="268"/>
+      <c r="Q23" s="268"/>
     </row>
     <row r="24" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B24" s="10"/>
@@ -9150,12 +9144,12 @@
       <c r="H24" s="12"/>
       <c r="I24" s="12"/>
       <c r="J24" s="12"/>
-      <c r="K24" s="259"/>
-      <c r="M24" s="263"/>
-      <c r="N24" s="263"/>
-      <c r="O24" s="263"/>
-      <c r="P24" s="263"/>
-      <c r="Q24" s="263"/>
+      <c r="K24" s="264"/>
+      <c r="M24" s="268"/>
+      <c r="N24" s="268"/>
+      <c r="O24" s="268"/>
+      <c r="P24" s="268"/>
+      <c r="Q24" s="268"/>
     </row>
     <row r="25" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B25" s="15"/>
@@ -9167,12 +9161,12 @@
       <c r="H25" s="17"/>
       <c r="I25" s="17"/>
       <c r="J25" s="17"/>
-      <c r="K25" s="260"/>
-      <c r="M25" s="263"/>
-      <c r="N25" s="263"/>
-      <c r="O25" s="263"/>
-      <c r="P25" s="263"/>
-      <c r="Q25" s="263"/>
+      <c r="K25" s="265"/>
+      <c r="M25" s="268"/>
+      <c r="N25" s="268"/>
+      <c r="O25" s="268"/>
+      <c r="P25" s="268"/>
+      <c r="Q25" s="268"/>
     </row>
     <row r="26" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B26" s="2">
@@ -9189,11 +9183,11 @@
       <c r="I26" s="20"/>
       <c r="J26" s="20"/>
       <c r="K26" s="217"/>
-      <c r="M26" s="264"/>
-      <c r="N26" s="264"/>
-      <c r="O26" s="264"/>
-      <c r="P26" s="264"/>
-      <c r="Q26" s="264"/>
+      <c r="M26" s="269"/>
+      <c r="N26" s="269"/>
+      <c r="O26" s="269"/>
+      <c r="P26" s="269"/>
+      <c r="Q26" s="269"/>
     </row>
     <row r="27" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B27" s="3"/>
@@ -9212,13 +9206,13 @@
       <c r="K27" s="83">
         <v>1.5</v>
       </c>
-      <c r="M27" s="261">
+      <c r="M27" s="266">
         <v>1.5</v>
       </c>
-      <c r="N27" s="261"/>
-      <c r="O27" s="261"/>
-      <c r="P27" s="261"/>
-      <c r="Q27" s="261"/>
+      <c r="N27" s="266"/>
+      <c r="O27" s="266"/>
+      <c r="P27" s="266"/>
+      <c r="Q27" s="266"/>
     </row>
     <row r="28" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B28" s="3"/>
@@ -9237,13 +9231,13 @@
       <c r="K28" s="83">
         <v>1.5</v>
       </c>
-      <c r="M28" s="261">
+      <c r="M28" s="266">
         <v>1.5</v>
       </c>
-      <c r="N28" s="261"/>
-      <c r="O28" s="261"/>
-      <c r="P28" s="261"/>
-      <c r="Q28" s="261"/>
+      <c r="N28" s="266"/>
+      <c r="O28" s="266"/>
+      <c r="P28" s="266"/>
+      <c r="Q28" s="266"/>
     </row>
     <row r="29" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B29" s="3"/>
@@ -9262,11 +9256,11 @@
       <c r="K29" s="83">
         <v>1.5</v>
       </c>
-      <c r="M29" s="261"/>
-      <c r="N29" s="261"/>
-      <c r="O29" s="261"/>
-      <c r="P29" s="261"/>
-      <c r="Q29" s="261"/>
+      <c r="M29" s="266"/>
+      <c r="N29" s="266"/>
+      <c r="O29" s="266"/>
+      <c r="P29" s="266"/>
+      <c r="Q29" s="266"/>
     </row>
     <row r="30" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B30" s="3"/>
@@ -9285,11 +9279,11 @@
       <c r="K30" s="83">
         <v>1.5</v>
       </c>
-      <c r="M30" s="261"/>
-      <c r="N30" s="261"/>
-      <c r="O30" s="261"/>
-      <c r="P30" s="261"/>
-      <c r="Q30" s="261"/>
+      <c r="M30" s="266"/>
+      <c r="N30" s="266"/>
+      <c r="O30" s="266"/>
+      <c r="P30" s="266"/>
+      <c r="Q30" s="266"/>
     </row>
     <row r="31" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B31" s="3"/>
@@ -9308,11 +9302,11 @@
       <c r="K31" s="83">
         <v>2</v>
       </c>
-      <c r="M31" s="261"/>
-      <c r="N31" s="261"/>
-      <c r="O31" s="261"/>
-      <c r="P31" s="261"/>
-      <c r="Q31" s="261"/>
+      <c r="M31" s="266"/>
+      <c r="N31" s="266"/>
+      <c r="O31" s="266"/>
+      <c r="P31" s="266"/>
+      <c r="Q31" s="266"/>
     </row>
     <row r="32" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B32" s="3"/>
@@ -9331,11 +9325,11 @@
       <c r="K32" s="83">
         <v>4.5</v>
       </c>
-      <c r="M32" s="261"/>
-      <c r="N32" s="261"/>
-      <c r="O32" s="261"/>
-      <c r="P32" s="261"/>
-      <c r="Q32" s="261"/>
+      <c r="M32" s="266"/>
+      <c r="N32" s="266"/>
+      <c r="O32" s="266"/>
+      <c r="P32" s="266"/>
+      <c r="Q32" s="266"/>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.15">
       <c r="B33" s="3"/>
@@ -9354,11 +9348,11 @@
       <c r="K33" s="83">
         <v>2</v>
       </c>
-      <c r="M33" s="261"/>
-      <c r="N33" s="261"/>
-      <c r="O33" s="261"/>
-      <c r="P33" s="261"/>
-      <c r="Q33" s="261"/>
+      <c r="M33" s="266"/>
+      <c r="N33" s="266"/>
+      <c r="O33" s="266"/>
+      <c r="P33" s="266"/>
+      <c r="Q33" s="266"/>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.15">
       <c r="B34" s="3"/>
@@ -9377,11 +9371,11 @@
       <c r="K34" s="83">
         <v>1</v>
       </c>
-      <c r="M34" s="261"/>
-      <c r="N34" s="261"/>
-      <c r="O34" s="261"/>
-      <c r="P34" s="261"/>
-      <c r="Q34" s="261"/>
+      <c r="M34" s="266"/>
+      <c r="N34" s="266"/>
+      <c r="O34" s="266"/>
+      <c r="P34" s="266"/>
+      <c r="Q34" s="266"/>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.15">
       <c r="B35" s="3"/>
@@ -9400,11 +9394,11 @@
       <c r="K35" s="83">
         <v>1</v>
       </c>
-      <c r="M35" s="261"/>
-      <c r="N35" s="261"/>
-      <c r="O35" s="261"/>
-      <c r="P35" s="261"/>
-      <c r="Q35" s="261"/>
+      <c r="M35" s="266"/>
+      <c r="N35" s="266"/>
+      <c r="O35" s="266"/>
+      <c r="P35" s="266"/>
+      <c r="Q35" s="266"/>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.15">
       <c r="B36" s="122"/>
@@ -9423,11 +9417,11 @@
       <c r="K36" s="198">
         <v>1</v>
       </c>
-      <c r="M36" s="261"/>
-      <c r="N36" s="261"/>
-      <c r="O36" s="261"/>
-      <c r="P36" s="261"/>
-      <c r="Q36" s="261"/>
+      <c r="M36" s="266"/>
+      <c r="N36" s="266"/>
+      <c r="O36" s="266"/>
+      <c r="P36" s="266"/>
+      <c r="Q36" s="266"/>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.15">
       <c r="B37" s="203"/>
@@ -9465,14 +9459,14 @@
         <v>17.5</v>
       </c>
       <c r="L38" s="192"/>
-      <c r="M38" s="261">
+      <c r="M38" s="266">
         <f>SUM(M27:Q36)</f>
         <v>3</v>
       </c>
-      <c r="N38" s="261"/>
-      <c r="O38" s="261"/>
-      <c r="P38" s="261"/>
-      <c r="Q38" s="261"/>
+      <c r="N38" s="266"/>
+      <c r="O38" s="266"/>
+      <c r="P38" s="266"/>
+      <c r="Q38" s="266"/>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.15">
       <c r="B39" s="197"/>
@@ -9490,14 +9484,14 @@
         <f>SUM(K27)/K38</f>
         <v>8.5714285714285715E-2</v>
       </c>
-      <c r="M39" s="262">
+      <c r="M39" s="267">
         <f>SUM(M27:Q28)/M38</f>
         <v>1</v>
       </c>
-      <c r="N39" s="262"/>
-      <c r="O39" s="262"/>
-      <c r="P39" s="262"/>
-      <c r="Q39" s="262"/>
+      <c r="N39" s="267"/>
+      <c r="O39" s="267"/>
+      <c r="P39" s="267"/>
+      <c r="Q39" s="267"/>
     </row>
   </sheetData>
   <mergeCells count="15">
@@ -9525,10 +9519,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6151F9F-0C3C-493F-A15D-BD44D6274607}">
-  <dimension ref="C19:AN40"/>
+  <dimension ref="C19:AN38"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A24" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="P32" sqref="P32"/>
+    <sheetView showGridLines="0" topLeftCell="B24" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="R36" sqref="R36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -9536,6 +9530,7 @@
     <col min="14" max="14" width="4.5" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="6.5" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="5.5" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="4.875" customWidth="1"/>
     <col min="34" max="34" width="4.875" customWidth="1"/>
     <col min="36" max="36" width="5.875" customWidth="1"/>
@@ -9543,19 +9538,19 @@
   </cols>
   <sheetData>
     <row r="19" spans="3:39" x14ac:dyDescent="0.15">
-      <c r="N19" s="232" t="s">
+      <c r="N19" s="230" t="s">
         <v>142</v>
       </c>
-      <c r="O19" s="231" t="s">
+      <c r="O19" s="229" t="s">
         <v>140</v>
       </c>
-      <c r="P19" s="233" t="s">
+      <c r="P19" s="231" t="s">
         <v>141</v>
       </c>
-      <c r="Q19" s="230" t="s">
+      <c r="Q19" s="228" t="s">
         <v>143</v>
       </c>
-      <c r="R19" s="230" t="s">
+      <c r="R19" s="228" t="s">
         <v>144</v>
       </c>
     </row>
@@ -9647,10 +9642,10 @@
       <c r="I23" s="7"/>
       <c r="J23" s="7"/>
       <c r="K23" s="7"/>
-      <c r="L23" s="283" t="s">
+      <c r="L23" s="288" t="s">
         <v>130</v>
       </c>
-      <c r="M23" s="284"/>
+      <c r="M23" s="289"/>
       <c r="N23" s="212"/>
       <c r="O23" s="212"/>
       <c r="P23" s="212"/>
@@ -9661,34 +9656,34 @@
       <c r="U23" s="212"/>
       <c r="V23" s="212"/>
       <c r="W23" s="212"/>
-      <c r="X23" s="263" t="s">
+      <c r="X23" s="268" t="s">
         <v>129</v>
       </c>
-      <c r="Y23" s="263"/>
-      <c r="Z23" s="263"/>
-      <c r="AA23" s="263"/>
-      <c r="AB23" s="263"/>
-      <c r="AC23" s="265" t="s">
+      <c r="Y23" s="268"/>
+      <c r="Z23" s="268"/>
+      <c r="AA23" s="268"/>
+      <c r="AB23" s="268"/>
+      <c r="AC23" s="270" t="s">
         <v>131</v>
       </c>
-      <c r="AD23" s="266"/>
-      <c r="AE23" s="265" t="s">
+      <c r="AD23" s="271"/>
+      <c r="AE23" s="270" t="s">
         <v>138</v>
       </c>
-      <c r="AF23" s="273"/>
-      <c r="AG23" s="265" t="s">
+      <c r="AF23" s="278"/>
+      <c r="AG23" s="270" t="s">
         <v>176</v>
       </c>
-      <c r="AH23" s="273"/>
-      <c r="AI23" s="265" t="s">
+      <c r="AH23" s="278"/>
+      <c r="AI23" s="270" t="s">
         <v>177</v>
       </c>
-      <c r="AJ23" s="273"/>
-      <c r="AK23" s="296" t="s">
+      <c r="AJ23" s="278"/>
+      <c r="AK23" s="301" t="s">
         <v>178</v>
       </c>
-      <c r="AL23" s="297"/>
-      <c r="AM23" s="294" t="s">
+      <c r="AL23" s="302"/>
+      <c r="AM23" s="299" t="s">
         <v>132</v>
       </c>
     </row>
@@ -9702,8 +9697,8 @@
       <c r="I24" s="12"/>
       <c r="J24" s="12"/>
       <c r="K24" s="12"/>
-      <c r="L24" s="284"/>
-      <c r="M24" s="284"/>
+      <c r="L24" s="289"/>
+      <c r="M24" s="289"/>
       <c r="N24" s="212"/>
       <c r="O24" s="212"/>
       <c r="P24" s="212"/>
@@ -9714,22 +9709,22 @@
       <c r="U24" s="212"/>
       <c r="V24" s="212"/>
       <c r="W24" s="212"/>
-      <c r="X24" s="263"/>
-      <c r="Y24" s="263"/>
-      <c r="Z24" s="263"/>
-      <c r="AA24" s="263"/>
-      <c r="AB24" s="263"/>
-      <c r="AC24" s="267"/>
-      <c r="AD24" s="268"/>
-      <c r="AE24" s="267"/>
-      <c r="AF24" s="274"/>
-      <c r="AG24" s="267"/>
-      <c r="AH24" s="274"/>
-      <c r="AI24" s="267"/>
-      <c r="AJ24" s="274"/>
-      <c r="AK24" s="298"/>
-      <c r="AL24" s="299"/>
-      <c r="AM24" s="295"/>
+      <c r="X24" s="268"/>
+      <c r="Y24" s="268"/>
+      <c r="Z24" s="268"/>
+      <c r="AA24" s="268"/>
+      <c r="AB24" s="268"/>
+      <c r="AC24" s="272"/>
+      <c r="AD24" s="273"/>
+      <c r="AE24" s="272"/>
+      <c r="AF24" s="279"/>
+      <c r="AG24" s="272"/>
+      <c r="AH24" s="279"/>
+      <c r="AI24" s="272"/>
+      <c r="AJ24" s="279"/>
+      <c r="AK24" s="303"/>
+      <c r="AL24" s="304"/>
+      <c r="AM24" s="300"/>
     </row>
     <row r="25" spans="3:39" x14ac:dyDescent="0.15">
       <c r="C25" s="15"/>
@@ -9741,8 +9736,8 @@
       <c r="I25" s="17"/>
       <c r="J25" s="17"/>
       <c r="K25" s="17"/>
-      <c r="L25" s="284"/>
-      <c r="M25" s="284"/>
+      <c r="L25" s="289"/>
+      <c r="M25" s="289"/>
       <c r="N25" s="212"/>
       <c r="O25" s="212"/>
       <c r="P25" s="212"/>
@@ -9753,22 +9748,22 @@
       <c r="U25" s="212"/>
       <c r="V25" s="212"/>
       <c r="W25" s="212"/>
-      <c r="X25" s="263"/>
-      <c r="Y25" s="263"/>
-      <c r="Z25" s="263"/>
-      <c r="AA25" s="263"/>
-      <c r="AB25" s="263"/>
-      <c r="AC25" s="269"/>
-      <c r="AD25" s="270"/>
-      <c r="AE25" s="269"/>
-      <c r="AF25" s="275"/>
-      <c r="AG25" s="269"/>
-      <c r="AH25" s="275"/>
-      <c r="AI25" s="269"/>
-      <c r="AJ25" s="275"/>
-      <c r="AK25" s="300"/>
-      <c r="AL25" s="301"/>
-      <c r="AM25" s="295"/>
+      <c r="X25" s="268"/>
+      <c r="Y25" s="268"/>
+      <c r="Z25" s="268"/>
+      <c r="AA25" s="268"/>
+      <c r="AB25" s="268"/>
+      <c r="AC25" s="274"/>
+      <c r="AD25" s="275"/>
+      <c r="AE25" s="274"/>
+      <c r="AF25" s="280"/>
+      <c r="AG25" s="274"/>
+      <c r="AH25" s="280"/>
+      <c r="AI25" s="274"/>
+      <c r="AJ25" s="280"/>
+      <c r="AK25" s="305"/>
+      <c r="AL25" s="306"/>
+      <c r="AM25" s="300"/>
     </row>
     <row r="26" spans="3:39" x14ac:dyDescent="0.15">
       <c r="C26" s="2">
@@ -9784,8 +9779,8 @@
       <c r="I26" s="20"/>
       <c r="J26" s="20"/>
       <c r="K26" s="218"/>
-      <c r="L26" s="280"/>
-      <c r="M26" s="281"/>
+      <c r="L26" s="285"/>
+      <c r="M26" s="286"/>
       <c r="N26" s="212"/>
       <c r="O26" s="212"/>
       <c r="P26" s="212"/>
@@ -9795,24 +9790,24 @@
       <c r="T26" s="212"/>
       <c r="U26" s="212"/>
       <c r="V26" s="212"/>
-      <c r="W26" s="250" t="s">
+      <c r="W26" s="247" t="s">
         <v>149</v>
       </c>
-      <c r="X26" s="264"/>
-      <c r="Y26" s="264"/>
-      <c r="Z26" s="264"/>
-      <c r="AA26" s="264"/>
-      <c r="AB26" s="276"/>
-      <c r="AC26" s="226"/>
-      <c r="AD26" s="227"/>
-      <c r="AE26" s="276"/>
-      <c r="AF26" s="277"/>
-      <c r="AG26" s="276"/>
-      <c r="AH26" s="277"/>
-      <c r="AI26" s="276"/>
-      <c r="AJ26" s="277"/>
-      <c r="AK26" s="286"/>
-      <c r="AL26" s="287"/>
+      <c r="X26" s="269"/>
+      <c r="Y26" s="269"/>
+      <c r="Z26" s="269"/>
+      <c r="AA26" s="269"/>
+      <c r="AB26" s="281"/>
+      <c r="AC26" s="224"/>
+      <c r="AD26" s="225"/>
+      <c r="AE26" s="281"/>
+      <c r="AF26" s="282"/>
+      <c r="AG26" s="281"/>
+      <c r="AH26" s="282"/>
+      <c r="AI26" s="281"/>
+      <c r="AJ26" s="282"/>
+      <c r="AK26" s="291"/>
+      <c r="AL26" s="292"/>
       <c r="AM26" s="213"/>
     </row>
     <row r="27" spans="3:39" x14ac:dyDescent="0.15">
@@ -9829,15 +9824,15 @@
       <c r="I27" s="29"/>
       <c r="J27" s="29"/>
       <c r="K27" s="219"/>
-      <c r="L27" s="280">
+      <c r="L27" s="285">
         <f>6*1.5</f>
         <v>9</v>
       </c>
-      <c r="M27" s="281"/>
-      <c r="N27" s="302">
-        <v>0.2</v>
-      </c>
-      <c r="O27" s="281"/>
+      <c r="M27" s="286"/>
+      <c r="N27" s="307">
+        <v>0.23</v>
+      </c>
+      <c r="O27" s="286"/>
       <c r="P27" s="212"/>
       <c r="Q27" s="212"/>
       <c r="R27" s="212"/>
@@ -9845,39 +9840,39 @@
       <c r="T27" s="212"/>
       <c r="U27" s="212"/>
       <c r="V27" s="212"/>
-      <c r="W27" s="285">
-        <f>SUM(X27:AB28)/X38</f>
-        <v>0.17647058823529413</v>
-      </c>
-      <c r="X27" s="279">
+      <c r="W27" s="290">
+        <f>SUM(X27:AB28)/X36</f>
+        <v>0.2</v>
+      </c>
+      <c r="X27" s="284">
         <f>AC27*(1.5+AK27)</f>
         <v>9</v>
       </c>
-      <c r="Y27" s="261"/>
-      <c r="Z27" s="261"/>
-      <c r="AA27" s="261"/>
-      <c r="AB27" s="261"/>
-      <c r="AC27" s="271">
+      <c r="Y27" s="266"/>
+      <c r="Z27" s="266"/>
+      <c r="AA27" s="266"/>
+      <c r="AB27" s="266"/>
+      <c r="AC27" s="276">
         <v>6</v>
       </c>
-      <c r="AD27" s="272"/>
-      <c r="AE27" s="278">
+      <c r="AD27" s="277"/>
+      <c r="AE27" s="283">
         <v>44362</v>
       </c>
-      <c r="AF27" s="279"/>
-      <c r="AG27" s="278">
+      <c r="AF27" s="284"/>
+      <c r="AG27" s="283">
         <v>44362</v>
       </c>
-      <c r="AH27" s="279"/>
-      <c r="AI27" s="271">
+      <c r="AH27" s="284"/>
+      <c r="AI27" s="276">
         <v>1.5</v>
       </c>
-      <c r="AJ27" s="279"/>
-      <c r="AK27" s="286">
+      <c r="AJ27" s="284"/>
+      <c r="AK27" s="291">
         <v>0</v>
       </c>
-      <c r="AL27" s="287"/>
-      <c r="AM27" s="224" t="s">
+      <c r="AL27" s="292"/>
+      <c r="AM27" s="222" t="s">
         <v>133</v>
       </c>
     </row>
@@ -9895,13 +9890,13 @@
       <c r="I28" s="29"/>
       <c r="J28" s="29"/>
       <c r="K28" s="219"/>
-      <c r="L28" s="280">
+      <c r="L28" s="285">
         <f>6*1.5</f>
         <v>9</v>
       </c>
-      <c r="M28" s="281"/>
-      <c r="N28" s="281"/>
-      <c r="O28" s="281"/>
+      <c r="M28" s="286"/>
+      <c r="N28" s="286"/>
+      <c r="O28" s="286"/>
       <c r="P28" s="212"/>
       <c r="Q28" s="212"/>
       <c r="R28" s="212"/>
@@ -9909,36 +9904,36 @@
       <c r="T28" s="212"/>
       <c r="U28" s="212"/>
       <c r="V28" s="212"/>
-      <c r="W28" s="285"/>
-      <c r="X28" s="279">
+      <c r="W28" s="290"/>
+      <c r="X28" s="284">
         <f>AC28*(1.5+AK28)</f>
         <v>9</v>
       </c>
-      <c r="Y28" s="261"/>
-      <c r="Z28" s="261"/>
-      <c r="AA28" s="261"/>
-      <c r="AB28" s="261"/>
-      <c r="AC28" s="271">
+      <c r="Y28" s="266"/>
+      <c r="Z28" s="266"/>
+      <c r="AA28" s="266"/>
+      <c r="AB28" s="266"/>
+      <c r="AC28" s="276">
         <v>6</v>
       </c>
-      <c r="AD28" s="272"/>
-      <c r="AE28" s="278">
+      <c r="AD28" s="277"/>
+      <c r="AE28" s="283">
         <v>44363</v>
       </c>
-      <c r="AF28" s="279"/>
-      <c r="AG28" s="278">
+      <c r="AF28" s="284"/>
+      <c r="AG28" s="283">
         <v>44362</v>
       </c>
-      <c r="AH28" s="279"/>
-      <c r="AI28" s="271">
+      <c r="AH28" s="284"/>
+      <c r="AI28" s="276">
         <v>1.5</v>
       </c>
-      <c r="AJ28" s="279"/>
-      <c r="AK28" s="286">
+      <c r="AJ28" s="284"/>
+      <c r="AK28" s="291">
         <v>0</v>
       </c>
-      <c r="AL28" s="287"/>
-      <c r="AM28" s="224" t="s">
+      <c r="AL28" s="292"/>
+      <c r="AM28" s="222" t="s">
         <v>133</v>
       </c>
     </row>
@@ -9956,15 +9951,15 @@
       <c r="I29" s="29"/>
       <c r="J29" s="29"/>
       <c r="K29" s="219"/>
-      <c r="L29" s="280">
+      <c r="L29" s="285">
         <f>2*1.5</f>
         <v>3</v>
       </c>
-      <c r="M29" s="281"/>
-      <c r="N29" s="302">
-        <v>0.1</v>
-      </c>
-      <c r="O29" s="281"/>
+      <c r="M29" s="286"/>
+      <c r="N29" s="307">
+        <v>0.12</v>
+      </c>
+      <c r="O29" s="286"/>
       <c r="P29" s="212"/>
       <c r="Q29" s="212"/>
       <c r="R29" s="212"/>
@@ -9972,39 +9967,39 @@
       <c r="T29" s="212"/>
       <c r="U29" s="212"/>
       <c r="V29" s="212"/>
-      <c r="W29" s="285">
-        <f>SUM(X29:AB30)/X38</f>
-        <v>0.17647058823529413</v>
-      </c>
-      <c r="X29" s="279">
+      <c r="W29" s="290">
+        <f>SUM(X29:AB30)/X36</f>
+        <v>0.2</v>
+      </c>
+      <c r="X29" s="284">
         <f>AC29*(1.5+AK29)</f>
         <v>6</v>
       </c>
-      <c r="Y29" s="261"/>
-      <c r="Z29" s="261"/>
-      <c r="AA29" s="261"/>
-      <c r="AB29" s="261"/>
-      <c r="AC29" s="271">
+      <c r="Y29" s="266"/>
+      <c r="Z29" s="266"/>
+      <c r="AA29" s="266"/>
+      <c r="AB29" s="266"/>
+      <c r="AC29" s="276">
         <v>2</v>
       </c>
-      <c r="AD29" s="272"/>
-      <c r="AE29" s="278">
+      <c r="AD29" s="277"/>
+      <c r="AE29" s="283">
         <v>44363</v>
       </c>
-      <c r="AF29" s="279"/>
-      <c r="AG29" s="278">
+      <c r="AF29" s="284"/>
+      <c r="AG29" s="283">
         <v>44364</v>
       </c>
-      <c r="AH29" s="279"/>
-      <c r="AI29" s="271">
+      <c r="AH29" s="284"/>
+      <c r="AI29" s="276">
         <v>1.5</v>
       </c>
-      <c r="AJ29" s="279"/>
-      <c r="AK29" s="286">
+      <c r="AJ29" s="284"/>
+      <c r="AK29" s="291">
         <v>1.5</v>
       </c>
-      <c r="AL29" s="287"/>
-      <c r="AM29" s="224" t="s">
+      <c r="AL29" s="292"/>
+      <c r="AM29" s="222" t="s">
         <v>133</v>
       </c>
     </row>
@@ -10022,13 +10017,13 @@
       <c r="I30" s="29"/>
       <c r="J30" s="29"/>
       <c r="K30" s="219"/>
-      <c r="L30" s="280">
+      <c r="L30" s="285">
         <f>4*1.5</f>
         <v>6</v>
       </c>
-      <c r="M30" s="281"/>
-      <c r="N30" s="281"/>
-      <c r="O30" s="281"/>
+      <c r="M30" s="286"/>
+      <c r="N30" s="286"/>
+      <c r="O30" s="286"/>
       <c r="P30" s="212"/>
       <c r="Q30" s="212"/>
       <c r="R30" s="212"/>
@@ -10036,36 +10031,36 @@
       <c r="T30" s="212"/>
       <c r="U30" s="212"/>
       <c r="V30" s="212"/>
-      <c r="W30" s="285"/>
-      <c r="X30" s="279">
+      <c r="W30" s="290"/>
+      <c r="X30" s="284">
         <f>AC30*(1.5+AK30)</f>
         <v>12</v>
       </c>
-      <c r="Y30" s="261"/>
-      <c r="Z30" s="261"/>
-      <c r="AA30" s="261"/>
-      <c r="AB30" s="261"/>
-      <c r="AC30" s="271">
+      <c r="Y30" s="266"/>
+      <c r="Z30" s="266"/>
+      <c r="AA30" s="266"/>
+      <c r="AB30" s="266"/>
+      <c r="AC30" s="276">
         <v>4</v>
       </c>
-      <c r="AD30" s="272"/>
-      <c r="AE30" s="278">
+      <c r="AD30" s="277"/>
+      <c r="AE30" s="283">
         <v>44363</v>
       </c>
-      <c r="AF30" s="279"/>
-      <c r="AG30" s="278">
+      <c r="AF30" s="284"/>
+      <c r="AG30" s="283">
         <v>44364</v>
       </c>
-      <c r="AH30" s="279"/>
-      <c r="AI30" s="271">
+      <c r="AH30" s="284"/>
+      <c r="AI30" s="276">
         <v>1.5</v>
       </c>
-      <c r="AJ30" s="279"/>
-      <c r="AK30" s="286">
+      <c r="AJ30" s="284"/>
+      <c r="AK30" s="291">
         <v>1.5</v>
       </c>
-      <c r="AL30" s="287"/>
-      <c r="AM30" s="224" t="s">
+      <c r="AL30" s="292"/>
+      <c r="AM30" s="222" t="s">
         <v>133</v>
       </c>
     </row>
@@ -10083,55 +10078,56 @@
       <c r="I31" s="29"/>
       <c r="J31" s="29"/>
       <c r="K31" s="219"/>
-      <c r="L31" s="280">
+      <c r="L31" s="285">
         <f>6*2</f>
         <v>12</v>
       </c>
-      <c r="M31" s="281"/>
-      <c r="N31" s="302">
-        <v>0.13</v>
-      </c>
-      <c r="O31" s="281"/>
-      <c r="P31" s="212"/>
-      <c r="R31" s="212" t="s">
+      <c r="M31" s="286"/>
+      <c r="N31" s="307">
+        <v>0.15</v>
+      </c>
+      <c r="O31" s="286"/>
+      <c r="P31" s="259" t="s">
         <v>182</v>
       </c>
-      <c r="S31" s="212"/>
+      <c r="S31" s="259" t="s">
+        <v>183</v>
+      </c>
       <c r="T31" s="212"/>
       <c r="U31" s="212"/>
       <c r="V31" s="212"/>
-      <c r="W31" s="249">
-        <f>SUM(X31)/X38</f>
-        <v>0.14705882352941177</v>
-      </c>
-      <c r="X31" s="279">
+      <c r="W31" s="246">
+        <f>SUM(X31)/X36</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="X31" s="284">
         <f>AC31*(2+AK31)</f>
         <v>15</v>
       </c>
-      <c r="Y31" s="261"/>
-      <c r="Z31" s="261"/>
-      <c r="AA31" s="261"/>
-      <c r="AB31" s="261"/>
-      <c r="AC31" s="271">
+      <c r="Y31" s="266"/>
+      <c r="Z31" s="266"/>
+      <c r="AA31" s="266"/>
+      <c r="AB31" s="266"/>
+      <c r="AC31" s="276">
         <v>6</v>
       </c>
-      <c r="AD31" s="272"/>
-      <c r="AE31" s="278">
+      <c r="AD31" s="277"/>
+      <c r="AE31" s="283">
         <v>44365</v>
       </c>
-      <c r="AF31" s="279"/>
-      <c r="AG31" s="278">
+      <c r="AF31" s="284"/>
+      <c r="AG31" s="283">
         <v>44368</v>
       </c>
-      <c r="AH31" s="279"/>
-      <c r="AI31" s="271">
+      <c r="AH31" s="284"/>
+      <c r="AI31" s="276">
         <v>2</v>
       </c>
-      <c r="AJ31" s="279"/>
-      <c r="AK31" s="286">
+      <c r="AJ31" s="284"/>
+      <c r="AK31" s="291">
         <v>0.5</v>
       </c>
-      <c r="AL31" s="287"/>
+      <c r="AL31" s="292"/>
       <c r="AM31" s="213"/>
     </row>
     <row r="32" spans="3:39" x14ac:dyDescent="0.15">
@@ -10148,55 +10144,55 @@
       <c r="I32" s="29"/>
       <c r="J32" s="29"/>
       <c r="K32" s="219"/>
-      <c r="L32" s="280">
+      <c r="L32" s="285">
         <v>27</v>
       </c>
-      <c r="M32" s="281"/>
-      <c r="N32" s="302">
-        <v>0.3</v>
-      </c>
-      <c r="O32" s="302"/>
-      <c r="P32" s="373">
-        <f>N32*0.37</f>
-        <v>0.111</v>
-      </c>
-      <c r="R32" s="374">
-        <v>6.5000000000000002E-2</v>
-      </c>
-      <c r="S32" s="247"/>
+      <c r="M32" s="286"/>
+      <c r="N32" s="307">
+        <v>0.35</v>
+      </c>
+      <c r="O32" s="307"/>
+      <c r="P32" s="258">
+        <f>N32*0.65</f>
+        <v>0.22749999999999998</v>
+      </c>
+      <c r="S32" s="260">
+        <f>7.8*4</f>
+        <v>31.2</v>
+      </c>
       <c r="T32" s="212"/>
       <c r="U32" s="212"/>
       <c r="V32" s="212"/>
-      <c r="W32" s="249">
-        <f>SUM(X32)/X38</f>
-        <v>0.26470588235294118</v>
-      </c>
-      <c r="X32" s="279">
+      <c r="W32" s="246">
+        <f>SUM(X32)/X36</f>
+        <v>0.3</v>
+      </c>
+      <c r="X32" s="284">
         <f>AC32*(4.5+AK32)</f>
         <v>27</v>
       </c>
-      <c r="Y32" s="261"/>
-      <c r="Z32" s="261"/>
-      <c r="AA32" s="261"/>
-      <c r="AB32" s="261"/>
-      <c r="AC32" s="271">
+      <c r="Y32" s="266"/>
+      <c r="Z32" s="266"/>
+      <c r="AA32" s="266"/>
+      <c r="AB32" s="266"/>
+      <c r="AC32" s="276">
         <v>6</v>
       </c>
-      <c r="AD32" s="272"/>
-      <c r="AE32" s="278">
+      <c r="AD32" s="277"/>
+      <c r="AE32" s="283">
         <v>44372</v>
       </c>
-      <c r="AF32" s="279"/>
-      <c r="AG32" s="271"/>
-      <c r="AH32" s="279"/>
-      <c r="AI32" s="271">
+      <c r="AF32" s="284"/>
+      <c r="AG32" s="276"/>
+      <c r="AH32" s="284"/>
+      <c r="AI32" s="276">
         <v>4.5</v>
       </c>
-      <c r="AJ32" s="279"/>
-      <c r="AK32" s="286">
+      <c r="AJ32" s="284"/>
+      <c r="AK32" s="291">
         <v>0</v>
       </c>
-      <c r="AL32" s="287"/>
+      <c r="AL32" s="292"/>
       <c r="AM32" s="213"/>
     </row>
     <row r="33" spans="3:40" x14ac:dyDescent="0.15">
@@ -10213,14 +10209,14 @@
       <c r="I33" s="29"/>
       <c r="J33" s="29"/>
       <c r="K33" s="219"/>
-      <c r="L33" s="280">
+      <c r="L33" s="285">
         <v>6</v>
       </c>
-      <c r="M33" s="281"/>
-      <c r="N33" s="302">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="O33" s="281"/>
+      <c r="M33" s="286"/>
+      <c r="N33" s="307">
+        <v>0.08</v>
+      </c>
+      <c r="O33" s="286"/>
       <c r="P33" s="212"/>
       <c r="Q33" s="212"/>
       <c r="R33" s="212"/>
@@ -10228,38 +10224,38 @@
       <c r="T33" s="212"/>
       <c r="U33" s="212"/>
       <c r="V33" s="212"/>
-      <c r="W33" s="249">
-        <f>SUM(X33)/X38</f>
-        <v>5.8823529411764705E-2</v>
-      </c>
-      <c r="X33" s="279">
+      <c r="W33" s="246">
+        <f>SUM(X33)/X36</f>
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="X33" s="284">
         <f>AC33*(2+AK33)</f>
         <v>6</v>
       </c>
-      <c r="Y33" s="261"/>
-      <c r="Z33" s="261"/>
-      <c r="AA33" s="261"/>
-      <c r="AB33" s="261"/>
-      <c r="AC33" s="271">
+      <c r="Y33" s="266"/>
+      <c r="Z33" s="266"/>
+      <c r="AA33" s="266"/>
+      <c r="AB33" s="266"/>
+      <c r="AC33" s="276">
         <v>3</v>
       </c>
-      <c r="AD33" s="272"/>
-      <c r="AE33" s="278">
+      <c r="AD33" s="277"/>
+      <c r="AE33" s="283">
         <v>44375</v>
       </c>
-      <c r="AF33" s="279"/>
-      <c r="AG33" s="271"/>
-      <c r="AH33" s="279"/>
-      <c r="AI33" s="271">
+      <c r="AF33" s="284"/>
+      <c r="AG33" s="276"/>
+      <c r="AH33" s="284"/>
+      <c r="AI33" s="276">
         <v>2</v>
       </c>
-      <c r="AJ33" s="279"/>
-      <c r="AK33" s="286">
+      <c r="AJ33" s="284"/>
+      <c r="AK33" s="291">
         <v>0</v>
       </c>
-      <c r="AL33" s="287"/>
+      <c r="AL33" s="292"/>
       <c r="AM33" s="213"/>
-      <c r="AN33" s="251"/>
+      <c r="AN33" s="248"/>
     </row>
     <row r="34" spans="3:40" x14ac:dyDescent="0.15">
       <c r="C34" s="3"/>
@@ -10275,14 +10271,14 @@
       <c r="I34" s="29"/>
       <c r="J34" s="29"/>
       <c r="K34" s="219"/>
-      <c r="L34" s="280">
+      <c r="L34" s="285">
         <v>6</v>
       </c>
-      <c r="M34" s="281"/>
-      <c r="N34" s="302">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="O34" s="281"/>
+      <c r="M34" s="286"/>
+      <c r="N34" s="307">
+        <v>0.08</v>
+      </c>
+      <c r="O34" s="286"/>
       <c r="P34" s="212"/>
       <c r="Q34" s="212"/>
       <c r="R34" s="212"/>
@@ -10290,361 +10286,233 @@
       <c r="T34" s="212"/>
       <c r="U34" s="212"/>
       <c r="V34" s="212"/>
-      <c r="W34" s="249">
-        <f>SUM(X34)/X38</f>
-        <v>5.8823529411764705E-2</v>
-      </c>
-      <c r="X34" s="279">
+      <c r="W34" s="246">
+        <f>SUM(X34)/X36</f>
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="X34" s="284">
         <f>AC34*(2+AK34)</f>
         <v>6</v>
       </c>
-      <c r="Y34" s="261"/>
-      <c r="Z34" s="261"/>
-      <c r="AA34" s="261"/>
-      <c r="AB34" s="261"/>
-      <c r="AC34" s="271">
+      <c r="Y34" s="266"/>
+      <c r="Z34" s="266"/>
+      <c r="AA34" s="266"/>
+      <c r="AB34" s="266"/>
+      <c r="AC34" s="276">
         <v>3</v>
       </c>
-      <c r="AD34" s="272"/>
-      <c r="AE34" s="278">
+      <c r="AD34" s="277"/>
+      <c r="AE34" s="283">
         <v>44375</v>
       </c>
-      <c r="AF34" s="279"/>
-      <c r="AG34" s="271"/>
-      <c r="AH34" s="279"/>
-      <c r="AI34" s="271">
+      <c r="AF34" s="284"/>
+      <c r="AG34" s="276"/>
+      <c r="AH34" s="284"/>
+      <c r="AI34" s="276">
         <v>2</v>
       </c>
-      <c r="AJ34" s="279"/>
-      <c r="AK34" s="286">
+      <c r="AJ34" s="284"/>
+      <c r="AK34" s="291">
         <v>0</v>
       </c>
-      <c r="AL34" s="287"/>
+      <c r="AL34" s="292"/>
       <c r="AM34" s="213"/>
-      <c r="AN34" s="251"/>
+      <c r="AN34" s="248"/>
     </row>
     <row r="35" spans="3:40" x14ac:dyDescent="0.15">
-      <c r="C35" s="3"/>
-      <c r="D35" s="21" t="s">
-        <v>109</v>
-      </c>
-      <c r="E35" s="31" t="s">
-        <v>111</v>
-      </c>
-      <c r="F35" s="120"/>
-      <c r="G35" s="120"/>
-      <c r="H35" s="120"/>
-      <c r="I35" s="120"/>
-      <c r="J35" s="120"/>
-      <c r="K35" s="220"/>
-      <c r="L35" s="280">
-        <f>6*1</f>
-        <v>6</v>
-      </c>
-      <c r="M35" s="281"/>
-      <c r="N35" s="302">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="O35" s="302"/>
-      <c r="P35" s="247"/>
-      <c r="Q35" s="247"/>
-      <c r="R35" s="247"/>
-      <c r="S35" s="247"/>
-      <c r="T35" s="212"/>
-      <c r="U35" s="212"/>
-      <c r="V35" s="212"/>
-      <c r="W35" s="249">
-        <f>SUM(X35)/X38</f>
-        <v>5.8823529411764705E-2</v>
-      </c>
-      <c r="X35" s="279">
-        <f>AC35*(1+AK35)</f>
-        <v>6</v>
-      </c>
-      <c r="Y35" s="261"/>
-      <c r="Z35" s="261"/>
-      <c r="AA35" s="261"/>
-      <c r="AB35" s="261"/>
-      <c r="AC35" s="271">
-        <v>6</v>
-      </c>
-      <c r="AD35" s="272"/>
-      <c r="AE35" s="278">
-        <v>44376</v>
-      </c>
-      <c r="AF35" s="279"/>
-      <c r="AG35" s="271"/>
-      <c r="AH35" s="279"/>
-      <c r="AI35" s="271">
-        <v>1</v>
-      </c>
-      <c r="AJ35" s="279"/>
-      <c r="AK35" s="286">
-        <v>0</v>
-      </c>
-      <c r="AL35" s="287"/>
-      <c r="AM35" s="213"/>
-      <c r="AN35" s="251"/>
+      <c r="C35" s="203"/>
+      <c r="D35" s="195"/>
+      <c r="E35" s="196"/>
+      <c r="F35" s="196"/>
+      <c r="G35" s="196"/>
+      <c r="H35" s="196"/>
+      <c r="I35" s="196"/>
+      <c r="J35" s="196"/>
+      <c r="K35" s="196"/>
+      <c r="L35" s="292"/>
+      <c r="M35" s="293"/>
+      <c r="N35" s="215"/>
+      <c r="O35" s="215"/>
+      <c r="P35" s="215"/>
+      <c r="Q35" s="215"/>
+      <c r="R35" s="215"/>
+      <c r="S35" s="215"/>
+      <c r="T35" s="215"/>
+      <c r="U35" s="215"/>
+      <c r="V35" s="215"/>
+      <c r="W35" s="221"/>
+      <c r="X35" s="211"/>
+      <c r="Y35" s="211"/>
+      <c r="Z35" s="200"/>
+      <c r="AA35" s="200"/>
+      <c r="AB35" s="200"/>
+      <c r="AC35" s="200"/>
+      <c r="AD35" s="200"/>
+      <c r="AE35" s="277"/>
+      <c r="AF35" s="277"/>
+      <c r="AG35" s="277"/>
+      <c r="AH35" s="277"/>
+      <c r="AI35" s="277"/>
+      <c r="AJ35" s="277"/>
+      <c r="AK35" s="200"/>
+      <c r="AL35" s="200"/>
+      <c r="AM35" s="214"/>
     </row>
     <row r="36" spans="3:40" x14ac:dyDescent="0.15">
-      <c r="C36" s="122"/>
-      <c r="D36" s="204" t="s">
-        <v>112</v>
-      </c>
-      <c r="E36" s="205" t="s">
-        <v>110</v>
-      </c>
-      <c r="F36" s="206"/>
-      <c r="G36" s="206"/>
-      <c r="H36" s="206"/>
-      <c r="I36" s="206"/>
-      <c r="J36" s="206"/>
-      <c r="K36" s="221"/>
-      <c r="L36" s="280">
-        <f>6*1</f>
-        <v>6</v>
-      </c>
-      <c r="M36" s="281"/>
-      <c r="N36" s="302">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="O36" s="302"/>
-      <c r="P36" s="247"/>
-      <c r="Q36" s="247"/>
-      <c r="R36" s="247"/>
-      <c r="S36" s="247"/>
-      <c r="T36" s="212"/>
-      <c r="U36" s="212"/>
-      <c r="V36" s="212"/>
-      <c r="W36" s="249">
-        <f>SUM(X36)/X38</f>
-        <v>5.8823529411764705E-2</v>
-      </c>
-      <c r="X36" s="279">
-        <f>AC36*(1+AK36)</f>
-        <v>6</v>
-      </c>
-      <c r="Y36" s="261"/>
-      <c r="Z36" s="261"/>
-      <c r="AA36" s="261"/>
-      <c r="AB36" s="261"/>
-      <c r="AC36" s="271">
-        <v>6</v>
-      </c>
-      <c r="AD36" s="272"/>
-      <c r="AE36" s="278">
-        <v>44377</v>
-      </c>
-      <c r="AF36" s="279"/>
-      <c r="AG36" s="271"/>
-      <c r="AH36" s="279"/>
-      <c r="AI36" s="271">
-        <v>1</v>
-      </c>
-      <c r="AJ36" s="279"/>
-      <c r="AK36" s="286">
-        <v>0</v>
-      </c>
-      <c r="AL36" s="287"/>
-      <c r="AM36" s="213"/>
-      <c r="AN36" s="251"/>
+      <c r="C36" s="203"/>
+      <c r="D36" s="196"/>
+      <c r="E36" s="200"/>
+      <c r="F36" s="196"/>
+      <c r="G36" s="208" t="s">
+        <v>135</v>
+      </c>
+      <c r="J36" s="196"/>
+      <c r="K36" s="220"/>
+      <c r="L36" s="292">
+        <f>SUM(L27:L34)</f>
+        <v>78</v>
+      </c>
+      <c r="M36" s="293"/>
+      <c r="N36" s="215"/>
+      <c r="O36" s="215"/>
+      <c r="P36" s="215"/>
+      <c r="Q36" s="215"/>
+      <c r="R36" s="215"/>
+      <c r="S36" s="215"/>
+      <c r="T36" s="215"/>
+      <c r="W36" s="226" t="s">
+        <v>148</v>
+      </c>
+      <c r="X36" s="266">
+        <f>SUM(X27:AB34)</f>
+        <v>90</v>
+      </c>
+      <c r="Y36" s="266"/>
+      <c r="Z36" s="266"/>
+      <c r="AA36" s="266"/>
+      <c r="AB36" s="266"/>
+      <c r="AC36" s="296"/>
+      <c r="AD36" s="297"/>
+      <c r="AE36" s="296"/>
+      <c r="AF36" s="298"/>
+      <c r="AG36" s="296"/>
+      <c r="AH36" s="298"/>
+      <c r="AI36" s="296"/>
+      <c r="AJ36" s="298"/>
+      <c r="AK36" s="294"/>
+      <c r="AL36" s="295"/>
+      <c r="AM36" s="223"/>
     </row>
     <row r="37" spans="3:40" x14ac:dyDescent="0.15">
-      <c r="C37" s="203"/>
-      <c r="D37" s="195"/>
+      <c r="C37" s="197"/>
+      <c r="D37" s="199"/>
       <c r="E37" s="196"/>
-      <c r="F37" s="196"/>
-      <c r="G37" s="196"/>
-      <c r="H37" s="196"/>
-      <c r="I37" s="196"/>
-      <c r="J37" s="196"/>
-      <c r="K37" s="196"/>
-      <c r="L37" s="287"/>
-      <c r="M37" s="288"/>
-      <c r="N37" s="215"/>
-      <c r="O37" s="215"/>
-      <c r="P37" s="215"/>
-      <c r="Q37" s="215"/>
-      <c r="R37" s="215"/>
-      <c r="S37" s="215"/>
-      <c r="T37" s="215"/>
-      <c r="U37" s="215"/>
-      <c r="V37" s="215"/>
-      <c r="W37" s="223"/>
-      <c r="X37" s="211"/>
-      <c r="Y37" s="211"/>
-      <c r="Z37" s="200"/>
-      <c r="AA37" s="200"/>
-      <c r="AB37" s="200"/>
-      <c r="AC37" s="200"/>
-      <c r="AD37" s="200"/>
-      <c r="AE37" s="272"/>
-      <c r="AF37" s="272"/>
-      <c r="AG37" s="272"/>
-      <c r="AH37" s="272"/>
-      <c r="AI37" s="272"/>
-      <c r="AJ37" s="272"/>
-      <c r="AK37" s="200"/>
-      <c r="AL37" s="200"/>
-      <c r="AM37" s="214"/>
+      <c r="F37" s="200"/>
+      <c r="G37" s="210" t="s">
+        <v>134</v>
+      </c>
+      <c r="I37" s="200"/>
+      <c r="J37" s="200"/>
+      <c r="K37" s="201"/>
+      <c r="L37" s="287">
+        <f>SUM(L27:M31)/L36</f>
+        <v>0.5</v>
+      </c>
+      <c r="M37" s="267"/>
+      <c r="O37" s="252">
+        <v>0.81200000000000006</v>
+      </c>
+      <c r="P37" s="216"/>
+      <c r="Q37" s="216"/>
+      <c r="R37" s="216"/>
+      <c r="S37" s="216"/>
+      <c r="T37" s="216"/>
+      <c r="W37" s="226" t="s">
+        <v>147</v>
+      </c>
+      <c r="X37" s="266">
+        <f>SUM(X27:AB34)-SUM(L27:M34)</f>
+        <v>12</v>
+      </c>
+      <c r="Y37" s="266"/>
+      <c r="Z37" s="266"/>
+      <c r="AA37" s="266"/>
+      <c r="AB37" s="266"/>
+      <c r="AC37" s="296"/>
+      <c r="AD37" s="297"/>
+      <c r="AE37" s="296"/>
+      <c r="AF37" s="298"/>
+      <c r="AG37" s="296"/>
+      <c r="AH37" s="298"/>
+      <c r="AI37" s="296"/>
+      <c r="AJ37" s="298"/>
+      <c r="AK37" s="294"/>
+      <c r="AL37" s="295"/>
+      <c r="AM37" s="223"/>
     </row>
     <row r="38" spans="3:40" x14ac:dyDescent="0.15">
-      <c r="C38" s="203"/>
-      <c r="D38" s="196"/>
-      <c r="E38" s="200"/>
-      <c r="F38" s="196"/>
-      <c r="G38" s="208" t="s">
-        <v>135</v>
-      </c>
-      <c r="J38" s="196"/>
-      <c r="K38" s="222"/>
+      <c r="C38" s="197"/>
+      <c r="D38" s="199"/>
+      <c r="E38" s="196"/>
+      <c r="F38" s="200"/>
+      <c r="G38" s="210" t="s">
+        <v>137</v>
+      </c>
+      <c r="I38" s="200"/>
+      <c r="J38" s="200"/>
+      <c r="K38" s="201"/>
       <c r="L38" s="287">
-        <f>SUM(L27:L36)</f>
-        <v>90</v>
-      </c>
-      <c r="M38" s="288"/>
-      <c r="N38" s="215"/>
-      <c r="O38" s="215"/>
-      <c r="P38" s="215"/>
-      <c r="Q38" s="215"/>
-      <c r="R38" s="215"/>
-      <c r="S38" s="215"/>
-      <c r="T38" s="215"/>
-      <c r="W38" s="228" t="s">
-        <v>148</v>
-      </c>
-      <c r="X38" s="261">
-        <f>SUM(X27:AB36)</f>
-        <v>102</v>
-      </c>
-      <c r="Y38" s="261"/>
-      <c r="Z38" s="261"/>
-      <c r="AA38" s="261"/>
-      <c r="AB38" s="261"/>
-      <c r="AC38" s="291"/>
-      <c r="AD38" s="292"/>
-      <c r="AE38" s="291"/>
-      <c r="AF38" s="293"/>
-      <c r="AG38" s="291"/>
-      <c r="AH38" s="293"/>
-      <c r="AI38" s="291"/>
-      <c r="AJ38" s="293"/>
-      <c r="AK38" s="289"/>
-      <c r="AL38" s="290"/>
-      <c r="AM38" s="225"/>
-    </row>
-    <row r="39" spans="3:40" x14ac:dyDescent="0.15">
-      <c r="C39" s="197"/>
-      <c r="D39" s="199"/>
-      <c r="E39" s="196"/>
-      <c r="F39" s="200"/>
-      <c r="G39" s="210" t="s">
-        <v>134</v>
-      </c>
-      <c r="I39" s="200"/>
-      <c r="J39" s="200"/>
-      <c r="K39" s="201"/>
-      <c r="L39" s="282">
-        <f>SUM(L27:M31)/L38</f>
-        <v>0.43333333333333335</v>
-      </c>
-      <c r="M39" s="262"/>
-      <c r="O39" s="255">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="P39" s="216"/>
-      <c r="Q39" s="216"/>
-      <c r="R39" s="216"/>
-      <c r="S39" s="216"/>
-      <c r="T39" s="216"/>
-      <c r="W39" s="228" t="s">
-        <v>147</v>
-      </c>
-      <c r="X39" s="261">
-        <f>SUM(X27:AB36)-SUM(L27:M36)</f>
-        <v>12</v>
-      </c>
-      <c r="Y39" s="261"/>
-      <c r="Z39" s="261"/>
-      <c r="AA39" s="261"/>
-      <c r="AB39" s="261"/>
-      <c r="AC39" s="291"/>
-      <c r="AD39" s="292"/>
-      <c r="AE39" s="291"/>
-      <c r="AF39" s="293"/>
-      <c r="AG39" s="291"/>
-      <c r="AH39" s="293"/>
-      <c r="AI39" s="291"/>
-      <c r="AJ39" s="293"/>
-      <c r="AK39" s="289"/>
-      <c r="AL39" s="290"/>
-      <c r="AM39" s="225"/>
-    </row>
-    <row r="40" spans="3:40" x14ac:dyDescent="0.15">
-      <c r="C40" s="197"/>
-      <c r="D40" s="199"/>
-      <c r="E40" s="196"/>
-      <c r="F40" s="200"/>
-      <c r="G40" s="210" t="s">
-        <v>137</v>
-      </c>
-      <c r="I40" s="200"/>
-      <c r="J40" s="200"/>
-      <c r="K40" s="201"/>
-      <c r="L40" s="282">
-        <f>SUM(L27:M31)/L38</f>
-        <v>0.43333333333333335</v>
-      </c>
-      <c r="M40" s="262"/>
-      <c r="O40" s="248">
-        <v>0.54</v>
-      </c>
-      <c r="U40" s="216"/>
-      <c r="V40" s="229"/>
-      <c r="W40" s="229" t="s">
+        <f>SUM(L27:M31)/L36</f>
+        <v>0.5</v>
+      </c>
+      <c r="M38" s="267"/>
+      <c r="O38" s="245">
+        <v>0.73</v>
+      </c>
+      <c r="U38" s="216"/>
+      <c r="V38" s="227"/>
+      <c r="W38" s="227" t="s">
         <v>127</v>
       </c>
-      <c r="X40" s="262">
-        <f>SUM(X27:AB31)/X38</f>
-        <v>0.5</v>
-      </c>
-      <c r="Y40" s="262"/>
-      <c r="Z40" s="262"/>
-      <c r="AA40" s="262"/>
-      <c r="AB40" s="262"/>
-      <c r="AC40">
+      <c r="X38" s="267">
+        <f>SUM(X27:AB31)/X36</f>
+        <v>0.56666666666666665</v>
+      </c>
+      <c r="Y38" s="267"/>
+      <c r="Z38" s="267"/>
+      <c r="AA38" s="267"/>
+      <c r="AB38" s="267"/>
+      <c r="AC38">
         <v>25</v>
       </c>
-      <c r="AK40" s="230" t="s">
+      <c r="AK38" s="228" t="s">
         <v>175</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="114">
-    <mergeCell ref="AI39:AJ39"/>
+  <mergeCells count="98">
+    <mergeCell ref="AE36:AF36"/>
+    <mergeCell ref="AG33:AH33"/>
+    <mergeCell ref="AG34:AH34"/>
+    <mergeCell ref="AI30:AJ30"/>
+    <mergeCell ref="AI31:AJ31"/>
+    <mergeCell ref="AE34:AF34"/>
+    <mergeCell ref="AI37:AJ37"/>
     <mergeCell ref="N27:O28"/>
     <mergeCell ref="N29:O30"/>
     <mergeCell ref="N31:O31"/>
     <mergeCell ref="N32:O32"/>
     <mergeCell ref="N33:O33"/>
     <mergeCell ref="N34:O34"/>
-    <mergeCell ref="N35:O35"/>
-    <mergeCell ref="N36:O36"/>
     <mergeCell ref="AI33:AJ33"/>
     <mergeCell ref="AI34:AJ34"/>
     <mergeCell ref="AI35:AJ35"/>
     <mergeCell ref="AI36:AJ36"/>
-    <mergeCell ref="AI37:AJ37"/>
-    <mergeCell ref="AI38:AJ38"/>
-    <mergeCell ref="AC39:AD39"/>
+    <mergeCell ref="AC37:AD37"/>
     <mergeCell ref="AG27:AH27"/>
     <mergeCell ref="AG28:AH28"/>
-    <mergeCell ref="AG29:AH29"/>
-    <mergeCell ref="AE37:AF37"/>
-    <mergeCell ref="AE38:AF38"/>
-    <mergeCell ref="AG33:AH33"/>
-    <mergeCell ref="AG34:AH34"/>
-    <mergeCell ref="AG35:AH35"/>
+    <mergeCell ref="AG36:AH36"/>
+    <mergeCell ref="AG37:AH37"/>
     <mergeCell ref="AM23:AM25"/>
     <mergeCell ref="AK28:AL28"/>
     <mergeCell ref="AK29:AL29"/>
@@ -10658,43 +10526,25 @@
     <mergeCell ref="AI27:AJ27"/>
     <mergeCell ref="AI28:AJ28"/>
     <mergeCell ref="AI29:AJ29"/>
-    <mergeCell ref="AI30:AJ30"/>
-    <mergeCell ref="AI31:AJ31"/>
     <mergeCell ref="AK32:AL32"/>
     <mergeCell ref="AK33:AL33"/>
-    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="L36:M36"/>
+    <mergeCell ref="L35:M35"/>
     <mergeCell ref="L37:M37"/>
-    <mergeCell ref="L39:M39"/>
-    <mergeCell ref="X38:AB38"/>
+    <mergeCell ref="X36:AB36"/>
     <mergeCell ref="AK34:AL34"/>
-    <mergeCell ref="AK35:AL35"/>
     <mergeCell ref="AK36:AL36"/>
-    <mergeCell ref="AK38:AL38"/>
-    <mergeCell ref="AK39:AL39"/>
+    <mergeCell ref="AK37:AL37"/>
     <mergeCell ref="AC34:AD34"/>
-    <mergeCell ref="AC35:AD35"/>
     <mergeCell ref="AC36:AD36"/>
-    <mergeCell ref="AC38:AD38"/>
     <mergeCell ref="AC33:AD33"/>
     <mergeCell ref="AI32:AJ32"/>
     <mergeCell ref="AC32:AD32"/>
     <mergeCell ref="AG32:AH32"/>
-    <mergeCell ref="AE39:AF39"/>
-    <mergeCell ref="AG38:AH38"/>
-    <mergeCell ref="AG39:AH39"/>
-    <mergeCell ref="AE34:AF34"/>
-    <mergeCell ref="AE35:AF35"/>
-    <mergeCell ref="L40:M40"/>
-    <mergeCell ref="X39:AB39"/>
-    <mergeCell ref="X31:AB31"/>
-    <mergeCell ref="X32:AB32"/>
-    <mergeCell ref="X33:AB33"/>
-    <mergeCell ref="X40:AB40"/>
+    <mergeCell ref="AE37:AF37"/>
     <mergeCell ref="X23:AB25"/>
-    <mergeCell ref="X35:AB35"/>
     <mergeCell ref="L33:M33"/>
     <mergeCell ref="L34:M34"/>
-    <mergeCell ref="L35:M35"/>
     <mergeCell ref="X28:AB28"/>
     <mergeCell ref="X29:AB29"/>
     <mergeCell ref="X30:AB30"/>
@@ -10708,33 +10558,37 @@
     <mergeCell ref="X34:AB34"/>
     <mergeCell ref="W27:W28"/>
     <mergeCell ref="W29:W30"/>
-    <mergeCell ref="AE31:AF31"/>
-    <mergeCell ref="AG36:AH36"/>
-    <mergeCell ref="AG37:AH37"/>
-    <mergeCell ref="AE32:AF32"/>
-    <mergeCell ref="AE33:AF33"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="X37:AB37"/>
+    <mergeCell ref="X31:AB31"/>
+    <mergeCell ref="X32:AB32"/>
+    <mergeCell ref="X33:AB33"/>
+    <mergeCell ref="X38:AB38"/>
     <mergeCell ref="L30:M30"/>
     <mergeCell ref="L31:M31"/>
     <mergeCell ref="L32:M32"/>
-    <mergeCell ref="X36:AB36"/>
-    <mergeCell ref="L36:M36"/>
     <mergeCell ref="AC31:AD31"/>
     <mergeCell ref="AG30:AH30"/>
     <mergeCell ref="AG31:AH31"/>
-    <mergeCell ref="AE36:AF36"/>
+    <mergeCell ref="AE28:AF28"/>
+    <mergeCell ref="AE29:AF29"/>
+    <mergeCell ref="AE30:AF30"/>
+    <mergeCell ref="AE31:AF31"/>
+    <mergeCell ref="AG35:AH35"/>
+    <mergeCell ref="AE32:AF32"/>
+    <mergeCell ref="AE33:AF33"/>
+    <mergeCell ref="AG29:AH29"/>
+    <mergeCell ref="AE35:AF35"/>
+    <mergeCell ref="AG23:AH25"/>
+    <mergeCell ref="AG26:AH26"/>
+    <mergeCell ref="AE23:AF25"/>
+    <mergeCell ref="AE26:AF26"/>
+    <mergeCell ref="AE27:AF27"/>
     <mergeCell ref="AC23:AD25"/>
     <mergeCell ref="AC27:AD27"/>
     <mergeCell ref="AC28:AD28"/>
     <mergeCell ref="AC29:AD29"/>
     <mergeCell ref="AC30:AD30"/>
-    <mergeCell ref="AG23:AH25"/>
-    <mergeCell ref="AG26:AH26"/>
-    <mergeCell ref="AE23:AF25"/>
-    <mergeCell ref="AE26:AF26"/>
-    <mergeCell ref="AE27:AF27"/>
-    <mergeCell ref="AE28:AF28"/>
-    <mergeCell ref="AE29:AF29"/>
-    <mergeCell ref="AE30:AF30"/>
   </mergeCells>
   <phoneticPr fontId="7"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10937,20 +10791,20 @@
     </row>
     <row r="29" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B29" s="3"/>
-      <c r="C29" s="303" t="s">
+      <c r="C29" s="308" t="s">
         <v>72</v>
       </c>
-      <c r="D29" s="304"/>
-      <c r="E29" s="304"/>
-      <c r="F29" s="304"/>
-      <c r="G29" s="304"/>
-      <c r="H29" s="304"/>
-      <c r="I29" s="304"/>
-      <c r="J29" s="305"/>
-      <c r="K29" s="309" t="s">
+      <c r="D29" s="309"/>
+      <c r="E29" s="309"/>
+      <c r="F29" s="309"/>
+      <c r="G29" s="309"/>
+      <c r="H29" s="309"/>
+      <c r="I29" s="309"/>
+      <c r="J29" s="310"/>
+      <c r="K29" s="314" t="s">
         <v>21</v>
       </c>
-      <c r="L29" s="311">
+      <c r="L29" s="316">
         <v>1</v>
       </c>
       <c r="M29" s="45" t="s">
@@ -10974,18 +10828,18 @@
     </row>
     <row r="30" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B30" s="3"/>
-      <c r="C30" s="306"/>
-      <c r="D30" s="307"/>
-      <c r="E30" s="307"/>
-      <c r="F30" s="307"/>
-      <c r="G30" s="307"/>
-      <c r="H30" s="307"/>
-      <c r="I30" s="307"/>
-      <c r="J30" s="308"/>
-      <c r="K30" s="310" t="s">
+      <c r="C30" s="311"/>
+      <c r="D30" s="312"/>
+      <c r="E30" s="312"/>
+      <c r="F30" s="312"/>
+      <c r="G30" s="312"/>
+      <c r="H30" s="312"/>
+      <c r="I30" s="312"/>
+      <c r="J30" s="313"/>
+      <c r="K30" s="315" t="s">
         <v>21</v>
       </c>
-      <c r="L30" s="312" t="s">
+      <c r="L30" s="317" t="s">
         <v>40</v>
       </c>
       <c r="M30" s="44" t="s">
@@ -11009,20 +10863,20 @@
     </row>
     <row r="31" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B31" s="3"/>
-      <c r="C31" s="303" t="s">
+      <c r="C31" s="308" t="s">
         <v>73</v>
       </c>
-      <c r="D31" s="304"/>
-      <c r="E31" s="304"/>
-      <c r="F31" s="304"/>
-      <c r="G31" s="304"/>
-      <c r="H31" s="304"/>
-      <c r="I31" s="304"/>
-      <c r="J31" s="305"/>
-      <c r="K31" s="309" t="s">
+      <c r="D31" s="309"/>
+      <c r="E31" s="309"/>
+      <c r="F31" s="309"/>
+      <c r="G31" s="309"/>
+      <c r="H31" s="309"/>
+      <c r="I31" s="309"/>
+      <c r="J31" s="310"/>
+      <c r="K31" s="314" t="s">
         <v>21</v>
       </c>
-      <c r="L31" s="311">
+      <c r="L31" s="316">
         <v>1</v>
       </c>
       <c r="M31" s="45" t="s">
@@ -11046,18 +10900,18 @@
     </row>
     <row r="32" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B32" s="3"/>
-      <c r="C32" s="306"/>
-      <c r="D32" s="307"/>
-      <c r="E32" s="307"/>
-      <c r="F32" s="307"/>
-      <c r="G32" s="307"/>
-      <c r="H32" s="307"/>
-      <c r="I32" s="307"/>
-      <c r="J32" s="308"/>
-      <c r="K32" s="310" t="s">
+      <c r="C32" s="311"/>
+      <c r="D32" s="312"/>
+      <c r="E32" s="312"/>
+      <c r="F32" s="312"/>
+      <c r="G32" s="312"/>
+      <c r="H32" s="312"/>
+      <c r="I32" s="312"/>
+      <c r="J32" s="313"/>
+      <c r="K32" s="315" t="s">
         <v>21</v>
       </c>
-      <c r="L32" s="312" t="s">
+      <c r="L32" s="317" t="s">
         <v>40</v>
       </c>
       <c r="M32" s="44" t="s">
@@ -11081,20 +10935,20 @@
     </row>
     <row r="33" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B33" s="3"/>
-      <c r="C33" s="303" t="s">
+      <c r="C33" s="308" t="s">
         <v>74</v>
       </c>
-      <c r="D33" s="304"/>
-      <c r="E33" s="304"/>
-      <c r="F33" s="304"/>
-      <c r="G33" s="304"/>
-      <c r="H33" s="304"/>
-      <c r="I33" s="304"/>
-      <c r="J33" s="305"/>
-      <c r="K33" s="309" t="s">
+      <c r="D33" s="309"/>
+      <c r="E33" s="309"/>
+      <c r="F33" s="309"/>
+      <c r="G33" s="309"/>
+      <c r="H33" s="309"/>
+      <c r="I33" s="309"/>
+      <c r="J33" s="310"/>
+      <c r="K33" s="314" t="s">
         <v>21</v>
       </c>
-      <c r="L33" s="311">
+      <c r="L33" s="316">
         <v>1</v>
       </c>
       <c r="M33" s="45" t="s">
@@ -11118,18 +10972,18 @@
     </row>
     <row r="34" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B34" s="3"/>
-      <c r="C34" s="306"/>
-      <c r="D34" s="307"/>
-      <c r="E34" s="307"/>
-      <c r="F34" s="307"/>
-      <c r="G34" s="307"/>
-      <c r="H34" s="307"/>
-      <c r="I34" s="307"/>
-      <c r="J34" s="308"/>
-      <c r="K34" s="310" t="s">
+      <c r="C34" s="311"/>
+      <c r="D34" s="312"/>
+      <c r="E34" s="312"/>
+      <c r="F34" s="312"/>
+      <c r="G34" s="312"/>
+      <c r="H34" s="312"/>
+      <c r="I34" s="312"/>
+      <c r="J34" s="313"/>
+      <c r="K34" s="315" t="s">
         <v>21</v>
       </c>
-      <c r="L34" s="312" t="s">
+      <c r="L34" s="317" t="s">
         <v>39</v>
       </c>
       <c r="M34" s="44" t="s">
@@ -11364,16 +11218,16 @@
       <c r="B28" s="2">
         <v>4</v>
       </c>
-      <c r="C28" s="315" t="s">
+      <c r="C28" s="320" t="s">
         <v>114</v>
       </c>
-      <c r="D28" s="316"/>
-      <c r="E28" s="316"/>
-      <c r="F28" s="316"/>
-      <c r="G28" s="316"/>
-      <c r="H28" s="316"/>
-      <c r="I28" s="316"/>
-      <c r="J28" s="317"/>
+      <c r="D28" s="321"/>
+      <c r="E28" s="321"/>
+      <c r="F28" s="321"/>
+      <c r="G28" s="321"/>
+      <c r="H28" s="321"/>
+      <c r="I28" s="321"/>
+      <c r="J28" s="322"/>
       <c r="K28" s="55"/>
       <c r="L28" s="65"/>
       <c r="M28" s="144"/>
@@ -11394,20 +11248,20 @@
     </row>
     <row r="29" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B29" s="3"/>
-      <c r="C29" s="318" t="s">
+      <c r="C29" s="323" t="s">
         <v>115</v>
       </c>
-      <c r="D29" s="319"/>
-      <c r="E29" s="319"/>
-      <c r="F29" s="319"/>
-      <c r="G29" s="319"/>
-      <c r="H29" s="319"/>
-      <c r="I29" s="319"/>
-      <c r="J29" s="320"/>
-      <c r="K29" s="309" t="s">
+      <c r="D29" s="324"/>
+      <c r="E29" s="324"/>
+      <c r="F29" s="324"/>
+      <c r="G29" s="324"/>
+      <c r="H29" s="324"/>
+      <c r="I29" s="324"/>
+      <c r="J29" s="325"/>
+      <c r="K29" s="314" t="s">
         <v>116</v>
       </c>
-      <c r="L29" s="313">
+      <c r="L29" s="318">
         <v>1</v>
       </c>
       <c r="M29" s="145" t="s">
@@ -11430,16 +11284,16 @@
     </row>
     <row r="30" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B30" s="3"/>
-      <c r="C30" s="321"/>
-      <c r="D30" s="322"/>
-      <c r="E30" s="322"/>
-      <c r="F30" s="322"/>
-      <c r="G30" s="322"/>
-      <c r="H30" s="322"/>
-      <c r="I30" s="322"/>
-      <c r="J30" s="323"/>
-      <c r="K30" s="310"/>
-      <c r="L30" s="314"/>
+      <c r="C30" s="326"/>
+      <c r="D30" s="327"/>
+      <c r="E30" s="327"/>
+      <c r="F30" s="327"/>
+      <c r="G30" s="327"/>
+      <c r="H30" s="327"/>
+      <c r="I30" s="327"/>
+      <c r="J30" s="328"/>
+      <c r="K30" s="315"/>
+      <c r="L30" s="319"/>
       <c r="M30" s="146" t="s">
         <v>49</v>
       </c>
@@ -11460,18 +11314,18 @@
     </row>
     <row r="31" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B31" s="3"/>
-      <c r="C31" s="321"/>
-      <c r="D31" s="322"/>
-      <c r="E31" s="322"/>
-      <c r="F31" s="322"/>
-      <c r="G31" s="322"/>
-      <c r="H31" s="322"/>
-      <c r="I31" s="322"/>
-      <c r="J31" s="323"/>
-      <c r="K31" s="309" t="s">
+      <c r="C31" s="326"/>
+      <c r="D31" s="327"/>
+      <c r="E31" s="327"/>
+      <c r="F31" s="327"/>
+      <c r="G31" s="327"/>
+      <c r="H31" s="327"/>
+      <c r="I31" s="327"/>
+      <c r="J31" s="328"/>
+      <c r="K31" s="314" t="s">
         <v>117</v>
       </c>
-      <c r="L31" s="313">
+      <c r="L31" s="318">
         <v>1</v>
       </c>
       <c r="M31" s="145" t="s">
@@ -11494,18 +11348,18 @@
     </row>
     <row r="32" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B32" s="3"/>
-      <c r="C32" s="321"/>
-      <c r="D32" s="322"/>
-      <c r="E32" s="322"/>
-      <c r="F32" s="322"/>
-      <c r="G32" s="322"/>
-      <c r="H32" s="322"/>
-      <c r="I32" s="322"/>
-      <c r="J32" s="323"/>
-      <c r="K32" s="310" t="s">
+      <c r="C32" s="326"/>
+      <c r="D32" s="327"/>
+      <c r="E32" s="327"/>
+      <c r="F32" s="327"/>
+      <c r="G32" s="327"/>
+      <c r="H32" s="327"/>
+      <c r="I32" s="327"/>
+      <c r="J32" s="328"/>
+      <c r="K32" s="315" t="s">
         <v>11</v>
       </c>
-      <c r="L32" s="310"/>
+      <c r="L32" s="315"/>
       <c r="M32" s="146" t="s">
         <v>49</v>
       </c>
@@ -11586,20 +11440,20 @@
     </row>
     <row r="35" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B35" s="3"/>
-      <c r="C35" s="324" t="s">
+      <c r="C35" s="329" t="s">
         <v>77</v>
       </c>
-      <c r="D35" s="325"/>
-      <c r="E35" s="325"/>
-      <c r="F35" s="325"/>
-      <c r="G35" s="325"/>
-      <c r="H35" s="325"/>
-      <c r="I35" s="325"/>
-      <c r="J35" s="326"/>
-      <c r="K35" s="309" t="s">
+      <c r="D35" s="330"/>
+      <c r="E35" s="330"/>
+      <c r="F35" s="330"/>
+      <c r="G35" s="330"/>
+      <c r="H35" s="330"/>
+      <c r="I35" s="330"/>
+      <c r="J35" s="331"/>
+      <c r="K35" s="314" t="s">
         <v>42</v>
       </c>
-      <c r="L35" s="313">
+      <c r="L35" s="318">
         <v>1</v>
       </c>
       <c r="M35" s="145" t="s">
@@ -11622,16 +11476,16 @@
     </row>
     <row r="36" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B36" s="3"/>
-      <c r="C36" s="327"/>
-      <c r="D36" s="328"/>
-      <c r="E36" s="328"/>
-      <c r="F36" s="328"/>
-      <c r="G36" s="328"/>
-      <c r="H36" s="328"/>
-      <c r="I36" s="328"/>
-      <c r="J36" s="329"/>
-      <c r="K36" s="310"/>
-      <c r="L36" s="310"/>
+      <c r="C36" s="332"/>
+      <c r="D36" s="333"/>
+      <c r="E36" s="333"/>
+      <c r="F36" s="333"/>
+      <c r="G36" s="333"/>
+      <c r="H36" s="333"/>
+      <c r="I36" s="333"/>
+      <c r="J36" s="334"/>
+      <c r="K36" s="315"/>
+      <c r="L36" s="315"/>
       <c r="M36" s="146" t="s">
         <v>49</v>
       </c>
@@ -11652,20 +11506,20 @@
     </row>
     <row r="37" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B37" s="3"/>
-      <c r="C37" s="324" t="s">
+      <c r="C37" s="329" t="s">
         <v>78</v>
       </c>
-      <c r="D37" s="325"/>
-      <c r="E37" s="325"/>
-      <c r="F37" s="325"/>
-      <c r="G37" s="325"/>
-      <c r="H37" s="325"/>
-      <c r="I37" s="325"/>
-      <c r="J37" s="326"/>
-      <c r="K37" s="309" t="s">
+      <c r="D37" s="330"/>
+      <c r="E37" s="330"/>
+      <c r="F37" s="330"/>
+      <c r="G37" s="330"/>
+      <c r="H37" s="330"/>
+      <c r="I37" s="330"/>
+      <c r="J37" s="331"/>
+      <c r="K37" s="314" t="s">
         <v>21</v>
       </c>
-      <c r="L37" s="313">
+      <c r="L37" s="318">
         <v>1</v>
       </c>
       <c r="M37" s="145" t="s">
@@ -11688,16 +11542,16 @@
     </row>
     <row r="38" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B38" s="3"/>
-      <c r="C38" s="327"/>
-      <c r="D38" s="328"/>
-      <c r="E38" s="328"/>
-      <c r="F38" s="328"/>
-      <c r="G38" s="328"/>
-      <c r="H38" s="328"/>
-      <c r="I38" s="328"/>
-      <c r="J38" s="329"/>
-      <c r="K38" s="310"/>
-      <c r="L38" s="310"/>
+      <c r="C38" s="332"/>
+      <c r="D38" s="333"/>
+      <c r="E38" s="333"/>
+      <c r="F38" s="333"/>
+      <c r="G38" s="333"/>
+      <c r="H38" s="333"/>
+      <c r="I38" s="333"/>
+      <c r="J38" s="334"/>
+      <c r="K38" s="315"/>
+      <c r="L38" s="315"/>
       <c r="M38" s="146" t="s">
         <v>49</v>
       </c>
@@ -11718,20 +11572,20 @@
     </row>
     <row r="39" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B39" s="3"/>
-      <c r="C39" s="324" t="s">
+      <c r="C39" s="329" t="s">
         <v>79</v>
       </c>
-      <c r="D39" s="325"/>
-      <c r="E39" s="325"/>
-      <c r="F39" s="325"/>
-      <c r="G39" s="325"/>
-      <c r="H39" s="325"/>
-      <c r="I39" s="325"/>
-      <c r="J39" s="326"/>
-      <c r="K39" s="309" t="s">
+      <c r="D39" s="330"/>
+      <c r="E39" s="330"/>
+      <c r="F39" s="330"/>
+      <c r="G39" s="330"/>
+      <c r="H39" s="330"/>
+      <c r="I39" s="330"/>
+      <c r="J39" s="331"/>
+      <c r="K39" s="314" t="s">
         <v>21</v>
       </c>
-      <c r="L39" s="309" t="s">
+      <c r="L39" s="314" t="s">
         <v>70</v>
       </c>
       <c r="M39" s="145" t="s">
@@ -11754,16 +11608,16 @@
     </row>
     <row r="40" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B40" s="3"/>
-      <c r="C40" s="327"/>
-      <c r="D40" s="328"/>
-      <c r="E40" s="328"/>
-      <c r="F40" s="328"/>
-      <c r="G40" s="328"/>
-      <c r="H40" s="328"/>
-      <c r="I40" s="328"/>
-      <c r="J40" s="329"/>
-      <c r="K40" s="310"/>
-      <c r="L40" s="310" t="s">
+      <c r="C40" s="332"/>
+      <c r="D40" s="333"/>
+      <c r="E40" s="333"/>
+      <c r="F40" s="333"/>
+      <c r="G40" s="333"/>
+      <c r="H40" s="333"/>
+      <c r="I40" s="333"/>
+      <c r="J40" s="334"/>
+      <c r="K40" s="315"/>
+      <c r="L40" s="315" t="s">
         <v>40</v>
       </c>
       <c r="M40" s="146" t="s">
@@ -11786,20 +11640,20 @@
     </row>
     <row r="41" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B41" s="3"/>
-      <c r="C41" s="324" t="s">
+      <c r="C41" s="329" t="s">
         <v>80</v>
       </c>
-      <c r="D41" s="325"/>
-      <c r="E41" s="325"/>
-      <c r="F41" s="325"/>
-      <c r="G41" s="325"/>
-      <c r="H41" s="325"/>
-      <c r="I41" s="325"/>
-      <c r="J41" s="326"/>
-      <c r="K41" s="309" t="s">
+      <c r="D41" s="330"/>
+      <c r="E41" s="330"/>
+      <c r="F41" s="330"/>
+      <c r="G41" s="330"/>
+      <c r="H41" s="330"/>
+      <c r="I41" s="330"/>
+      <c r="J41" s="331"/>
+      <c r="K41" s="314" t="s">
         <v>21</v>
       </c>
-      <c r="L41" s="309" t="s">
+      <c r="L41" s="314" t="s">
         <v>70</v>
       </c>
       <c r="M41" s="145" t="s">
@@ -11822,16 +11676,16 @@
     </row>
     <row r="42" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B42" s="3"/>
-      <c r="C42" s="327"/>
-      <c r="D42" s="328"/>
-      <c r="E42" s="328"/>
-      <c r="F42" s="328"/>
-      <c r="G42" s="328"/>
-      <c r="H42" s="328"/>
-      <c r="I42" s="328"/>
-      <c r="J42" s="329"/>
-      <c r="K42" s="310"/>
-      <c r="L42" s="310" t="s">
+      <c r="C42" s="332"/>
+      <c r="D42" s="333"/>
+      <c r="E42" s="333"/>
+      <c r="F42" s="333"/>
+      <c r="G42" s="333"/>
+      <c r="H42" s="333"/>
+      <c r="I42" s="333"/>
+      <c r="J42" s="334"/>
+      <c r="K42" s="315"/>
+      <c r="L42" s="315" t="s">
         <v>40</v>
       </c>
       <c r="M42" s="146" t="s">
@@ -12112,20 +11966,20 @@
     </row>
     <row r="29" spans="2:30" x14ac:dyDescent="0.15">
       <c r="B29" s="3"/>
-      <c r="C29" s="338" t="s">
+      <c r="C29" s="343" t="s">
         <v>81</v>
       </c>
-      <c r="D29" s="339"/>
-      <c r="E29" s="339"/>
-      <c r="F29" s="339"/>
-      <c r="G29" s="339"/>
-      <c r="H29" s="339"/>
-      <c r="I29" s="339"/>
-      <c r="J29" s="340"/>
-      <c r="K29" s="309" t="s">
+      <c r="D29" s="344"/>
+      <c r="E29" s="344"/>
+      <c r="F29" s="344"/>
+      <c r="G29" s="344"/>
+      <c r="H29" s="344"/>
+      <c r="I29" s="344"/>
+      <c r="J29" s="345"/>
+      <c r="K29" s="314" t="s">
         <v>119</v>
       </c>
-      <c r="L29" s="311">
+      <c r="L29" s="316">
         <v>1</v>
       </c>
       <c r="M29" s="45" t="s">
@@ -12151,16 +12005,16 @@
     </row>
     <row r="30" spans="2:30" x14ac:dyDescent="0.15">
       <c r="B30" s="3"/>
-      <c r="C30" s="321"/>
-      <c r="D30" s="322"/>
-      <c r="E30" s="322"/>
-      <c r="F30" s="322"/>
-      <c r="G30" s="322"/>
-      <c r="H30" s="322"/>
-      <c r="I30" s="322"/>
-      <c r="J30" s="323"/>
-      <c r="K30" s="330"/>
-      <c r="L30" s="331"/>
+      <c r="C30" s="326"/>
+      <c r="D30" s="327"/>
+      <c r="E30" s="327"/>
+      <c r="F30" s="327"/>
+      <c r="G30" s="327"/>
+      <c r="H30" s="327"/>
+      <c r="I30" s="327"/>
+      <c r="J30" s="328"/>
+      <c r="K30" s="335"/>
+      <c r="L30" s="336"/>
       <c r="M30" s="44" t="s">
         <v>49</v>
       </c>
@@ -12184,18 +12038,18 @@
     </row>
     <row r="31" spans="2:30" x14ac:dyDescent="0.15">
       <c r="B31" s="3"/>
-      <c r="C31" s="321"/>
-      <c r="D31" s="322"/>
-      <c r="E31" s="322"/>
-      <c r="F31" s="322"/>
-      <c r="G31" s="322"/>
-      <c r="H31" s="322"/>
-      <c r="I31" s="322"/>
-      <c r="J31" s="322"/>
-      <c r="K31" s="336" t="s">
+      <c r="C31" s="326"/>
+      <c r="D31" s="327"/>
+      <c r="E31" s="327"/>
+      <c r="F31" s="327"/>
+      <c r="G31" s="327"/>
+      <c r="H31" s="327"/>
+      <c r="I31" s="327"/>
+      <c r="J31" s="327"/>
+      <c r="K31" s="341" t="s">
         <v>120</v>
       </c>
-      <c r="L31" s="343">
+      <c r="L31" s="348">
         <v>1</v>
       </c>
       <c r="M31" s="45" t="s">
@@ -12221,16 +12075,16 @@
     </row>
     <row r="32" spans="2:30" x14ac:dyDescent="0.15">
       <c r="B32" s="3"/>
-      <c r="C32" s="321"/>
-      <c r="D32" s="322"/>
-      <c r="E32" s="322"/>
-      <c r="F32" s="322"/>
-      <c r="G32" s="322"/>
-      <c r="H32" s="322"/>
-      <c r="I32" s="322"/>
-      <c r="J32" s="322"/>
-      <c r="K32" s="336"/>
-      <c r="L32" s="344"/>
+      <c r="C32" s="326"/>
+      <c r="D32" s="327"/>
+      <c r="E32" s="327"/>
+      <c r="F32" s="327"/>
+      <c r="G32" s="327"/>
+      <c r="H32" s="327"/>
+      <c r="I32" s="327"/>
+      <c r="J32" s="327"/>
+      <c r="K32" s="341"/>
+      <c r="L32" s="349"/>
       <c r="M32" s="44" t="s">
         <v>49</v>
       </c>
@@ -12254,18 +12108,18 @@
     </row>
     <row r="33" spans="2:30" x14ac:dyDescent="0.15">
       <c r="B33" s="3"/>
-      <c r="C33" s="321"/>
-      <c r="D33" s="322"/>
-      <c r="E33" s="322"/>
-      <c r="F33" s="322"/>
-      <c r="G33" s="322"/>
-      <c r="H33" s="322"/>
-      <c r="I33" s="322"/>
-      <c r="J33" s="322"/>
-      <c r="K33" s="336" t="s">
+      <c r="C33" s="326"/>
+      <c r="D33" s="327"/>
+      <c r="E33" s="327"/>
+      <c r="F33" s="327"/>
+      <c r="G33" s="327"/>
+      <c r="H33" s="327"/>
+      <c r="I33" s="327"/>
+      <c r="J33" s="327"/>
+      <c r="K33" s="341" t="s">
         <v>121</v>
       </c>
-      <c r="L33" s="343">
+      <c r="L33" s="348">
         <v>1</v>
       </c>
       <c r="M33" s="45" t="s">
@@ -12291,16 +12145,16 @@
     </row>
     <row r="34" spans="2:30" x14ac:dyDescent="0.15">
       <c r="B34" s="3"/>
-      <c r="C34" s="321"/>
-      <c r="D34" s="322"/>
-      <c r="E34" s="322"/>
-      <c r="F34" s="322"/>
-      <c r="G34" s="322"/>
-      <c r="H34" s="322"/>
-      <c r="I34" s="322"/>
-      <c r="J34" s="322"/>
-      <c r="K34" s="336"/>
-      <c r="L34" s="344"/>
+      <c r="C34" s="326"/>
+      <c r="D34" s="327"/>
+      <c r="E34" s="327"/>
+      <c r="F34" s="327"/>
+      <c r="G34" s="327"/>
+      <c r="H34" s="327"/>
+      <c r="I34" s="327"/>
+      <c r="J34" s="327"/>
+      <c r="K34" s="341"/>
+      <c r="L34" s="349"/>
       <c r="M34" s="44" t="s">
         <v>49</v>
       </c>
@@ -12324,18 +12178,18 @@
     </row>
     <row r="35" spans="2:30" x14ac:dyDescent="0.15">
       <c r="B35" s="3"/>
-      <c r="C35" s="321"/>
-      <c r="D35" s="322"/>
-      <c r="E35" s="322"/>
-      <c r="F35" s="322"/>
-      <c r="G35" s="322"/>
-      <c r="H35" s="322"/>
-      <c r="I35" s="322"/>
-      <c r="J35" s="322"/>
-      <c r="K35" s="336" t="s">
+      <c r="C35" s="326"/>
+      <c r="D35" s="327"/>
+      <c r="E35" s="327"/>
+      <c r="F35" s="327"/>
+      <c r="G35" s="327"/>
+      <c r="H35" s="327"/>
+      <c r="I35" s="327"/>
+      <c r="J35" s="327"/>
+      <c r="K35" s="341" t="s">
         <v>122</v>
       </c>
-      <c r="L35" s="343">
+      <c r="L35" s="348">
         <v>1</v>
       </c>
       <c r="M35" s="45" t="s">
@@ -12361,16 +12215,16 @@
     </row>
     <row r="36" spans="2:30" x14ac:dyDescent="0.15">
       <c r="B36" s="3"/>
-      <c r="C36" s="341"/>
-      <c r="D36" s="342"/>
-      <c r="E36" s="342"/>
-      <c r="F36" s="342"/>
-      <c r="G36" s="342"/>
-      <c r="H36" s="342"/>
-      <c r="I36" s="342"/>
-      <c r="J36" s="342"/>
-      <c r="K36" s="336"/>
-      <c r="L36" s="344"/>
+      <c r="C36" s="346"/>
+      <c r="D36" s="347"/>
+      <c r="E36" s="347"/>
+      <c r="F36" s="347"/>
+      <c r="G36" s="347"/>
+      <c r="H36" s="347"/>
+      <c r="I36" s="347"/>
+      <c r="J36" s="347"/>
+      <c r="K36" s="341"/>
+      <c r="L36" s="349"/>
       <c r="M36" s="44" t="s">
         <v>49</v>
       </c>
@@ -12425,20 +12279,20 @@
     </row>
     <row r="38" spans="2:30" x14ac:dyDescent="0.15">
       <c r="B38" s="3"/>
-      <c r="C38" s="332" t="s">
+      <c r="C38" s="337" t="s">
         <v>73</v>
       </c>
-      <c r="D38" s="333"/>
-      <c r="E38" s="333"/>
-      <c r="F38" s="333"/>
-      <c r="G38" s="333"/>
-      <c r="H38" s="333"/>
-      <c r="I38" s="333"/>
-      <c r="J38" s="333"/>
-      <c r="K38" s="336" t="s">
+      <c r="D38" s="338"/>
+      <c r="E38" s="338"/>
+      <c r="F38" s="338"/>
+      <c r="G38" s="338"/>
+      <c r="H38" s="338"/>
+      <c r="I38" s="338"/>
+      <c r="J38" s="338"/>
+      <c r="K38" s="341" t="s">
         <v>21</v>
       </c>
-      <c r="L38" s="337">
+      <c r="L38" s="342">
         <v>1</v>
       </c>
       <c r="M38" s="162" t="s">
@@ -12464,18 +12318,18 @@
     </row>
     <row r="39" spans="2:30" x14ac:dyDescent="0.15">
       <c r="B39" s="3"/>
-      <c r="C39" s="334"/>
-      <c r="D39" s="335"/>
-      <c r="E39" s="335"/>
-      <c r="F39" s="335"/>
-      <c r="G39" s="335"/>
-      <c r="H39" s="335"/>
-      <c r="I39" s="335"/>
-      <c r="J39" s="335"/>
-      <c r="K39" s="336" t="s">
+      <c r="C39" s="339"/>
+      <c r="D39" s="340"/>
+      <c r="E39" s="340"/>
+      <c r="F39" s="340"/>
+      <c r="G39" s="340"/>
+      <c r="H39" s="340"/>
+      <c r="I39" s="340"/>
+      <c r="J39" s="340"/>
+      <c r="K39" s="341" t="s">
         <v>21</v>
       </c>
-      <c r="L39" s="336"/>
+      <c r="L39" s="341"/>
       <c r="M39" s="163" t="s">
         <v>49</v>
       </c>
@@ -12499,20 +12353,20 @@
     </row>
     <row r="40" spans="2:30" x14ac:dyDescent="0.15">
       <c r="B40" s="3"/>
-      <c r="C40" s="332" t="s">
+      <c r="C40" s="337" t="s">
         <v>82</v>
       </c>
-      <c r="D40" s="333"/>
-      <c r="E40" s="333"/>
-      <c r="F40" s="333"/>
-      <c r="G40" s="333"/>
-      <c r="H40" s="333"/>
-      <c r="I40" s="333"/>
-      <c r="J40" s="345"/>
-      <c r="K40" s="330" t="s">
+      <c r="D40" s="338"/>
+      <c r="E40" s="338"/>
+      <c r="F40" s="338"/>
+      <c r="G40" s="338"/>
+      <c r="H40" s="338"/>
+      <c r="I40" s="338"/>
+      <c r="J40" s="350"/>
+      <c r="K40" s="335" t="s">
         <v>21</v>
       </c>
-      <c r="L40" s="347">
+      <c r="L40" s="352">
         <v>1</v>
       </c>
       <c r="M40" s="45" t="s">
@@ -12538,18 +12392,18 @@
     </row>
     <row r="41" spans="2:30" x14ac:dyDescent="0.15">
       <c r="B41" s="3"/>
-      <c r="C41" s="334"/>
-      <c r="D41" s="335"/>
-      <c r="E41" s="335"/>
-      <c r="F41" s="335"/>
-      <c r="G41" s="335"/>
-      <c r="H41" s="335"/>
-      <c r="I41" s="335"/>
-      <c r="J41" s="346"/>
-      <c r="K41" s="310" t="s">
+      <c r="C41" s="339"/>
+      <c r="D41" s="340"/>
+      <c r="E41" s="340"/>
+      <c r="F41" s="340"/>
+      <c r="G41" s="340"/>
+      <c r="H41" s="340"/>
+      <c r="I41" s="340"/>
+      <c r="J41" s="351"/>
+      <c r="K41" s="315" t="s">
         <v>21</v>
       </c>
-      <c r="L41" s="312"/>
+      <c r="L41" s="317"/>
       <c r="M41" s="44" t="s">
         <v>49</v>
       </c>
@@ -12573,20 +12427,20 @@
     </row>
     <row r="42" spans="2:30" x14ac:dyDescent="0.15">
       <c r="B42" s="3"/>
-      <c r="C42" s="332" t="s">
+      <c r="C42" s="337" t="s">
         <v>83</v>
       </c>
-      <c r="D42" s="333"/>
-      <c r="E42" s="333"/>
-      <c r="F42" s="333"/>
-      <c r="G42" s="333"/>
-      <c r="H42" s="333"/>
-      <c r="I42" s="333"/>
-      <c r="J42" s="345"/>
-      <c r="K42" s="309" t="s">
+      <c r="D42" s="338"/>
+      <c r="E42" s="338"/>
+      <c r="F42" s="338"/>
+      <c r="G42" s="338"/>
+      <c r="H42" s="338"/>
+      <c r="I42" s="338"/>
+      <c r="J42" s="350"/>
+      <c r="K42" s="314" t="s">
         <v>21</v>
       </c>
-      <c r="L42" s="311">
+      <c r="L42" s="316">
         <v>1</v>
       </c>
       <c r="M42" s="45" t="s">
@@ -12612,18 +12466,18 @@
     </row>
     <row r="43" spans="2:30" x14ac:dyDescent="0.15">
       <c r="B43" s="3"/>
-      <c r="C43" s="334"/>
-      <c r="D43" s="335"/>
-      <c r="E43" s="335"/>
-      <c r="F43" s="335"/>
-      <c r="G43" s="335"/>
-      <c r="H43" s="335"/>
-      <c r="I43" s="335"/>
-      <c r="J43" s="346"/>
-      <c r="K43" s="310" t="s">
+      <c r="C43" s="339"/>
+      <c r="D43" s="340"/>
+      <c r="E43" s="340"/>
+      <c r="F43" s="340"/>
+      <c r="G43" s="340"/>
+      <c r="H43" s="340"/>
+      <c r="I43" s="340"/>
+      <c r="J43" s="351"/>
+      <c r="K43" s="315" t="s">
         <v>21</v>
       </c>
-      <c r="L43" s="312"/>
+      <c r="L43" s="317"/>
       <c r="M43" s="44" t="s">
         <v>49</v>
       </c>
@@ -12647,20 +12501,20 @@
     </row>
     <row r="44" spans="2:30" x14ac:dyDescent="0.15">
       <c r="B44" s="3"/>
-      <c r="C44" s="332" t="s">
+      <c r="C44" s="337" t="s">
         <v>84</v>
       </c>
-      <c r="D44" s="333"/>
-      <c r="E44" s="333"/>
-      <c r="F44" s="333"/>
-      <c r="G44" s="333"/>
-      <c r="H44" s="333"/>
-      <c r="I44" s="333"/>
-      <c r="J44" s="345"/>
-      <c r="K44" s="309" t="s">
+      <c r="D44" s="338"/>
+      <c r="E44" s="338"/>
+      <c r="F44" s="338"/>
+      <c r="G44" s="338"/>
+      <c r="H44" s="338"/>
+      <c r="I44" s="338"/>
+      <c r="J44" s="350"/>
+      <c r="K44" s="314" t="s">
         <v>21</v>
       </c>
-      <c r="L44" s="311">
+      <c r="L44" s="316">
         <v>1</v>
       </c>
       <c r="M44" s="45" t="s">
@@ -12686,18 +12540,18 @@
     </row>
     <row r="45" spans="2:30" x14ac:dyDescent="0.15">
       <c r="B45" s="3"/>
-      <c r="C45" s="334"/>
-      <c r="D45" s="335"/>
-      <c r="E45" s="335"/>
-      <c r="F45" s="335"/>
-      <c r="G45" s="335"/>
-      <c r="H45" s="335"/>
-      <c r="I45" s="335"/>
-      <c r="J45" s="346"/>
-      <c r="K45" s="310" t="s">
+      <c r="C45" s="339"/>
+      <c r="D45" s="340"/>
+      <c r="E45" s="340"/>
+      <c r="F45" s="340"/>
+      <c r="G45" s="340"/>
+      <c r="H45" s="340"/>
+      <c r="I45" s="340"/>
+      <c r="J45" s="351"/>
+      <c r="K45" s="315" t="s">
         <v>21</v>
       </c>
-      <c r="L45" s="312"/>
+      <c r="L45" s="317"/>
       <c r="M45" s="44" t="s">
         <v>49</v>
       </c>
@@ -12806,8 +12660,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B23:CN68"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="M24" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AI29" sqref="AI29"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="AD24" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AN26" sqref="AN26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.875" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
@@ -12902,7 +12756,7 @@
       <c r="T24" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="U24" s="365"/>
+      <c r="U24" s="253"/>
       <c r="V24" s="1" t="s">
         <v>179</v>
       </c>
@@ -12984,18 +12838,18 @@
       <c r="H25" s="100"/>
       <c r="I25" s="100"/>
       <c r="J25" s="100"/>
-      <c r="K25" s="351" t="s">
+      <c r="K25" s="356" t="s">
         <v>3</v>
       </c>
-      <c r="L25" s="252"/>
-      <c r="M25" s="366" t="s">
+      <c r="L25" s="249"/>
+      <c r="M25" s="359" t="s">
         <v>180</v>
       </c>
-      <c r="N25" s="366" t="s">
+      <c r="N25" s="359" t="s">
         <v>181</v>
       </c>
-      <c r="O25" s="369"/>
-      <c r="P25" s="354" t="s">
+      <c r="O25" s="254"/>
+      <c r="P25" s="362" t="s">
         <v>47</v>
       </c>
       <c r="Q25" s="101">
@@ -13087,14 +12941,14 @@
       <c r="H26" s="171"/>
       <c r="I26" s="171"/>
       <c r="J26" s="171"/>
-      <c r="K26" s="352"/>
-      <c r="L26" s="254" t="s">
+      <c r="K26" s="357"/>
+      <c r="L26" s="251" t="s">
         <v>154</v>
       </c>
-      <c r="M26" s="367"/>
-      <c r="N26" s="367"/>
-      <c r="O26" s="370"/>
-      <c r="P26" s="355"/>
+      <c r="M26" s="360"/>
+      <c r="N26" s="360"/>
+      <c r="O26" s="255"/>
+      <c r="P26" s="363"/>
       <c r="Q26" s="99" t="s">
         <v>123</v>
       </c>
@@ -13184,12 +13038,12 @@
       <c r="H27" s="90"/>
       <c r="I27" s="90"/>
       <c r="J27" s="90"/>
-      <c r="K27" s="353"/>
-      <c r="L27" s="253"/>
-      <c r="M27" s="368"/>
-      <c r="N27" s="368"/>
-      <c r="O27" s="371"/>
-      <c r="P27" s="356"/>
+      <c r="K27" s="358"/>
+      <c r="L27" s="250"/>
+      <c r="M27" s="361"/>
+      <c r="N27" s="361"/>
+      <c r="O27" s="256"/>
+      <c r="P27" s="364"/>
       <c r="Q27" s="84">
         <v>17</v>
       </c>
@@ -13430,7 +13284,7 @@
       <c r="AH29" s="96"/>
       <c r="AI29" s="96">
         <f>SUM(O30:O67)</f>
-        <v>710</v>
+        <v>1235</v>
       </c>
       <c r="AJ29" s="96"/>
       <c r="AK29" s="96"/>
@@ -13492,29 +13346,29 @@
     </row>
     <row r="30" spans="2:92" s="85" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B30" s="126"/>
-      <c r="C30" s="348" t="s">
+      <c r="C30" s="353" t="s">
         <v>145</v>
       </c>
-      <c r="D30" s="333"/>
-      <c r="E30" s="333"/>
-      <c r="F30" s="333"/>
-      <c r="G30" s="333"/>
-      <c r="H30" s="333"/>
-      <c r="I30" s="333"/>
-      <c r="J30" s="345"/>
-      <c r="K30" s="309" t="s">
+      <c r="D30" s="338"/>
+      <c r="E30" s="338"/>
+      <c r="F30" s="338"/>
+      <c r="G30" s="338"/>
+      <c r="H30" s="338"/>
+      <c r="I30" s="338"/>
+      <c r="J30" s="350"/>
+      <c r="K30" s="314" t="s">
         <v>158</v>
       </c>
-      <c r="L30" s="349" t="s">
+      <c r="L30" s="354" t="s">
         <v>155</v>
       </c>
-      <c r="M30" s="313" t="s">
+      <c r="M30" s="318" t="s">
         <v>40</v>
       </c>
-      <c r="N30" s="313" t="s">
+      <c r="N30" s="318" t="s">
         <v>40</v>
       </c>
-      <c r="O30" s="349">
+      <c r="O30" s="354">
         <v>100</v>
       </c>
       <c r="P30" s="145" t="s">
@@ -13522,10 +13376,10 @@
       </c>
       <c r="Q30" s="46"/>
       <c r="R30" s="46"/>
-      <c r="S30" s="239"/>
+      <c r="S30" s="237"/>
       <c r="T30" s="179"/>
       <c r="U30" s="95"/>
-      <c r="V30" s="365"/>
+      <c r="V30" s="95"/>
       <c r="W30" s="95"/>
       <c r="X30" s="95"/>
       <c r="Y30" s="173"/>
@@ -13538,9 +13392,9 @@
       <c r="AF30" s="96"/>
       <c r="AG30" s="96"/>
       <c r="AH30" s="96"/>
-      <c r="AI30" s="372">
+      <c r="AI30" s="257">
         <f>SUM(O30:O67)/1900</f>
-        <v>0.37368421052631579</v>
+        <v>0.65</v>
       </c>
       <c r="AJ30" s="96"/>
       <c r="AK30" s="96"/>
@@ -13602,28 +13456,28 @@
     </row>
     <row r="31" spans="2:92" x14ac:dyDescent="0.15">
       <c r="B31" s="122"/>
-      <c r="C31" s="335"/>
-      <c r="D31" s="335"/>
-      <c r="E31" s="335"/>
-      <c r="F31" s="335"/>
-      <c r="G31" s="335"/>
-      <c r="H31" s="335"/>
-      <c r="I31" s="335"/>
-      <c r="J31" s="346"/>
-      <c r="K31" s="310"/>
-      <c r="L31" s="350"/>
-      <c r="M31" s="310"/>
-      <c r="N31" s="310"/>
-      <c r="O31" s="350"/>
+      <c r="C31" s="340"/>
+      <c r="D31" s="340"/>
+      <c r="E31" s="340"/>
+      <c r="F31" s="340"/>
+      <c r="G31" s="340"/>
+      <c r="H31" s="340"/>
+      <c r="I31" s="340"/>
+      <c r="J31" s="351"/>
+      <c r="K31" s="315"/>
+      <c r="L31" s="355"/>
+      <c r="M31" s="315"/>
+      <c r="N31" s="315"/>
+      <c r="O31" s="355"/>
       <c r="P31" s="146" t="s">
         <v>49</v>
       </c>
-      <c r="Q31" s="245"/>
+      <c r="Q31" s="243"/>
       <c r="R31" s="47"/>
       <c r="S31" s="183"/>
       <c r="T31" s="184"/>
       <c r="U31" s="28"/>
-      <c r="V31" s="28"/>
+      <c r="V31" s="253"/>
       <c r="W31" s="28"/>
       <c r="X31" s="28"/>
       <c r="Y31" s="175"/>
@@ -13697,30 +13551,30 @@
     </row>
     <row r="32" spans="2:92" x14ac:dyDescent="0.15">
       <c r="B32" s="122"/>
-      <c r="C32" s="348" t="s">
+      <c r="C32" s="353" t="s">
         <v>146</v>
       </c>
-      <c r="D32" s="333"/>
-      <c r="E32" s="333"/>
-      <c r="F32" s="333"/>
-      <c r="G32" s="333"/>
-      <c r="H32" s="333"/>
-      <c r="I32" s="333"/>
-      <c r="J32" s="345"/>
-      <c r="K32" s="349" t="s">
+      <c r="D32" s="338"/>
+      <c r="E32" s="338"/>
+      <c r="F32" s="338"/>
+      <c r="G32" s="338"/>
+      <c r="H32" s="338"/>
+      <c r="I32" s="338"/>
+      <c r="J32" s="350"/>
+      <c r="K32" s="354" t="s">
         <v>156</v>
       </c>
-      <c r="L32" s="349" t="s">
+      <c r="L32" s="354" t="s">
         <v>157</v>
       </c>
-      <c r="M32" s="313" t="s">
+      <c r="M32" s="318" t="s">
         <v>40</v>
       </c>
-      <c r="N32" s="313" t="s">
-        <v>174</v>
-      </c>
-      <c r="O32" s="349">
-        <v>80</v>
+      <c r="N32" s="318" t="s">
+        <v>40</v>
+      </c>
+      <c r="O32" s="354">
+        <v>100</v>
       </c>
       <c r="P32" s="145" t="s">
         <v>48</v>
@@ -13730,7 +13584,7 @@
       <c r="S32" s="181"/>
       <c r="T32" s="182"/>
       <c r="U32" s="24"/>
-      <c r="V32" s="365"/>
+      <c r="V32" s="24"/>
       <c r="W32" s="24"/>
       <c r="X32" s="24"/>
       <c r="Y32" s="174"/>
@@ -13804,29 +13658,29 @@
     </row>
     <row r="33" spans="2:92" x14ac:dyDescent="0.15">
       <c r="B33" s="122"/>
-      <c r="C33" s="335"/>
-      <c r="D33" s="335"/>
-      <c r="E33" s="335"/>
-      <c r="F33" s="335"/>
-      <c r="G33" s="335"/>
-      <c r="H33" s="335"/>
-      <c r="I33" s="335"/>
-      <c r="J33" s="346"/>
-      <c r="K33" s="350"/>
-      <c r="L33" s="350"/>
-      <c r="M33" s="310"/>
-      <c r="N33" s="310"/>
-      <c r="O33" s="350"/>
+      <c r="C33" s="340"/>
+      <c r="D33" s="340"/>
+      <c r="E33" s="340"/>
+      <c r="F33" s="340"/>
+      <c r="G33" s="340"/>
+      <c r="H33" s="340"/>
+      <c r="I33" s="340"/>
+      <c r="J33" s="351"/>
+      <c r="K33" s="355"/>
+      <c r="L33" s="355"/>
+      <c r="M33" s="315"/>
+      <c r="N33" s="315"/>
+      <c r="O33" s="355"/>
       <c r="P33" s="146" t="s">
         <v>49</v>
       </c>
-      <c r="Q33" s="245"/>
+      <c r="Q33" s="243"/>
       <c r="R33" s="47"/>
       <c r="S33" s="183"/>
       <c r="T33" s="184"/>
       <c r="U33" s="28"/>
-      <c r="V33" s="28"/>
-      <c r="W33" s="28"/>
+      <c r="V33" s="253"/>
+      <c r="W33" s="253"/>
       <c r="X33" s="28"/>
       <c r="Y33" s="175"/>
       <c r="Z33" s="27"/>
@@ -13899,29 +13753,29 @@
     </row>
     <row r="34" spans="2:92" x14ac:dyDescent="0.15">
       <c r="B34" s="122"/>
-      <c r="C34" s="348" t="s">
+      <c r="C34" s="353" t="s">
         <v>150</v>
       </c>
-      <c r="D34" s="333"/>
-      <c r="E34" s="333"/>
-      <c r="F34" s="333"/>
-      <c r="G34" s="333"/>
-      <c r="H34" s="333"/>
-      <c r="I34" s="333"/>
-      <c r="J34" s="345"/>
-      <c r="K34" s="349" t="s">
+      <c r="D34" s="338"/>
+      <c r="E34" s="338"/>
+      <c r="F34" s="338"/>
+      <c r="G34" s="338"/>
+      <c r="H34" s="338"/>
+      <c r="I34" s="338"/>
+      <c r="J34" s="350"/>
+      <c r="K34" s="354" t="s">
         <v>157</v>
       </c>
-      <c r="L34" s="349" t="s">
+      <c r="L34" s="354" t="s">
         <v>155</v>
       </c>
-      <c r="M34" s="313" t="s">
+      <c r="M34" s="318" t="s">
         <v>40</v>
       </c>
-      <c r="N34" s="313" t="s">
+      <c r="N34" s="318" t="s">
         <v>40</v>
       </c>
-      <c r="O34" s="349">
+      <c r="O34" s="354">
         <v>100</v>
       </c>
       <c r="P34" s="145" t="s">
@@ -13932,7 +13786,7 @@
       <c r="S34" s="181"/>
       <c r="T34" s="182"/>
       <c r="U34" s="24"/>
-      <c r="V34" s="365"/>
+      <c r="V34" s="24"/>
       <c r="W34" s="24"/>
       <c r="X34" s="24"/>
       <c r="Y34" s="174"/>
@@ -14006,28 +13860,28 @@
     </row>
     <row r="35" spans="2:92" x14ac:dyDescent="0.15">
       <c r="B35" s="122"/>
-      <c r="C35" s="335"/>
-      <c r="D35" s="335"/>
-      <c r="E35" s="335"/>
-      <c r="F35" s="335"/>
-      <c r="G35" s="335"/>
-      <c r="H35" s="335"/>
-      <c r="I35" s="335"/>
-      <c r="J35" s="346"/>
-      <c r="K35" s="350"/>
-      <c r="L35" s="350"/>
-      <c r="M35" s="310"/>
-      <c r="N35" s="310"/>
-      <c r="O35" s="350"/>
+      <c r="C35" s="340"/>
+      <c r="D35" s="340"/>
+      <c r="E35" s="340"/>
+      <c r="F35" s="340"/>
+      <c r="G35" s="340"/>
+      <c r="H35" s="340"/>
+      <c r="I35" s="340"/>
+      <c r="J35" s="351"/>
+      <c r="K35" s="355"/>
+      <c r="L35" s="355"/>
+      <c r="M35" s="315"/>
+      <c r="N35" s="315"/>
+      <c r="O35" s="355"/>
       <c r="P35" s="146" t="s">
         <v>49</v>
       </c>
-      <c r="Q35" s="245"/>
+      <c r="Q35" s="243"/>
       <c r="R35" s="47"/>
       <c r="S35" s="183"/>
       <c r="T35" s="184"/>
       <c r="U35" s="28"/>
-      <c r="V35" s="28"/>
+      <c r="V35" s="253"/>
       <c r="W35" s="28"/>
       <c r="X35" s="28"/>
       <c r="Y35" s="175"/>
@@ -14101,29 +13955,29 @@
     </row>
     <row r="36" spans="2:92" x14ac:dyDescent="0.15">
       <c r="B36" s="122"/>
-      <c r="C36" s="348" t="s">
+      <c r="C36" s="353" t="s">
         <v>151</v>
       </c>
-      <c r="D36" s="333"/>
-      <c r="E36" s="333"/>
-      <c r="F36" s="333"/>
-      <c r="G36" s="333"/>
-      <c r="H36" s="333"/>
-      <c r="I36" s="333"/>
-      <c r="J36" s="345"/>
-      <c r="K36" s="309" t="s">
+      <c r="D36" s="338"/>
+      <c r="E36" s="338"/>
+      <c r="F36" s="338"/>
+      <c r="G36" s="338"/>
+      <c r="H36" s="338"/>
+      <c r="I36" s="338"/>
+      <c r="J36" s="350"/>
+      <c r="K36" s="314" t="s">
         <v>159</v>
       </c>
-      <c r="L36" s="309" t="s">
+      <c r="L36" s="314" t="s">
         <v>158</v>
       </c>
-      <c r="M36" s="313" t="s">
+      <c r="M36" s="318" t="s">
         <v>40</v>
       </c>
-      <c r="N36" s="313" t="s">
+      <c r="N36" s="318" t="s">
         <v>174</v>
       </c>
-      <c r="O36" s="349">
+      <c r="O36" s="354">
         <v>80</v>
       </c>
       <c r="P36" s="145" t="s">
@@ -14134,7 +13988,7 @@
       <c r="S36" s="181"/>
       <c r="T36" s="182"/>
       <c r="U36" s="24"/>
-      <c r="V36" s="365"/>
+      <c r="V36" s="24"/>
       <c r="W36" s="24"/>
       <c r="X36" s="24"/>
       <c r="Y36" s="174"/>
@@ -14208,28 +14062,28 @@
     </row>
     <row r="37" spans="2:92" x14ac:dyDescent="0.15">
       <c r="B37" s="122"/>
-      <c r="C37" s="335"/>
-      <c r="D37" s="335"/>
-      <c r="E37" s="335"/>
-      <c r="F37" s="335"/>
-      <c r="G37" s="335"/>
-      <c r="H37" s="335"/>
-      <c r="I37" s="335"/>
-      <c r="J37" s="346"/>
-      <c r="K37" s="310"/>
-      <c r="L37" s="310"/>
-      <c r="M37" s="310"/>
-      <c r="N37" s="310"/>
-      <c r="O37" s="350"/>
+      <c r="C37" s="340"/>
+      <c r="D37" s="340"/>
+      <c r="E37" s="340"/>
+      <c r="F37" s="340"/>
+      <c r="G37" s="340"/>
+      <c r="H37" s="340"/>
+      <c r="I37" s="340"/>
+      <c r="J37" s="351"/>
+      <c r="K37" s="315"/>
+      <c r="L37" s="315"/>
+      <c r="M37" s="315"/>
+      <c r="N37" s="315"/>
+      <c r="O37" s="355"/>
       <c r="P37" s="146" t="s">
         <v>49</v>
       </c>
-      <c r="Q37" s="245"/>
+      <c r="Q37" s="243"/>
       <c r="R37" s="47"/>
       <c r="S37" s="183"/>
       <c r="T37" s="184"/>
       <c r="U37" s="28"/>
-      <c r="V37" s="28"/>
+      <c r="V37" s="253"/>
       <c r="W37" s="28"/>
       <c r="X37" s="28"/>
       <c r="Y37" s="175"/>
@@ -14303,27 +14157,31 @@
     </row>
     <row r="38" spans="2:92" x14ac:dyDescent="0.15">
       <c r="B38" s="122"/>
-      <c r="C38" s="348" t="s">
+      <c r="C38" s="353" t="s">
         <v>152</v>
       </c>
-      <c r="D38" s="333"/>
-      <c r="E38" s="333"/>
-      <c r="F38" s="333"/>
-      <c r="G38" s="333"/>
-      <c r="H38" s="333"/>
-      <c r="I38" s="333"/>
-      <c r="J38" s="345"/>
-      <c r="K38" s="349" t="s">
+      <c r="D38" s="338"/>
+      <c r="E38" s="338"/>
+      <c r="F38" s="338"/>
+      <c r="G38" s="338"/>
+      <c r="H38" s="338"/>
+      <c r="I38" s="338"/>
+      <c r="J38" s="350"/>
+      <c r="K38" s="354" t="s">
         <v>155</v>
       </c>
-      <c r="L38" s="309" t="s">
+      <c r="L38" s="314" t="s">
         <v>158</v>
       </c>
-      <c r="M38" s="313" t="s">
+      <c r="M38" s="318" t="s">
         <v>40</v>
       </c>
-      <c r="N38" s="313"/>
-      <c r="O38" s="349"/>
+      <c r="N38" s="318" t="s">
+        <v>174</v>
+      </c>
+      <c r="O38" s="354">
+        <v>80</v>
+      </c>
       <c r="P38" s="145" t="s">
         <v>48</v>
       </c>
@@ -14406,29 +14264,29 @@
     </row>
     <row r="39" spans="2:92" x14ac:dyDescent="0.15">
       <c r="B39" s="122"/>
-      <c r="C39" s="335"/>
-      <c r="D39" s="335"/>
-      <c r="E39" s="335"/>
-      <c r="F39" s="335"/>
-      <c r="G39" s="335"/>
-      <c r="H39" s="335"/>
-      <c r="I39" s="335"/>
-      <c r="J39" s="346"/>
-      <c r="K39" s="350"/>
-      <c r="L39" s="310"/>
-      <c r="M39" s="310"/>
-      <c r="N39" s="310"/>
-      <c r="O39" s="350"/>
+      <c r="C39" s="340"/>
+      <c r="D39" s="340"/>
+      <c r="E39" s="340"/>
+      <c r="F39" s="340"/>
+      <c r="G39" s="340"/>
+      <c r="H39" s="340"/>
+      <c r="I39" s="340"/>
+      <c r="J39" s="351"/>
+      <c r="K39" s="355"/>
+      <c r="L39" s="315"/>
+      <c r="M39" s="315"/>
+      <c r="N39" s="315"/>
+      <c r="O39" s="355"/>
       <c r="P39" s="146" t="s">
         <v>49</v>
       </c>
-      <c r="Q39" s="245"/>
+      <c r="Q39" s="243"/>
       <c r="R39" s="47"/>
       <c r="S39" s="183"/>
       <c r="T39" s="184"/>
       <c r="U39" s="28"/>
       <c r="V39" s="28"/>
-      <c r="W39" s="28"/>
+      <c r="W39" s="253"/>
       <c r="X39" s="28"/>
       <c r="Y39" s="175"/>
       <c r="Z39" s="27"/>
@@ -14501,30 +14359,30 @@
     </row>
     <row r="40" spans="2:92" x14ac:dyDescent="0.15">
       <c r="B40" s="122"/>
-      <c r="C40" s="348" t="s">
+      <c r="C40" s="353" t="s">
         <v>153</v>
       </c>
-      <c r="D40" s="333"/>
-      <c r="E40" s="333"/>
-      <c r="F40" s="333"/>
-      <c r="G40" s="333"/>
-      <c r="H40" s="333"/>
-      <c r="I40" s="333"/>
-      <c r="J40" s="345"/>
-      <c r="K40" s="309" t="s">
+      <c r="D40" s="338"/>
+      <c r="E40" s="338"/>
+      <c r="F40" s="338"/>
+      <c r="G40" s="338"/>
+      <c r="H40" s="338"/>
+      <c r="I40" s="338"/>
+      <c r="J40" s="350"/>
+      <c r="K40" s="314" t="s">
         <v>160</v>
       </c>
-      <c r="L40" s="309" t="s">
+      <c r="L40" s="314" t="s">
         <v>158</v>
       </c>
-      <c r="M40" s="313" t="s">
+      <c r="M40" s="318" t="s">
         <v>40</v>
       </c>
-      <c r="N40" s="313" t="s">
+      <c r="N40" s="318" t="s">
         <v>174</v>
       </c>
-      <c r="O40" s="349">
-        <v>60</v>
+      <c r="O40" s="354">
+        <v>80</v>
       </c>
       <c r="P40" s="145" t="s">
         <v>48</v>
@@ -14608,29 +14466,29 @@
     </row>
     <row r="41" spans="2:92" x14ac:dyDescent="0.15">
       <c r="B41" s="122"/>
-      <c r="C41" s="335"/>
-      <c r="D41" s="335"/>
-      <c r="E41" s="335"/>
-      <c r="F41" s="335"/>
-      <c r="G41" s="335"/>
-      <c r="H41" s="335"/>
-      <c r="I41" s="335"/>
-      <c r="J41" s="346"/>
-      <c r="K41" s="310"/>
-      <c r="L41" s="310"/>
-      <c r="M41" s="310"/>
-      <c r="N41" s="310"/>
-      <c r="O41" s="350"/>
+      <c r="C41" s="340"/>
+      <c r="D41" s="340"/>
+      <c r="E41" s="340"/>
+      <c r="F41" s="340"/>
+      <c r="G41" s="340"/>
+      <c r="H41" s="340"/>
+      <c r="I41" s="340"/>
+      <c r="J41" s="351"/>
+      <c r="K41" s="315"/>
+      <c r="L41" s="315"/>
+      <c r="M41" s="315"/>
+      <c r="N41" s="315"/>
+      <c r="O41" s="355"/>
       <c r="P41" s="146" t="s">
         <v>49</v>
       </c>
-      <c r="Q41" s="245"/>
+      <c r="Q41" s="243"/>
       <c r="R41" s="47"/>
       <c r="S41" s="183"/>
       <c r="T41" s="184"/>
       <c r="U41" s="28"/>
-      <c r="V41" s="28"/>
-      <c r="W41" s="28"/>
+      <c r="V41" s="253"/>
+      <c r="W41" s="253"/>
       <c r="X41" s="28"/>
       <c r="Y41" s="175"/>
       <c r="Z41" s="27"/>
@@ -14703,29 +14561,29 @@
     </row>
     <row r="42" spans="2:92" x14ac:dyDescent="0.15">
       <c r="B42" s="122"/>
-      <c r="C42" s="348" t="s">
+      <c r="C42" s="353" t="s">
         <v>161</v>
       </c>
-      <c r="D42" s="333"/>
-      <c r="E42" s="333"/>
-      <c r="F42" s="333"/>
-      <c r="G42" s="333"/>
-      <c r="H42" s="333"/>
-      <c r="I42" s="333"/>
-      <c r="J42" s="345"/>
-      <c r="K42" s="309" t="s">
+      <c r="D42" s="338"/>
+      <c r="E42" s="338"/>
+      <c r="F42" s="338"/>
+      <c r="G42" s="338"/>
+      <c r="H42" s="338"/>
+      <c r="I42" s="338"/>
+      <c r="J42" s="350"/>
+      <c r="K42" s="314" t="s">
         <v>159</v>
       </c>
-      <c r="L42" s="309" t="s">
+      <c r="L42" s="314" t="s">
         <v>159</v>
       </c>
-      <c r="M42" s="313" t="s">
+      <c r="M42" s="318" t="s">
         <v>40</v>
       </c>
-      <c r="N42" s="313" t="s">
+      <c r="N42" s="318" t="s">
         <v>174</v>
       </c>
-      <c r="O42" s="349">
+      <c r="O42" s="354">
         <v>80</v>
       </c>
       <c r="P42" s="145" t="s">
@@ -14736,7 +14594,7 @@
       <c r="S42" s="181"/>
       <c r="T42" s="182"/>
       <c r="U42" s="24"/>
-      <c r="V42" s="365"/>
+      <c r="V42" s="24"/>
       <c r="W42" s="24"/>
       <c r="X42" s="24"/>
       <c r="Y42" s="174"/>
@@ -14810,28 +14668,28 @@
     </row>
     <row r="43" spans="2:92" x14ac:dyDescent="0.15">
       <c r="B43" s="122"/>
-      <c r="C43" s="335"/>
-      <c r="D43" s="335"/>
-      <c r="E43" s="335"/>
-      <c r="F43" s="335"/>
-      <c r="G43" s="335"/>
-      <c r="H43" s="335"/>
-      <c r="I43" s="335"/>
-      <c r="J43" s="346"/>
-      <c r="K43" s="310"/>
-      <c r="L43" s="310"/>
-      <c r="M43" s="310"/>
-      <c r="N43" s="310"/>
-      <c r="O43" s="350"/>
+      <c r="C43" s="340"/>
+      <c r="D43" s="340"/>
+      <c r="E43" s="340"/>
+      <c r="F43" s="340"/>
+      <c r="G43" s="340"/>
+      <c r="H43" s="340"/>
+      <c r="I43" s="340"/>
+      <c r="J43" s="351"/>
+      <c r="K43" s="315"/>
+      <c r="L43" s="315"/>
+      <c r="M43" s="315"/>
+      <c r="N43" s="315"/>
+      <c r="O43" s="355"/>
       <c r="P43" s="146" t="s">
         <v>49</v>
       </c>
-      <c r="Q43" s="245"/>
+      <c r="Q43" s="243"/>
       <c r="R43" s="47"/>
       <c r="S43" s="183"/>
       <c r="T43" s="184"/>
       <c r="U43" s="28"/>
-      <c r="V43" s="28"/>
+      <c r="V43" s="253"/>
       <c r="W43" s="28"/>
       <c r="X43" s="28"/>
       <c r="Y43" s="175"/>
@@ -14905,29 +14763,29 @@
     </row>
     <row r="44" spans="2:92" x14ac:dyDescent="0.15">
       <c r="B44" s="122"/>
-      <c r="C44" s="348" t="s">
+      <c r="C44" s="353" t="s">
         <v>162</v>
       </c>
-      <c r="D44" s="333"/>
-      <c r="E44" s="333"/>
-      <c r="F44" s="333"/>
-      <c r="G44" s="333"/>
-      <c r="H44" s="333"/>
-      <c r="I44" s="333"/>
-      <c r="J44" s="345"/>
-      <c r="K44" s="349" t="s">
+      <c r="D44" s="338"/>
+      <c r="E44" s="338"/>
+      <c r="F44" s="338"/>
+      <c r="G44" s="338"/>
+      <c r="H44" s="338"/>
+      <c r="I44" s="338"/>
+      <c r="J44" s="350"/>
+      <c r="K44" s="354" t="s">
         <v>155</v>
       </c>
-      <c r="L44" s="309" t="s">
+      <c r="L44" s="314" t="s">
         <v>159</v>
       </c>
-      <c r="M44" s="313" t="s">
+      <c r="M44" s="318" t="s">
         <v>40</v>
       </c>
-      <c r="N44" s="313" t="s">
+      <c r="N44" s="318" t="s">
         <v>174</v>
       </c>
-      <c r="O44" s="349">
+      <c r="O44" s="354">
         <v>80</v>
       </c>
       <c r="P44" s="145" t="s">
@@ -14938,7 +14796,7 @@
       <c r="S44" s="181"/>
       <c r="T44" s="182"/>
       <c r="U44" s="24"/>
-      <c r="V44" s="365"/>
+      <c r="V44" s="24"/>
       <c r="W44" s="24"/>
       <c r="X44" s="24"/>
       <c r="Y44" s="174"/>
@@ -15012,28 +14870,28 @@
     </row>
     <row r="45" spans="2:92" x14ac:dyDescent="0.15">
       <c r="B45" s="122"/>
-      <c r="C45" s="335"/>
-      <c r="D45" s="335"/>
-      <c r="E45" s="335"/>
-      <c r="F45" s="335"/>
-      <c r="G45" s="335"/>
-      <c r="H45" s="335"/>
-      <c r="I45" s="335"/>
-      <c r="J45" s="346"/>
-      <c r="K45" s="350"/>
-      <c r="L45" s="310"/>
-      <c r="M45" s="310"/>
-      <c r="N45" s="310"/>
-      <c r="O45" s="350"/>
+      <c r="C45" s="340"/>
+      <c r="D45" s="340"/>
+      <c r="E45" s="340"/>
+      <c r="F45" s="340"/>
+      <c r="G45" s="340"/>
+      <c r="H45" s="340"/>
+      <c r="I45" s="340"/>
+      <c r="J45" s="351"/>
+      <c r="K45" s="355"/>
+      <c r="L45" s="315"/>
+      <c r="M45" s="315"/>
+      <c r="N45" s="315"/>
+      <c r="O45" s="355"/>
       <c r="P45" s="146" t="s">
         <v>49</v>
       </c>
-      <c r="Q45" s="245"/>
+      <c r="Q45" s="243"/>
       <c r="R45" s="47"/>
       <c r="S45" s="183"/>
       <c r="T45" s="184"/>
       <c r="U45" s="28"/>
-      <c r="V45" s="28"/>
+      <c r="V45" s="253"/>
       <c r="W45" s="28"/>
       <c r="X45" s="28"/>
       <c r="Y45" s="175"/>
@@ -15107,25 +14965,25 @@
     </row>
     <row r="46" spans="2:92" x14ac:dyDescent="0.15">
       <c r="B46" s="122"/>
-      <c r="C46" s="348" t="s">
+      <c r="C46" s="353" t="s">
         <v>163</v>
       </c>
-      <c r="D46" s="333"/>
-      <c r="E46" s="333"/>
-      <c r="F46" s="333"/>
-      <c r="G46" s="333"/>
-      <c r="H46" s="333"/>
-      <c r="I46" s="333"/>
-      <c r="J46" s="345"/>
-      <c r="K46" s="349" t="s">
+      <c r="D46" s="338"/>
+      <c r="E46" s="338"/>
+      <c r="F46" s="338"/>
+      <c r="G46" s="338"/>
+      <c r="H46" s="338"/>
+      <c r="I46" s="338"/>
+      <c r="J46" s="350"/>
+      <c r="K46" s="354" t="s">
         <v>158</v>
       </c>
-      <c r="L46" s="309"/>
-      <c r="M46" s="313" t="s">
+      <c r="L46" s="314"/>
+      <c r="M46" s="318" t="s">
         <v>40</v>
       </c>
-      <c r="N46" s="313"/>
-      <c r="O46" s="349"/>
+      <c r="N46" s="318"/>
+      <c r="O46" s="354"/>
       <c r="P46" s="145" t="s">
         <v>48</v>
       </c>
@@ -15208,23 +15066,23 @@
     </row>
     <row r="47" spans="2:92" x14ac:dyDescent="0.15">
       <c r="B47" s="122"/>
-      <c r="C47" s="335"/>
-      <c r="D47" s="335"/>
-      <c r="E47" s="335"/>
-      <c r="F47" s="335"/>
-      <c r="G47" s="335"/>
-      <c r="H47" s="335"/>
-      <c r="I47" s="335"/>
-      <c r="J47" s="346"/>
-      <c r="K47" s="350"/>
-      <c r="L47" s="310"/>
-      <c r="M47" s="310"/>
-      <c r="N47" s="310"/>
-      <c r="O47" s="350"/>
+      <c r="C47" s="340"/>
+      <c r="D47" s="340"/>
+      <c r="E47" s="340"/>
+      <c r="F47" s="340"/>
+      <c r="G47" s="340"/>
+      <c r="H47" s="340"/>
+      <c r="I47" s="340"/>
+      <c r="J47" s="351"/>
+      <c r="K47" s="355"/>
+      <c r="L47" s="315"/>
+      <c r="M47" s="315"/>
+      <c r="N47" s="315"/>
+      <c r="O47" s="355"/>
       <c r="P47" s="146" t="s">
         <v>49</v>
       </c>
-      <c r="Q47" s="245"/>
+      <c r="Q47" s="243"/>
       <c r="R47" s="39"/>
       <c r="S47" s="183"/>
       <c r="T47" s="184"/>
@@ -15303,25 +15161,25 @@
     </row>
     <row r="48" spans="2:92" x14ac:dyDescent="0.15">
       <c r="B48" s="122"/>
-      <c r="C48" s="348" t="s">
+      <c r="C48" s="353" t="s">
         <v>164</v>
       </c>
-      <c r="D48" s="333"/>
-      <c r="E48" s="333"/>
-      <c r="F48" s="333"/>
-      <c r="G48" s="333"/>
-      <c r="H48" s="333"/>
-      <c r="I48" s="333"/>
-      <c r="J48" s="345"/>
-      <c r="K48" s="349" t="s">
+      <c r="D48" s="338"/>
+      <c r="E48" s="338"/>
+      <c r="F48" s="338"/>
+      <c r="G48" s="338"/>
+      <c r="H48" s="338"/>
+      <c r="I48" s="338"/>
+      <c r="J48" s="350"/>
+      <c r="K48" s="354" t="s">
         <v>156</v>
       </c>
-      <c r="L48" s="309"/>
-      <c r="M48" s="313" t="s">
+      <c r="L48" s="314"/>
+      <c r="M48" s="318" t="s">
         <v>40</v>
       </c>
-      <c r="N48" s="313"/>
-      <c r="O48" s="349"/>
+      <c r="N48" s="318"/>
+      <c r="O48" s="354"/>
       <c r="P48" s="145" t="s">
         <v>48</v>
       </c>
@@ -15404,23 +15262,23 @@
     </row>
     <row r="49" spans="2:92" x14ac:dyDescent="0.15">
       <c r="B49" s="122"/>
-      <c r="C49" s="335"/>
-      <c r="D49" s="335"/>
-      <c r="E49" s="335"/>
-      <c r="F49" s="335"/>
-      <c r="G49" s="335"/>
-      <c r="H49" s="335"/>
-      <c r="I49" s="335"/>
-      <c r="J49" s="346"/>
-      <c r="K49" s="350"/>
-      <c r="L49" s="310"/>
-      <c r="M49" s="310"/>
-      <c r="N49" s="310"/>
-      <c r="O49" s="350"/>
+      <c r="C49" s="340"/>
+      <c r="D49" s="340"/>
+      <c r="E49" s="340"/>
+      <c r="F49" s="340"/>
+      <c r="G49" s="340"/>
+      <c r="H49" s="340"/>
+      <c r="I49" s="340"/>
+      <c r="J49" s="351"/>
+      <c r="K49" s="355"/>
+      <c r="L49" s="315"/>
+      <c r="M49" s="315"/>
+      <c r="N49" s="315"/>
+      <c r="O49" s="355"/>
       <c r="P49" s="146" t="s">
         <v>49</v>
       </c>
-      <c r="Q49" s="245"/>
+      <c r="Q49" s="243"/>
       <c r="R49" s="39"/>
       <c r="S49" s="183"/>
       <c r="T49" s="184"/>
@@ -15499,30 +15357,30 @@
     </row>
     <row r="50" spans="2:92" x14ac:dyDescent="0.15">
       <c r="B50" s="122"/>
-      <c r="C50" s="348" t="s">
+      <c r="C50" s="353" t="s">
         <v>165</v>
       </c>
-      <c r="D50" s="333"/>
-      <c r="E50" s="333"/>
-      <c r="F50" s="333"/>
-      <c r="G50" s="333"/>
-      <c r="H50" s="333"/>
-      <c r="I50" s="333"/>
-      <c r="J50" s="345"/>
-      <c r="K50" s="349" t="s">
+      <c r="D50" s="338"/>
+      <c r="E50" s="338"/>
+      <c r="F50" s="338"/>
+      <c r="G50" s="338"/>
+      <c r="H50" s="338"/>
+      <c r="I50" s="338"/>
+      <c r="J50" s="350"/>
+      <c r="K50" s="354" t="s">
         <v>156</v>
       </c>
-      <c r="L50" s="309" t="s">
+      <c r="L50" s="314" t="s">
         <v>159</v>
       </c>
-      <c r="M50" s="313" t="s">
+      <c r="M50" s="318" t="s">
         <v>40</v>
       </c>
-      <c r="N50" s="313" t="s">
+      <c r="N50" s="318" t="s">
         <v>174</v>
       </c>
-      <c r="O50" s="349">
-        <v>20</v>
+      <c r="O50" s="354">
+        <v>100</v>
       </c>
       <c r="P50" s="145" t="s">
         <v>48</v>
@@ -15532,7 +15390,7 @@
       <c r="S50" s="181"/>
       <c r="T50" s="182"/>
       <c r="U50" s="24"/>
-      <c r="V50" s="365"/>
+      <c r="V50" s="24"/>
       <c r="W50" s="24"/>
       <c r="X50" s="24"/>
       <c r="Y50" s="174"/>
@@ -15606,28 +15464,28 @@
     </row>
     <row r="51" spans="2:92" x14ac:dyDescent="0.15">
       <c r="B51" s="122"/>
-      <c r="C51" s="335"/>
-      <c r="D51" s="335"/>
-      <c r="E51" s="335"/>
-      <c r="F51" s="335"/>
-      <c r="G51" s="335"/>
-      <c r="H51" s="335"/>
-      <c r="I51" s="335"/>
-      <c r="J51" s="346"/>
-      <c r="K51" s="350"/>
-      <c r="L51" s="310"/>
-      <c r="M51" s="310"/>
-      <c r="N51" s="310"/>
-      <c r="O51" s="350"/>
+      <c r="C51" s="340"/>
+      <c r="D51" s="340"/>
+      <c r="E51" s="340"/>
+      <c r="F51" s="340"/>
+      <c r="G51" s="340"/>
+      <c r="H51" s="340"/>
+      <c r="I51" s="340"/>
+      <c r="J51" s="351"/>
+      <c r="K51" s="355"/>
+      <c r="L51" s="315"/>
+      <c r="M51" s="315"/>
+      <c r="N51" s="315"/>
+      <c r="O51" s="355"/>
       <c r="P51" s="146" t="s">
         <v>49</v>
       </c>
-      <c r="Q51" s="245"/>
+      <c r="Q51" s="243"/>
       <c r="R51" s="47"/>
       <c r="S51" s="183"/>
       <c r="T51" s="184"/>
       <c r="U51" s="28"/>
-      <c r="V51" s="28"/>
+      <c r="V51" s="253"/>
       <c r="W51" s="28"/>
       <c r="X51" s="28"/>
       <c r="Y51" s="175"/>
@@ -15701,27 +15559,27 @@
     </row>
     <row r="52" spans="2:92" x14ac:dyDescent="0.15">
       <c r="B52" s="122"/>
-      <c r="C52" s="348" t="s">
+      <c r="C52" s="353" t="s">
         <v>166</v>
       </c>
-      <c r="D52" s="333"/>
-      <c r="E52" s="333"/>
-      <c r="F52" s="333"/>
-      <c r="G52" s="333"/>
-      <c r="H52" s="333"/>
-      <c r="I52" s="333"/>
-      <c r="J52" s="345"/>
-      <c r="K52" s="349" t="s">
+      <c r="D52" s="338"/>
+      <c r="E52" s="338"/>
+      <c r="F52" s="338"/>
+      <c r="G52" s="338"/>
+      <c r="H52" s="338"/>
+      <c r="I52" s="338"/>
+      <c r="J52" s="350"/>
+      <c r="K52" s="354" t="s">
         <v>157</v>
       </c>
-      <c r="L52" s="309" t="s">
+      <c r="L52" s="314" t="s">
         <v>159</v>
       </c>
-      <c r="M52" s="313" t="s">
+      <c r="M52" s="318" t="s">
         <v>40</v>
       </c>
-      <c r="N52" s="313"/>
-      <c r="O52" s="349"/>
+      <c r="N52" s="318"/>
+      <c r="O52" s="354"/>
       <c r="P52" s="145" t="s">
         <v>48</v>
       </c>
@@ -15804,23 +15662,23 @@
     </row>
     <row r="53" spans="2:92" x14ac:dyDescent="0.15">
       <c r="B53" s="122"/>
-      <c r="C53" s="335"/>
-      <c r="D53" s="335"/>
-      <c r="E53" s="335"/>
-      <c r="F53" s="335"/>
-      <c r="G53" s="335"/>
-      <c r="H53" s="335"/>
-      <c r="I53" s="335"/>
-      <c r="J53" s="346"/>
-      <c r="K53" s="350"/>
-      <c r="L53" s="310"/>
-      <c r="M53" s="310"/>
-      <c r="N53" s="310"/>
-      <c r="O53" s="350"/>
+      <c r="C53" s="340"/>
+      <c r="D53" s="340"/>
+      <c r="E53" s="340"/>
+      <c r="F53" s="340"/>
+      <c r="G53" s="340"/>
+      <c r="H53" s="340"/>
+      <c r="I53" s="340"/>
+      <c r="J53" s="351"/>
+      <c r="K53" s="355"/>
+      <c r="L53" s="315"/>
+      <c r="M53" s="315"/>
+      <c r="N53" s="315"/>
+      <c r="O53" s="355"/>
       <c r="P53" s="146" t="s">
         <v>49</v>
       </c>
-      <c r="Q53" s="246"/>
+      <c r="Q53" s="244"/>
       <c r="R53" s="39"/>
       <c r="S53" s="183"/>
       <c r="T53" s="184"/>
@@ -15899,27 +15757,31 @@
     </row>
     <row r="54" spans="2:92" x14ac:dyDescent="0.15">
       <c r="B54" s="122"/>
-      <c r="C54" s="348" t="s">
+      <c r="C54" s="353" t="s">
         <v>167</v>
       </c>
-      <c r="D54" s="333"/>
-      <c r="E54" s="333"/>
-      <c r="F54" s="333"/>
-      <c r="G54" s="333"/>
-      <c r="H54" s="333"/>
-      <c r="I54" s="333"/>
-      <c r="J54" s="345"/>
-      <c r="K54" s="309" t="s">
+      <c r="D54" s="338"/>
+      <c r="E54" s="338"/>
+      <c r="F54" s="338"/>
+      <c r="G54" s="338"/>
+      <c r="H54" s="338"/>
+      <c r="I54" s="338"/>
+      <c r="J54" s="350"/>
+      <c r="K54" s="314" t="s">
         <v>159</v>
       </c>
-      <c r="L54" s="349" t="s">
+      <c r="L54" s="354" t="s">
         <v>156</v>
       </c>
-      <c r="M54" s="313" t="s">
+      <c r="M54" s="318" t="s">
         <v>40</v>
       </c>
-      <c r="N54" s="313"/>
-      <c r="O54" s="349"/>
+      <c r="N54" s="318" t="s">
+        <v>40</v>
+      </c>
+      <c r="O54" s="354">
+        <v>100</v>
+      </c>
       <c r="P54" s="145" t="s">
         <v>48</v>
       </c>
@@ -16002,29 +15864,29 @@
     </row>
     <row r="55" spans="2:92" x14ac:dyDescent="0.15">
       <c r="B55" s="122"/>
-      <c r="C55" s="335"/>
-      <c r="D55" s="335"/>
-      <c r="E55" s="335"/>
-      <c r="F55" s="335"/>
-      <c r="G55" s="335"/>
-      <c r="H55" s="335"/>
-      <c r="I55" s="335"/>
-      <c r="J55" s="346"/>
-      <c r="K55" s="310"/>
-      <c r="L55" s="350"/>
-      <c r="M55" s="310"/>
-      <c r="N55" s="310"/>
-      <c r="O55" s="350"/>
+      <c r="C55" s="340"/>
+      <c r="D55" s="340"/>
+      <c r="E55" s="340"/>
+      <c r="F55" s="340"/>
+      <c r="G55" s="340"/>
+      <c r="H55" s="340"/>
+      <c r="I55" s="340"/>
+      <c r="J55" s="351"/>
+      <c r="K55" s="315"/>
+      <c r="L55" s="355"/>
+      <c r="M55" s="315"/>
+      <c r="N55" s="315"/>
+      <c r="O55" s="355"/>
       <c r="P55" s="146" t="s">
         <v>49</v>
       </c>
-      <c r="Q55" s="246"/>
+      <c r="Q55" s="244"/>
       <c r="R55" s="47"/>
       <c r="S55" s="183"/>
       <c r="T55" s="184"/>
       <c r="U55" s="28"/>
       <c r="V55" s="28"/>
-      <c r="W55" s="28"/>
+      <c r="W55" s="253"/>
       <c r="X55" s="28"/>
       <c r="Y55" s="175"/>
       <c r="Z55" s="27"/>
@@ -16097,30 +15959,30 @@
     </row>
     <row r="56" spans="2:92" x14ac:dyDescent="0.15">
       <c r="B56" s="122"/>
-      <c r="C56" s="348" t="s">
+      <c r="C56" s="353" t="s">
         <v>168</v>
       </c>
-      <c r="D56" s="333"/>
-      <c r="E56" s="333"/>
-      <c r="F56" s="333"/>
-      <c r="G56" s="333"/>
-      <c r="H56" s="333"/>
-      <c r="I56" s="333"/>
-      <c r="J56" s="345"/>
-      <c r="K56" s="309" t="s">
+      <c r="D56" s="338"/>
+      <c r="E56" s="338"/>
+      <c r="F56" s="338"/>
+      <c r="G56" s="338"/>
+      <c r="H56" s="338"/>
+      <c r="I56" s="338"/>
+      <c r="J56" s="350"/>
+      <c r="K56" s="314" t="s">
         <v>158</v>
       </c>
-      <c r="L56" s="349" t="s">
+      <c r="L56" s="354" t="s">
         <v>156</v>
       </c>
-      <c r="M56" s="313" t="s">
+      <c r="M56" s="318" t="s">
         <v>40</v>
       </c>
-      <c r="N56" s="313" t="s">
+      <c r="N56" s="318" t="s">
         <v>40</v>
       </c>
-      <c r="O56" s="349">
-        <v>90</v>
+      <c r="O56" s="354">
+        <v>100</v>
       </c>
       <c r="P56" s="145" t="s">
         <v>48</v>
@@ -16130,7 +15992,7 @@
       <c r="S56" s="181"/>
       <c r="T56" s="182"/>
       <c r="U56" s="24"/>
-      <c r="V56" s="365"/>
+      <c r="V56" s="24"/>
       <c r="W56" s="24"/>
       <c r="X56" s="24"/>
       <c r="Y56" s="174"/>
@@ -16204,29 +16066,29 @@
     </row>
     <row r="57" spans="2:92" x14ac:dyDescent="0.15">
       <c r="B57" s="122"/>
-      <c r="C57" s="335"/>
-      <c r="D57" s="335"/>
-      <c r="E57" s="335"/>
-      <c r="F57" s="335"/>
-      <c r="G57" s="335"/>
-      <c r="H57" s="335"/>
-      <c r="I57" s="335"/>
-      <c r="J57" s="346"/>
-      <c r="K57" s="310"/>
-      <c r="L57" s="350"/>
-      <c r="M57" s="310"/>
-      <c r="N57" s="310"/>
-      <c r="O57" s="350"/>
+      <c r="C57" s="340"/>
+      <c r="D57" s="340"/>
+      <c r="E57" s="340"/>
+      <c r="F57" s="340"/>
+      <c r="G57" s="340"/>
+      <c r="H57" s="340"/>
+      <c r="I57" s="340"/>
+      <c r="J57" s="351"/>
+      <c r="K57" s="315"/>
+      <c r="L57" s="355"/>
+      <c r="M57" s="315"/>
+      <c r="N57" s="315"/>
+      <c r="O57" s="355"/>
       <c r="P57" s="146" t="s">
         <v>49</v>
       </c>
-      <c r="Q57" s="246"/>
+      <c r="Q57" s="244"/>
       <c r="R57" s="47"/>
       <c r="S57" s="183"/>
       <c r="T57" s="184"/>
       <c r="U57" s="28"/>
-      <c r="V57" s="28"/>
-      <c r="W57" s="28"/>
+      <c r="V57" s="253"/>
+      <c r="W57" s="253"/>
       <c r="X57" s="28"/>
       <c r="Y57" s="175"/>
       <c r="Z57" s="27"/>
@@ -16299,30 +16161,30 @@
     </row>
     <row r="58" spans="2:92" x14ac:dyDescent="0.15">
       <c r="B58" s="122"/>
-      <c r="C58" s="348" t="s">
+      <c r="C58" s="353" t="s">
         <v>169</v>
       </c>
-      <c r="D58" s="333"/>
-      <c r="E58" s="333"/>
-      <c r="F58" s="333"/>
-      <c r="G58" s="333"/>
-      <c r="H58" s="333"/>
-      <c r="I58" s="333"/>
-      <c r="J58" s="345"/>
-      <c r="K58" s="309" t="s">
+      <c r="D58" s="338"/>
+      <c r="E58" s="338"/>
+      <c r="F58" s="338"/>
+      <c r="G58" s="338"/>
+      <c r="H58" s="338"/>
+      <c r="I58" s="338"/>
+      <c r="J58" s="350"/>
+      <c r="K58" s="314" t="s">
         <v>160</v>
       </c>
-      <c r="L58" s="309" t="s">
+      <c r="L58" s="314" t="s">
         <v>160</v>
       </c>
-      <c r="M58" s="313" t="s">
+      <c r="M58" s="318" t="s">
         <v>40</v>
       </c>
-      <c r="N58" s="313" t="s">
+      <c r="N58" s="318" t="s">
         <v>174</v>
       </c>
-      <c r="O58" s="349">
-        <v>20</v>
+      <c r="O58" s="354">
+        <v>100</v>
       </c>
       <c r="P58" s="145" t="s">
         <v>48</v>
@@ -16332,7 +16194,7 @@
       <c r="S58" s="181"/>
       <c r="T58" s="182"/>
       <c r="U58" s="24"/>
-      <c r="V58" s="365"/>
+      <c r="V58" s="24"/>
       <c r="W58" s="24"/>
       <c r="X58" s="24"/>
       <c r="Y58" s="174"/>
@@ -16406,28 +16268,28 @@
     </row>
     <row r="59" spans="2:92" x14ac:dyDescent="0.15">
       <c r="B59" s="122"/>
-      <c r="C59" s="335"/>
-      <c r="D59" s="335"/>
-      <c r="E59" s="335"/>
-      <c r="F59" s="335"/>
-      <c r="G59" s="335"/>
-      <c r="H59" s="335"/>
-      <c r="I59" s="335"/>
-      <c r="J59" s="346"/>
-      <c r="K59" s="310"/>
-      <c r="L59" s="310"/>
-      <c r="M59" s="310"/>
-      <c r="N59" s="310"/>
-      <c r="O59" s="350"/>
+      <c r="C59" s="340"/>
+      <c r="D59" s="340"/>
+      <c r="E59" s="340"/>
+      <c r="F59" s="340"/>
+      <c r="G59" s="340"/>
+      <c r="H59" s="340"/>
+      <c r="I59" s="340"/>
+      <c r="J59" s="351"/>
+      <c r="K59" s="315"/>
+      <c r="L59" s="315"/>
+      <c r="M59" s="315"/>
+      <c r="N59" s="315"/>
+      <c r="O59" s="355"/>
       <c r="P59" s="146" t="s">
         <v>49</v>
       </c>
-      <c r="Q59" s="246"/>
+      <c r="Q59" s="244"/>
       <c r="R59" s="47"/>
       <c r="S59" s="183"/>
       <c r="T59" s="184"/>
       <c r="U59" s="28"/>
-      <c r="V59" s="28"/>
+      <c r="V59" s="253"/>
       <c r="W59" s="28"/>
       <c r="X59" s="28"/>
       <c r="Y59" s="175"/>
@@ -16501,31 +16363,31 @@
     </row>
     <row r="60" spans="2:92" x14ac:dyDescent="0.15">
       <c r="B60" s="122"/>
-      <c r="C60" s="348" t="s">
+      <c r="C60" s="353" t="s">
         <v>170</v>
       </c>
-      <c r="D60" s="333"/>
-      <c r="E60" s="333"/>
-      <c r="F60" s="333"/>
-      <c r="G60" s="333"/>
-      <c r="H60" s="333"/>
-      <c r="I60" s="333"/>
-      <c r="J60" s="345"/>
-      <c r="K60" s="309" t="s">
+      <c r="D60" s="338"/>
+      <c r="E60" s="338"/>
+      <c r="F60" s="338"/>
+      <c r="G60" s="338"/>
+      <c r="H60" s="338"/>
+      <c r="I60" s="338"/>
+      <c r="J60" s="350"/>
+      <c r="K60" s="314" t="s">
         <v>159</v>
       </c>
-      <c r="L60" s="309"/>
-      <c r="M60" s="313" t="s">
+      <c r="L60" s="314"/>
+      <c r="M60" s="318" t="s">
         <v>40</v>
       </c>
-      <c r="N60" s="313"/>
-      <c r="O60" s="349"/>
+      <c r="N60" s="318"/>
+      <c r="O60" s="354"/>
       <c r="P60" s="145" t="s">
         <v>48</v>
       </c>
       <c r="Q60" s="46"/>
       <c r="R60" s="46"/>
-      <c r="S60" s="238"/>
+      <c r="S60" s="236"/>
       <c r="T60" s="182"/>
       <c r="U60" s="24"/>
       <c r="V60" s="24"/>
@@ -16602,23 +16464,23 @@
     </row>
     <row r="61" spans="2:92" x14ac:dyDescent="0.15">
       <c r="B61" s="122"/>
-      <c r="C61" s="335"/>
-      <c r="D61" s="335"/>
-      <c r="E61" s="335"/>
-      <c r="F61" s="335"/>
-      <c r="G61" s="335"/>
-      <c r="H61" s="335"/>
-      <c r="I61" s="335"/>
-      <c r="J61" s="346"/>
-      <c r="K61" s="310"/>
-      <c r="L61" s="310"/>
-      <c r="M61" s="310"/>
-      <c r="N61" s="310"/>
-      <c r="O61" s="350"/>
+      <c r="C61" s="340"/>
+      <c r="D61" s="340"/>
+      <c r="E61" s="340"/>
+      <c r="F61" s="340"/>
+      <c r="G61" s="340"/>
+      <c r="H61" s="340"/>
+      <c r="I61" s="340"/>
+      <c r="J61" s="351"/>
+      <c r="K61" s="315"/>
+      <c r="L61" s="315"/>
+      <c r="M61" s="315"/>
+      <c r="N61" s="315"/>
+      <c r="O61" s="355"/>
       <c r="P61" s="146" t="s">
         <v>49</v>
       </c>
-      <c r="Q61" s="245"/>
+      <c r="Q61" s="243"/>
       <c r="R61" s="47"/>
       <c r="S61" s="183"/>
       <c r="T61" s="184"/>
@@ -16697,25 +16559,31 @@
     </row>
     <row r="62" spans="2:92" x14ac:dyDescent="0.15">
       <c r="B62" s="122"/>
-      <c r="C62" s="348" t="s">
+      <c r="C62" s="353" t="s">
         <v>171</v>
       </c>
-      <c r="D62" s="333"/>
-      <c r="E62" s="333"/>
-      <c r="F62" s="333"/>
-      <c r="G62" s="333"/>
-      <c r="H62" s="333"/>
-      <c r="I62" s="333"/>
-      <c r="J62" s="345"/>
-      <c r="K62" s="309" t="s">
+      <c r="D62" s="338"/>
+      <c r="E62" s="338"/>
+      <c r="F62" s="338"/>
+      <c r="G62" s="338"/>
+      <c r="H62" s="338"/>
+      <c r="I62" s="338"/>
+      <c r="J62" s="350"/>
+      <c r="K62" s="314" t="s">
         <v>159</v>
       </c>
-      <c r="L62" s="309"/>
-      <c r="M62" s="313" t="s">
+      <c r="L62" s="314" t="s">
+        <v>155</v>
+      </c>
+      <c r="M62" s="318" t="s">
         <v>40</v>
       </c>
-      <c r="N62" s="313"/>
-      <c r="O62" s="349"/>
+      <c r="N62" s="318" t="s">
+        <v>174</v>
+      </c>
+      <c r="O62" s="354">
+        <v>35</v>
+      </c>
       <c r="P62" s="145" t="s">
         <v>48</v>
       </c>
@@ -16798,29 +16666,29 @@
     </row>
     <row r="63" spans="2:92" x14ac:dyDescent="0.15">
       <c r="B63" s="122"/>
-      <c r="C63" s="335"/>
-      <c r="D63" s="335"/>
-      <c r="E63" s="335"/>
-      <c r="F63" s="335"/>
-      <c r="G63" s="335"/>
-      <c r="H63" s="335"/>
-      <c r="I63" s="335"/>
-      <c r="J63" s="346"/>
-      <c r="K63" s="310"/>
-      <c r="L63" s="310"/>
-      <c r="M63" s="310"/>
-      <c r="N63" s="310"/>
-      <c r="O63" s="350"/>
+      <c r="C63" s="340"/>
+      <c r="D63" s="340"/>
+      <c r="E63" s="340"/>
+      <c r="F63" s="340"/>
+      <c r="G63" s="340"/>
+      <c r="H63" s="340"/>
+      <c r="I63" s="340"/>
+      <c r="J63" s="351"/>
+      <c r="K63" s="315"/>
+      <c r="L63" s="315"/>
+      <c r="M63" s="315"/>
+      <c r="N63" s="315"/>
+      <c r="O63" s="355"/>
       <c r="P63" s="146" t="s">
         <v>49</v>
       </c>
-      <c r="Q63" s="245"/>
+      <c r="Q63" s="243"/>
       <c r="R63" s="39"/>
       <c r="S63" s="183"/>
       <c r="T63" s="184"/>
       <c r="U63" s="47"/>
       <c r="V63" s="28"/>
-      <c r="W63" s="28"/>
+      <c r="W63" s="253"/>
       <c r="X63" s="28"/>
       <c r="Y63" s="175"/>
       <c r="Z63" s="27"/>
@@ -16893,25 +16761,25 @@
     </row>
     <row r="64" spans="2:92" x14ac:dyDescent="0.15">
       <c r="B64" s="122"/>
-      <c r="C64" s="357" t="s">
+      <c r="C64" s="365" t="s">
         <v>172</v>
       </c>
-      <c r="D64" s="348"/>
-      <c r="E64" s="348"/>
-      <c r="F64" s="348"/>
-      <c r="G64" s="348"/>
-      <c r="H64" s="348"/>
-      <c r="I64" s="348"/>
-      <c r="J64" s="358"/>
-      <c r="K64" s="309" t="s">
+      <c r="D64" s="353"/>
+      <c r="E64" s="353"/>
+      <c r="F64" s="353"/>
+      <c r="G64" s="353"/>
+      <c r="H64" s="353"/>
+      <c r="I64" s="353"/>
+      <c r="J64" s="366"/>
+      <c r="K64" s="314" t="s">
         <v>159</v>
       </c>
-      <c r="L64" s="309"/>
-      <c r="M64" s="313" t="s">
+      <c r="L64" s="314"/>
+      <c r="M64" s="318" t="s">
         <v>40</v>
       </c>
-      <c r="N64" s="313"/>
-      <c r="O64" s="349"/>
+      <c r="N64" s="318"/>
+      <c r="O64" s="354"/>
       <c r="P64" s="145" t="s">
         <v>48</v>
       </c>
@@ -16994,23 +16862,23 @@
     </row>
     <row r="65" spans="2:92" x14ac:dyDescent="0.15">
       <c r="B65" s="122"/>
-      <c r="C65" s="359"/>
-      <c r="D65" s="360"/>
-      <c r="E65" s="360"/>
-      <c r="F65" s="360"/>
-      <c r="G65" s="360"/>
-      <c r="H65" s="360"/>
-      <c r="I65" s="360"/>
-      <c r="J65" s="361"/>
-      <c r="K65" s="310"/>
-      <c r="L65" s="310"/>
-      <c r="M65" s="310"/>
-      <c r="N65" s="310"/>
-      <c r="O65" s="350"/>
+      <c r="C65" s="367"/>
+      <c r="D65" s="368"/>
+      <c r="E65" s="368"/>
+      <c r="F65" s="368"/>
+      <c r="G65" s="368"/>
+      <c r="H65" s="368"/>
+      <c r="I65" s="368"/>
+      <c r="J65" s="369"/>
+      <c r="K65" s="315"/>
+      <c r="L65" s="315"/>
+      <c r="M65" s="315"/>
+      <c r="N65" s="315"/>
+      <c r="O65" s="355"/>
       <c r="P65" s="146" t="s">
         <v>49</v>
       </c>
-      <c r="Q65" s="245"/>
+      <c r="Q65" s="243"/>
       <c r="R65" s="39"/>
       <c r="S65" s="185"/>
       <c r="T65" s="184"/>
@@ -17089,28 +16957,30 @@
     </row>
     <row r="66" spans="2:92" x14ac:dyDescent="0.15">
       <c r="B66" s="122"/>
-      <c r="C66" s="348" t="s">
+      <c r="C66" s="353" t="s">
         <v>173</v>
       </c>
-      <c r="D66" s="333"/>
-      <c r="E66" s="333"/>
-      <c r="F66" s="333"/>
-      <c r="G66" s="333"/>
-      <c r="H66" s="333"/>
-      <c r="I66" s="333"/>
-      <c r="J66" s="345"/>
-      <c r="K66" s="309" t="s">
+      <c r="D66" s="338"/>
+      <c r="E66" s="338"/>
+      <c r="F66" s="338"/>
+      <c r="G66" s="338"/>
+      <c r="H66" s="338"/>
+      <c r="I66" s="338"/>
+      <c r="J66" s="350"/>
+      <c r="K66" s="314" t="s">
         <v>157</v>
       </c>
-      <c r="L66" s="349" t="s">
+      <c r="L66" s="354" t="s">
         <v>157</v>
       </c>
-      <c r="M66" s="313" t="s">
+      <c r="M66" s="318" t="s">
         <v>40</v>
       </c>
-      <c r="N66" s="313"/>
-      <c r="O66" s="349">
-        <v>0</v>
+      <c r="N66" s="318" t="s">
+        <v>40</v>
+      </c>
+      <c r="O66" s="354">
+        <v>100</v>
       </c>
       <c r="P66" s="145" t="s">
         <v>48</v>
@@ -17194,19 +17064,19 @@
     </row>
     <row r="67" spans="2:92" x14ac:dyDescent="0.15">
       <c r="B67" s="122"/>
-      <c r="C67" s="335"/>
-      <c r="D67" s="335"/>
-      <c r="E67" s="335"/>
-      <c r="F67" s="335"/>
-      <c r="G67" s="335"/>
-      <c r="H67" s="335"/>
-      <c r="I67" s="335"/>
-      <c r="J67" s="346"/>
-      <c r="K67" s="310"/>
-      <c r="L67" s="350"/>
-      <c r="M67" s="310"/>
-      <c r="N67" s="310"/>
-      <c r="O67" s="350"/>
+      <c r="C67" s="340"/>
+      <c r="D67" s="340"/>
+      <c r="E67" s="340"/>
+      <c r="F67" s="340"/>
+      <c r="G67" s="340"/>
+      <c r="H67" s="340"/>
+      <c r="I67" s="340"/>
+      <c r="J67" s="351"/>
+      <c r="K67" s="315"/>
+      <c r="L67" s="355"/>
+      <c r="M67" s="315"/>
+      <c r="N67" s="315"/>
+      <c r="O67" s="355"/>
       <c r="P67" s="146" t="s">
         <v>49</v>
       </c>
@@ -17216,7 +17086,7 @@
       <c r="T67" s="184"/>
       <c r="U67" s="47"/>
       <c r="V67" s="28"/>
-      <c r="W67" s="28"/>
+      <c r="W67" s="253"/>
       <c r="X67" s="28"/>
       <c r="Y67" s="175"/>
       <c r="Z67" s="27"/>
@@ -17289,34 +17159,34 @@
     </row>
     <row r="68" spans="2:92" x14ac:dyDescent="0.15">
       <c r="B68" s="122"/>
-      <c r="C68" s="234"/>
-      <c r="D68" s="235"/>
-      <c r="E68" s="235"/>
-      <c r="F68" s="235"/>
-      <c r="G68" s="235"/>
-      <c r="H68" s="235"/>
-      <c r="I68" s="235"/>
-      <c r="J68" s="235"/>
-      <c r="K68" s="240"/>
-      <c r="L68" s="236"/>
-      <c r="M68" s="236"/>
-      <c r="N68" s="236"/>
-      <c r="O68" s="236"/>
-      <c r="P68" s="240"/>
-      <c r="Q68" s="237"/>
-      <c r="R68" s="237"/>
-      <c r="S68" s="241"/>
-      <c r="T68" s="242"/>
-      <c r="U68" s="244"/>
-      <c r="V68" s="244"/>
-      <c r="W68" s="244"/>
-      <c r="X68" s="237"/>
-      <c r="Y68" s="244"/>
-      <c r="Z68" s="237"/>
-      <c r="AA68" s="244"/>
-      <c r="AB68" s="244"/>
-      <c r="AC68" s="237"/>
-      <c r="AD68" s="243"/>
+      <c r="C68" s="232"/>
+      <c r="D68" s="233"/>
+      <c r="E68" s="233"/>
+      <c r="F68" s="233"/>
+      <c r="G68" s="233"/>
+      <c r="H68" s="233"/>
+      <c r="I68" s="233"/>
+      <c r="J68" s="233"/>
+      <c r="K68" s="238"/>
+      <c r="L68" s="234"/>
+      <c r="M68" s="234"/>
+      <c r="N68" s="234"/>
+      <c r="O68" s="234"/>
+      <c r="P68" s="238"/>
+      <c r="Q68" s="235"/>
+      <c r="R68" s="235"/>
+      <c r="S68" s="239"/>
+      <c r="T68" s="240"/>
+      <c r="U68" s="242"/>
+      <c r="V68" s="242"/>
+      <c r="W68" s="242"/>
+      <c r="X68" s="235"/>
+      <c r="Y68" s="242"/>
+      <c r="Z68" s="235"/>
+      <c r="AA68" s="242"/>
+      <c r="AB68" s="242"/>
+      <c r="AC68" s="235"/>
+      <c r="AD68" s="241"/>
       <c r="AE68" s="97"/>
       <c r="AF68" s="97"/>
       <c r="AG68" s="97"/>
@@ -17411,7 +17281,6 @@
     <mergeCell ref="N52:N53"/>
     <mergeCell ref="N54:N55"/>
     <mergeCell ref="N56:N57"/>
-    <mergeCell ref="N38:N39"/>
     <mergeCell ref="N40:N41"/>
     <mergeCell ref="N42:N43"/>
     <mergeCell ref="N44:N45"/>
@@ -17421,21 +17290,6 @@
     <mergeCell ref="N32:N33"/>
     <mergeCell ref="N34:N35"/>
     <mergeCell ref="N36:N37"/>
-    <mergeCell ref="C38:J39"/>
-    <mergeCell ref="K36:K37"/>
-    <mergeCell ref="M38:M39"/>
-    <mergeCell ref="C54:J55"/>
-    <mergeCell ref="K54:K55"/>
-    <mergeCell ref="M54:M55"/>
-    <mergeCell ref="C40:J41"/>
-    <mergeCell ref="C50:J51"/>
-    <mergeCell ref="K50:K51"/>
-    <mergeCell ref="M50:M51"/>
-    <mergeCell ref="C52:J53"/>
-    <mergeCell ref="K52:K53"/>
-    <mergeCell ref="M52:M53"/>
-    <mergeCell ref="L54:L55"/>
-    <mergeCell ref="K40:K41"/>
     <mergeCell ref="M40:M41"/>
     <mergeCell ref="C44:J45"/>
     <mergeCell ref="K44:K45"/>
@@ -17445,8 +17299,6 @@
     <mergeCell ref="K42:K43"/>
     <mergeCell ref="M42:M43"/>
     <mergeCell ref="L42:L43"/>
-    <mergeCell ref="M58:M59"/>
-    <mergeCell ref="L58:L59"/>
     <mergeCell ref="L66:L67"/>
     <mergeCell ref="C60:J61"/>
     <mergeCell ref="K60:K61"/>
@@ -17461,7 +17313,7 @@
     <mergeCell ref="M62:M63"/>
     <mergeCell ref="L64:L65"/>
     <mergeCell ref="L60:L61"/>
-    <mergeCell ref="K25:K27"/>
+    <mergeCell ref="K64:K65"/>
     <mergeCell ref="M25:M27"/>
     <mergeCell ref="P25:P27"/>
     <mergeCell ref="C30:J31"/>
@@ -17481,6 +17333,24 @@
     <mergeCell ref="L34:L35"/>
     <mergeCell ref="L36:L37"/>
     <mergeCell ref="L38:L39"/>
+    <mergeCell ref="C38:J39"/>
+    <mergeCell ref="K36:K37"/>
+    <mergeCell ref="M38:M39"/>
+    <mergeCell ref="N38:N39"/>
+    <mergeCell ref="K25:K27"/>
+    <mergeCell ref="L58:L59"/>
+    <mergeCell ref="C54:J55"/>
+    <mergeCell ref="K54:K55"/>
+    <mergeCell ref="C40:J41"/>
+    <mergeCell ref="C50:J51"/>
+    <mergeCell ref="K50:K51"/>
+    <mergeCell ref="C52:J53"/>
+    <mergeCell ref="K52:K53"/>
+    <mergeCell ref="L54:L55"/>
+    <mergeCell ref="K40:K41"/>
+    <mergeCell ref="M46:M47"/>
+    <mergeCell ref="M56:M57"/>
+    <mergeCell ref="M48:M49"/>
     <mergeCell ref="L50:L51"/>
     <mergeCell ref="L44:L45"/>
     <mergeCell ref="L62:L63"/>
@@ -17489,7 +17359,10 @@
     <mergeCell ref="L48:L49"/>
     <mergeCell ref="L56:L57"/>
     <mergeCell ref="L52:L53"/>
-    <mergeCell ref="K64:K65"/>
+    <mergeCell ref="M58:M59"/>
+    <mergeCell ref="M54:M55"/>
+    <mergeCell ref="M50:M51"/>
+    <mergeCell ref="M52:M53"/>
     <mergeCell ref="C58:J59"/>
     <mergeCell ref="K58:K59"/>
     <mergeCell ref="C56:J57"/>
@@ -17497,9 +17370,6 @@
     <mergeCell ref="C46:J47"/>
     <mergeCell ref="K46:K47"/>
     <mergeCell ref="L46:L47"/>
-    <mergeCell ref="M46:M47"/>
-    <mergeCell ref="M56:M57"/>
-    <mergeCell ref="M48:M49"/>
   </mergeCells>
   <phoneticPr fontId="7"/>
   <dataValidations count="1">
@@ -17517,7 +17387,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="B23:CK47"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="M51" sqref="M51"/>
     </sheetView>
   </sheetViews>
@@ -17688,13 +17558,13 @@
       <c r="H25" s="100"/>
       <c r="I25" s="100"/>
       <c r="J25" s="100"/>
-      <c r="K25" s="351" t="s">
+      <c r="K25" s="356" t="s">
         <v>3</v>
       </c>
-      <c r="L25" s="354" t="s">
+      <c r="L25" s="362" t="s">
         <v>52</v>
       </c>
-      <c r="M25" s="354" t="s">
+      <c r="M25" s="362" t="s">
         <v>47</v>
       </c>
       <c r="N25" s="101">
@@ -17786,9 +17656,9 @@
       <c r="H26" s="171"/>
       <c r="I26" s="171"/>
       <c r="J26" s="171"/>
-      <c r="K26" s="352"/>
-      <c r="L26" s="355"/>
-      <c r="M26" s="355"/>
+      <c r="K26" s="357"/>
+      <c r="L26" s="363"/>
+      <c r="M26" s="363"/>
       <c r="N26" s="170" t="s">
         <v>118</v>
       </c>
@@ -17878,9 +17748,9 @@
       <c r="H27" s="90"/>
       <c r="I27" s="90"/>
       <c r="J27" s="90"/>
-      <c r="K27" s="353"/>
-      <c r="L27" s="356"/>
-      <c r="M27" s="356"/>
+      <c r="K27" s="358"/>
+      <c r="L27" s="364"/>
+      <c r="M27" s="364"/>
       <c r="N27" s="84">
         <v>21</v>
       </c>
@@ -18072,20 +17942,20 @@
     </row>
     <row r="29" spans="2:89" x14ac:dyDescent="0.15">
       <c r="B29" s="3"/>
-      <c r="C29" s="362" t="s">
+      <c r="C29" s="370" t="s">
         <v>87</v>
       </c>
-      <c r="D29" s="333"/>
-      <c r="E29" s="333"/>
-      <c r="F29" s="333"/>
-      <c r="G29" s="333"/>
-      <c r="H29" s="333"/>
-      <c r="I29" s="333"/>
-      <c r="J29" s="345"/>
-      <c r="K29" s="309" t="s">
+      <c r="D29" s="338"/>
+      <c r="E29" s="338"/>
+      <c r="F29" s="338"/>
+      <c r="G29" s="338"/>
+      <c r="H29" s="338"/>
+      <c r="I29" s="338"/>
+      <c r="J29" s="350"/>
+      <c r="K29" s="314" t="s">
         <v>58</v>
       </c>
-      <c r="L29" s="313">
+      <c r="L29" s="318">
         <v>1</v>
       </c>
       <c r="M29" s="80" t="s">
@@ -18170,16 +18040,16 @@
     </row>
     <row r="30" spans="2:89" x14ac:dyDescent="0.15">
       <c r="B30" s="3"/>
-      <c r="C30" s="334"/>
-      <c r="D30" s="335"/>
-      <c r="E30" s="335"/>
-      <c r="F30" s="335"/>
-      <c r="G30" s="335"/>
-      <c r="H30" s="335"/>
-      <c r="I30" s="335"/>
-      <c r="J30" s="346"/>
-      <c r="K30" s="310"/>
-      <c r="L30" s="310"/>
+      <c r="C30" s="339"/>
+      <c r="D30" s="340"/>
+      <c r="E30" s="340"/>
+      <c r="F30" s="340"/>
+      <c r="G30" s="340"/>
+      <c r="H30" s="340"/>
+      <c r="I30" s="340"/>
+      <c r="J30" s="351"/>
+      <c r="K30" s="315"/>
+      <c r="L30" s="315"/>
       <c r="M30" s="81" t="s">
         <v>49</v>
       </c>
@@ -18262,20 +18132,20 @@
     </row>
     <row r="31" spans="2:89" x14ac:dyDescent="0.15">
       <c r="B31" s="3"/>
-      <c r="C31" s="362" t="s">
+      <c r="C31" s="370" t="s">
         <v>88</v>
       </c>
-      <c r="D31" s="333"/>
-      <c r="E31" s="333"/>
-      <c r="F31" s="333"/>
-      <c r="G31" s="333"/>
-      <c r="H31" s="333"/>
-      <c r="I31" s="333"/>
-      <c r="J31" s="345"/>
-      <c r="K31" s="309" t="s">
+      <c r="D31" s="338"/>
+      <c r="E31" s="338"/>
+      <c r="F31" s="338"/>
+      <c r="G31" s="338"/>
+      <c r="H31" s="338"/>
+      <c r="I31" s="338"/>
+      <c r="J31" s="350"/>
+      <c r="K31" s="314" t="s">
         <v>58</v>
       </c>
-      <c r="L31" s="313">
+      <c r="L31" s="318">
         <v>1</v>
       </c>
       <c r="M31" s="80" t="s">
@@ -18360,16 +18230,16 @@
     </row>
     <row r="32" spans="2:89" x14ac:dyDescent="0.15">
       <c r="B32" s="3"/>
-      <c r="C32" s="334"/>
-      <c r="D32" s="335"/>
-      <c r="E32" s="335"/>
-      <c r="F32" s="335"/>
-      <c r="G32" s="335"/>
-      <c r="H32" s="335"/>
-      <c r="I32" s="335"/>
-      <c r="J32" s="346"/>
-      <c r="K32" s="310"/>
-      <c r="L32" s="310" t="s">
+      <c r="C32" s="339"/>
+      <c r="D32" s="340"/>
+      <c r="E32" s="340"/>
+      <c r="F32" s="340"/>
+      <c r="G32" s="340"/>
+      <c r="H32" s="340"/>
+      <c r="I32" s="340"/>
+      <c r="J32" s="351"/>
+      <c r="K32" s="315"/>
+      <c r="L32" s="315" t="s">
         <v>39</v>
       </c>
       <c r="M32" s="81" t="s">
@@ -18454,20 +18324,20 @@
     </row>
     <row r="33" spans="2:89" x14ac:dyDescent="0.15">
       <c r="B33" s="3"/>
-      <c r="C33" s="362" t="s">
+      <c r="C33" s="370" t="s">
         <v>90</v>
       </c>
-      <c r="D33" s="333"/>
-      <c r="E33" s="333"/>
-      <c r="F33" s="333"/>
-      <c r="G33" s="333"/>
-      <c r="H33" s="333"/>
-      <c r="I33" s="333"/>
-      <c r="J33" s="345"/>
-      <c r="K33" s="309" t="s">
+      <c r="D33" s="338"/>
+      <c r="E33" s="338"/>
+      <c r="F33" s="338"/>
+      <c r="G33" s="338"/>
+      <c r="H33" s="338"/>
+      <c r="I33" s="338"/>
+      <c r="J33" s="350"/>
+      <c r="K33" s="314" t="s">
         <v>58</v>
       </c>
-      <c r="L33" s="313">
+      <c r="L33" s="318">
         <v>1</v>
       </c>
       <c r="M33" s="80" t="s">
@@ -18552,16 +18422,16 @@
     </row>
     <row r="34" spans="2:89" x14ac:dyDescent="0.15">
       <c r="B34" s="3"/>
-      <c r="C34" s="334"/>
-      <c r="D34" s="335"/>
-      <c r="E34" s="335"/>
-      <c r="F34" s="335"/>
-      <c r="G34" s="335"/>
-      <c r="H34" s="335"/>
-      <c r="I34" s="335"/>
-      <c r="J34" s="346"/>
-      <c r="K34" s="310"/>
-      <c r="L34" s="310" t="s">
+      <c r="C34" s="339"/>
+      <c r="D34" s="340"/>
+      <c r="E34" s="340"/>
+      <c r="F34" s="340"/>
+      <c r="G34" s="340"/>
+      <c r="H34" s="340"/>
+      <c r="I34" s="340"/>
+      <c r="J34" s="351"/>
+      <c r="K34" s="315"/>
+      <c r="L34" s="315" t="s">
         <v>39</v>
       </c>
       <c r="M34" s="81" t="s">
@@ -18646,20 +18516,20 @@
     </row>
     <row r="35" spans="2:89" x14ac:dyDescent="0.15">
       <c r="B35" s="3"/>
-      <c r="C35" s="362" t="s">
+      <c r="C35" s="370" t="s">
         <v>91</v>
       </c>
-      <c r="D35" s="333"/>
-      <c r="E35" s="333"/>
-      <c r="F35" s="333"/>
-      <c r="G35" s="333"/>
-      <c r="H35" s="333"/>
-      <c r="I35" s="333"/>
-      <c r="J35" s="345"/>
-      <c r="K35" s="309" t="s">
+      <c r="D35" s="338"/>
+      <c r="E35" s="338"/>
+      <c r="F35" s="338"/>
+      <c r="G35" s="338"/>
+      <c r="H35" s="338"/>
+      <c r="I35" s="338"/>
+      <c r="J35" s="350"/>
+      <c r="K35" s="314" t="s">
         <v>58</v>
       </c>
-      <c r="L35" s="313">
+      <c r="L35" s="318">
         <v>1</v>
       </c>
       <c r="M35" s="80" t="s">
@@ -18744,16 +18614,16 @@
     </row>
     <row r="36" spans="2:89" x14ac:dyDescent="0.15">
       <c r="B36" s="3"/>
-      <c r="C36" s="334"/>
-      <c r="D36" s="335"/>
-      <c r="E36" s="335"/>
-      <c r="F36" s="335"/>
-      <c r="G36" s="335"/>
-      <c r="H36" s="335"/>
-      <c r="I36" s="335"/>
-      <c r="J36" s="346"/>
-      <c r="K36" s="310"/>
-      <c r="L36" s="310" t="s">
+      <c r="C36" s="339"/>
+      <c r="D36" s="340"/>
+      <c r="E36" s="340"/>
+      <c r="F36" s="340"/>
+      <c r="G36" s="340"/>
+      <c r="H36" s="340"/>
+      <c r="I36" s="340"/>
+      <c r="J36" s="351"/>
+      <c r="K36" s="315"/>
+      <c r="L36" s="315" t="s">
         <v>39</v>
       </c>
       <c r="M36" s="81" t="s">
@@ -18838,20 +18708,20 @@
     </row>
     <row r="37" spans="2:89" x14ac:dyDescent="0.15">
       <c r="B37" s="3"/>
-      <c r="C37" s="362" t="s">
+      <c r="C37" s="370" t="s">
         <v>92</v>
       </c>
-      <c r="D37" s="333"/>
-      <c r="E37" s="333"/>
-      <c r="F37" s="333"/>
-      <c r="G37" s="333"/>
-      <c r="H37" s="333"/>
-      <c r="I37" s="333"/>
-      <c r="J37" s="345"/>
-      <c r="K37" s="309" t="s">
+      <c r="D37" s="338"/>
+      <c r="E37" s="338"/>
+      <c r="F37" s="338"/>
+      <c r="G37" s="338"/>
+      <c r="H37" s="338"/>
+      <c r="I37" s="338"/>
+      <c r="J37" s="350"/>
+      <c r="K37" s="314" t="s">
         <v>59</v>
       </c>
-      <c r="L37" s="313">
+      <c r="L37" s="318">
         <v>0.7</v>
       </c>
       <c r="M37" s="80" t="s">
@@ -18936,18 +18806,18 @@
     </row>
     <row r="38" spans="2:89" x14ac:dyDescent="0.15">
       <c r="B38" s="3"/>
-      <c r="C38" s="334"/>
-      <c r="D38" s="335"/>
-      <c r="E38" s="335"/>
-      <c r="F38" s="335"/>
-      <c r="G38" s="335"/>
-      <c r="H38" s="335"/>
-      <c r="I38" s="335"/>
-      <c r="J38" s="346"/>
-      <c r="K38" s="310" t="s">
+      <c r="C38" s="339"/>
+      <c r="D38" s="340"/>
+      <c r="E38" s="340"/>
+      <c r="F38" s="340"/>
+      <c r="G38" s="340"/>
+      <c r="H38" s="340"/>
+      <c r="I38" s="340"/>
+      <c r="J38" s="351"/>
+      <c r="K38" s="315" t="s">
         <v>15</v>
       </c>
-      <c r="L38" s="310" t="s">
+      <c r="L38" s="315" t="s">
         <v>39</v>
       </c>
       <c r="M38" s="81" t="s">
@@ -19032,20 +18902,20 @@
     </row>
     <row r="39" spans="2:89" x14ac:dyDescent="0.15">
       <c r="B39" s="3"/>
-      <c r="C39" s="362" t="s">
+      <c r="C39" s="370" t="s">
         <v>93</v>
       </c>
-      <c r="D39" s="333"/>
-      <c r="E39" s="333"/>
-      <c r="F39" s="333"/>
-      <c r="G39" s="333"/>
-      <c r="H39" s="333"/>
-      <c r="I39" s="333"/>
-      <c r="J39" s="345"/>
-      <c r="K39" s="309" t="s">
+      <c r="D39" s="338"/>
+      <c r="E39" s="338"/>
+      <c r="F39" s="338"/>
+      <c r="G39" s="338"/>
+      <c r="H39" s="338"/>
+      <c r="I39" s="338"/>
+      <c r="J39" s="350"/>
+      <c r="K39" s="314" t="s">
         <v>59</v>
       </c>
-      <c r="L39" s="313">
+      <c r="L39" s="318">
         <v>1</v>
       </c>
       <c r="M39" s="80" t="s">
@@ -19130,18 +19000,18 @@
     </row>
     <row r="40" spans="2:89" x14ac:dyDescent="0.15">
       <c r="B40" s="3"/>
-      <c r="C40" s="334"/>
-      <c r="D40" s="335"/>
-      <c r="E40" s="335"/>
-      <c r="F40" s="335"/>
-      <c r="G40" s="335"/>
-      <c r="H40" s="335"/>
-      <c r="I40" s="335"/>
-      <c r="J40" s="346"/>
-      <c r="K40" s="310" t="s">
+      <c r="C40" s="339"/>
+      <c r="D40" s="340"/>
+      <c r="E40" s="340"/>
+      <c r="F40" s="340"/>
+      <c r="G40" s="340"/>
+      <c r="H40" s="340"/>
+      <c r="I40" s="340"/>
+      <c r="J40" s="351"/>
+      <c r="K40" s="315" t="s">
         <v>15</v>
       </c>
-      <c r="L40" s="310" t="s">
+      <c r="L40" s="315" t="s">
         <v>39</v>
       </c>
       <c r="M40" s="81" t="s">
@@ -19226,20 +19096,20 @@
     </row>
     <row r="41" spans="2:89" x14ac:dyDescent="0.15">
       <c r="B41" s="3"/>
-      <c r="C41" s="362" t="s">
+      <c r="C41" s="370" t="s">
         <v>94</v>
       </c>
-      <c r="D41" s="333"/>
-      <c r="E41" s="333"/>
-      <c r="F41" s="333"/>
-      <c r="G41" s="333"/>
-      <c r="H41" s="333"/>
-      <c r="I41" s="333"/>
-      <c r="J41" s="345"/>
-      <c r="K41" s="309" t="s">
+      <c r="D41" s="338"/>
+      <c r="E41" s="338"/>
+      <c r="F41" s="338"/>
+      <c r="G41" s="338"/>
+      <c r="H41" s="338"/>
+      <c r="I41" s="338"/>
+      <c r="J41" s="350"/>
+      <c r="K41" s="314" t="s">
         <v>59</v>
       </c>
-      <c r="L41" s="313">
+      <c r="L41" s="318">
         <v>1</v>
       </c>
       <c r="M41" s="80" t="s">
@@ -19324,18 +19194,18 @@
     </row>
     <row r="42" spans="2:89" x14ac:dyDescent="0.15">
       <c r="B42" s="3"/>
-      <c r="C42" s="334"/>
-      <c r="D42" s="335"/>
-      <c r="E42" s="335"/>
-      <c r="F42" s="335"/>
-      <c r="G42" s="335"/>
-      <c r="H42" s="335"/>
-      <c r="I42" s="335"/>
-      <c r="J42" s="346"/>
-      <c r="K42" s="310" t="s">
+      <c r="C42" s="339"/>
+      <c r="D42" s="340"/>
+      <c r="E42" s="340"/>
+      <c r="F42" s="340"/>
+      <c r="G42" s="340"/>
+      <c r="H42" s="340"/>
+      <c r="I42" s="340"/>
+      <c r="J42" s="351"/>
+      <c r="K42" s="315" t="s">
         <v>15</v>
       </c>
-      <c r="L42" s="310" t="s">
+      <c r="L42" s="315" t="s">
         <v>39</v>
       </c>
       <c r="M42" s="81" t="s">
@@ -19420,20 +19290,20 @@
     </row>
     <row r="43" spans="2:89" x14ac:dyDescent="0.15">
       <c r="B43" s="3"/>
-      <c r="C43" s="362" t="s">
+      <c r="C43" s="370" t="s">
         <v>95</v>
       </c>
-      <c r="D43" s="333"/>
-      <c r="E43" s="333"/>
-      <c r="F43" s="333"/>
-      <c r="G43" s="333"/>
-      <c r="H43" s="333"/>
-      <c r="I43" s="333"/>
-      <c r="J43" s="345"/>
-      <c r="K43" s="309" t="s">
+      <c r="D43" s="338"/>
+      <c r="E43" s="338"/>
+      <c r="F43" s="338"/>
+      <c r="G43" s="338"/>
+      <c r="H43" s="338"/>
+      <c r="I43" s="338"/>
+      <c r="J43" s="350"/>
+      <c r="K43" s="314" t="s">
         <v>59</v>
       </c>
-      <c r="L43" s="313">
+      <c r="L43" s="318">
         <v>1</v>
       </c>
       <c r="M43" s="80" t="s">
@@ -19518,18 +19388,18 @@
     </row>
     <row r="44" spans="2:89" x14ac:dyDescent="0.15">
       <c r="B44" s="3"/>
-      <c r="C44" s="334"/>
-      <c r="D44" s="335"/>
-      <c r="E44" s="335"/>
-      <c r="F44" s="335"/>
-      <c r="G44" s="335"/>
-      <c r="H44" s="335"/>
-      <c r="I44" s="335"/>
-      <c r="J44" s="346"/>
-      <c r="K44" s="310" t="s">
+      <c r="C44" s="339"/>
+      <c r="D44" s="340"/>
+      <c r="E44" s="340"/>
+      <c r="F44" s="340"/>
+      <c r="G44" s="340"/>
+      <c r="H44" s="340"/>
+      <c r="I44" s="340"/>
+      <c r="J44" s="351"/>
+      <c r="K44" s="315" t="s">
         <v>15</v>
       </c>
-      <c r="L44" s="310" t="s">
+      <c r="L44" s="315" t="s">
         <v>39</v>
       </c>
       <c r="M44" s="81" t="s">
@@ -20102,24 +19972,24 @@
     </row>
     <row r="30" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B30" s="3"/>
-      <c r="C30" s="324" t="s">
+      <c r="C30" s="329" t="s">
         <v>87</v>
       </c>
-      <c r="D30" s="325"/>
-      <c r="E30" s="325" t="s">
+      <c r="D30" s="330"/>
+      <c r="E30" s="330" t="s">
         <v>30</v>
       </c>
-      <c r="F30" s="325" t="s">
+      <c r="F30" s="330" t="s">
         <v>17</v>
       </c>
-      <c r="G30" s="325"/>
-      <c r="H30" s="325"/>
-      <c r="I30" s="325"/>
-      <c r="J30" s="326"/>
-      <c r="K30" s="309" t="s">
+      <c r="G30" s="330"/>
+      <c r="H30" s="330"/>
+      <c r="I30" s="330"/>
+      <c r="J30" s="331"/>
+      <c r="K30" s="314" t="s">
         <v>11</v>
       </c>
-      <c r="L30" s="311">
+      <c r="L30" s="316">
         <v>0</v>
       </c>
       <c r="M30" s="45" t="s">
@@ -20143,16 +20013,16 @@
     </row>
     <row r="31" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B31" s="3"/>
-      <c r="C31" s="327"/>
-      <c r="D31" s="328"/>
-      <c r="E31" s="328"/>
-      <c r="F31" s="328"/>
-      <c r="G31" s="328"/>
-      <c r="H31" s="328"/>
-      <c r="I31" s="328"/>
-      <c r="J31" s="329"/>
-      <c r="K31" s="310"/>
-      <c r="L31" s="312"/>
+      <c r="C31" s="332"/>
+      <c r="D31" s="333"/>
+      <c r="E31" s="333"/>
+      <c r="F31" s="333"/>
+      <c r="G31" s="333"/>
+      <c r="H31" s="333"/>
+      <c r="I31" s="333"/>
+      <c r="J31" s="334"/>
+      <c r="K31" s="315"/>
+      <c r="L31" s="317"/>
       <c r="M31" s="44" t="s">
         <v>49</v>
       </c>
@@ -20174,24 +20044,24 @@
     </row>
     <row r="32" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B32" s="3"/>
-      <c r="C32" s="324" t="s">
+      <c r="C32" s="329" t="s">
         <v>102</v>
       </c>
-      <c r="D32" s="325"/>
-      <c r="E32" s="325" t="s">
+      <c r="D32" s="330"/>
+      <c r="E32" s="330" t="s">
         <v>31</v>
       </c>
-      <c r="F32" s="325" t="s">
+      <c r="F32" s="330" t="s">
         <v>18</v>
       </c>
-      <c r="G32" s="325"/>
-      <c r="H32" s="325"/>
-      <c r="I32" s="325"/>
-      <c r="J32" s="326"/>
-      <c r="K32" s="309" t="s">
+      <c r="G32" s="330"/>
+      <c r="H32" s="330"/>
+      <c r="I32" s="330"/>
+      <c r="J32" s="331"/>
+      <c r="K32" s="314" t="s">
         <v>15</v>
       </c>
-      <c r="L32" s="311">
+      <c r="L32" s="316">
         <v>0</v>
       </c>
       <c r="M32" s="45" t="s">
@@ -20215,16 +20085,16 @@
     </row>
     <row r="33" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B33" s="3"/>
-      <c r="C33" s="327"/>
-      <c r="D33" s="328"/>
-      <c r="E33" s="328"/>
-      <c r="F33" s="328"/>
-      <c r="G33" s="328"/>
-      <c r="H33" s="328"/>
-      <c r="I33" s="328"/>
-      <c r="J33" s="329"/>
-      <c r="K33" s="310"/>
-      <c r="L33" s="312"/>
+      <c r="C33" s="332"/>
+      <c r="D33" s="333"/>
+      <c r="E33" s="333"/>
+      <c r="F33" s="333"/>
+      <c r="G33" s="333"/>
+      <c r="H33" s="333"/>
+      <c r="I33" s="333"/>
+      <c r="J33" s="334"/>
+      <c r="K33" s="315"/>
+      <c r="L33" s="317"/>
       <c r="M33" s="44" t="s">
         <v>49</v>
       </c>
@@ -20246,24 +20116,24 @@
     </row>
     <row r="34" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B34" s="3"/>
-      <c r="C34" s="324" t="s">
+      <c r="C34" s="329" t="s">
         <v>101</v>
       </c>
-      <c r="D34" s="325"/>
-      <c r="E34" s="325" t="s">
+      <c r="D34" s="330"/>
+      <c r="E34" s="330" t="s">
         <v>32</v>
       </c>
-      <c r="F34" s="325" t="s">
+      <c r="F34" s="330" t="s">
         <v>19</v>
       </c>
-      <c r="G34" s="325"/>
-      <c r="H34" s="325"/>
-      <c r="I34" s="325"/>
-      <c r="J34" s="326"/>
-      <c r="K34" s="309" t="s">
+      <c r="G34" s="330"/>
+      <c r="H34" s="330"/>
+      <c r="I34" s="330"/>
+      <c r="J34" s="331"/>
+      <c r="K34" s="314" t="s">
         <v>15</v>
       </c>
-      <c r="L34" s="311">
+      <c r="L34" s="316">
         <v>0</v>
       </c>
       <c r="M34" s="45" t="s">
@@ -20287,16 +20157,16 @@
     </row>
     <row r="35" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B35" s="3"/>
-      <c r="C35" s="327"/>
-      <c r="D35" s="328"/>
-      <c r="E35" s="328"/>
-      <c r="F35" s="328"/>
-      <c r="G35" s="328"/>
-      <c r="H35" s="328"/>
-      <c r="I35" s="328"/>
-      <c r="J35" s="329"/>
-      <c r="K35" s="310"/>
-      <c r="L35" s="312"/>
+      <c r="C35" s="332"/>
+      <c r="D35" s="333"/>
+      <c r="E35" s="333"/>
+      <c r="F35" s="333"/>
+      <c r="G35" s="333"/>
+      <c r="H35" s="333"/>
+      <c r="I35" s="333"/>
+      <c r="J35" s="334"/>
+      <c r="K35" s="315"/>
+      <c r="L35" s="317"/>
       <c r="M35" s="44" t="s">
         <v>49</v>
       </c>
@@ -20318,24 +20188,24 @@
     </row>
     <row r="36" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B36" s="3"/>
-      <c r="C36" s="363" t="s">
+      <c r="C36" s="371" t="s">
         <v>100</v>
       </c>
-      <c r="D36" s="325"/>
-      <c r="E36" s="325" t="s">
+      <c r="D36" s="330"/>
+      <c r="E36" s="330" t="s">
         <v>33</v>
       </c>
-      <c r="F36" s="325" t="s">
+      <c r="F36" s="330" t="s">
         <v>20</v>
       </c>
-      <c r="G36" s="325"/>
-      <c r="H36" s="325"/>
-      <c r="I36" s="325"/>
-      <c r="J36" s="326"/>
-      <c r="K36" s="309" t="s">
+      <c r="G36" s="330"/>
+      <c r="H36" s="330"/>
+      <c r="I36" s="330"/>
+      <c r="J36" s="331"/>
+      <c r="K36" s="314" t="s">
         <v>15</v>
       </c>
-      <c r="L36" s="311">
+      <c r="L36" s="316">
         <v>0</v>
       </c>
       <c r="M36" s="45" t="s">
@@ -20359,16 +20229,16 @@
     </row>
     <row r="37" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B37" s="3"/>
-      <c r="C37" s="327"/>
-      <c r="D37" s="328"/>
-      <c r="E37" s="328"/>
-      <c r="F37" s="328"/>
-      <c r="G37" s="328"/>
-      <c r="H37" s="328"/>
-      <c r="I37" s="328"/>
-      <c r="J37" s="329"/>
-      <c r="K37" s="310"/>
-      <c r="L37" s="312"/>
+      <c r="C37" s="332"/>
+      <c r="D37" s="333"/>
+      <c r="E37" s="333"/>
+      <c r="F37" s="333"/>
+      <c r="G37" s="333"/>
+      <c r="H37" s="333"/>
+      <c r="I37" s="333"/>
+      <c r="J37" s="334"/>
+      <c r="K37" s="315"/>
+      <c r="L37" s="317"/>
       <c r="M37" s="44" t="s">
         <v>49</v>
       </c>
@@ -20390,24 +20260,24 @@
     </row>
     <row r="38" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B38" s="3"/>
-      <c r="C38" s="324" t="s">
+      <c r="C38" s="329" t="s">
         <v>99</v>
       </c>
-      <c r="D38" s="325"/>
-      <c r="E38" s="325" t="s">
+      <c r="D38" s="330"/>
+      <c r="E38" s="330" t="s">
         <v>34</v>
       </c>
-      <c r="F38" s="325" t="s">
+      <c r="F38" s="330" t="s">
         <v>24</v>
       </c>
-      <c r="G38" s="325"/>
-      <c r="H38" s="325"/>
-      <c r="I38" s="325"/>
-      <c r="J38" s="326"/>
-      <c r="K38" s="309" t="s">
+      <c r="G38" s="330"/>
+      <c r="H38" s="330"/>
+      <c r="I38" s="330"/>
+      <c r="J38" s="331"/>
+      <c r="K38" s="314" t="s">
         <v>16</v>
       </c>
-      <c r="L38" s="311">
+      <c r="L38" s="316">
         <v>0</v>
       </c>
       <c r="M38" s="45" t="s">
@@ -20431,16 +20301,16 @@
     </row>
     <row r="39" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B39" s="3"/>
-      <c r="C39" s="327"/>
-      <c r="D39" s="328"/>
-      <c r="E39" s="328"/>
-      <c r="F39" s="328"/>
-      <c r="G39" s="328"/>
-      <c r="H39" s="328"/>
-      <c r="I39" s="328"/>
-      <c r="J39" s="329"/>
-      <c r="K39" s="310"/>
-      <c r="L39" s="312"/>
+      <c r="C39" s="332"/>
+      <c r="D39" s="333"/>
+      <c r="E39" s="333"/>
+      <c r="F39" s="333"/>
+      <c r="G39" s="333"/>
+      <c r="H39" s="333"/>
+      <c r="I39" s="333"/>
+      <c r="J39" s="334"/>
+      <c r="K39" s="315"/>
+      <c r="L39" s="317"/>
       <c r="M39" s="44" t="s">
         <v>49</v>
       </c>
@@ -20462,24 +20332,24 @@
     </row>
     <row r="40" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B40" s="3"/>
-      <c r="C40" s="324" t="s">
+      <c r="C40" s="329" t="s">
         <v>98</v>
       </c>
-      <c r="D40" s="325"/>
-      <c r="E40" s="325" t="s">
+      <c r="D40" s="330"/>
+      <c r="E40" s="330" t="s">
         <v>35</v>
       </c>
-      <c r="F40" s="325" t="s">
+      <c r="F40" s="330" t="s">
         <v>25</v>
       </c>
-      <c r="G40" s="325"/>
-      <c r="H40" s="325"/>
-      <c r="I40" s="325"/>
-      <c r="J40" s="326"/>
-      <c r="K40" s="309" t="s">
+      <c r="G40" s="330"/>
+      <c r="H40" s="330"/>
+      <c r="I40" s="330"/>
+      <c r="J40" s="331"/>
+      <c r="K40" s="314" t="s">
         <v>16</v>
       </c>
-      <c r="L40" s="311">
+      <c r="L40" s="316">
         <v>0</v>
       </c>
       <c r="M40" s="45" t="s">
@@ -20503,16 +20373,16 @@
     </row>
     <row r="41" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B41" s="3"/>
-      <c r="C41" s="327"/>
-      <c r="D41" s="328"/>
-      <c r="E41" s="328"/>
-      <c r="F41" s="328"/>
-      <c r="G41" s="328"/>
-      <c r="H41" s="328"/>
-      <c r="I41" s="328"/>
-      <c r="J41" s="329"/>
-      <c r="K41" s="310"/>
-      <c r="L41" s="312"/>
+      <c r="C41" s="332"/>
+      <c r="D41" s="333"/>
+      <c r="E41" s="333"/>
+      <c r="F41" s="333"/>
+      <c r="G41" s="333"/>
+      <c r="H41" s="333"/>
+      <c r="I41" s="333"/>
+      <c r="J41" s="334"/>
+      <c r="K41" s="315"/>
+      <c r="L41" s="317"/>
       <c r="M41" s="44" t="s">
         <v>49</v>
       </c>
@@ -20534,24 +20404,24 @@
     </row>
     <row r="42" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B42" s="3"/>
-      <c r="C42" s="324" t="s">
+      <c r="C42" s="329" t="s">
         <v>97</v>
       </c>
-      <c r="D42" s="325"/>
-      <c r="E42" s="325" t="s">
+      <c r="D42" s="330"/>
+      <c r="E42" s="330" t="s">
         <v>36</v>
       </c>
-      <c r="F42" s="325" t="s">
+      <c r="F42" s="330" t="s">
         <v>26</v>
       </c>
-      <c r="G42" s="325"/>
-      <c r="H42" s="325"/>
-      <c r="I42" s="325"/>
-      <c r="J42" s="326"/>
-      <c r="K42" s="309" t="s">
+      <c r="G42" s="330"/>
+      <c r="H42" s="330"/>
+      <c r="I42" s="330"/>
+      <c r="J42" s="331"/>
+      <c r="K42" s="314" t="s">
         <v>16</v>
       </c>
-      <c r="L42" s="311">
+      <c r="L42" s="316">
         <v>0</v>
       </c>
       <c r="M42" s="45" t="s">
@@ -20575,16 +20445,16 @@
     </row>
     <row r="43" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B43" s="3"/>
-      <c r="C43" s="327"/>
-      <c r="D43" s="328"/>
-      <c r="E43" s="328"/>
-      <c r="F43" s="328"/>
-      <c r="G43" s="328"/>
-      <c r="H43" s="328"/>
-      <c r="I43" s="328"/>
-      <c r="J43" s="329"/>
-      <c r="K43" s="310"/>
-      <c r="L43" s="312"/>
+      <c r="C43" s="332"/>
+      <c r="D43" s="333"/>
+      <c r="E43" s="333"/>
+      <c r="F43" s="333"/>
+      <c r="G43" s="333"/>
+      <c r="H43" s="333"/>
+      <c r="I43" s="333"/>
+      <c r="J43" s="334"/>
+      <c r="K43" s="315"/>
+      <c r="L43" s="317"/>
       <c r="M43" s="44" t="s">
         <v>49</v>
       </c>
@@ -20606,24 +20476,24 @@
     </row>
     <row r="44" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B44" s="3"/>
-      <c r="C44" s="324" t="s">
+      <c r="C44" s="329" t="s">
         <v>96</v>
       </c>
-      <c r="D44" s="325"/>
-      <c r="E44" s="325" t="s">
+      <c r="D44" s="330"/>
+      <c r="E44" s="330" t="s">
         <v>37</v>
       </c>
-      <c r="F44" s="325" t="s">
+      <c r="F44" s="330" t="s">
         <v>27</v>
       </c>
-      <c r="G44" s="325"/>
-      <c r="H44" s="325"/>
-      <c r="I44" s="325"/>
-      <c r="J44" s="326"/>
-      <c r="K44" s="309" t="s">
+      <c r="G44" s="330"/>
+      <c r="H44" s="330"/>
+      <c r="I44" s="330"/>
+      <c r="J44" s="331"/>
+      <c r="K44" s="314" t="s">
         <v>22</v>
       </c>
-      <c r="L44" s="311">
+      <c r="L44" s="316">
         <v>0</v>
       </c>
       <c r="M44" s="45" t="s">
@@ -20647,16 +20517,16 @@
     </row>
     <row r="45" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B45" s="3"/>
-      <c r="C45" s="327"/>
-      <c r="D45" s="328"/>
-      <c r="E45" s="328"/>
-      <c r="F45" s="328"/>
-      <c r="G45" s="328"/>
-      <c r="H45" s="328"/>
-      <c r="I45" s="328"/>
-      <c r="J45" s="329"/>
-      <c r="K45" s="310"/>
-      <c r="L45" s="312"/>
+      <c r="C45" s="332"/>
+      <c r="D45" s="333"/>
+      <c r="E45" s="333"/>
+      <c r="F45" s="333"/>
+      <c r="G45" s="333"/>
+      <c r="H45" s="333"/>
+      <c r="I45" s="333"/>
+      <c r="J45" s="334"/>
+      <c r="K45" s="315"/>
+      <c r="L45" s="317"/>
       <c r="M45" s="44" t="s">
         <v>49</v>
       </c>
@@ -20711,24 +20581,24 @@
     </row>
     <row r="47" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B47" s="3"/>
-      <c r="C47" s="324" t="s">
+      <c r="C47" s="329" t="s">
         <v>87</v>
       </c>
-      <c r="D47" s="325"/>
-      <c r="E47" s="325" t="s">
+      <c r="D47" s="330"/>
+      <c r="E47" s="330" t="s">
         <v>30</v>
       </c>
-      <c r="F47" s="325" t="s">
+      <c r="F47" s="330" t="s">
         <v>17</v>
       </c>
-      <c r="G47" s="325"/>
-      <c r="H47" s="325"/>
-      <c r="I47" s="325"/>
-      <c r="J47" s="326"/>
-      <c r="K47" s="309" t="s">
+      <c r="G47" s="330"/>
+      <c r="H47" s="330"/>
+      <c r="I47" s="330"/>
+      <c r="J47" s="331"/>
+      <c r="K47" s="314" t="s">
         <v>15</v>
       </c>
-      <c r="L47" s="311">
+      <c r="L47" s="316">
         <v>0</v>
       </c>
       <c r="M47" s="45" t="s">
@@ -20752,16 +20622,16 @@
     </row>
     <row r="48" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B48" s="3"/>
-      <c r="C48" s="327"/>
-      <c r="D48" s="328"/>
-      <c r="E48" s="328"/>
-      <c r="F48" s="328"/>
-      <c r="G48" s="328"/>
-      <c r="H48" s="328"/>
-      <c r="I48" s="328"/>
-      <c r="J48" s="329"/>
-      <c r="K48" s="310"/>
-      <c r="L48" s="312"/>
+      <c r="C48" s="332"/>
+      <c r="D48" s="333"/>
+      <c r="E48" s="333"/>
+      <c r="F48" s="333"/>
+      <c r="G48" s="333"/>
+      <c r="H48" s="333"/>
+      <c r="I48" s="333"/>
+      <c r="J48" s="334"/>
+      <c r="K48" s="315"/>
+      <c r="L48" s="317"/>
       <c r="M48" s="44" t="s">
         <v>49</v>
       </c>
@@ -20783,24 +20653,24 @@
     </row>
     <row r="49" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B49" s="3"/>
-      <c r="C49" s="324" t="s">
+      <c r="C49" s="329" t="s">
         <v>102</v>
       </c>
-      <c r="D49" s="325"/>
-      <c r="E49" s="325" t="s">
+      <c r="D49" s="330"/>
+      <c r="E49" s="330" t="s">
         <v>31</v>
       </c>
-      <c r="F49" s="325" t="s">
+      <c r="F49" s="330" t="s">
         <v>18</v>
       </c>
-      <c r="G49" s="325"/>
-      <c r="H49" s="325"/>
-      <c r="I49" s="325"/>
-      <c r="J49" s="326"/>
-      <c r="K49" s="309" t="s">
+      <c r="G49" s="330"/>
+      <c r="H49" s="330"/>
+      <c r="I49" s="330"/>
+      <c r="J49" s="331"/>
+      <c r="K49" s="314" t="s">
         <v>16</v>
       </c>
-      <c r="L49" s="311">
+      <c r="L49" s="316">
         <v>0</v>
       </c>
       <c r="M49" s="45" t="s">
@@ -20824,16 +20694,16 @@
     </row>
     <row r="50" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B50" s="3"/>
-      <c r="C50" s="327"/>
-      <c r="D50" s="328"/>
-      <c r="E50" s="328"/>
-      <c r="F50" s="328"/>
-      <c r="G50" s="328"/>
-      <c r="H50" s="328"/>
-      <c r="I50" s="328"/>
-      <c r="J50" s="329"/>
-      <c r="K50" s="310"/>
-      <c r="L50" s="312"/>
+      <c r="C50" s="332"/>
+      <c r="D50" s="333"/>
+      <c r="E50" s="333"/>
+      <c r="F50" s="333"/>
+      <c r="G50" s="333"/>
+      <c r="H50" s="333"/>
+      <c r="I50" s="333"/>
+      <c r="J50" s="334"/>
+      <c r="K50" s="315"/>
+      <c r="L50" s="317"/>
       <c r="M50" s="44" t="s">
         <v>49</v>
       </c>
@@ -20855,24 +20725,24 @@
     </row>
     <row r="51" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B51" s="3"/>
-      <c r="C51" s="324" t="s">
+      <c r="C51" s="329" t="s">
         <v>101</v>
       </c>
-      <c r="D51" s="325"/>
-      <c r="E51" s="325" t="s">
+      <c r="D51" s="330"/>
+      <c r="E51" s="330" t="s">
         <v>32</v>
       </c>
-      <c r="F51" s="325" t="s">
+      <c r="F51" s="330" t="s">
         <v>19</v>
       </c>
-      <c r="G51" s="325"/>
-      <c r="H51" s="325"/>
-      <c r="I51" s="325"/>
-      <c r="J51" s="326"/>
-      <c r="K51" s="309" t="s">
+      <c r="G51" s="330"/>
+      <c r="H51" s="330"/>
+      <c r="I51" s="330"/>
+      <c r="J51" s="331"/>
+      <c r="K51" s="314" t="s">
         <v>16</v>
       </c>
-      <c r="L51" s="311">
+      <c r="L51" s="316">
         <v>0</v>
       </c>
       <c r="M51" s="45" t="s">
@@ -20896,16 +20766,16 @@
     </row>
     <row r="52" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B52" s="3"/>
-      <c r="C52" s="327"/>
-      <c r="D52" s="328"/>
-      <c r="E52" s="328"/>
-      <c r="F52" s="328"/>
-      <c r="G52" s="328"/>
-      <c r="H52" s="328"/>
-      <c r="I52" s="328"/>
-      <c r="J52" s="329"/>
-      <c r="K52" s="310"/>
-      <c r="L52" s="312"/>
+      <c r="C52" s="332"/>
+      <c r="D52" s="333"/>
+      <c r="E52" s="333"/>
+      <c r="F52" s="333"/>
+      <c r="G52" s="333"/>
+      <c r="H52" s="333"/>
+      <c r="I52" s="333"/>
+      <c r="J52" s="334"/>
+      <c r="K52" s="315"/>
+      <c r="L52" s="317"/>
       <c r="M52" s="44" t="s">
         <v>49</v>
       </c>
@@ -20927,24 +20797,24 @@
     </row>
     <row r="53" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B53" s="3"/>
-      <c r="C53" s="363" t="s">
+      <c r="C53" s="371" t="s">
         <v>100</v>
       </c>
-      <c r="D53" s="325"/>
-      <c r="E53" s="325" t="s">
+      <c r="D53" s="330"/>
+      <c r="E53" s="330" t="s">
         <v>33</v>
       </c>
-      <c r="F53" s="325" t="s">
+      <c r="F53" s="330" t="s">
         <v>20</v>
       </c>
-      <c r="G53" s="325"/>
-      <c r="H53" s="325"/>
-      <c r="I53" s="325"/>
-      <c r="J53" s="326"/>
-      <c r="K53" s="309" t="s">
+      <c r="G53" s="330"/>
+      <c r="H53" s="330"/>
+      <c r="I53" s="330"/>
+      <c r="J53" s="331"/>
+      <c r="K53" s="314" t="s">
         <v>16</v>
       </c>
-      <c r="L53" s="311">
+      <c r="L53" s="316">
         <v>0</v>
       </c>
       <c r="M53" s="45" t="s">
@@ -20968,16 +20838,16 @@
     </row>
     <row r="54" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B54" s="3"/>
-      <c r="C54" s="327"/>
-      <c r="D54" s="328"/>
-      <c r="E54" s="328"/>
-      <c r="F54" s="328"/>
-      <c r="G54" s="328"/>
-      <c r="H54" s="328"/>
-      <c r="I54" s="328"/>
-      <c r="J54" s="329"/>
-      <c r="K54" s="310"/>
-      <c r="L54" s="312"/>
+      <c r="C54" s="332"/>
+      <c r="D54" s="333"/>
+      <c r="E54" s="333"/>
+      <c r="F54" s="333"/>
+      <c r="G54" s="333"/>
+      <c r="H54" s="333"/>
+      <c r="I54" s="333"/>
+      <c r="J54" s="334"/>
+      <c r="K54" s="315"/>
+      <c r="L54" s="317"/>
       <c r="M54" s="44" t="s">
         <v>49</v>
       </c>
@@ -20999,24 +20869,24 @@
     </row>
     <row r="55" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B55" s="3"/>
-      <c r="C55" s="324" t="s">
+      <c r="C55" s="329" t="s">
         <v>99</v>
       </c>
-      <c r="D55" s="325"/>
-      <c r="E55" s="325" t="s">
+      <c r="D55" s="330"/>
+      <c r="E55" s="330" t="s">
         <v>34</v>
       </c>
-      <c r="F55" s="325" t="s">
+      <c r="F55" s="330" t="s">
         <v>24</v>
       </c>
-      <c r="G55" s="325"/>
-      <c r="H55" s="325"/>
-      <c r="I55" s="325"/>
-      <c r="J55" s="326"/>
-      <c r="K55" s="309" t="s">
+      <c r="G55" s="330"/>
+      <c r="H55" s="330"/>
+      <c r="I55" s="330"/>
+      <c r="J55" s="331"/>
+      <c r="K55" s="314" t="s">
         <v>22</v>
       </c>
-      <c r="L55" s="311">
+      <c r="L55" s="316">
         <v>0</v>
       </c>
       <c r="M55" s="45" t="s">
@@ -21040,16 +20910,16 @@
     </row>
     <row r="56" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B56" s="3"/>
-      <c r="C56" s="327"/>
-      <c r="D56" s="328"/>
-      <c r="E56" s="328"/>
-      <c r="F56" s="328"/>
-      <c r="G56" s="328"/>
-      <c r="H56" s="328"/>
-      <c r="I56" s="328"/>
-      <c r="J56" s="329"/>
-      <c r="K56" s="310"/>
-      <c r="L56" s="312"/>
+      <c r="C56" s="332"/>
+      <c r="D56" s="333"/>
+      <c r="E56" s="333"/>
+      <c r="F56" s="333"/>
+      <c r="G56" s="333"/>
+      <c r="H56" s="333"/>
+      <c r="I56" s="333"/>
+      <c r="J56" s="334"/>
+      <c r="K56" s="315"/>
+      <c r="L56" s="317"/>
       <c r="M56" s="44" t="s">
         <v>49</v>
       </c>
@@ -21071,24 +20941,24 @@
     </row>
     <row r="57" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B57" s="3"/>
-      <c r="C57" s="324" t="s">
+      <c r="C57" s="329" t="s">
         <v>98</v>
       </c>
-      <c r="D57" s="325"/>
-      <c r="E57" s="325" t="s">
+      <c r="D57" s="330"/>
+      <c r="E57" s="330" t="s">
         <v>35</v>
       </c>
-      <c r="F57" s="325" t="s">
+      <c r="F57" s="330" t="s">
         <v>25</v>
       </c>
-      <c r="G57" s="325"/>
-      <c r="H57" s="325"/>
-      <c r="I57" s="325"/>
-      <c r="J57" s="326"/>
-      <c r="K57" s="309" t="s">
+      <c r="G57" s="330"/>
+      <c r="H57" s="330"/>
+      <c r="I57" s="330"/>
+      <c r="J57" s="331"/>
+      <c r="K57" s="314" t="s">
         <v>22</v>
       </c>
-      <c r="L57" s="311">
+      <c r="L57" s="316">
         <v>0</v>
       </c>
       <c r="M57" s="45" t="s">
@@ -21112,16 +20982,16 @@
     </row>
     <row r="58" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B58" s="3"/>
-      <c r="C58" s="327"/>
-      <c r="D58" s="328"/>
-      <c r="E58" s="328"/>
-      <c r="F58" s="328"/>
-      <c r="G58" s="328"/>
-      <c r="H58" s="328"/>
-      <c r="I58" s="328"/>
-      <c r="J58" s="329"/>
-      <c r="K58" s="310"/>
-      <c r="L58" s="312"/>
+      <c r="C58" s="332"/>
+      <c r="D58" s="333"/>
+      <c r="E58" s="333"/>
+      <c r="F58" s="333"/>
+      <c r="G58" s="333"/>
+      <c r="H58" s="333"/>
+      <c r="I58" s="333"/>
+      <c r="J58" s="334"/>
+      <c r="K58" s="315"/>
+      <c r="L58" s="317"/>
       <c r="M58" s="44" t="s">
         <v>49</v>
       </c>
@@ -21143,24 +21013,24 @@
     </row>
     <row r="59" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B59" s="3"/>
-      <c r="C59" s="324" t="s">
+      <c r="C59" s="329" t="s">
         <v>97</v>
       </c>
-      <c r="D59" s="325"/>
-      <c r="E59" s="325" t="s">
+      <c r="D59" s="330"/>
+      <c r="E59" s="330" t="s">
         <v>36</v>
       </c>
-      <c r="F59" s="325" t="s">
+      <c r="F59" s="330" t="s">
         <v>26</v>
       </c>
-      <c r="G59" s="325"/>
-      <c r="H59" s="325"/>
-      <c r="I59" s="325"/>
-      <c r="J59" s="326"/>
-      <c r="K59" s="309" t="s">
+      <c r="G59" s="330"/>
+      <c r="H59" s="330"/>
+      <c r="I59" s="330"/>
+      <c r="J59" s="331"/>
+      <c r="K59" s="314" t="s">
         <v>22</v>
       </c>
-      <c r="L59" s="311">
+      <c r="L59" s="316">
         <v>0</v>
       </c>
       <c r="M59" s="45" t="s">
@@ -21184,16 +21054,16 @@
     </row>
     <row r="60" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B60" s="3"/>
-      <c r="C60" s="327"/>
-      <c r="D60" s="328"/>
-      <c r="E60" s="328"/>
-      <c r="F60" s="328"/>
-      <c r="G60" s="328"/>
-      <c r="H60" s="328"/>
-      <c r="I60" s="328"/>
-      <c r="J60" s="329"/>
-      <c r="K60" s="310"/>
-      <c r="L60" s="312"/>
+      <c r="C60" s="332"/>
+      <c r="D60" s="333"/>
+      <c r="E60" s="333"/>
+      <c r="F60" s="333"/>
+      <c r="G60" s="333"/>
+      <c r="H60" s="333"/>
+      <c r="I60" s="333"/>
+      <c r="J60" s="334"/>
+      <c r="K60" s="315"/>
+      <c r="L60" s="317"/>
       <c r="M60" s="44" t="s">
         <v>49</v>
       </c>
@@ -21215,24 +21085,24 @@
     </row>
     <row r="61" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B61" s="3"/>
-      <c r="C61" s="324" t="s">
+      <c r="C61" s="329" t="s">
         <v>96</v>
       </c>
-      <c r="D61" s="325"/>
-      <c r="E61" s="325" t="s">
+      <c r="D61" s="330"/>
+      <c r="E61" s="330" t="s">
         <v>37</v>
       </c>
-      <c r="F61" s="325" t="s">
+      <c r="F61" s="330" t="s">
         <v>27</v>
       </c>
-      <c r="G61" s="325"/>
-      <c r="H61" s="325"/>
-      <c r="I61" s="325"/>
-      <c r="J61" s="326"/>
-      <c r="K61" s="309" t="s">
+      <c r="G61" s="330"/>
+      <c r="H61" s="330"/>
+      <c r="I61" s="330"/>
+      <c r="J61" s="331"/>
+      <c r="K61" s="314" t="s">
         <v>23</v>
       </c>
-      <c r="L61" s="311">
+      <c r="L61" s="316">
         <v>0</v>
       </c>
       <c r="M61" s="45" t="s">
@@ -21256,16 +21126,16 @@
     </row>
     <row r="62" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B62" s="3"/>
-      <c r="C62" s="327"/>
-      <c r="D62" s="328"/>
-      <c r="E62" s="328"/>
-      <c r="F62" s="328"/>
-      <c r="G62" s="328"/>
-      <c r="H62" s="328"/>
-      <c r="I62" s="328"/>
-      <c r="J62" s="329"/>
-      <c r="K62" s="310"/>
-      <c r="L62" s="312"/>
+      <c r="C62" s="332"/>
+      <c r="D62" s="333"/>
+      <c r="E62" s="333"/>
+      <c r="F62" s="333"/>
+      <c r="G62" s="333"/>
+      <c r="H62" s="333"/>
+      <c r="I62" s="333"/>
+      <c r="J62" s="334"/>
+      <c r="K62" s="315"/>
+      <c r="L62" s="317"/>
       <c r="M62" s="44" t="s">
         <v>49</v>
       </c>

--- a/グループ開発スケジュール.xlsx
+++ b/グループ開発スケジュール.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\file-srv\share\05_グループ開発\グループD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\D-group\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF4AC66B-D5C5-4572-B7CB-AFBF24F1EAC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88586DF3-F505-4D97-A682-8314867D09D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11550" yWindow="2535" windowWidth="15375" windowHeight="10050" tabRatio="560" firstSheet="5" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="560" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="マイルストーン" sheetId="7" r:id="rId1"/>
@@ -3501,120 +3501,120 @@
     <xf numFmtId="179" fontId="0" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="99" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="101" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="86" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="88" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="86" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="87" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="100" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="87" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="88" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="97" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="83" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="85" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="94" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="96" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="94" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="86" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="88" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="88" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="100" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="101" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="83" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="86" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="87" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="94" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="86" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="88" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="86" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="88" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="88" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="83" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="87" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="88" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="100" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="101" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="99" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="100" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="101" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="97" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="83" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="85" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="94" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -3645,6 +3645,24 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3679,41 +3697,32 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3741,22 +3750,46 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="110" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="102" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="103" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3767,39 +3800,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="102" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="103" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
@@ -4554,7 +4554,7 @@
               <a:picLocks noChangeAspect="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="マイルストーン!A1:U20" spid="_x0000_s9543"/>
+                  <a14:cameraTool cellRange="マイルストーン!A1:U20" spid="_x0000_s9544"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -4932,7 +4932,7 @@
               <a:picLocks noChangeAspect="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="マイルストーン!A1:U20" spid="_x0000_s10520"/>
+                  <a14:cameraTool cellRange="マイルストーン!A1:U20" spid="_x0000_s10521"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -5408,7 +5408,7 @@
               <a:picLocks noChangeAspect="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="マイルストーン!A1:U20" spid="_x0000_s2368"/>
+                  <a14:cameraTool cellRange="マイルストーン!A1:U20" spid="_x0000_s2369"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -5930,7 +5930,7 @@
               <a:picLocks noChangeAspect="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="マイルストーン!A1:U20" spid="_x0000_s4419"/>
+                  <a14:cameraTool cellRange="マイルストーン!A1:U20" spid="_x0000_s4420"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -6256,7 +6256,7 @@
               <a:picLocks noChangeAspect="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="マイルストーン!A1:U20" spid="_x0000_s5531"/>
+                  <a14:cameraTool cellRange="マイルストーン!A1:U20" spid="_x0000_s5533"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -6533,7 +6533,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="マイルストーン!A1:U20" spid="_x0000_s5532"/>
+                  <a14:cameraTool cellRange="マイルストーン!A1:U20" spid="_x0000_s5534"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -6964,7 +6964,7 @@
               <a:picLocks noChangeAspect="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="マイルストーン!A1:U20" spid="_x0000_s7536"/>
+                  <a14:cameraTool cellRange="マイルストーン!A1:U20" spid="_x0000_s7537"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -8299,17 +8299,17 @@
       <c r="C30" s="371" t="s">
         <v>104</v>
       </c>
-      <c r="D30" s="330"/>
-      <c r="E30" s="330"/>
-      <c r="F30" s="330"/>
-      <c r="G30" s="330"/>
-      <c r="H30" s="330"/>
-      <c r="I30" s="330"/>
-      <c r="J30" s="331"/>
+      <c r="D30" s="319"/>
+      <c r="E30" s="319"/>
+      <c r="F30" s="319"/>
+      <c r="G30" s="319"/>
+      <c r="H30" s="319"/>
+      <c r="I30" s="319"/>
+      <c r="J30" s="320"/>
       <c r="K30" s="314" t="s">
         <v>15</v>
       </c>
-      <c r="L30" s="318">
+      <c r="L30" s="324">
         <v>0</v>
       </c>
       <c r="M30" s="45" t="s">
@@ -8333,14 +8333,14 @@
     </row>
     <row r="31" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B31" s="3"/>
-      <c r="C31" s="332"/>
-      <c r="D31" s="333"/>
-      <c r="E31" s="333"/>
-      <c r="F31" s="333"/>
-      <c r="G31" s="333"/>
-      <c r="H31" s="333"/>
-      <c r="I31" s="333"/>
-      <c r="J31" s="334"/>
+      <c r="C31" s="321"/>
+      <c r="D31" s="322"/>
+      <c r="E31" s="322"/>
+      <c r="F31" s="322"/>
+      <c r="G31" s="322"/>
+      <c r="H31" s="322"/>
+      <c r="I31" s="322"/>
+      <c r="J31" s="323"/>
       <c r="K31" s="315"/>
       <c r="L31" s="315"/>
       <c r="M31" s="44" t="s">
@@ -8400,17 +8400,17 @@
       <c r="C33" s="371" t="s">
         <v>105</v>
       </c>
-      <c r="D33" s="330"/>
-      <c r="E33" s="330"/>
-      <c r="F33" s="330"/>
-      <c r="G33" s="330"/>
-      <c r="H33" s="330"/>
-      <c r="I33" s="330"/>
-      <c r="J33" s="331"/>
+      <c r="D33" s="319"/>
+      <c r="E33" s="319"/>
+      <c r="F33" s="319"/>
+      <c r="G33" s="319"/>
+      <c r="H33" s="319"/>
+      <c r="I33" s="319"/>
+      <c r="J33" s="320"/>
       <c r="K33" s="314" t="s">
         <v>15</v>
       </c>
-      <c r="L33" s="318">
+      <c r="L33" s="324">
         <v>0</v>
       </c>
       <c r="M33" s="45" t="s">
@@ -8434,14 +8434,14 @@
     </row>
     <row r="34" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B34" s="3"/>
-      <c r="C34" s="332"/>
-      <c r="D34" s="333"/>
-      <c r="E34" s="333"/>
-      <c r="F34" s="333"/>
-      <c r="G34" s="333"/>
-      <c r="H34" s="333"/>
-      <c r="I34" s="333"/>
-      <c r="J34" s="334"/>
+      <c r="C34" s="321"/>
+      <c r="D34" s="322"/>
+      <c r="E34" s="322"/>
+      <c r="F34" s="322"/>
+      <c r="G34" s="322"/>
+      <c r="H34" s="322"/>
+      <c r="I34" s="322"/>
+      <c r="J34" s="323"/>
       <c r="K34" s="315"/>
       <c r="L34" s="315"/>
       <c r="M34" s="44" t="s">
@@ -8465,20 +8465,20 @@
     </row>
     <row r="35" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B35" s="3"/>
-      <c r="C35" s="329" t="s">
+      <c r="C35" s="318" t="s">
         <v>106</v>
       </c>
-      <c r="D35" s="330"/>
-      <c r="E35" s="330"/>
-      <c r="F35" s="330"/>
-      <c r="G35" s="330"/>
-      <c r="H35" s="330"/>
-      <c r="I35" s="330"/>
-      <c r="J35" s="331"/>
+      <c r="D35" s="319"/>
+      <c r="E35" s="319"/>
+      <c r="F35" s="319"/>
+      <c r="G35" s="319"/>
+      <c r="H35" s="319"/>
+      <c r="I35" s="319"/>
+      <c r="J35" s="320"/>
       <c r="K35" s="314" t="s">
         <v>16</v>
       </c>
-      <c r="L35" s="318">
+      <c r="L35" s="324">
         <v>0</v>
       </c>
       <c r="M35" s="45" t="s">
@@ -8502,14 +8502,14 @@
     </row>
     <row r="36" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B36" s="3"/>
-      <c r="C36" s="332"/>
-      <c r="D36" s="333"/>
-      <c r="E36" s="333"/>
-      <c r="F36" s="333"/>
-      <c r="G36" s="333"/>
-      <c r="H36" s="333"/>
-      <c r="I36" s="333"/>
-      <c r="J36" s="334"/>
+      <c r="C36" s="321"/>
+      <c r="D36" s="322"/>
+      <c r="E36" s="322"/>
+      <c r="F36" s="322"/>
+      <c r="G36" s="322"/>
+      <c r="H36" s="322"/>
+      <c r="I36" s="322"/>
+      <c r="J36" s="323"/>
       <c r="K36" s="315"/>
       <c r="L36" s="315"/>
       <c r="M36" s="44" t="s">
@@ -8774,17 +8774,17 @@
       <c r="C29" s="372" t="s">
         <v>54</v>
       </c>
-      <c r="D29" s="338"/>
-      <c r="E29" s="338"/>
-      <c r="F29" s="338"/>
-      <c r="G29" s="338"/>
-      <c r="H29" s="338"/>
-      <c r="I29" s="338"/>
-      <c r="J29" s="350"/>
+      <c r="D29" s="336"/>
+      <c r="E29" s="336"/>
+      <c r="F29" s="336"/>
+      <c r="G29" s="336"/>
+      <c r="H29" s="336"/>
+      <c r="I29" s="336"/>
+      <c r="J29" s="337"/>
       <c r="K29" s="314" t="s">
         <v>15</v>
       </c>
-      <c r="L29" s="318">
+      <c r="L29" s="324">
         <v>0</v>
       </c>
       <c r="M29" s="45" t="s">
@@ -8808,14 +8808,14 @@
     </row>
     <row r="30" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B30" s="3"/>
-      <c r="C30" s="339"/>
-      <c r="D30" s="340"/>
-      <c r="E30" s="340"/>
-      <c r="F30" s="340"/>
-      <c r="G30" s="340"/>
-      <c r="H30" s="340"/>
-      <c r="I30" s="340"/>
-      <c r="J30" s="351"/>
+      <c r="C30" s="338"/>
+      <c r="D30" s="339"/>
+      <c r="E30" s="339"/>
+      <c r="F30" s="339"/>
+      <c r="G30" s="339"/>
+      <c r="H30" s="339"/>
+      <c r="I30" s="339"/>
+      <c r="J30" s="340"/>
       <c r="K30" s="315"/>
       <c r="L30" s="315"/>
       <c r="M30" s="44" t="s">
@@ -8839,20 +8839,20 @@
     </row>
     <row r="31" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B31" s="3"/>
-      <c r="C31" s="337" t="s">
+      <c r="C31" s="335" t="s">
         <v>55</v>
       </c>
-      <c r="D31" s="338"/>
-      <c r="E31" s="338"/>
-      <c r="F31" s="338"/>
-      <c r="G31" s="338"/>
-      <c r="H31" s="338"/>
-      <c r="I31" s="338"/>
-      <c r="J31" s="350"/>
+      <c r="D31" s="336"/>
+      <c r="E31" s="336"/>
+      <c r="F31" s="336"/>
+      <c r="G31" s="336"/>
+      <c r="H31" s="336"/>
+      <c r="I31" s="336"/>
+      <c r="J31" s="337"/>
       <c r="K31" s="314" t="s">
         <v>16</v>
       </c>
-      <c r="L31" s="318">
+      <c r="L31" s="324">
         <v>0</v>
       </c>
       <c r="M31" s="45" t="s">
@@ -8876,14 +8876,14 @@
     </row>
     <row r="32" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B32" s="3"/>
-      <c r="C32" s="339"/>
-      <c r="D32" s="340"/>
-      <c r="E32" s="340"/>
-      <c r="F32" s="340"/>
-      <c r="G32" s="340"/>
-      <c r="H32" s="340"/>
-      <c r="I32" s="340"/>
-      <c r="J32" s="351"/>
+      <c r="C32" s="338"/>
+      <c r="D32" s="339"/>
+      <c r="E32" s="339"/>
+      <c r="F32" s="339"/>
+      <c r="G32" s="339"/>
+      <c r="H32" s="339"/>
+      <c r="I32" s="339"/>
+      <c r="J32" s="340"/>
       <c r="K32" s="315"/>
       <c r="L32" s="315"/>
       <c r="M32" s="44" t="s">
@@ -8907,20 +8907,20 @@
     </row>
     <row r="33" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B33" s="3"/>
-      <c r="C33" s="337" t="s">
+      <c r="C33" s="335" t="s">
         <v>56</v>
       </c>
-      <c r="D33" s="338"/>
-      <c r="E33" s="338"/>
-      <c r="F33" s="338"/>
-      <c r="G33" s="338"/>
-      <c r="H33" s="338"/>
-      <c r="I33" s="338"/>
-      <c r="J33" s="350"/>
+      <c r="D33" s="336"/>
+      <c r="E33" s="336"/>
+      <c r="F33" s="336"/>
+      <c r="G33" s="336"/>
+      <c r="H33" s="336"/>
+      <c r="I33" s="336"/>
+      <c r="J33" s="337"/>
       <c r="K33" s="314" t="s">
         <v>21</v>
       </c>
-      <c r="L33" s="318">
+      <c r="L33" s="324">
         <v>0</v>
       </c>
       <c r="M33" s="45" t="s">
@@ -8944,14 +8944,14 @@
     </row>
     <row r="34" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B34" s="3"/>
-      <c r="C34" s="339"/>
-      <c r="D34" s="340"/>
-      <c r="E34" s="340"/>
-      <c r="F34" s="340"/>
-      <c r="G34" s="340"/>
-      <c r="H34" s="340"/>
-      <c r="I34" s="340"/>
-      <c r="J34" s="351"/>
+      <c r="C34" s="338"/>
+      <c r="D34" s="339"/>
+      <c r="E34" s="339"/>
+      <c r="F34" s="339"/>
+      <c r="G34" s="339"/>
+      <c r="H34" s="339"/>
+      <c r="I34" s="339"/>
+      <c r="J34" s="340"/>
       <c r="K34" s="315"/>
       <c r="L34" s="315"/>
       <c r="M34" s="44" t="s">
@@ -9521,9 +9521,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6151F9F-0C3C-493F-A15D-BD44D6274607}">
   <dimension ref="C19:AN38"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="B24" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="R36" sqref="R36"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -9642,10 +9640,10 @@
       <c r="I23" s="7"/>
       <c r="J23" s="7"/>
       <c r="K23" s="7"/>
-      <c r="L23" s="288" t="s">
+      <c r="L23" s="302" t="s">
         <v>130</v>
       </c>
-      <c r="M23" s="289"/>
+      <c r="M23" s="303"/>
       <c r="N23" s="212"/>
       <c r="O23" s="212"/>
       <c r="P23" s="212"/>
@@ -9663,27 +9661,27 @@
       <c r="Z23" s="268"/>
       <c r="AA23" s="268"/>
       <c r="AB23" s="268"/>
-      <c r="AC23" s="270" t="s">
+      <c r="AC23" s="289" t="s">
         <v>131</v>
       </c>
-      <c r="AD23" s="271"/>
-      <c r="AE23" s="270" t="s">
+      <c r="AD23" s="305"/>
+      <c r="AE23" s="289" t="s">
         <v>138</v>
       </c>
-      <c r="AF23" s="278"/>
-      <c r="AG23" s="270" t="s">
+      <c r="AF23" s="290"/>
+      <c r="AG23" s="289" t="s">
         <v>176</v>
       </c>
-      <c r="AH23" s="278"/>
-      <c r="AI23" s="270" t="s">
+      <c r="AH23" s="290"/>
+      <c r="AI23" s="289" t="s">
         <v>177</v>
       </c>
-      <c r="AJ23" s="278"/>
-      <c r="AK23" s="301" t="s">
+      <c r="AJ23" s="290"/>
+      <c r="AK23" s="283" t="s">
         <v>178</v>
       </c>
-      <c r="AL23" s="302"/>
-      <c r="AM23" s="299" t="s">
+      <c r="AL23" s="284"/>
+      <c r="AM23" s="279" t="s">
         <v>132</v>
       </c>
     </row>
@@ -9697,8 +9695,8 @@
       <c r="I24" s="12"/>
       <c r="J24" s="12"/>
       <c r="K24" s="12"/>
-      <c r="L24" s="289"/>
-      <c r="M24" s="289"/>
+      <c r="L24" s="303"/>
+      <c r="M24" s="303"/>
       <c r="N24" s="212"/>
       <c r="O24" s="212"/>
       <c r="P24" s="212"/>
@@ -9714,17 +9712,17 @@
       <c r="Z24" s="268"/>
       <c r="AA24" s="268"/>
       <c r="AB24" s="268"/>
-      <c r="AC24" s="272"/>
-      <c r="AD24" s="273"/>
-      <c r="AE24" s="272"/>
-      <c r="AF24" s="279"/>
-      <c r="AG24" s="272"/>
-      <c r="AH24" s="279"/>
-      <c r="AI24" s="272"/>
-      <c r="AJ24" s="279"/>
-      <c r="AK24" s="303"/>
-      <c r="AL24" s="304"/>
-      <c r="AM24" s="300"/>
+      <c r="AC24" s="291"/>
+      <c r="AD24" s="306"/>
+      <c r="AE24" s="291"/>
+      <c r="AF24" s="292"/>
+      <c r="AG24" s="291"/>
+      <c r="AH24" s="292"/>
+      <c r="AI24" s="291"/>
+      <c r="AJ24" s="292"/>
+      <c r="AK24" s="285"/>
+      <c r="AL24" s="286"/>
+      <c r="AM24" s="280"/>
     </row>
     <row r="25" spans="3:39" x14ac:dyDescent="0.15">
       <c r="C25" s="15"/>
@@ -9736,8 +9734,8 @@
       <c r="I25" s="17"/>
       <c r="J25" s="17"/>
       <c r="K25" s="17"/>
-      <c r="L25" s="289"/>
-      <c r="M25" s="289"/>
+      <c r="L25" s="303"/>
+      <c r="M25" s="303"/>
       <c r="N25" s="212"/>
       <c r="O25" s="212"/>
       <c r="P25" s="212"/>
@@ -9753,17 +9751,17 @@
       <c r="Z25" s="268"/>
       <c r="AA25" s="268"/>
       <c r="AB25" s="268"/>
-      <c r="AC25" s="274"/>
-      <c r="AD25" s="275"/>
-      <c r="AE25" s="274"/>
-      <c r="AF25" s="280"/>
-      <c r="AG25" s="274"/>
-      <c r="AH25" s="280"/>
-      <c r="AI25" s="274"/>
-      <c r="AJ25" s="280"/>
-      <c r="AK25" s="305"/>
-      <c r="AL25" s="306"/>
-      <c r="AM25" s="300"/>
+      <c r="AC25" s="293"/>
+      <c r="AD25" s="307"/>
+      <c r="AE25" s="293"/>
+      <c r="AF25" s="294"/>
+      <c r="AG25" s="293"/>
+      <c r="AH25" s="294"/>
+      <c r="AI25" s="293"/>
+      <c r="AJ25" s="294"/>
+      <c r="AK25" s="287"/>
+      <c r="AL25" s="288"/>
+      <c r="AM25" s="280"/>
     </row>
     <row r="26" spans="3:39" x14ac:dyDescent="0.15">
       <c r="C26" s="2">
@@ -9779,8 +9777,8 @@
       <c r="I26" s="20"/>
       <c r="J26" s="20"/>
       <c r="K26" s="218"/>
-      <c r="L26" s="285"/>
-      <c r="M26" s="286"/>
+      <c r="L26" s="301"/>
+      <c r="M26" s="276"/>
       <c r="N26" s="212"/>
       <c r="O26" s="212"/>
       <c r="P26" s="212"/>
@@ -9797,17 +9795,17 @@
       <c r="Y26" s="269"/>
       <c r="Z26" s="269"/>
       <c r="AA26" s="269"/>
-      <c r="AB26" s="281"/>
+      <c r="AB26" s="295"/>
       <c r="AC26" s="224"/>
       <c r="AD26" s="225"/>
-      <c r="AE26" s="281"/>
-      <c r="AF26" s="282"/>
-      <c r="AG26" s="281"/>
-      <c r="AH26" s="282"/>
-      <c r="AI26" s="281"/>
-      <c r="AJ26" s="282"/>
-      <c r="AK26" s="291"/>
-      <c r="AL26" s="292"/>
+      <c r="AE26" s="295"/>
+      <c r="AF26" s="296"/>
+      <c r="AG26" s="295"/>
+      <c r="AH26" s="296"/>
+      <c r="AI26" s="295"/>
+      <c r="AJ26" s="296"/>
+      <c r="AK26" s="281"/>
+      <c r="AL26" s="282"/>
       <c r="AM26" s="213"/>
     </row>
     <row r="27" spans="3:39" x14ac:dyDescent="0.15">
@@ -9824,15 +9822,15 @@
       <c r="I27" s="29"/>
       <c r="J27" s="29"/>
       <c r="K27" s="219"/>
-      <c r="L27" s="285">
+      <c r="L27" s="301">
         <f>6*1.5</f>
         <v>9</v>
       </c>
-      <c r="M27" s="286"/>
-      <c r="N27" s="307">
+      <c r="M27" s="276"/>
+      <c r="N27" s="275">
         <v>0.23</v>
       </c>
-      <c r="O27" s="286"/>
+      <c r="O27" s="276"/>
       <c r="P27" s="212"/>
       <c r="Q27" s="212"/>
       <c r="R27" s="212"/>
@@ -9840,11 +9838,11 @@
       <c r="T27" s="212"/>
       <c r="U27" s="212"/>
       <c r="V27" s="212"/>
-      <c r="W27" s="290">
+      <c r="W27" s="304">
         <f>SUM(X27:AB28)/X36</f>
         <v>0.2</v>
       </c>
-      <c r="X27" s="284">
+      <c r="X27" s="273">
         <f>AC27*(1.5+AK27)</f>
         <v>9</v>
       </c>
@@ -9852,26 +9850,26 @@
       <c r="Z27" s="266"/>
       <c r="AA27" s="266"/>
       <c r="AB27" s="266"/>
-      <c r="AC27" s="276">
+      <c r="AC27" s="272">
         <v>6</v>
       </c>
       <c r="AD27" s="277"/>
-      <c r="AE27" s="283">
+      <c r="AE27" s="274">
         <v>44362</v>
       </c>
-      <c r="AF27" s="284"/>
-      <c r="AG27" s="283">
+      <c r="AF27" s="273"/>
+      <c r="AG27" s="274">
         <v>44362</v>
       </c>
-      <c r="AH27" s="284"/>
-      <c r="AI27" s="276">
+      <c r="AH27" s="273"/>
+      <c r="AI27" s="272">
         <v>1.5</v>
       </c>
-      <c r="AJ27" s="284"/>
-      <c r="AK27" s="291">
+      <c r="AJ27" s="273"/>
+      <c r="AK27" s="281">
         <v>0</v>
       </c>
-      <c r="AL27" s="292"/>
+      <c r="AL27" s="282"/>
       <c r="AM27" s="222" t="s">
         <v>133</v>
       </c>
@@ -9890,13 +9888,13 @@
       <c r="I28" s="29"/>
       <c r="J28" s="29"/>
       <c r="K28" s="219"/>
-      <c r="L28" s="285">
+      <c r="L28" s="301">
         <f>6*1.5</f>
         <v>9</v>
       </c>
-      <c r="M28" s="286"/>
-      <c r="N28" s="286"/>
-      <c r="O28" s="286"/>
+      <c r="M28" s="276"/>
+      <c r="N28" s="276"/>
+      <c r="O28" s="276"/>
       <c r="P28" s="212"/>
       <c r="Q28" s="212"/>
       <c r="R28" s="212"/>
@@ -9904,8 +9902,8 @@
       <c r="T28" s="212"/>
       <c r="U28" s="212"/>
       <c r="V28" s="212"/>
-      <c r="W28" s="290"/>
-      <c r="X28" s="284">
+      <c r="W28" s="304"/>
+      <c r="X28" s="273">
         <f>AC28*(1.5+AK28)</f>
         <v>9</v>
       </c>
@@ -9913,26 +9911,26 @@
       <c r="Z28" s="266"/>
       <c r="AA28" s="266"/>
       <c r="AB28" s="266"/>
-      <c r="AC28" s="276">
+      <c r="AC28" s="272">
         <v>6</v>
       </c>
       <c r="AD28" s="277"/>
-      <c r="AE28" s="283">
+      <c r="AE28" s="274">
         <v>44363</v>
       </c>
-      <c r="AF28" s="284"/>
-      <c r="AG28" s="283">
+      <c r="AF28" s="273"/>
+      <c r="AG28" s="274">
         <v>44362</v>
       </c>
-      <c r="AH28" s="284"/>
-      <c r="AI28" s="276">
+      <c r="AH28" s="273"/>
+      <c r="AI28" s="272">
         <v>1.5</v>
       </c>
-      <c r="AJ28" s="284"/>
-      <c r="AK28" s="291">
+      <c r="AJ28" s="273"/>
+      <c r="AK28" s="281">
         <v>0</v>
       </c>
-      <c r="AL28" s="292"/>
+      <c r="AL28" s="282"/>
       <c r="AM28" s="222" t="s">
         <v>133</v>
       </c>
@@ -9951,15 +9949,15 @@
       <c r="I29" s="29"/>
       <c r="J29" s="29"/>
       <c r="K29" s="219"/>
-      <c r="L29" s="285">
+      <c r="L29" s="301">
         <f>2*1.5</f>
         <v>3</v>
       </c>
-      <c r="M29" s="286"/>
-      <c r="N29" s="307">
+      <c r="M29" s="276"/>
+      <c r="N29" s="275">
         <v>0.12</v>
       </c>
-      <c r="O29" s="286"/>
+      <c r="O29" s="276"/>
       <c r="P29" s="212"/>
       <c r="Q29" s="212"/>
       <c r="R29" s="212"/>
@@ -9967,11 +9965,11 @@
       <c r="T29" s="212"/>
       <c r="U29" s="212"/>
       <c r="V29" s="212"/>
-      <c r="W29" s="290">
+      <c r="W29" s="304">
         <f>SUM(X29:AB30)/X36</f>
         <v>0.2</v>
       </c>
-      <c r="X29" s="284">
+      <c r="X29" s="273">
         <f>AC29*(1.5+AK29)</f>
         <v>6</v>
       </c>
@@ -9979,26 +9977,26 @@
       <c r="Z29" s="266"/>
       <c r="AA29" s="266"/>
       <c r="AB29" s="266"/>
-      <c r="AC29" s="276">
+      <c r="AC29" s="272">
         <v>2</v>
       </c>
       <c r="AD29" s="277"/>
-      <c r="AE29" s="283">
+      <c r="AE29" s="274">
         <v>44363</v>
       </c>
-      <c r="AF29" s="284"/>
-      <c r="AG29" s="283">
+      <c r="AF29" s="273"/>
+      <c r="AG29" s="274">
         <v>44364</v>
       </c>
-      <c r="AH29" s="284"/>
-      <c r="AI29" s="276">
+      <c r="AH29" s="273"/>
+      <c r="AI29" s="272">
         <v>1.5</v>
       </c>
-      <c r="AJ29" s="284"/>
-      <c r="AK29" s="291">
+      <c r="AJ29" s="273"/>
+      <c r="AK29" s="281">
         <v>1.5</v>
       </c>
-      <c r="AL29" s="292"/>
+      <c r="AL29" s="282"/>
       <c r="AM29" s="222" t="s">
         <v>133</v>
       </c>
@@ -10017,13 +10015,13 @@
       <c r="I30" s="29"/>
       <c r="J30" s="29"/>
       <c r="K30" s="219"/>
-      <c r="L30" s="285">
+      <c r="L30" s="301">
         <f>4*1.5</f>
         <v>6</v>
       </c>
-      <c r="M30" s="286"/>
-      <c r="N30" s="286"/>
-      <c r="O30" s="286"/>
+      <c r="M30" s="276"/>
+      <c r="N30" s="276"/>
+      <c r="O30" s="276"/>
       <c r="P30" s="212"/>
       <c r="Q30" s="212"/>
       <c r="R30" s="212"/>
@@ -10031,8 +10029,8 @@
       <c r="T30" s="212"/>
       <c r="U30" s="212"/>
       <c r="V30" s="212"/>
-      <c r="W30" s="290"/>
-      <c r="X30" s="284">
+      <c r="W30" s="304"/>
+      <c r="X30" s="273">
         <f>AC30*(1.5+AK30)</f>
         <v>12</v>
       </c>
@@ -10040,26 +10038,26 @@
       <c r="Z30" s="266"/>
       <c r="AA30" s="266"/>
       <c r="AB30" s="266"/>
-      <c r="AC30" s="276">
+      <c r="AC30" s="272">
         <v>4</v>
       </c>
       <c r="AD30" s="277"/>
-      <c r="AE30" s="283">
+      <c r="AE30" s="274">
         <v>44363</v>
       </c>
-      <c r="AF30" s="284"/>
-      <c r="AG30" s="283">
+      <c r="AF30" s="273"/>
+      <c r="AG30" s="274">
         <v>44364</v>
       </c>
-      <c r="AH30" s="284"/>
-      <c r="AI30" s="276">
+      <c r="AH30" s="273"/>
+      <c r="AI30" s="272">
         <v>1.5</v>
       </c>
-      <c r="AJ30" s="284"/>
-      <c r="AK30" s="291">
+      <c r="AJ30" s="273"/>
+      <c r="AK30" s="281">
         <v>1.5</v>
       </c>
-      <c r="AL30" s="292"/>
+      <c r="AL30" s="282"/>
       <c r="AM30" s="222" t="s">
         <v>133</v>
       </c>
@@ -10078,15 +10076,15 @@
       <c r="I31" s="29"/>
       <c r="J31" s="29"/>
       <c r="K31" s="219"/>
-      <c r="L31" s="285">
+      <c r="L31" s="301">
         <f>6*2</f>
         <v>12</v>
       </c>
-      <c r="M31" s="286"/>
-      <c r="N31" s="307">
+      <c r="M31" s="276"/>
+      <c r="N31" s="275">
         <v>0.15</v>
       </c>
-      <c r="O31" s="286"/>
+      <c r="O31" s="276"/>
       <c r="P31" s="259" t="s">
         <v>182</v>
       </c>
@@ -10100,7 +10098,7 @@
         <f>SUM(X31)/X36</f>
         <v>0.16666666666666666</v>
       </c>
-      <c r="X31" s="284">
+      <c r="X31" s="273">
         <f>AC31*(2+AK31)</f>
         <v>15</v>
       </c>
@@ -10108,26 +10106,26 @@
       <c r="Z31" s="266"/>
       <c r="AA31" s="266"/>
       <c r="AB31" s="266"/>
-      <c r="AC31" s="276">
+      <c r="AC31" s="272">
         <v>6</v>
       </c>
       <c r="AD31" s="277"/>
-      <c r="AE31" s="283">
+      <c r="AE31" s="274">
         <v>44365</v>
       </c>
-      <c r="AF31" s="284"/>
-      <c r="AG31" s="283">
+      <c r="AF31" s="273"/>
+      <c r="AG31" s="274">
         <v>44368</v>
       </c>
-      <c r="AH31" s="284"/>
-      <c r="AI31" s="276">
+      <c r="AH31" s="273"/>
+      <c r="AI31" s="272">
         <v>2</v>
       </c>
-      <c r="AJ31" s="284"/>
-      <c r="AK31" s="291">
+      <c r="AJ31" s="273"/>
+      <c r="AK31" s="281">
         <v>0.5</v>
       </c>
-      <c r="AL31" s="292"/>
+      <c r="AL31" s="282"/>
       <c r="AM31" s="213"/>
     </row>
     <row r="32" spans="3:39" x14ac:dyDescent="0.15">
@@ -10144,14 +10142,14 @@
       <c r="I32" s="29"/>
       <c r="J32" s="29"/>
       <c r="K32" s="219"/>
-      <c r="L32" s="285">
+      <c r="L32" s="301">
         <v>27</v>
       </c>
-      <c r="M32" s="286"/>
-      <c r="N32" s="307">
+      <c r="M32" s="276"/>
+      <c r="N32" s="275">
         <v>0.35</v>
       </c>
-      <c r="O32" s="307"/>
+      <c r="O32" s="275"/>
       <c r="P32" s="258">
         <f>N32*0.65</f>
         <v>0.22749999999999998</v>
@@ -10167,7 +10165,7 @@
         <f>SUM(X32)/X36</f>
         <v>0.3</v>
       </c>
-      <c r="X32" s="284">
+      <c r="X32" s="273">
         <f>AC32*(4.5+AK32)</f>
         <v>27</v>
       </c>
@@ -10175,24 +10173,24 @@
       <c r="Z32" s="266"/>
       <c r="AA32" s="266"/>
       <c r="AB32" s="266"/>
-      <c r="AC32" s="276">
+      <c r="AC32" s="272">
         <v>6</v>
       </c>
       <c r="AD32" s="277"/>
-      <c r="AE32" s="283">
+      <c r="AE32" s="274">
         <v>44372</v>
       </c>
-      <c r="AF32" s="284"/>
-      <c r="AG32" s="276"/>
-      <c r="AH32" s="284"/>
-      <c r="AI32" s="276">
+      <c r="AF32" s="273"/>
+      <c r="AG32" s="272"/>
+      <c r="AH32" s="273"/>
+      <c r="AI32" s="272">
         <v>4.5</v>
       </c>
-      <c r="AJ32" s="284"/>
-      <c r="AK32" s="291">
+      <c r="AJ32" s="273"/>
+      <c r="AK32" s="281">
         <v>0</v>
       </c>
-      <c r="AL32" s="292"/>
+      <c r="AL32" s="282"/>
       <c r="AM32" s="213"/>
     </row>
     <row r="33" spans="3:40" x14ac:dyDescent="0.15">
@@ -10209,14 +10207,14 @@
       <c r="I33" s="29"/>
       <c r="J33" s="29"/>
       <c r="K33" s="219"/>
-      <c r="L33" s="285">
+      <c r="L33" s="301">
         <v>6</v>
       </c>
-      <c r="M33" s="286"/>
-      <c r="N33" s="307">
+      <c r="M33" s="276"/>
+      <c r="N33" s="275">
         <v>0.08</v>
       </c>
-      <c r="O33" s="286"/>
+      <c r="O33" s="276"/>
       <c r="P33" s="212"/>
       <c r="Q33" s="212"/>
       <c r="R33" s="212"/>
@@ -10228,7 +10226,7 @@
         <f>SUM(X33)/X36</f>
         <v>6.6666666666666666E-2</v>
       </c>
-      <c r="X33" s="284">
+      <c r="X33" s="273">
         <f>AC33*(2+AK33)</f>
         <v>6</v>
       </c>
@@ -10236,24 +10234,24 @@
       <c r="Z33" s="266"/>
       <c r="AA33" s="266"/>
       <c r="AB33" s="266"/>
-      <c r="AC33" s="276">
+      <c r="AC33" s="272">
         <v>3</v>
       </c>
       <c r="AD33" s="277"/>
-      <c r="AE33" s="283">
+      <c r="AE33" s="274">
         <v>44375</v>
       </c>
-      <c r="AF33" s="284"/>
-      <c r="AG33" s="276"/>
-      <c r="AH33" s="284"/>
-      <c r="AI33" s="276">
+      <c r="AF33" s="273"/>
+      <c r="AG33" s="272"/>
+      <c r="AH33" s="273"/>
+      <c r="AI33" s="272">
         <v>2</v>
       </c>
-      <c r="AJ33" s="284"/>
-      <c r="AK33" s="291">
+      <c r="AJ33" s="273"/>
+      <c r="AK33" s="281">
         <v>0</v>
       </c>
-      <c r="AL33" s="292"/>
+      <c r="AL33" s="282"/>
       <c r="AM33" s="213"/>
       <c r="AN33" s="248"/>
     </row>
@@ -10271,14 +10269,14 @@
       <c r="I34" s="29"/>
       <c r="J34" s="29"/>
       <c r="K34" s="219"/>
-      <c r="L34" s="285">
+      <c r="L34" s="301">
         <v>6</v>
       </c>
-      <c r="M34" s="286"/>
-      <c r="N34" s="307">
+      <c r="M34" s="276"/>
+      <c r="N34" s="275">
         <v>0.08</v>
       </c>
-      <c r="O34" s="286"/>
+      <c r="O34" s="276"/>
       <c r="P34" s="212"/>
       <c r="Q34" s="212"/>
       <c r="R34" s="212"/>
@@ -10290,7 +10288,7 @@
         <f>SUM(X34)/X36</f>
         <v>6.6666666666666666E-2</v>
       </c>
-      <c r="X34" s="284">
+      <c r="X34" s="273">
         <f>AC34*(2+AK34)</f>
         <v>6</v>
       </c>
@@ -10298,24 +10296,24 @@
       <c r="Z34" s="266"/>
       <c r="AA34" s="266"/>
       <c r="AB34" s="266"/>
-      <c r="AC34" s="276">
+      <c r="AC34" s="272">
         <v>3</v>
       </c>
       <c r="AD34" s="277"/>
-      <c r="AE34" s="283">
+      <c r="AE34" s="274">
         <v>44375</v>
       </c>
-      <c r="AF34" s="284"/>
-      <c r="AG34" s="276"/>
-      <c r="AH34" s="284"/>
-      <c r="AI34" s="276">
+      <c r="AF34" s="273"/>
+      <c r="AG34" s="272"/>
+      <c r="AH34" s="273"/>
+      <c r="AI34" s="272">
         <v>2</v>
       </c>
-      <c r="AJ34" s="284"/>
-      <c r="AK34" s="291">
+      <c r="AJ34" s="273"/>
+      <c r="AK34" s="281">
         <v>0</v>
       </c>
-      <c r="AL34" s="292"/>
+      <c r="AL34" s="282"/>
       <c r="AM34" s="213"/>
       <c r="AN34" s="248"/>
     </row>
@@ -10329,8 +10327,8 @@
       <c r="I35" s="196"/>
       <c r="J35" s="196"/>
       <c r="K35" s="196"/>
-      <c r="L35" s="292"/>
-      <c r="M35" s="293"/>
+      <c r="L35" s="282"/>
+      <c r="M35" s="297"/>
       <c r="N35" s="215"/>
       <c r="O35" s="215"/>
       <c r="P35" s="215"/>
@@ -10368,11 +10366,11 @@
       </c>
       <c r="J36" s="196"/>
       <c r="K36" s="220"/>
-      <c r="L36" s="292">
+      <c r="L36" s="282">
         <f>SUM(L27:L34)</f>
         <v>78</v>
       </c>
-      <c r="M36" s="293"/>
+      <c r="M36" s="297"/>
       <c r="N36" s="215"/>
       <c r="O36" s="215"/>
       <c r="P36" s="215"/>
@@ -10391,16 +10389,16 @@
       <c r="Z36" s="266"/>
       <c r="AA36" s="266"/>
       <c r="AB36" s="266"/>
-      <c r="AC36" s="296"/>
-      <c r="AD36" s="297"/>
-      <c r="AE36" s="296"/>
-      <c r="AF36" s="298"/>
-      <c r="AG36" s="296"/>
-      <c r="AH36" s="298"/>
-      <c r="AI36" s="296"/>
-      <c r="AJ36" s="298"/>
-      <c r="AK36" s="294"/>
-      <c r="AL36" s="295"/>
+      <c r="AC36" s="270"/>
+      <c r="AD36" s="278"/>
+      <c r="AE36" s="270"/>
+      <c r="AF36" s="271"/>
+      <c r="AG36" s="270"/>
+      <c r="AH36" s="271"/>
+      <c r="AI36" s="270"/>
+      <c r="AJ36" s="271"/>
+      <c r="AK36" s="299"/>
+      <c r="AL36" s="300"/>
       <c r="AM36" s="223"/>
     </row>
     <row r="37" spans="3:40" x14ac:dyDescent="0.15">
@@ -10414,7 +10412,7 @@
       <c r="I37" s="200"/>
       <c r="J37" s="200"/>
       <c r="K37" s="201"/>
-      <c r="L37" s="287">
+      <c r="L37" s="298">
         <f>SUM(L27:M31)/L36</f>
         <v>0.5</v>
       </c>
@@ -10438,16 +10436,16 @@
       <c r="Z37" s="266"/>
       <c r="AA37" s="266"/>
       <c r="AB37" s="266"/>
-      <c r="AC37" s="296"/>
-      <c r="AD37" s="297"/>
-      <c r="AE37" s="296"/>
-      <c r="AF37" s="298"/>
-      <c r="AG37" s="296"/>
-      <c r="AH37" s="298"/>
-      <c r="AI37" s="296"/>
-      <c r="AJ37" s="298"/>
-      <c r="AK37" s="294"/>
-      <c r="AL37" s="295"/>
+      <c r="AC37" s="270"/>
+      <c r="AD37" s="278"/>
+      <c r="AE37" s="270"/>
+      <c r="AF37" s="271"/>
+      <c r="AG37" s="270"/>
+      <c r="AH37" s="271"/>
+      <c r="AI37" s="270"/>
+      <c r="AJ37" s="271"/>
+      <c r="AK37" s="299"/>
+      <c r="AL37" s="300"/>
       <c r="AM37" s="223"/>
     </row>
     <row r="38" spans="3:40" x14ac:dyDescent="0.15">
@@ -10461,7 +10459,7 @@
       <c r="I38" s="200"/>
       <c r="J38" s="200"/>
       <c r="K38" s="201"/>
-      <c r="L38" s="287">
+      <c r="L38" s="298">
         <f>SUM(L27:M31)/L36</f>
         <v>0.5</v>
       </c>
@@ -10491,12 +10489,82 @@
     </row>
   </sheetData>
   <mergeCells count="98">
-    <mergeCell ref="AE36:AF36"/>
-    <mergeCell ref="AG33:AH33"/>
-    <mergeCell ref="AG34:AH34"/>
-    <mergeCell ref="AI30:AJ30"/>
-    <mergeCell ref="AI31:AJ31"/>
-    <mergeCell ref="AE34:AF34"/>
+    <mergeCell ref="AC23:AD25"/>
+    <mergeCell ref="AC27:AD27"/>
+    <mergeCell ref="AC28:AD28"/>
+    <mergeCell ref="AC29:AD29"/>
+    <mergeCell ref="AC30:AD30"/>
+    <mergeCell ref="AG23:AH25"/>
+    <mergeCell ref="AG26:AH26"/>
+    <mergeCell ref="AE23:AF25"/>
+    <mergeCell ref="AE26:AF26"/>
+    <mergeCell ref="AE27:AF27"/>
+    <mergeCell ref="AE28:AF28"/>
+    <mergeCell ref="AE29:AF29"/>
+    <mergeCell ref="AE30:AF30"/>
+    <mergeCell ref="AE31:AF31"/>
+    <mergeCell ref="AG35:AH35"/>
+    <mergeCell ref="AE32:AF32"/>
+    <mergeCell ref="AE33:AF33"/>
+    <mergeCell ref="AG29:AH29"/>
+    <mergeCell ref="AE35:AF35"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="AC31:AD31"/>
+    <mergeCell ref="AG30:AH30"/>
+    <mergeCell ref="AG31:AH31"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="X37:AB37"/>
+    <mergeCell ref="X31:AB31"/>
+    <mergeCell ref="X32:AB32"/>
+    <mergeCell ref="X33:AB33"/>
+    <mergeCell ref="X38:AB38"/>
+    <mergeCell ref="X23:AB25"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="X28:AB28"/>
+    <mergeCell ref="X29:AB29"/>
+    <mergeCell ref="X30:AB30"/>
+    <mergeCell ref="L23:M25"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="X26:AB26"/>
+    <mergeCell ref="X27:AB27"/>
+    <mergeCell ref="X34:AB34"/>
+    <mergeCell ref="W27:W28"/>
+    <mergeCell ref="W29:W30"/>
+    <mergeCell ref="AK32:AL32"/>
+    <mergeCell ref="AK33:AL33"/>
+    <mergeCell ref="L36:M36"/>
+    <mergeCell ref="L35:M35"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="X36:AB36"/>
+    <mergeCell ref="AK34:AL34"/>
+    <mergeCell ref="AK36:AL36"/>
+    <mergeCell ref="AK37:AL37"/>
+    <mergeCell ref="AC34:AD34"/>
+    <mergeCell ref="AC36:AD36"/>
+    <mergeCell ref="AC33:AD33"/>
+    <mergeCell ref="AI32:AJ32"/>
+    <mergeCell ref="AC32:AD32"/>
+    <mergeCell ref="AG32:AH32"/>
+    <mergeCell ref="AE37:AF37"/>
+    <mergeCell ref="AI23:AJ25"/>
+    <mergeCell ref="AI26:AJ26"/>
+    <mergeCell ref="AI27:AJ27"/>
+    <mergeCell ref="AI28:AJ28"/>
+    <mergeCell ref="AI29:AJ29"/>
+    <mergeCell ref="AM23:AM25"/>
+    <mergeCell ref="AK28:AL28"/>
+    <mergeCell ref="AK29:AL29"/>
+    <mergeCell ref="AK30:AL30"/>
+    <mergeCell ref="AK31:AL31"/>
+    <mergeCell ref="AK23:AL25"/>
+    <mergeCell ref="AK26:AL26"/>
+    <mergeCell ref="AK27:AL27"/>
     <mergeCell ref="AI37:AJ37"/>
     <mergeCell ref="N27:O28"/>
     <mergeCell ref="N29:O30"/>
@@ -10513,82 +10581,12 @@
     <mergeCell ref="AG28:AH28"/>
     <mergeCell ref="AG36:AH36"/>
     <mergeCell ref="AG37:AH37"/>
-    <mergeCell ref="AM23:AM25"/>
-    <mergeCell ref="AK28:AL28"/>
-    <mergeCell ref="AK29:AL29"/>
-    <mergeCell ref="AK30:AL30"/>
-    <mergeCell ref="AK31:AL31"/>
-    <mergeCell ref="AK23:AL25"/>
-    <mergeCell ref="AK26:AL26"/>
-    <mergeCell ref="AK27:AL27"/>
-    <mergeCell ref="AI23:AJ25"/>
-    <mergeCell ref="AI26:AJ26"/>
-    <mergeCell ref="AI27:AJ27"/>
-    <mergeCell ref="AI28:AJ28"/>
-    <mergeCell ref="AI29:AJ29"/>
-    <mergeCell ref="AK32:AL32"/>
-    <mergeCell ref="AK33:AL33"/>
-    <mergeCell ref="L36:M36"/>
-    <mergeCell ref="L35:M35"/>
-    <mergeCell ref="L37:M37"/>
-    <mergeCell ref="X36:AB36"/>
-    <mergeCell ref="AK34:AL34"/>
-    <mergeCell ref="AK36:AL36"/>
-    <mergeCell ref="AK37:AL37"/>
-    <mergeCell ref="AC34:AD34"/>
-    <mergeCell ref="AC36:AD36"/>
-    <mergeCell ref="AC33:AD33"/>
-    <mergeCell ref="AI32:AJ32"/>
-    <mergeCell ref="AC32:AD32"/>
-    <mergeCell ref="AG32:AH32"/>
-    <mergeCell ref="AE37:AF37"/>
-    <mergeCell ref="X23:AB25"/>
-    <mergeCell ref="L33:M33"/>
-    <mergeCell ref="L34:M34"/>
-    <mergeCell ref="X28:AB28"/>
-    <mergeCell ref="X29:AB29"/>
-    <mergeCell ref="X30:AB30"/>
-    <mergeCell ref="L23:M25"/>
-    <mergeCell ref="L26:M26"/>
-    <mergeCell ref="L27:M27"/>
-    <mergeCell ref="L28:M28"/>
-    <mergeCell ref="L29:M29"/>
-    <mergeCell ref="X26:AB26"/>
-    <mergeCell ref="X27:AB27"/>
-    <mergeCell ref="X34:AB34"/>
-    <mergeCell ref="W27:W28"/>
-    <mergeCell ref="W29:W30"/>
-    <mergeCell ref="L38:M38"/>
-    <mergeCell ref="X37:AB37"/>
-    <mergeCell ref="X31:AB31"/>
-    <mergeCell ref="X32:AB32"/>
-    <mergeCell ref="X33:AB33"/>
-    <mergeCell ref="X38:AB38"/>
-    <mergeCell ref="L30:M30"/>
-    <mergeCell ref="L31:M31"/>
-    <mergeCell ref="L32:M32"/>
-    <mergeCell ref="AC31:AD31"/>
-    <mergeCell ref="AG30:AH30"/>
-    <mergeCell ref="AG31:AH31"/>
-    <mergeCell ref="AE28:AF28"/>
-    <mergeCell ref="AE29:AF29"/>
-    <mergeCell ref="AE30:AF30"/>
-    <mergeCell ref="AE31:AF31"/>
-    <mergeCell ref="AG35:AH35"/>
-    <mergeCell ref="AE32:AF32"/>
-    <mergeCell ref="AE33:AF33"/>
-    <mergeCell ref="AG29:AH29"/>
-    <mergeCell ref="AE35:AF35"/>
-    <mergeCell ref="AG23:AH25"/>
-    <mergeCell ref="AG26:AH26"/>
-    <mergeCell ref="AE23:AF25"/>
-    <mergeCell ref="AE26:AF26"/>
-    <mergeCell ref="AE27:AF27"/>
-    <mergeCell ref="AC23:AD25"/>
-    <mergeCell ref="AC27:AD27"/>
-    <mergeCell ref="AC28:AD28"/>
-    <mergeCell ref="AC29:AD29"/>
-    <mergeCell ref="AC30:AD30"/>
+    <mergeCell ref="AE36:AF36"/>
+    <mergeCell ref="AG33:AH33"/>
+    <mergeCell ref="AG34:AH34"/>
+    <mergeCell ref="AI30:AJ30"/>
+    <mergeCell ref="AI31:AJ31"/>
+    <mergeCell ref="AE34:AF34"/>
   </mergeCells>
   <phoneticPr fontId="7"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11218,16 +11216,16 @@
       <c r="B28" s="2">
         <v>4</v>
       </c>
-      <c r="C28" s="320" t="s">
+      <c r="C28" s="326" t="s">
         <v>114</v>
       </c>
-      <c r="D28" s="321"/>
-      <c r="E28" s="321"/>
-      <c r="F28" s="321"/>
-      <c r="G28" s="321"/>
-      <c r="H28" s="321"/>
-      <c r="I28" s="321"/>
-      <c r="J28" s="322"/>
+      <c r="D28" s="327"/>
+      <c r="E28" s="327"/>
+      <c r="F28" s="327"/>
+      <c r="G28" s="327"/>
+      <c r="H28" s="327"/>
+      <c r="I28" s="327"/>
+      <c r="J28" s="328"/>
       <c r="K28" s="55"/>
       <c r="L28" s="65"/>
       <c r="M28" s="144"/>
@@ -11248,20 +11246,20 @@
     </row>
     <row r="29" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B29" s="3"/>
-      <c r="C29" s="323" t="s">
+      <c r="C29" s="329" t="s">
         <v>115</v>
       </c>
-      <c r="D29" s="324"/>
-      <c r="E29" s="324"/>
-      <c r="F29" s="324"/>
-      <c r="G29" s="324"/>
-      <c r="H29" s="324"/>
-      <c r="I29" s="324"/>
-      <c r="J29" s="325"/>
+      <c r="D29" s="330"/>
+      <c r="E29" s="330"/>
+      <c r="F29" s="330"/>
+      <c r="G29" s="330"/>
+      <c r="H29" s="330"/>
+      <c r="I29" s="330"/>
+      <c r="J29" s="331"/>
       <c r="K29" s="314" t="s">
         <v>116</v>
       </c>
-      <c r="L29" s="318">
+      <c r="L29" s="324">
         <v>1</v>
       </c>
       <c r="M29" s="145" t="s">
@@ -11284,16 +11282,16 @@
     </row>
     <row r="30" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B30" s="3"/>
-      <c r="C30" s="326"/>
-      <c r="D30" s="327"/>
-      <c r="E30" s="327"/>
-      <c r="F30" s="327"/>
-      <c r="G30" s="327"/>
-      <c r="H30" s="327"/>
-      <c r="I30" s="327"/>
-      <c r="J30" s="328"/>
+      <c r="C30" s="332"/>
+      <c r="D30" s="333"/>
+      <c r="E30" s="333"/>
+      <c r="F30" s="333"/>
+      <c r="G30" s="333"/>
+      <c r="H30" s="333"/>
+      <c r="I30" s="333"/>
+      <c r="J30" s="334"/>
       <c r="K30" s="315"/>
-      <c r="L30" s="319"/>
+      <c r="L30" s="325"/>
       <c r="M30" s="146" t="s">
         <v>49</v>
       </c>
@@ -11314,18 +11312,18 @@
     </row>
     <row r="31" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B31" s="3"/>
-      <c r="C31" s="326"/>
-      <c r="D31" s="327"/>
-      <c r="E31" s="327"/>
-      <c r="F31" s="327"/>
-      <c r="G31" s="327"/>
-      <c r="H31" s="327"/>
-      <c r="I31" s="327"/>
-      <c r="J31" s="328"/>
+      <c r="C31" s="332"/>
+      <c r="D31" s="333"/>
+      <c r="E31" s="333"/>
+      <c r="F31" s="333"/>
+      <c r="G31" s="333"/>
+      <c r="H31" s="333"/>
+      <c r="I31" s="333"/>
+      <c r="J31" s="334"/>
       <c r="K31" s="314" t="s">
         <v>117</v>
       </c>
-      <c r="L31" s="318">
+      <c r="L31" s="324">
         <v>1</v>
       </c>
       <c r="M31" s="145" t="s">
@@ -11348,14 +11346,14 @@
     </row>
     <row r="32" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B32" s="3"/>
-      <c r="C32" s="326"/>
-      <c r="D32" s="327"/>
-      <c r="E32" s="327"/>
-      <c r="F32" s="327"/>
-      <c r="G32" s="327"/>
-      <c r="H32" s="327"/>
-      <c r="I32" s="327"/>
-      <c r="J32" s="328"/>
+      <c r="C32" s="332"/>
+      <c r="D32" s="333"/>
+      <c r="E32" s="333"/>
+      <c r="F32" s="333"/>
+      <c r="G32" s="333"/>
+      <c r="H32" s="333"/>
+      <c r="I32" s="333"/>
+      <c r="J32" s="334"/>
       <c r="K32" s="315" t="s">
         <v>11</v>
       </c>
@@ -11440,20 +11438,20 @@
     </row>
     <row r="35" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B35" s="3"/>
-      <c r="C35" s="329" t="s">
+      <c r="C35" s="318" t="s">
         <v>77</v>
       </c>
-      <c r="D35" s="330"/>
-      <c r="E35" s="330"/>
-      <c r="F35" s="330"/>
-      <c r="G35" s="330"/>
-      <c r="H35" s="330"/>
-      <c r="I35" s="330"/>
-      <c r="J35" s="331"/>
+      <c r="D35" s="319"/>
+      <c r="E35" s="319"/>
+      <c r="F35" s="319"/>
+      <c r="G35" s="319"/>
+      <c r="H35" s="319"/>
+      <c r="I35" s="319"/>
+      <c r="J35" s="320"/>
       <c r="K35" s="314" t="s">
         <v>42</v>
       </c>
-      <c r="L35" s="318">
+      <c r="L35" s="324">
         <v>1</v>
       </c>
       <c r="M35" s="145" t="s">
@@ -11476,14 +11474,14 @@
     </row>
     <row r="36" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B36" s="3"/>
-      <c r="C36" s="332"/>
-      <c r="D36" s="333"/>
-      <c r="E36" s="333"/>
-      <c r="F36" s="333"/>
-      <c r="G36" s="333"/>
-      <c r="H36" s="333"/>
-      <c r="I36" s="333"/>
-      <c r="J36" s="334"/>
+      <c r="C36" s="321"/>
+      <c r="D36" s="322"/>
+      <c r="E36" s="322"/>
+      <c r="F36" s="322"/>
+      <c r="G36" s="322"/>
+      <c r="H36" s="322"/>
+      <c r="I36" s="322"/>
+      <c r="J36" s="323"/>
       <c r="K36" s="315"/>
       <c r="L36" s="315"/>
       <c r="M36" s="146" t="s">
@@ -11506,20 +11504,20 @@
     </row>
     <row r="37" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B37" s="3"/>
-      <c r="C37" s="329" t="s">
+      <c r="C37" s="318" t="s">
         <v>78</v>
       </c>
-      <c r="D37" s="330"/>
-      <c r="E37" s="330"/>
-      <c r="F37" s="330"/>
-      <c r="G37" s="330"/>
-      <c r="H37" s="330"/>
-      <c r="I37" s="330"/>
-      <c r="J37" s="331"/>
+      <c r="D37" s="319"/>
+      <c r="E37" s="319"/>
+      <c r="F37" s="319"/>
+      <c r="G37" s="319"/>
+      <c r="H37" s="319"/>
+      <c r="I37" s="319"/>
+      <c r="J37" s="320"/>
       <c r="K37" s="314" t="s">
         <v>21</v>
       </c>
-      <c r="L37" s="318">
+      <c r="L37" s="324">
         <v>1</v>
       </c>
       <c r="M37" s="145" t="s">
@@ -11542,14 +11540,14 @@
     </row>
     <row r="38" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B38" s="3"/>
-      <c r="C38" s="332"/>
-      <c r="D38" s="333"/>
-      <c r="E38" s="333"/>
-      <c r="F38" s="333"/>
-      <c r="G38" s="333"/>
-      <c r="H38" s="333"/>
-      <c r="I38" s="333"/>
-      <c r="J38" s="334"/>
+      <c r="C38" s="321"/>
+      <c r="D38" s="322"/>
+      <c r="E38" s="322"/>
+      <c r="F38" s="322"/>
+      <c r="G38" s="322"/>
+      <c r="H38" s="322"/>
+      <c r="I38" s="322"/>
+      <c r="J38" s="323"/>
       <c r="K38" s="315"/>
       <c r="L38" s="315"/>
       <c r="M38" s="146" t="s">
@@ -11572,16 +11570,16 @@
     </row>
     <row r="39" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B39" s="3"/>
-      <c r="C39" s="329" t="s">
+      <c r="C39" s="318" t="s">
         <v>79</v>
       </c>
-      <c r="D39" s="330"/>
-      <c r="E39" s="330"/>
-      <c r="F39" s="330"/>
-      <c r="G39" s="330"/>
-      <c r="H39" s="330"/>
-      <c r="I39" s="330"/>
-      <c r="J39" s="331"/>
+      <c r="D39" s="319"/>
+      <c r="E39" s="319"/>
+      <c r="F39" s="319"/>
+      <c r="G39" s="319"/>
+      <c r="H39" s="319"/>
+      <c r="I39" s="319"/>
+      <c r="J39" s="320"/>
       <c r="K39" s="314" t="s">
         <v>21</v>
       </c>
@@ -11608,14 +11606,14 @@
     </row>
     <row r="40" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B40" s="3"/>
-      <c r="C40" s="332"/>
-      <c r="D40" s="333"/>
-      <c r="E40" s="333"/>
-      <c r="F40" s="333"/>
-      <c r="G40" s="333"/>
-      <c r="H40" s="333"/>
-      <c r="I40" s="333"/>
-      <c r="J40" s="334"/>
+      <c r="C40" s="321"/>
+      <c r="D40" s="322"/>
+      <c r="E40" s="322"/>
+      <c r="F40" s="322"/>
+      <c r="G40" s="322"/>
+      <c r="H40" s="322"/>
+      <c r="I40" s="322"/>
+      <c r="J40" s="323"/>
       <c r="K40" s="315"/>
       <c r="L40" s="315" t="s">
         <v>40</v>
@@ -11640,16 +11638,16 @@
     </row>
     <row r="41" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B41" s="3"/>
-      <c r="C41" s="329" t="s">
+      <c r="C41" s="318" t="s">
         <v>80</v>
       </c>
-      <c r="D41" s="330"/>
-      <c r="E41" s="330"/>
-      <c r="F41" s="330"/>
-      <c r="G41" s="330"/>
-      <c r="H41" s="330"/>
-      <c r="I41" s="330"/>
-      <c r="J41" s="331"/>
+      <c r="D41" s="319"/>
+      <c r="E41" s="319"/>
+      <c r="F41" s="319"/>
+      <c r="G41" s="319"/>
+      <c r="H41" s="319"/>
+      <c r="I41" s="319"/>
+      <c r="J41" s="320"/>
       <c r="K41" s="314" t="s">
         <v>21</v>
       </c>
@@ -11676,14 +11674,14 @@
     </row>
     <row r="42" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B42" s="3"/>
-      <c r="C42" s="332"/>
-      <c r="D42" s="333"/>
-      <c r="E42" s="333"/>
-      <c r="F42" s="333"/>
-      <c r="G42" s="333"/>
-      <c r="H42" s="333"/>
-      <c r="I42" s="333"/>
-      <c r="J42" s="334"/>
+      <c r="C42" s="321"/>
+      <c r="D42" s="322"/>
+      <c r="E42" s="322"/>
+      <c r="F42" s="322"/>
+      <c r="G42" s="322"/>
+      <c r="H42" s="322"/>
+      <c r="I42" s="322"/>
+      <c r="J42" s="323"/>
       <c r="K42" s="315"/>
       <c r="L42" s="315" t="s">
         <v>40</v>
@@ -11737,6 +11735,12 @@
   </sheetData>
   <autoFilter ref="K27:L27" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
   <mergeCells count="18">
+    <mergeCell ref="K29:K30"/>
+    <mergeCell ref="L29:L30"/>
+    <mergeCell ref="K31:K32"/>
+    <mergeCell ref="L31:L32"/>
+    <mergeCell ref="C28:J28"/>
+    <mergeCell ref="C29:J32"/>
     <mergeCell ref="C35:J36"/>
     <mergeCell ref="K35:K36"/>
     <mergeCell ref="L35:L36"/>
@@ -11749,12 +11753,6 @@
     <mergeCell ref="C39:J40"/>
     <mergeCell ref="K39:K40"/>
     <mergeCell ref="L39:L40"/>
-    <mergeCell ref="K29:K30"/>
-    <mergeCell ref="L29:L30"/>
-    <mergeCell ref="K31:K32"/>
-    <mergeCell ref="L31:L32"/>
-    <mergeCell ref="C28:J28"/>
-    <mergeCell ref="C29:J32"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11768,8 +11766,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B23:AD47"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E54" sqref="E54"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.875" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
@@ -11966,16 +11964,16 @@
     </row>
     <row r="29" spans="2:30" x14ac:dyDescent="0.15">
       <c r="B29" s="3"/>
-      <c r="C29" s="343" t="s">
+      <c r="C29" s="346" t="s">
         <v>81</v>
       </c>
-      <c r="D29" s="344"/>
-      <c r="E29" s="344"/>
-      <c r="F29" s="344"/>
-      <c r="G29" s="344"/>
-      <c r="H29" s="344"/>
-      <c r="I29" s="344"/>
-      <c r="J29" s="345"/>
+      <c r="D29" s="347"/>
+      <c r="E29" s="347"/>
+      <c r="F29" s="347"/>
+      <c r="G29" s="347"/>
+      <c r="H29" s="347"/>
+      <c r="I29" s="347"/>
+      <c r="J29" s="348"/>
       <c r="K29" s="314" t="s">
         <v>119</v>
       </c>
@@ -12005,16 +12003,16 @@
     </row>
     <row r="30" spans="2:30" x14ac:dyDescent="0.15">
       <c r="B30" s="3"/>
-      <c r="C30" s="326"/>
-      <c r="D30" s="327"/>
-      <c r="E30" s="327"/>
-      <c r="F30" s="327"/>
-      <c r="G30" s="327"/>
-      <c r="H30" s="327"/>
-      <c r="I30" s="327"/>
-      <c r="J30" s="328"/>
-      <c r="K30" s="335"/>
-      <c r="L30" s="336"/>
+      <c r="C30" s="332"/>
+      <c r="D30" s="333"/>
+      <c r="E30" s="333"/>
+      <c r="F30" s="333"/>
+      <c r="G30" s="333"/>
+      <c r="H30" s="333"/>
+      <c r="I30" s="333"/>
+      <c r="J30" s="334"/>
+      <c r="K30" s="341"/>
+      <c r="L30" s="343"/>
       <c r="M30" s="44" t="s">
         <v>49</v>
       </c>
@@ -12038,18 +12036,18 @@
     </row>
     <row r="31" spans="2:30" x14ac:dyDescent="0.15">
       <c r="B31" s="3"/>
-      <c r="C31" s="326"/>
-      <c r="D31" s="327"/>
-      <c r="E31" s="327"/>
-      <c r="F31" s="327"/>
-      <c r="G31" s="327"/>
-      <c r="H31" s="327"/>
-      <c r="I31" s="327"/>
-      <c r="J31" s="327"/>
-      <c r="K31" s="341" t="s">
+      <c r="C31" s="332"/>
+      <c r="D31" s="333"/>
+      <c r="E31" s="333"/>
+      <c r="F31" s="333"/>
+      <c r="G31" s="333"/>
+      <c r="H31" s="333"/>
+      <c r="I31" s="333"/>
+      <c r="J31" s="333"/>
+      <c r="K31" s="344" t="s">
         <v>120</v>
       </c>
-      <c r="L31" s="348">
+      <c r="L31" s="351">
         <v>1</v>
       </c>
       <c r="M31" s="45" t="s">
@@ -12075,16 +12073,16 @@
     </row>
     <row r="32" spans="2:30" x14ac:dyDescent="0.15">
       <c r="B32" s="3"/>
-      <c r="C32" s="326"/>
-      <c r="D32" s="327"/>
-      <c r="E32" s="327"/>
-      <c r="F32" s="327"/>
-      <c r="G32" s="327"/>
-      <c r="H32" s="327"/>
-      <c r="I32" s="327"/>
-      <c r="J32" s="327"/>
-      <c r="K32" s="341"/>
-      <c r="L32" s="349"/>
+      <c r="C32" s="332"/>
+      <c r="D32" s="333"/>
+      <c r="E32" s="333"/>
+      <c r="F32" s="333"/>
+      <c r="G32" s="333"/>
+      <c r="H32" s="333"/>
+      <c r="I32" s="333"/>
+      <c r="J32" s="333"/>
+      <c r="K32" s="344"/>
+      <c r="L32" s="352"/>
       <c r="M32" s="44" t="s">
         <v>49</v>
       </c>
@@ -12108,18 +12106,18 @@
     </row>
     <row r="33" spans="2:30" x14ac:dyDescent="0.15">
       <c r="B33" s="3"/>
-      <c r="C33" s="326"/>
-      <c r="D33" s="327"/>
-      <c r="E33" s="327"/>
-      <c r="F33" s="327"/>
-      <c r="G33" s="327"/>
-      <c r="H33" s="327"/>
-      <c r="I33" s="327"/>
-      <c r="J33" s="327"/>
-      <c r="K33" s="341" t="s">
+      <c r="C33" s="332"/>
+      <c r="D33" s="333"/>
+      <c r="E33" s="333"/>
+      <c r="F33" s="333"/>
+      <c r="G33" s="333"/>
+      <c r="H33" s="333"/>
+      <c r="I33" s="333"/>
+      <c r="J33" s="333"/>
+      <c r="K33" s="344" t="s">
         <v>121</v>
       </c>
-      <c r="L33" s="348">
+      <c r="L33" s="351">
         <v>1</v>
       </c>
       <c r="M33" s="45" t="s">
@@ -12145,16 +12143,16 @@
     </row>
     <row r="34" spans="2:30" x14ac:dyDescent="0.15">
       <c r="B34" s="3"/>
-      <c r="C34" s="326"/>
-      <c r="D34" s="327"/>
-      <c r="E34" s="327"/>
-      <c r="F34" s="327"/>
-      <c r="G34" s="327"/>
-      <c r="H34" s="327"/>
-      <c r="I34" s="327"/>
-      <c r="J34" s="327"/>
-      <c r="K34" s="341"/>
-      <c r="L34" s="349"/>
+      <c r="C34" s="332"/>
+      <c r="D34" s="333"/>
+      <c r="E34" s="333"/>
+      <c r="F34" s="333"/>
+      <c r="G34" s="333"/>
+      <c r="H34" s="333"/>
+      <c r="I34" s="333"/>
+      <c r="J34" s="333"/>
+      <c r="K34" s="344"/>
+      <c r="L34" s="352"/>
       <c r="M34" s="44" t="s">
         <v>49</v>
       </c>
@@ -12178,18 +12176,18 @@
     </row>
     <row r="35" spans="2:30" x14ac:dyDescent="0.15">
       <c r="B35" s="3"/>
-      <c r="C35" s="326"/>
-      <c r="D35" s="327"/>
-      <c r="E35" s="327"/>
-      <c r="F35" s="327"/>
-      <c r="G35" s="327"/>
-      <c r="H35" s="327"/>
-      <c r="I35" s="327"/>
-      <c r="J35" s="327"/>
-      <c r="K35" s="341" t="s">
+      <c r="C35" s="332"/>
+      <c r="D35" s="333"/>
+      <c r="E35" s="333"/>
+      <c r="F35" s="333"/>
+      <c r="G35" s="333"/>
+      <c r="H35" s="333"/>
+      <c r="I35" s="333"/>
+      <c r="J35" s="333"/>
+      <c r="K35" s="344" t="s">
         <v>122</v>
       </c>
-      <c r="L35" s="348">
+      <c r="L35" s="351">
         <v>1</v>
       </c>
       <c r="M35" s="45" t="s">
@@ -12215,16 +12213,16 @@
     </row>
     <row r="36" spans="2:30" x14ac:dyDescent="0.15">
       <c r="B36" s="3"/>
-      <c r="C36" s="346"/>
-      <c r="D36" s="347"/>
-      <c r="E36" s="347"/>
-      <c r="F36" s="347"/>
-      <c r="G36" s="347"/>
-      <c r="H36" s="347"/>
-      <c r="I36" s="347"/>
-      <c r="J36" s="347"/>
-      <c r="K36" s="341"/>
-      <c r="L36" s="349"/>
+      <c r="C36" s="349"/>
+      <c r="D36" s="350"/>
+      <c r="E36" s="350"/>
+      <c r="F36" s="350"/>
+      <c r="G36" s="350"/>
+      <c r="H36" s="350"/>
+      <c r="I36" s="350"/>
+      <c r="J36" s="350"/>
+      <c r="K36" s="344"/>
+      <c r="L36" s="352"/>
       <c r="M36" s="44" t="s">
         <v>49</v>
       </c>
@@ -12279,20 +12277,20 @@
     </row>
     <row r="38" spans="2:30" x14ac:dyDescent="0.15">
       <c r="B38" s="3"/>
-      <c r="C38" s="337" t="s">
+      <c r="C38" s="335" t="s">
         <v>73</v>
       </c>
-      <c r="D38" s="338"/>
-      <c r="E38" s="338"/>
-      <c r="F38" s="338"/>
-      <c r="G38" s="338"/>
-      <c r="H38" s="338"/>
-      <c r="I38" s="338"/>
-      <c r="J38" s="338"/>
-      <c r="K38" s="341" t="s">
+      <c r="D38" s="336"/>
+      <c r="E38" s="336"/>
+      <c r="F38" s="336"/>
+      <c r="G38" s="336"/>
+      <c r="H38" s="336"/>
+      <c r="I38" s="336"/>
+      <c r="J38" s="336"/>
+      <c r="K38" s="344" t="s">
         <v>21</v>
       </c>
-      <c r="L38" s="342">
+      <c r="L38" s="345">
         <v>1</v>
       </c>
       <c r="M38" s="162" t="s">
@@ -12318,18 +12316,18 @@
     </row>
     <row r="39" spans="2:30" x14ac:dyDescent="0.15">
       <c r="B39" s="3"/>
-      <c r="C39" s="339"/>
-      <c r="D39" s="340"/>
-      <c r="E39" s="340"/>
-      <c r="F39" s="340"/>
-      <c r="G39" s="340"/>
-      <c r="H39" s="340"/>
-      <c r="I39" s="340"/>
-      <c r="J39" s="340"/>
-      <c r="K39" s="341" t="s">
+      <c r="C39" s="338"/>
+      <c r="D39" s="339"/>
+      <c r="E39" s="339"/>
+      <c r="F39" s="339"/>
+      <c r="G39" s="339"/>
+      <c r="H39" s="339"/>
+      <c r="I39" s="339"/>
+      <c r="J39" s="339"/>
+      <c r="K39" s="344" t="s">
         <v>21</v>
       </c>
-      <c r="L39" s="341"/>
+      <c r="L39" s="344"/>
       <c r="M39" s="163" t="s">
         <v>49</v>
       </c>
@@ -12353,20 +12351,20 @@
     </row>
     <row r="40" spans="2:30" x14ac:dyDescent="0.15">
       <c r="B40" s="3"/>
-      <c r="C40" s="337" t="s">
+      <c r="C40" s="335" t="s">
         <v>82</v>
       </c>
-      <c r="D40" s="338"/>
-      <c r="E40" s="338"/>
-      <c r="F40" s="338"/>
-      <c r="G40" s="338"/>
-      <c r="H40" s="338"/>
-      <c r="I40" s="338"/>
-      <c r="J40" s="350"/>
-      <c r="K40" s="335" t="s">
+      <c r="D40" s="336"/>
+      <c r="E40" s="336"/>
+      <c r="F40" s="336"/>
+      <c r="G40" s="336"/>
+      <c r="H40" s="336"/>
+      <c r="I40" s="336"/>
+      <c r="J40" s="337"/>
+      <c r="K40" s="341" t="s">
         <v>21</v>
       </c>
-      <c r="L40" s="352">
+      <c r="L40" s="342">
         <v>1</v>
       </c>
       <c r="M40" s="45" t="s">
@@ -12392,14 +12390,14 @@
     </row>
     <row r="41" spans="2:30" x14ac:dyDescent="0.15">
       <c r="B41" s="3"/>
-      <c r="C41" s="339"/>
-      <c r="D41" s="340"/>
-      <c r="E41" s="340"/>
-      <c r="F41" s="340"/>
-      <c r="G41" s="340"/>
-      <c r="H41" s="340"/>
-      <c r="I41" s="340"/>
-      <c r="J41" s="351"/>
+      <c r="C41" s="338"/>
+      <c r="D41" s="339"/>
+      <c r="E41" s="339"/>
+      <c r="F41" s="339"/>
+      <c r="G41" s="339"/>
+      <c r="H41" s="339"/>
+      <c r="I41" s="339"/>
+      <c r="J41" s="340"/>
       <c r="K41" s="315" t="s">
         <v>21</v>
       </c>
@@ -12427,16 +12425,16 @@
     </row>
     <row r="42" spans="2:30" x14ac:dyDescent="0.15">
       <c r="B42" s="3"/>
-      <c r="C42" s="337" t="s">
+      <c r="C42" s="335" t="s">
         <v>83</v>
       </c>
-      <c r="D42" s="338"/>
-      <c r="E42" s="338"/>
-      <c r="F42" s="338"/>
-      <c r="G42" s="338"/>
-      <c r="H42" s="338"/>
-      <c r="I42" s="338"/>
-      <c r="J42" s="350"/>
+      <c r="D42" s="336"/>
+      <c r="E42" s="336"/>
+      <c r="F42" s="336"/>
+      <c r="G42" s="336"/>
+      <c r="H42" s="336"/>
+      <c r="I42" s="336"/>
+      <c r="J42" s="337"/>
       <c r="K42" s="314" t="s">
         <v>21</v>
       </c>
@@ -12466,14 +12464,14 @@
     </row>
     <row r="43" spans="2:30" x14ac:dyDescent="0.15">
       <c r="B43" s="3"/>
-      <c r="C43" s="339"/>
-      <c r="D43" s="340"/>
-      <c r="E43" s="340"/>
-      <c r="F43" s="340"/>
-      <c r="G43" s="340"/>
-      <c r="H43" s="340"/>
-      <c r="I43" s="340"/>
-      <c r="J43" s="351"/>
+      <c r="C43" s="338"/>
+      <c r="D43" s="339"/>
+      <c r="E43" s="339"/>
+      <c r="F43" s="339"/>
+      <c r="G43" s="339"/>
+      <c r="H43" s="339"/>
+      <c r="I43" s="339"/>
+      <c r="J43" s="340"/>
       <c r="K43" s="315" t="s">
         <v>21</v>
       </c>
@@ -12501,16 +12499,16 @@
     </row>
     <row r="44" spans="2:30" x14ac:dyDescent="0.15">
       <c r="B44" s="3"/>
-      <c r="C44" s="337" t="s">
+      <c r="C44" s="335" t="s">
         <v>84</v>
       </c>
-      <c r="D44" s="338"/>
-      <c r="E44" s="338"/>
-      <c r="F44" s="338"/>
-      <c r="G44" s="338"/>
-      <c r="H44" s="338"/>
-      <c r="I44" s="338"/>
-      <c r="J44" s="350"/>
+      <c r="D44" s="336"/>
+      <c r="E44" s="336"/>
+      <c r="F44" s="336"/>
+      <c r="G44" s="336"/>
+      <c r="H44" s="336"/>
+      <c r="I44" s="336"/>
+      <c r="J44" s="337"/>
       <c r="K44" s="314" t="s">
         <v>21</v>
       </c>
@@ -12540,14 +12538,14 @@
     </row>
     <row r="45" spans="2:30" x14ac:dyDescent="0.15">
       <c r="B45" s="3"/>
-      <c r="C45" s="339"/>
-      <c r="D45" s="340"/>
-      <c r="E45" s="340"/>
-      <c r="F45" s="340"/>
-      <c r="G45" s="340"/>
-      <c r="H45" s="340"/>
-      <c r="I45" s="340"/>
-      <c r="J45" s="351"/>
+      <c r="C45" s="338"/>
+      <c r="D45" s="339"/>
+      <c r="E45" s="339"/>
+      <c r="F45" s="339"/>
+      <c r="G45" s="339"/>
+      <c r="H45" s="339"/>
+      <c r="I45" s="339"/>
+      <c r="J45" s="340"/>
       <c r="K45" s="315" t="s">
         <v>21</v>
       </c>
@@ -12621,15 +12619,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="C44:J45"/>
-    <mergeCell ref="K44:K45"/>
-    <mergeCell ref="L44:L45"/>
-    <mergeCell ref="C40:J41"/>
-    <mergeCell ref="K40:K41"/>
-    <mergeCell ref="L40:L41"/>
-    <mergeCell ref="C42:J43"/>
-    <mergeCell ref="K42:K43"/>
-    <mergeCell ref="L42:L43"/>
     <mergeCell ref="K29:K30"/>
     <mergeCell ref="L29:L30"/>
     <mergeCell ref="C38:J39"/>
@@ -12642,6 +12631,15 @@
     <mergeCell ref="L31:L32"/>
     <mergeCell ref="L33:L34"/>
     <mergeCell ref="L35:L36"/>
+    <mergeCell ref="C44:J45"/>
+    <mergeCell ref="K44:K45"/>
+    <mergeCell ref="L44:L45"/>
+    <mergeCell ref="C40:J41"/>
+    <mergeCell ref="K40:K41"/>
+    <mergeCell ref="L40:L41"/>
+    <mergeCell ref="C42:J43"/>
+    <mergeCell ref="K42:K43"/>
+    <mergeCell ref="L42:L43"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations disablePrompts="1" count="1">
@@ -12660,9 +12658,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B23:CN68"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="AD24" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AN26" sqref="AN26"/>
-    </sheetView>
+    <sheetView showGridLines="0" topLeftCell="A27" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.875" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
   <cols>
@@ -12838,18 +12834,18 @@
       <c r="H25" s="100"/>
       <c r="I25" s="100"/>
       <c r="J25" s="100"/>
-      <c r="K25" s="356" t="s">
+      <c r="K25" s="367" t="s">
         <v>3</v>
       </c>
       <c r="L25" s="249"/>
-      <c r="M25" s="359" t="s">
+      <c r="M25" s="355" t="s">
         <v>180</v>
       </c>
-      <c r="N25" s="359" t="s">
+      <c r="N25" s="355" t="s">
         <v>181</v>
       </c>
       <c r="O25" s="254"/>
-      <c r="P25" s="362" t="s">
+      <c r="P25" s="364" t="s">
         <v>47</v>
       </c>
       <c r="Q25" s="101">
@@ -12941,14 +12937,14 @@
       <c r="H26" s="171"/>
       <c r="I26" s="171"/>
       <c r="J26" s="171"/>
-      <c r="K26" s="357"/>
+      <c r="K26" s="368"/>
       <c r="L26" s="251" t="s">
         <v>154</v>
       </c>
-      <c r="M26" s="360"/>
-      <c r="N26" s="360"/>
+      <c r="M26" s="356"/>
+      <c r="N26" s="356"/>
       <c r="O26" s="255"/>
-      <c r="P26" s="363"/>
+      <c r="P26" s="365"/>
       <c r="Q26" s="99" t="s">
         <v>123</v>
       </c>
@@ -13038,12 +13034,12 @@
       <c r="H27" s="90"/>
       <c r="I27" s="90"/>
       <c r="J27" s="90"/>
-      <c r="K27" s="358"/>
+      <c r="K27" s="369"/>
       <c r="L27" s="250"/>
-      <c r="M27" s="361"/>
-      <c r="N27" s="361"/>
+      <c r="M27" s="357"/>
+      <c r="N27" s="357"/>
       <c r="O27" s="256"/>
-      <c r="P27" s="364"/>
+      <c r="P27" s="366"/>
       <c r="Q27" s="84">
         <v>17</v>
       </c>
@@ -13346,29 +13342,29 @@
     </row>
     <row r="30" spans="2:92" s="85" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B30" s="126"/>
-      <c r="C30" s="353" t="s">
+      <c r="C30" s="358" t="s">
         <v>145</v>
       </c>
-      <c r="D30" s="338"/>
-      <c r="E30" s="338"/>
-      <c r="F30" s="338"/>
-      <c r="G30" s="338"/>
-      <c r="H30" s="338"/>
-      <c r="I30" s="338"/>
-      <c r="J30" s="350"/>
+      <c r="D30" s="336"/>
+      <c r="E30" s="336"/>
+      <c r="F30" s="336"/>
+      <c r="G30" s="336"/>
+      <c r="H30" s="336"/>
+      <c r="I30" s="336"/>
+      <c r="J30" s="337"/>
       <c r="K30" s="314" t="s">
         <v>158</v>
       </c>
-      <c r="L30" s="354" t="s">
+      <c r="L30" s="353" t="s">
         <v>155</v>
       </c>
-      <c r="M30" s="318" t="s">
+      <c r="M30" s="324" t="s">
         <v>40</v>
       </c>
-      <c r="N30" s="318" t="s">
+      <c r="N30" s="324" t="s">
         <v>40</v>
       </c>
-      <c r="O30" s="354">
+      <c r="O30" s="353">
         <v>100</v>
       </c>
       <c r="P30" s="145" t="s">
@@ -13456,19 +13452,19 @@
     </row>
     <row r="31" spans="2:92" x14ac:dyDescent="0.15">
       <c r="B31" s="122"/>
-      <c r="C31" s="340"/>
-      <c r="D31" s="340"/>
-      <c r="E31" s="340"/>
-      <c r="F31" s="340"/>
-      <c r="G31" s="340"/>
-      <c r="H31" s="340"/>
-      <c r="I31" s="340"/>
-      <c r="J31" s="351"/>
+      <c r="C31" s="339"/>
+      <c r="D31" s="339"/>
+      <c r="E31" s="339"/>
+      <c r="F31" s="339"/>
+      <c r="G31" s="339"/>
+      <c r="H31" s="339"/>
+      <c r="I31" s="339"/>
+      <c r="J31" s="340"/>
       <c r="K31" s="315"/>
-      <c r="L31" s="355"/>
+      <c r="L31" s="354"/>
       <c r="M31" s="315"/>
       <c r="N31" s="315"/>
-      <c r="O31" s="355"/>
+      <c r="O31" s="354"/>
       <c r="P31" s="146" t="s">
         <v>49</v>
       </c>
@@ -13551,29 +13547,29 @@
     </row>
     <row r="32" spans="2:92" x14ac:dyDescent="0.15">
       <c r="B32" s="122"/>
-      <c r="C32" s="353" t="s">
+      <c r="C32" s="358" t="s">
         <v>146</v>
       </c>
-      <c r="D32" s="338"/>
-      <c r="E32" s="338"/>
-      <c r="F32" s="338"/>
-      <c r="G32" s="338"/>
-      <c r="H32" s="338"/>
-      <c r="I32" s="338"/>
-      <c r="J32" s="350"/>
-      <c r="K32" s="354" t="s">
+      <c r="D32" s="336"/>
+      <c r="E32" s="336"/>
+      <c r="F32" s="336"/>
+      <c r="G32" s="336"/>
+      <c r="H32" s="336"/>
+      <c r="I32" s="336"/>
+      <c r="J32" s="337"/>
+      <c r="K32" s="353" t="s">
         <v>156</v>
       </c>
-      <c r="L32" s="354" t="s">
+      <c r="L32" s="353" t="s">
         <v>157</v>
       </c>
-      <c r="M32" s="318" t="s">
+      <c r="M32" s="324" t="s">
         <v>40</v>
       </c>
-      <c r="N32" s="318" t="s">
+      <c r="N32" s="324" t="s">
         <v>40</v>
       </c>
-      <c r="O32" s="354">
+      <c r="O32" s="353">
         <v>100</v>
       </c>
       <c r="P32" s="145" t="s">
@@ -13658,19 +13654,19 @@
     </row>
     <row r="33" spans="2:92" x14ac:dyDescent="0.15">
       <c r="B33" s="122"/>
-      <c r="C33" s="340"/>
-      <c r="D33" s="340"/>
-      <c r="E33" s="340"/>
-      <c r="F33" s="340"/>
-      <c r="G33" s="340"/>
-      <c r="H33" s="340"/>
-      <c r="I33" s="340"/>
-      <c r="J33" s="351"/>
-      <c r="K33" s="355"/>
-      <c r="L33" s="355"/>
+      <c r="C33" s="339"/>
+      <c r="D33" s="339"/>
+      <c r="E33" s="339"/>
+      <c r="F33" s="339"/>
+      <c r="G33" s="339"/>
+      <c r="H33" s="339"/>
+      <c r="I33" s="339"/>
+      <c r="J33" s="340"/>
+      <c r="K33" s="354"/>
+      <c r="L33" s="354"/>
       <c r="M33" s="315"/>
       <c r="N33" s="315"/>
-      <c r="O33" s="355"/>
+      <c r="O33" s="354"/>
       <c r="P33" s="146" t="s">
         <v>49</v>
       </c>
@@ -13753,29 +13749,29 @@
     </row>
     <row r="34" spans="2:92" x14ac:dyDescent="0.15">
       <c r="B34" s="122"/>
-      <c r="C34" s="353" t="s">
+      <c r="C34" s="358" t="s">
         <v>150</v>
       </c>
-      <c r="D34" s="338"/>
-      <c r="E34" s="338"/>
-      <c r="F34" s="338"/>
-      <c r="G34" s="338"/>
-      <c r="H34" s="338"/>
-      <c r="I34" s="338"/>
-      <c r="J34" s="350"/>
-      <c r="K34" s="354" t="s">
+      <c r="D34" s="336"/>
+      <c r="E34" s="336"/>
+      <c r="F34" s="336"/>
+      <c r="G34" s="336"/>
+      <c r="H34" s="336"/>
+      <c r="I34" s="336"/>
+      <c r="J34" s="337"/>
+      <c r="K34" s="353" t="s">
         <v>157</v>
       </c>
-      <c r="L34" s="354" t="s">
+      <c r="L34" s="353" t="s">
         <v>155</v>
       </c>
-      <c r="M34" s="318" t="s">
+      <c r="M34" s="324" t="s">
         <v>40</v>
       </c>
-      <c r="N34" s="318" t="s">
+      <c r="N34" s="324" t="s">
         <v>40</v>
       </c>
-      <c r="O34" s="354">
+      <c r="O34" s="353">
         <v>100</v>
       </c>
       <c r="P34" s="145" t="s">
@@ -13860,19 +13856,19 @@
     </row>
     <row r="35" spans="2:92" x14ac:dyDescent="0.15">
       <c r="B35" s="122"/>
-      <c r="C35" s="340"/>
-      <c r="D35" s="340"/>
-      <c r="E35" s="340"/>
-      <c r="F35" s="340"/>
-      <c r="G35" s="340"/>
-      <c r="H35" s="340"/>
-      <c r="I35" s="340"/>
-      <c r="J35" s="351"/>
-      <c r="K35" s="355"/>
-      <c r="L35" s="355"/>
+      <c r="C35" s="339"/>
+      <c r="D35" s="339"/>
+      <c r="E35" s="339"/>
+      <c r="F35" s="339"/>
+      <c r="G35" s="339"/>
+      <c r="H35" s="339"/>
+      <c r="I35" s="339"/>
+      <c r="J35" s="340"/>
+      <c r="K35" s="354"/>
+      <c r="L35" s="354"/>
       <c r="M35" s="315"/>
       <c r="N35" s="315"/>
-      <c r="O35" s="355"/>
+      <c r="O35" s="354"/>
       <c r="P35" s="146" t="s">
         <v>49</v>
       </c>
@@ -13955,29 +13951,29 @@
     </row>
     <row r="36" spans="2:92" x14ac:dyDescent="0.15">
       <c r="B36" s="122"/>
-      <c r="C36" s="353" t="s">
+      <c r="C36" s="358" t="s">
         <v>151</v>
       </c>
-      <c r="D36" s="338"/>
-      <c r="E36" s="338"/>
-      <c r="F36" s="338"/>
-      <c r="G36" s="338"/>
-      <c r="H36" s="338"/>
-      <c r="I36" s="338"/>
-      <c r="J36" s="350"/>
+      <c r="D36" s="336"/>
+      <c r="E36" s="336"/>
+      <c r="F36" s="336"/>
+      <c r="G36" s="336"/>
+      <c r="H36" s="336"/>
+      <c r="I36" s="336"/>
+      <c r="J36" s="337"/>
       <c r="K36" s="314" t="s">
         <v>159</v>
       </c>
       <c r="L36" s="314" t="s">
         <v>158</v>
       </c>
-      <c r="M36" s="318" t="s">
+      <c r="M36" s="324" t="s">
         <v>40</v>
       </c>
-      <c r="N36" s="318" t="s">
+      <c r="N36" s="324" t="s">
         <v>174</v>
       </c>
-      <c r="O36" s="354">
+      <c r="O36" s="353">
         <v>80</v>
       </c>
       <c r="P36" s="145" t="s">
@@ -14062,19 +14058,19 @@
     </row>
     <row r="37" spans="2:92" x14ac:dyDescent="0.15">
       <c r="B37" s="122"/>
-      <c r="C37" s="340"/>
-      <c r="D37" s="340"/>
-      <c r="E37" s="340"/>
-      <c r="F37" s="340"/>
-      <c r="G37" s="340"/>
-      <c r="H37" s="340"/>
-      <c r="I37" s="340"/>
-      <c r="J37" s="351"/>
+      <c r="C37" s="339"/>
+      <c r="D37" s="339"/>
+      <c r="E37" s="339"/>
+      <c r="F37" s="339"/>
+      <c r="G37" s="339"/>
+      <c r="H37" s="339"/>
+      <c r="I37" s="339"/>
+      <c r="J37" s="340"/>
       <c r="K37" s="315"/>
       <c r="L37" s="315"/>
       <c r="M37" s="315"/>
       <c r="N37" s="315"/>
-      <c r="O37" s="355"/>
+      <c r="O37" s="354"/>
       <c r="P37" s="146" t="s">
         <v>49</v>
       </c>
@@ -14157,29 +14153,29 @@
     </row>
     <row r="38" spans="2:92" x14ac:dyDescent="0.15">
       <c r="B38" s="122"/>
-      <c r="C38" s="353" t="s">
+      <c r="C38" s="358" t="s">
         <v>152</v>
       </c>
-      <c r="D38" s="338"/>
-      <c r="E38" s="338"/>
-      <c r="F38" s="338"/>
-      <c r="G38" s="338"/>
-      <c r="H38" s="338"/>
-      <c r="I38" s="338"/>
-      <c r="J38" s="350"/>
-      <c r="K38" s="354" t="s">
+      <c r="D38" s="336"/>
+      <c r="E38" s="336"/>
+      <c r="F38" s="336"/>
+      <c r="G38" s="336"/>
+      <c r="H38" s="336"/>
+      <c r="I38" s="336"/>
+      <c r="J38" s="337"/>
+      <c r="K38" s="353" t="s">
         <v>155</v>
       </c>
       <c r="L38" s="314" t="s">
         <v>158</v>
       </c>
-      <c r="M38" s="318" t="s">
+      <c r="M38" s="324" t="s">
         <v>40</v>
       </c>
-      <c r="N38" s="318" t="s">
+      <c r="N38" s="324" t="s">
         <v>174</v>
       </c>
-      <c r="O38" s="354">
+      <c r="O38" s="353">
         <v>80</v>
       </c>
       <c r="P38" s="145" t="s">
@@ -14264,19 +14260,19 @@
     </row>
     <row r="39" spans="2:92" x14ac:dyDescent="0.15">
       <c r="B39" s="122"/>
-      <c r="C39" s="340"/>
-      <c r="D39" s="340"/>
-      <c r="E39" s="340"/>
-      <c r="F39" s="340"/>
-      <c r="G39" s="340"/>
-      <c r="H39" s="340"/>
-      <c r="I39" s="340"/>
-      <c r="J39" s="351"/>
-      <c r="K39" s="355"/>
+      <c r="C39" s="339"/>
+      <c r="D39" s="339"/>
+      <c r="E39" s="339"/>
+      <c r="F39" s="339"/>
+      <c r="G39" s="339"/>
+      <c r="H39" s="339"/>
+      <c r="I39" s="339"/>
+      <c r="J39" s="340"/>
+      <c r="K39" s="354"/>
       <c r="L39" s="315"/>
       <c r="M39" s="315"/>
       <c r="N39" s="315"/>
-      <c r="O39" s="355"/>
+      <c r="O39" s="354"/>
       <c r="P39" s="146" t="s">
         <v>49</v>
       </c>
@@ -14359,29 +14355,29 @@
     </row>
     <row r="40" spans="2:92" x14ac:dyDescent="0.15">
       <c r="B40" s="122"/>
-      <c r="C40" s="353" t="s">
+      <c r="C40" s="358" t="s">
         <v>153</v>
       </c>
-      <c r="D40" s="338"/>
-      <c r="E40" s="338"/>
-      <c r="F40" s="338"/>
-      <c r="G40" s="338"/>
-      <c r="H40" s="338"/>
-      <c r="I40" s="338"/>
-      <c r="J40" s="350"/>
+      <c r="D40" s="336"/>
+      <c r="E40" s="336"/>
+      <c r="F40" s="336"/>
+      <c r="G40" s="336"/>
+      <c r="H40" s="336"/>
+      <c r="I40" s="336"/>
+      <c r="J40" s="337"/>
       <c r="K40" s="314" t="s">
         <v>160</v>
       </c>
       <c r="L40" s="314" t="s">
         <v>158</v>
       </c>
-      <c r="M40" s="318" t="s">
+      <c r="M40" s="324" t="s">
         <v>40</v>
       </c>
-      <c r="N40" s="318" t="s">
+      <c r="N40" s="324" t="s">
         <v>174</v>
       </c>
-      <c r="O40" s="354">
+      <c r="O40" s="353">
         <v>80</v>
       </c>
       <c r="P40" s="145" t="s">
@@ -14466,19 +14462,19 @@
     </row>
     <row r="41" spans="2:92" x14ac:dyDescent="0.15">
       <c r="B41" s="122"/>
-      <c r="C41" s="340"/>
-      <c r="D41" s="340"/>
-      <c r="E41" s="340"/>
-      <c r="F41" s="340"/>
-      <c r="G41" s="340"/>
-      <c r="H41" s="340"/>
-      <c r="I41" s="340"/>
-      <c r="J41" s="351"/>
+      <c r="C41" s="339"/>
+      <c r="D41" s="339"/>
+      <c r="E41" s="339"/>
+      <c r="F41" s="339"/>
+      <c r="G41" s="339"/>
+      <c r="H41" s="339"/>
+      <c r="I41" s="339"/>
+      <c r="J41" s="340"/>
       <c r="K41" s="315"/>
       <c r="L41" s="315"/>
       <c r="M41" s="315"/>
       <c r="N41" s="315"/>
-      <c r="O41" s="355"/>
+      <c r="O41" s="354"/>
       <c r="P41" s="146" t="s">
         <v>49</v>
       </c>
@@ -14561,29 +14557,29 @@
     </row>
     <row r="42" spans="2:92" x14ac:dyDescent="0.15">
       <c r="B42" s="122"/>
-      <c r="C42" s="353" t="s">
+      <c r="C42" s="358" t="s">
         <v>161</v>
       </c>
-      <c r="D42" s="338"/>
-      <c r="E42" s="338"/>
-      <c r="F42" s="338"/>
-      <c r="G42" s="338"/>
-      <c r="H42" s="338"/>
-      <c r="I42" s="338"/>
-      <c r="J42" s="350"/>
+      <c r="D42" s="336"/>
+      <c r="E42" s="336"/>
+      <c r="F42" s="336"/>
+      <c r="G42" s="336"/>
+      <c r="H42" s="336"/>
+      <c r="I42" s="336"/>
+      <c r="J42" s="337"/>
       <c r="K42" s="314" t="s">
         <v>159</v>
       </c>
       <c r="L42" s="314" t="s">
         <v>159</v>
       </c>
-      <c r="M42" s="318" t="s">
+      <c r="M42" s="324" t="s">
         <v>40</v>
       </c>
-      <c r="N42" s="318" t="s">
+      <c r="N42" s="324" t="s">
         <v>174</v>
       </c>
-      <c r="O42" s="354">
+      <c r="O42" s="353">
         <v>80</v>
       </c>
       <c r="P42" s="145" t="s">
@@ -14668,19 +14664,19 @@
     </row>
     <row r="43" spans="2:92" x14ac:dyDescent="0.15">
       <c r="B43" s="122"/>
-      <c r="C43" s="340"/>
-      <c r="D43" s="340"/>
-      <c r="E43" s="340"/>
-      <c r="F43" s="340"/>
-      <c r="G43" s="340"/>
-      <c r="H43" s="340"/>
-      <c r="I43" s="340"/>
-      <c r="J43" s="351"/>
+      <c r="C43" s="339"/>
+      <c r="D43" s="339"/>
+      <c r="E43" s="339"/>
+      <c r="F43" s="339"/>
+      <c r="G43" s="339"/>
+      <c r="H43" s="339"/>
+      <c r="I43" s="339"/>
+      <c r="J43" s="340"/>
       <c r="K43" s="315"/>
       <c r="L43" s="315"/>
       <c r="M43" s="315"/>
       <c r="N43" s="315"/>
-      <c r="O43" s="355"/>
+      <c r="O43" s="354"/>
       <c r="P43" s="146" t="s">
         <v>49</v>
       </c>
@@ -14763,29 +14759,29 @@
     </row>
     <row r="44" spans="2:92" x14ac:dyDescent="0.15">
       <c r="B44" s="122"/>
-      <c r="C44" s="353" t="s">
+      <c r="C44" s="358" t="s">
         <v>162</v>
       </c>
-      <c r="D44" s="338"/>
-      <c r="E44" s="338"/>
-      <c r="F44" s="338"/>
-      <c r="G44" s="338"/>
-      <c r="H44" s="338"/>
-      <c r="I44" s="338"/>
-      <c r="J44" s="350"/>
-      <c r="K44" s="354" t="s">
+      <c r="D44" s="336"/>
+      <c r="E44" s="336"/>
+      <c r="F44" s="336"/>
+      <c r="G44" s="336"/>
+      <c r="H44" s="336"/>
+      <c r="I44" s="336"/>
+      <c r="J44" s="337"/>
+      <c r="K44" s="353" t="s">
         <v>155</v>
       </c>
       <c r="L44" s="314" t="s">
         <v>159</v>
       </c>
-      <c r="M44" s="318" t="s">
+      <c r="M44" s="324" t="s">
         <v>40</v>
       </c>
-      <c r="N44" s="318" t="s">
+      <c r="N44" s="324" t="s">
         <v>174</v>
       </c>
-      <c r="O44" s="354">
+      <c r="O44" s="353">
         <v>80</v>
       </c>
       <c r="P44" s="145" t="s">
@@ -14870,19 +14866,19 @@
     </row>
     <row r="45" spans="2:92" x14ac:dyDescent="0.15">
       <c r="B45" s="122"/>
-      <c r="C45" s="340"/>
-      <c r="D45" s="340"/>
-      <c r="E45" s="340"/>
-      <c r="F45" s="340"/>
-      <c r="G45" s="340"/>
-      <c r="H45" s="340"/>
-      <c r="I45" s="340"/>
-      <c r="J45" s="351"/>
-      <c r="K45" s="355"/>
+      <c r="C45" s="339"/>
+      <c r="D45" s="339"/>
+      <c r="E45" s="339"/>
+      <c r="F45" s="339"/>
+      <c r="G45" s="339"/>
+      <c r="H45" s="339"/>
+      <c r="I45" s="339"/>
+      <c r="J45" s="340"/>
+      <c r="K45" s="354"/>
       <c r="L45" s="315"/>
       <c r="M45" s="315"/>
       <c r="N45" s="315"/>
-      <c r="O45" s="355"/>
+      <c r="O45" s="354"/>
       <c r="P45" s="146" t="s">
         <v>49</v>
       </c>
@@ -14965,25 +14961,25 @@
     </row>
     <row r="46" spans="2:92" x14ac:dyDescent="0.15">
       <c r="B46" s="122"/>
-      <c r="C46" s="353" t="s">
+      <c r="C46" s="358" t="s">
         <v>163</v>
       </c>
-      <c r="D46" s="338"/>
-      <c r="E46" s="338"/>
-      <c r="F46" s="338"/>
-      <c r="G46" s="338"/>
-      <c r="H46" s="338"/>
-      <c r="I46" s="338"/>
-      <c r="J46" s="350"/>
-      <c r="K46" s="354" t="s">
+      <c r="D46" s="336"/>
+      <c r="E46" s="336"/>
+      <c r="F46" s="336"/>
+      <c r="G46" s="336"/>
+      <c r="H46" s="336"/>
+      <c r="I46" s="336"/>
+      <c r="J46" s="337"/>
+      <c r="K46" s="353" t="s">
         <v>158</v>
       </c>
       <c r="L46" s="314"/>
-      <c r="M46" s="318" t="s">
+      <c r="M46" s="324" t="s">
         <v>40</v>
       </c>
-      <c r="N46" s="318"/>
-      <c r="O46" s="354"/>
+      <c r="N46" s="324"/>
+      <c r="O46" s="353"/>
       <c r="P46" s="145" t="s">
         <v>48</v>
       </c>
@@ -15066,19 +15062,19 @@
     </row>
     <row r="47" spans="2:92" x14ac:dyDescent="0.15">
       <c r="B47" s="122"/>
-      <c r="C47" s="340"/>
-      <c r="D47" s="340"/>
-      <c r="E47" s="340"/>
-      <c r="F47" s="340"/>
-      <c r="G47" s="340"/>
-      <c r="H47" s="340"/>
-      <c r="I47" s="340"/>
-      <c r="J47" s="351"/>
-      <c r="K47" s="355"/>
+      <c r="C47" s="339"/>
+      <c r="D47" s="339"/>
+      <c r="E47" s="339"/>
+      <c r="F47" s="339"/>
+      <c r="G47" s="339"/>
+      <c r="H47" s="339"/>
+      <c r="I47" s="339"/>
+      <c r="J47" s="340"/>
+      <c r="K47" s="354"/>
       <c r="L47" s="315"/>
       <c r="M47" s="315"/>
       <c r="N47" s="315"/>
-      <c r="O47" s="355"/>
+      <c r="O47" s="354"/>
       <c r="P47" s="146" t="s">
         <v>49</v>
       </c>
@@ -15161,25 +15157,25 @@
     </row>
     <row r="48" spans="2:92" x14ac:dyDescent="0.15">
       <c r="B48" s="122"/>
-      <c r="C48" s="353" t="s">
+      <c r="C48" s="358" t="s">
         <v>164</v>
       </c>
-      <c r="D48" s="338"/>
-      <c r="E48" s="338"/>
-      <c r="F48" s="338"/>
-      <c r="G48" s="338"/>
-      <c r="H48" s="338"/>
-      <c r="I48" s="338"/>
-      <c r="J48" s="350"/>
-      <c r="K48" s="354" t="s">
+      <c r="D48" s="336"/>
+      <c r="E48" s="336"/>
+      <c r="F48" s="336"/>
+      <c r="G48" s="336"/>
+      <c r="H48" s="336"/>
+      <c r="I48" s="336"/>
+      <c r="J48" s="337"/>
+      <c r="K48" s="353" t="s">
         <v>156</v>
       </c>
       <c r="L48" s="314"/>
-      <c r="M48" s="318" t="s">
+      <c r="M48" s="324" t="s">
         <v>40</v>
       </c>
-      <c r="N48" s="318"/>
-      <c r="O48" s="354"/>
+      <c r="N48" s="324"/>
+      <c r="O48" s="353"/>
       <c r="P48" s="145" t="s">
         <v>48</v>
       </c>
@@ -15262,19 +15258,19 @@
     </row>
     <row r="49" spans="2:92" x14ac:dyDescent="0.15">
       <c r="B49" s="122"/>
-      <c r="C49" s="340"/>
-      <c r="D49" s="340"/>
-      <c r="E49" s="340"/>
-      <c r="F49" s="340"/>
-      <c r="G49" s="340"/>
-      <c r="H49" s="340"/>
-      <c r="I49" s="340"/>
-      <c r="J49" s="351"/>
-      <c r="K49" s="355"/>
+      <c r="C49" s="339"/>
+      <c r="D49" s="339"/>
+      <c r="E49" s="339"/>
+      <c r="F49" s="339"/>
+      <c r="G49" s="339"/>
+      <c r="H49" s="339"/>
+      <c r="I49" s="339"/>
+      <c r="J49" s="340"/>
+      <c r="K49" s="354"/>
       <c r="L49" s="315"/>
       <c r="M49" s="315"/>
       <c r="N49" s="315"/>
-      <c r="O49" s="355"/>
+      <c r="O49" s="354"/>
       <c r="P49" s="146" t="s">
         <v>49</v>
       </c>
@@ -15357,29 +15353,29 @@
     </row>
     <row r="50" spans="2:92" x14ac:dyDescent="0.15">
       <c r="B50" s="122"/>
-      <c r="C50" s="353" t="s">
+      <c r="C50" s="358" t="s">
         <v>165</v>
       </c>
-      <c r="D50" s="338"/>
-      <c r="E50" s="338"/>
-      <c r="F50" s="338"/>
-      <c r="G50" s="338"/>
-      <c r="H50" s="338"/>
-      <c r="I50" s="338"/>
-      <c r="J50" s="350"/>
-      <c r="K50" s="354" t="s">
+      <c r="D50" s="336"/>
+      <c r="E50" s="336"/>
+      <c r="F50" s="336"/>
+      <c r="G50" s="336"/>
+      <c r="H50" s="336"/>
+      <c r="I50" s="336"/>
+      <c r="J50" s="337"/>
+      <c r="K50" s="353" t="s">
         <v>156</v>
       </c>
       <c r="L50" s="314" t="s">
         <v>159</v>
       </c>
-      <c r="M50" s="318" t="s">
+      <c r="M50" s="324" t="s">
         <v>40</v>
       </c>
-      <c r="N50" s="318" t="s">
+      <c r="N50" s="324" t="s">
         <v>174</v>
       </c>
-      <c r="O50" s="354">
+      <c r="O50" s="353">
         <v>100</v>
       </c>
       <c r="P50" s="145" t="s">
@@ -15464,19 +15460,19 @@
     </row>
     <row r="51" spans="2:92" x14ac:dyDescent="0.15">
       <c r="B51" s="122"/>
-      <c r="C51" s="340"/>
-      <c r="D51" s="340"/>
-      <c r="E51" s="340"/>
-      <c r="F51" s="340"/>
-      <c r="G51" s="340"/>
-      <c r="H51" s="340"/>
-      <c r="I51" s="340"/>
-      <c r="J51" s="351"/>
-      <c r="K51" s="355"/>
+      <c r="C51" s="339"/>
+      <c r="D51" s="339"/>
+      <c r="E51" s="339"/>
+      <c r="F51" s="339"/>
+      <c r="G51" s="339"/>
+      <c r="H51" s="339"/>
+      <c r="I51" s="339"/>
+      <c r="J51" s="340"/>
+      <c r="K51" s="354"/>
       <c r="L51" s="315"/>
       <c r="M51" s="315"/>
       <c r="N51" s="315"/>
-      <c r="O51" s="355"/>
+      <c r="O51" s="354"/>
       <c r="P51" s="146" t="s">
         <v>49</v>
       </c>
@@ -15559,27 +15555,27 @@
     </row>
     <row r="52" spans="2:92" x14ac:dyDescent="0.15">
       <c r="B52" s="122"/>
-      <c r="C52" s="353" t="s">
+      <c r="C52" s="358" t="s">
         <v>166</v>
       </c>
-      <c r="D52" s="338"/>
-      <c r="E52" s="338"/>
-      <c r="F52" s="338"/>
-      <c r="G52" s="338"/>
-      <c r="H52" s="338"/>
-      <c r="I52" s="338"/>
-      <c r="J52" s="350"/>
-      <c r="K52" s="354" t="s">
+      <c r="D52" s="336"/>
+      <c r="E52" s="336"/>
+      <c r="F52" s="336"/>
+      <c r="G52" s="336"/>
+      <c r="H52" s="336"/>
+      <c r="I52" s="336"/>
+      <c r="J52" s="337"/>
+      <c r="K52" s="353" t="s">
         <v>157</v>
       </c>
       <c r="L52" s="314" t="s">
         <v>159</v>
       </c>
-      <c r="M52" s="318" t="s">
+      <c r="M52" s="324" t="s">
         <v>40</v>
       </c>
-      <c r="N52" s="318"/>
-      <c r="O52" s="354"/>
+      <c r="N52" s="324"/>
+      <c r="O52" s="353"/>
       <c r="P52" s="145" t="s">
         <v>48</v>
       </c>
@@ -15662,19 +15658,19 @@
     </row>
     <row r="53" spans="2:92" x14ac:dyDescent="0.15">
       <c r="B53" s="122"/>
-      <c r="C53" s="340"/>
-      <c r="D53" s="340"/>
-      <c r="E53" s="340"/>
-      <c r="F53" s="340"/>
-      <c r="G53" s="340"/>
-      <c r="H53" s="340"/>
-      <c r="I53" s="340"/>
-      <c r="J53" s="351"/>
-      <c r="K53" s="355"/>
+      <c r="C53" s="339"/>
+      <c r="D53" s="339"/>
+      <c r="E53" s="339"/>
+      <c r="F53" s="339"/>
+      <c r="G53" s="339"/>
+      <c r="H53" s="339"/>
+      <c r="I53" s="339"/>
+      <c r="J53" s="340"/>
+      <c r="K53" s="354"/>
       <c r="L53" s="315"/>
       <c r="M53" s="315"/>
       <c r="N53" s="315"/>
-      <c r="O53" s="355"/>
+      <c r="O53" s="354"/>
       <c r="P53" s="146" t="s">
         <v>49</v>
       </c>
@@ -15757,29 +15753,29 @@
     </row>
     <row r="54" spans="2:92" x14ac:dyDescent="0.15">
       <c r="B54" s="122"/>
-      <c r="C54" s="353" t="s">
+      <c r="C54" s="358" t="s">
         <v>167</v>
       </c>
-      <c r="D54" s="338"/>
-      <c r="E54" s="338"/>
-      <c r="F54" s="338"/>
-      <c r="G54" s="338"/>
-      <c r="H54" s="338"/>
-      <c r="I54" s="338"/>
-      <c r="J54" s="350"/>
+      <c r="D54" s="336"/>
+      <c r="E54" s="336"/>
+      <c r="F54" s="336"/>
+      <c r="G54" s="336"/>
+      <c r="H54" s="336"/>
+      <c r="I54" s="336"/>
+      <c r="J54" s="337"/>
       <c r="K54" s="314" t="s">
         <v>159</v>
       </c>
-      <c r="L54" s="354" t="s">
+      <c r="L54" s="353" t="s">
         <v>156</v>
       </c>
-      <c r="M54" s="318" t="s">
+      <c r="M54" s="324" t="s">
         <v>40</v>
       </c>
-      <c r="N54" s="318" t="s">
+      <c r="N54" s="324" t="s">
         <v>40</v>
       </c>
-      <c r="O54" s="354">
+      <c r="O54" s="353">
         <v>100</v>
       </c>
       <c r="P54" s="145" t="s">
@@ -15864,19 +15860,19 @@
     </row>
     <row r="55" spans="2:92" x14ac:dyDescent="0.15">
       <c r="B55" s="122"/>
-      <c r="C55" s="340"/>
-      <c r="D55" s="340"/>
-      <c r="E55" s="340"/>
-      <c r="F55" s="340"/>
-      <c r="G55" s="340"/>
-      <c r="H55" s="340"/>
-      <c r="I55" s="340"/>
-      <c r="J55" s="351"/>
+      <c r="C55" s="339"/>
+      <c r="D55" s="339"/>
+      <c r="E55" s="339"/>
+      <c r="F55" s="339"/>
+      <c r="G55" s="339"/>
+      <c r="H55" s="339"/>
+      <c r="I55" s="339"/>
+      <c r="J55" s="340"/>
       <c r="K55" s="315"/>
-      <c r="L55" s="355"/>
+      <c r="L55" s="354"/>
       <c r="M55" s="315"/>
       <c r="N55" s="315"/>
-      <c r="O55" s="355"/>
+      <c r="O55" s="354"/>
       <c r="P55" s="146" t="s">
         <v>49</v>
       </c>
@@ -15959,29 +15955,29 @@
     </row>
     <row r="56" spans="2:92" x14ac:dyDescent="0.15">
       <c r="B56" s="122"/>
-      <c r="C56" s="353" t="s">
+      <c r="C56" s="358" t="s">
         <v>168</v>
       </c>
-      <c r="D56" s="338"/>
-      <c r="E56" s="338"/>
-      <c r="F56" s="338"/>
-      <c r="G56" s="338"/>
-      <c r="H56" s="338"/>
-      <c r="I56" s="338"/>
-      <c r="J56" s="350"/>
+      <c r="D56" s="336"/>
+      <c r="E56" s="336"/>
+      <c r="F56" s="336"/>
+      <c r="G56" s="336"/>
+      <c r="H56" s="336"/>
+      <c r="I56" s="336"/>
+      <c r="J56" s="337"/>
       <c r="K56" s="314" t="s">
         <v>158</v>
       </c>
-      <c r="L56" s="354" t="s">
+      <c r="L56" s="353" t="s">
         <v>156</v>
       </c>
-      <c r="M56" s="318" t="s">
+      <c r="M56" s="324" t="s">
         <v>40</v>
       </c>
-      <c r="N56" s="318" t="s">
+      <c r="N56" s="324" t="s">
         <v>40</v>
       </c>
-      <c r="O56" s="354">
+      <c r="O56" s="353">
         <v>100</v>
       </c>
       <c r="P56" s="145" t="s">
@@ -16066,19 +16062,19 @@
     </row>
     <row r="57" spans="2:92" x14ac:dyDescent="0.15">
       <c r="B57" s="122"/>
-      <c r="C57" s="340"/>
-      <c r="D57" s="340"/>
-      <c r="E57" s="340"/>
-      <c r="F57" s="340"/>
-      <c r="G57" s="340"/>
-      <c r="H57" s="340"/>
-      <c r="I57" s="340"/>
-      <c r="J57" s="351"/>
+      <c r="C57" s="339"/>
+      <c r="D57" s="339"/>
+      <c r="E57" s="339"/>
+      <c r="F57" s="339"/>
+      <c r="G57" s="339"/>
+      <c r="H57" s="339"/>
+      <c r="I57" s="339"/>
+      <c r="J57" s="340"/>
       <c r="K57" s="315"/>
-      <c r="L57" s="355"/>
+      <c r="L57" s="354"/>
       <c r="M57" s="315"/>
       <c r="N57" s="315"/>
-      <c r="O57" s="355"/>
+      <c r="O57" s="354"/>
       <c r="P57" s="146" t="s">
         <v>49</v>
       </c>
@@ -16161,29 +16157,29 @@
     </row>
     <row r="58" spans="2:92" x14ac:dyDescent="0.15">
       <c r="B58" s="122"/>
-      <c r="C58" s="353" t="s">
+      <c r="C58" s="358" t="s">
         <v>169</v>
       </c>
-      <c r="D58" s="338"/>
-      <c r="E58" s="338"/>
-      <c r="F58" s="338"/>
-      <c r="G58" s="338"/>
-      <c r="H58" s="338"/>
-      <c r="I58" s="338"/>
-      <c r="J58" s="350"/>
+      <c r="D58" s="336"/>
+      <c r="E58" s="336"/>
+      <c r="F58" s="336"/>
+      <c r="G58" s="336"/>
+      <c r="H58" s="336"/>
+      <c r="I58" s="336"/>
+      <c r="J58" s="337"/>
       <c r="K58" s="314" t="s">
         <v>160</v>
       </c>
       <c r="L58" s="314" t="s">
         <v>160</v>
       </c>
-      <c r="M58" s="318" t="s">
+      <c r="M58" s="324" t="s">
         <v>40</v>
       </c>
-      <c r="N58" s="318" t="s">
+      <c r="N58" s="324" t="s">
         <v>174</v>
       </c>
-      <c r="O58" s="354">
+      <c r="O58" s="353">
         <v>100</v>
       </c>
       <c r="P58" s="145" t="s">
@@ -16268,19 +16264,19 @@
     </row>
     <row r="59" spans="2:92" x14ac:dyDescent="0.15">
       <c r="B59" s="122"/>
-      <c r="C59" s="340"/>
-      <c r="D59" s="340"/>
-      <c r="E59" s="340"/>
-      <c r="F59" s="340"/>
-      <c r="G59" s="340"/>
-      <c r="H59" s="340"/>
-      <c r="I59" s="340"/>
-      <c r="J59" s="351"/>
+      <c r="C59" s="339"/>
+      <c r="D59" s="339"/>
+      <c r="E59" s="339"/>
+      <c r="F59" s="339"/>
+      <c r="G59" s="339"/>
+      <c r="H59" s="339"/>
+      <c r="I59" s="339"/>
+      <c r="J59" s="340"/>
       <c r="K59" s="315"/>
       <c r="L59" s="315"/>
       <c r="M59" s="315"/>
       <c r="N59" s="315"/>
-      <c r="O59" s="355"/>
+      <c r="O59" s="354"/>
       <c r="P59" s="146" t="s">
         <v>49</v>
       </c>
@@ -16363,25 +16359,25 @@
     </row>
     <row r="60" spans="2:92" x14ac:dyDescent="0.15">
       <c r="B60" s="122"/>
-      <c r="C60" s="353" t="s">
+      <c r="C60" s="358" t="s">
         <v>170</v>
       </c>
-      <c r="D60" s="338"/>
-      <c r="E60" s="338"/>
-      <c r="F60" s="338"/>
-      <c r="G60" s="338"/>
-      <c r="H60" s="338"/>
-      <c r="I60" s="338"/>
-      <c r="J60" s="350"/>
+      <c r="D60" s="336"/>
+      <c r="E60" s="336"/>
+      <c r="F60" s="336"/>
+      <c r="G60" s="336"/>
+      <c r="H60" s="336"/>
+      <c r="I60" s="336"/>
+      <c r="J60" s="337"/>
       <c r="K60" s="314" t="s">
         <v>159</v>
       </c>
       <c r="L60" s="314"/>
-      <c r="M60" s="318" t="s">
+      <c r="M60" s="324" t="s">
         <v>40</v>
       </c>
-      <c r="N60" s="318"/>
-      <c r="O60" s="354"/>
+      <c r="N60" s="324"/>
+      <c r="O60" s="353"/>
       <c r="P60" s="145" t="s">
         <v>48</v>
       </c>
@@ -16464,19 +16460,19 @@
     </row>
     <row r="61" spans="2:92" x14ac:dyDescent="0.15">
       <c r="B61" s="122"/>
-      <c r="C61" s="340"/>
-      <c r="D61" s="340"/>
-      <c r="E61" s="340"/>
-      <c r="F61" s="340"/>
-      <c r="G61" s="340"/>
-      <c r="H61" s="340"/>
-      <c r="I61" s="340"/>
-      <c r="J61" s="351"/>
+      <c r="C61" s="339"/>
+      <c r="D61" s="339"/>
+      <c r="E61" s="339"/>
+      <c r="F61" s="339"/>
+      <c r="G61" s="339"/>
+      <c r="H61" s="339"/>
+      <c r="I61" s="339"/>
+      <c r="J61" s="340"/>
       <c r="K61" s="315"/>
       <c r="L61" s="315"/>
       <c r="M61" s="315"/>
       <c r="N61" s="315"/>
-      <c r="O61" s="355"/>
+      <c r="O61" s="354"/>
       <c r="P61" s="146" t="s">
         <v>49</v>
       </c>
@@ -16559,29 +16555,29 @@
     </row>
     <row r="62" spans="2:92" x14ac:dyDescent="0.15">
       <c r="B62" s="122"/>
-      <c r="C62" s="353" t="s">
+      <c r="C62" s="358" t="s">
         <v>171</v>
       </c>
-      <c r="D62" s="338"/>
-      <c r="E62" s="338"/>
-      <c r="F62" s="338"/>
-      <c r="G62" s="338"/>
-      <c r="H62" s="338"/>
-      <c r="I62" s="338"/>
-      <c r="J62" s="350"/>
+      <c r="D62" s="336"/>
+      <c r="E62" s="336"/>
+      <c r="F62" s="336"/>
+      <c r="G62" s="336"/>
+      <c r="H62" s="336"/>
+      <c r="I62" s="336"/>
+      <c r="J62" s="337"/>
       <c r="K62" s="314" t="s">
         <v>159</v>
       </c>
       <c r="L62" s="314" t="s">
         <v>155</v>
       </c>
-      <c r="M62" s="318" t="s">
+      <c r="M62" s="324" t="s">
         <v>40</v>
       </c>
-      <c r="N62" s="318" t="s">
+      <c r="N62" s="324" t="s">
         <v>174</v>
       </c>
-      <c r="O62" s="354">
+      <c r="O62" s="353">
         <v>35</v>
       </c>
       <c r="P62" s="145" t="s">
@@ -16666,19 +16662,19 @@
     </row>
     <row r="63" spans="2:92" x14ac:dyDescent="0.15">
       <c r="B63" s="122"/>
-      <c r="C63" s="340"/>
-      <c r="D63" s="340"/>
-      <c r="E63" s="340"/>
-      <c r="F63" s="340"/>
-      <c r="G63" s="340"/>
-      <c r="H63" s="340"/>
-      <c r="I63" s="340"/>
-      <c r="J63" s="351"/>
+      <c r="C63" s="339"/>
+      <c r="D63" s="339"/>
+      <c r="E63" s="339"/>
+      <c r="F63" s="339"/>
+      <c r="G63" s="339"/>
+      <c r="H63" s="339"/>
+      <c r="I63" s="339"/>
+      <c r="J63" s="340"/>
       <c r="K63" s="315"/>
       <c r="L63" s="315"/>
       <c r="M63" s="315"/>
       <c r="N63" s="315"/>
-      <c r="O63" s="355"/>
+      <c r="O63" s="354"/>
       <c r="P63" s="146" t="s">
         <v>49</v>
       </c>
@@ -16761,25 +16757,25 @@
     </row>
     <row r="64" spans="2:92" x14ac:dyDescent="0.15">
       <c r="B64" s="122"/>
-      <c r="C64" s="365" t="s">
+      <c r="C64" s="359" t="s">
         <v>172</v>
       </c>
-      <c r="D64" s="353"/>
-      <c r="E64" s="353"/>
-      <c r="F64" s="353"/>
-      <c r="G64" s="353"/>
-      <c r="H64" s="353"/>
-      <c r="I64" s="353"/>
-      <c r="J64" s="366"/>
+      <c r="D64" s="358"/>
+      <c r="E64" s="358"/>
+      <c r="F64" s="358"/>
+      <c r="G64" s="358"/>
+      <c r="H64" s="358"/>
+      <c r="I64" s="358"/>
+      <c r="J64" s="360"/>
       <c r="K64" s="314" t="s">
         <v>159</v>
       </c>
       <c r="L64" s="314"/>
-      <c r="M64" s="318" t="s">
+      <c r="M64" s="324" t="s">
         <v>40</v>
       </c>
-      <c r="N64" s="318"/>
-      <c r="O64" s="354"/>
+      <c r="N64" s="324"/>
+      <c r="O64" s="353"/>
       <c r="P64" s="145" t="s">
         <v>48</v>
       </c>
@@ -16862,19 +16858,19 @@
     </row>
     <row r="65" spans="2:92" x14ac:dyDescent="0.15">
       <c r="B65" s="122"/>
-      <c r="C65" s="367"/>
-      <c r="D65" s="368"/>
-      <c r="E65" s="368"/>
-      <c r="F65" s="368"/>
-      <c r="G65" s="368"/>
-      <c r="H65" s="368"/>
-      <c r="I65" s="368"/>
-      <c r="J65" s="369"/>
+      <c r="C65" s="361"/>
+      <c r="D65" s="362"/>
+      <c r="E65" s="362"/>
+      <c r="F65" s="362"/>
+      <c r="G65" s="362"/>
+      <c r="H65" s="362"/>
+      <c r="I65" s="362"/>
+      <c r="J65" s="363"/>
       <c r="K65" s="315"/>
       <c r="L65" s="315"/>
       <c r="M65" s="315"/>
       <c r="N65" s="315"/>
-      <c r="O65" s="355"/>
+      <c r="O65" s="354"/>
       <c r="P65" s="146" t="s">
         <v>49</v>
       </c>
@@ -16957,29 +16953,29 @@
     </row>
     <row r="66" spans="2:92" x14ac:dyDescent="0.15">
       <c r="B66" s="122"/>
-      <c r="C66" s="353" t="s">
+      <c r="C66" s="358" t="s">
         <v>173</v>
       </c>
-      <c r="D66" s="338"/>
-      <c r="E66" s="338"/>
-      <c r="F66" s="338"/>
-      <c r="G66" s="338"/>
-      <c r="H66" s="338"/>
-      <c r="I66" s="338"/>
-      <c r="J66" s="350"/>
+      <c r="D66" s="336"/>
+      <c r="E66" s="336"/>
+      <c r="F66" s="336"/>
+      <c r="G66" s="336"/>
+      <c r="H66" s="336"/>
+      <c r="I66" s="336"/>
+      <c r="J66" s="337"/>
       <c r="K66" s="314" t="s">
         <v>157</v>
       </c>
-      <c r="L66" s="354" t="s">
+      <c r="L66" s="353" t="s">
         <v>157</v>
       </c>
-      <c r="M66" s="318" t="s">
+      <c r="M66" s="324" t="s">
         <v>40</v>
       </c>
-      <c r="N66" s="318" t="s">
+      <c r="N66" s="324" t="s">
         <v>40</v>
       </c>
-      <c r="O66" s="354">
+      <c r="O66" s="353">
         <v>100</v>
       </c>
       <c r="P66" s="145" t="s">
@@ -17064,19 +17060,19 @@
     </row>
     <row r="67" spans="2:92" x14ac:dyDescent="0.15">
       <c r="B67" s="122"/>
-      <c r="C67" s="340"/>
-      <c r="D67" s="340"/>
-      <c r="E67" s="340"/>
-      <c r="F67" s="340"/>
-      <c r="G67" s="340"/>
-      <c r="H67" s="340"/>
-      <c r="I67" s="340"/>
-      <c r="J67" s="351"/>
+      <c r="C67" s="339"/>
+      <c r="D67" s="339"/>
+      <c r="E67" s="339"/>
+      <c r="F67" s="339"/>
+      <c r="G67" s="339"/>
+      <c r="H67" s="339"/>
+      <c r="I67" s="339"/>
+      <c r="J67" s="340"/>
       <c r="K67" s="315"/>
-      <c r="L67" s="355"/>
+      <c r="L67" s="354"/>
       <c r="M67" s="315"/>
       <c r="N67" s="315"/>
-      <c r="O67" s="355"/>
+      <c r="O67" s="354"/>
       <c r="P67" s="146" t="s">
         <v>49</v>
       </c>
@@ -17252,68 +17248,38 @@
     </row>
   </sheetData>
   <mergeCells count="118">
-    <mergeCell ref="O60:O61"/>
-    <mergeCell ref="O62:O63"/>
-    <mergeCell ref="O64:O65"/>
-    <mergeCell ref="O66:O67"/>
-    <mergeCell ref="O50:O51"/>
-    <mergeCell ref="O52:O53"/>
-    <mergeCell ref="O54:O55"/>
-    <mergeCell ref="O56:O57"/>
-    <mergeCell ref="O58:O59"/>
-    <mergeCell ref="O40:O41"/>
-    <mergeCell ref="O42:O43"/>
-    <mergeCell ref="O44:O45"/>
-    <mergeCell ref="O46:O47"/>
-    <mergeCell ref="O48:O49"/>
-    <mergeCell ref="O30:O31"/>
-    <mergeCell ref="O32:O33"/>
-    <mergeCell ref="O34:O35"/>
-    <mergeCell ref="O36:O37"/>
-    <mergeCell ref="O38:O39"/>
-    <mergeCell ref="N58:N59"/>
-    <mergeCell ref="N60:N61"/>
-    <mergeCell ref="N62:N63"/>
-    <mergeCell ref="N64:N65"/>
-    <mergeCell ref="N66:N67"/>
-    <mergeCell ref="N48:N49"/>
-    <mergeCell ref="N50:N51"/>
-    <mergeCell ref="N52:N53"/>
-    <mergeCell ref="N54:N55"/>
-    <mergeCell ref="N56:N57"/>
-    <mergeCell ref="N40:N41"/>
-    <mergeCell ref="N42:N43"/>
-    <mergeCell ref="N44:N45"/>
-    <mergeCell ref="N46:N47"/>
-    <mergeCell ref="N25:N27"/>
-    <mergeCell ref="N30:N31"/>
-    <mergeCell ref="N32:N33"/>
-    <mergeCell ref="N34:N35"/>
-    <mergeCell ref="N36:N37"/>
-    <mergeCell ref="M40:M41"/>
-    <mergeCell ref="C44:J45"/>
-    <mergeCell ref="K44:K45"/>
-    <mergeCell ref="M44:M45"/>
-    <mergeCell ref="L40:L41"/>
-    <mergeCell ref="C42:J43"/>
-    <mergeCell ref="K42:K43"/>
-    <mergeCell ref="M42:M43"/>
-    <mergeCell ref="L42:L43"/>
-    <mergeCell ref="L66:L67"/>
-    <mergeCell ref="C60:J61"/>
-    <mergeCell ref="K60:K61"/>
-    <mergeCell ref="M60:M61"/>
-    <mergeCell ref="M64:M65"/>
-    <mergeCell ref="C64:J65"/>
-    <mergeCell ref="C66:J67"/>
-    <mergeCell ref="K66:K67"/>
-    <mergeCell ref="M66:M67"/>
-    <mergeCell ref="C62:J63"/>
-    <mergeCell ref="K62:K63"/>
-    <mergeCell ref="M62:M63"/>
-    <mergeCell ref="L64:L65"/>
-    <mergeCell ref="L60:L61"/>
-    <mergeCell ref="K64:K65"/>
+    <mergeCell ref="M46:M47"/>
+    <mergeCell ref="M56:M57"/>
+    <mergeCell ref="M48:M49"/>
+    <mergeCell ref="L50:L51"/>
+    <mergeCell ref="L44:L45"/>
+    <mergeCell ref="L62:L63"/>
+    <mergeCell ref="C48:J49"/>
+    <mergeCell ref="K48:K49"/>
+    <mergeCell ref="L48:L49"/>
+    <mergeCell ref="L56:L57"/>
+    <mergeCell ref="L52:L53"/>
+    <mergeCell ref="M58:M59"/>
+    <mergeCell ref="M54:M55"/>
+    <mergeCell ref="M50:M51"/>
+    <mergeCell ref="M52:M53"/>
+    <mergeCell ref="C58:J59"/>
+    <mergeCell ref="K58:K59"/>
+    <mergeCell ref="C56:J57"/>
+    <mergeCell ref="K56:K57"/>
+    <mergeCell ref="C46:J47"/>
+    <mergeCell ref="K46:K47"/>
+    <mergeCell ref="L46:L47"/>
+    <mergeCell ref="L58:L59"/>
+    <mergeCell ref="C54:J55"/>
+    <mergeCell ref="K54:K55"/>
+    <mergeCell ref="C40:J41"/>
+    <mergeCell ref="C50:J51"/>
+    <mergeCell ref="K50:K51"/>
+    <mergeCell ref="C52:J53"/>
+    <mergeCell ref="K52:K53"/>
+    <mergeCell ref="L54:L55"/>
+    <mergeCell ref="K40:K41"/>
     <mergeCell ref="M25:M27"/>
     <mergeCell ref="P25:P27"/>
     <mergeCell ref="C30:J31"/>
@@ -17338,38 +17304,68 @@
     <mergeCell ref="M38:M39"/>
     <mergeCell ref="N38:N39"/>
     <mergeCell ref="K25:K27"/>
-    <mergeCell ref="L58:L59"/>
-    <mergeCell ref="C54:J55"/>
-    <mergeCell ref="K54:K55"/>
-    <mergeCell ref="C40:J41"/>
-    <mergeCell ref="C50:J51"/>
-    <mergeCell ref="K50:K51"/>
-    <mergeCell ref="C52:J53"/>
-    <mergeCell ref="K52:K53"/>
-    <mergeCell ref="L54:L55"/>
-    <mergeCell ref="K40:K41"/>
-    <mergeCell ref="M46:M47"/>
-    <mergeCell ref="M56:M57"/>
-    <mergeCell ref="M48:M49"/>
-    <mergeCell ref="L50:L51"/>
-    <mergeCell ref="L44:L45"/>
-    <mergeCell ref="L62:L63"/>
-    <mergeCell ref="C48:J49"/>
-    <mergeCell ref="K48:K49"/>
-    <mergeCell ref="L48:L49"/>
-    <mergeCell ref="L56:L57"/>
-    <mergeCell ref="L52:L53"/>
-    <mergeCell ref="M58:M59"/>
-    <mergeCell ref="M54:M55"/>
-    <mergeCell ref="M50:M51"/>
-    <mergeCell ref="M52:M53"/>
-    <mergeCell ref="C58:J59"/>
-    <mergeCell ref="K58:K59"/>
-    <mergeCell ref="C56:J57"/>
-    <mergeCell ref="K56:K57"/>
-    <mergeCell ref="C46:J47"/>
-    <mergeCell ref="K46:K47"/>
-    <mergeCell ref="L46:L47"/>
+    <mergeCell ref="L66:L67"/>
+    <mergeCell ref="C60:J61"/>
+    <mergeCell ref="K60:K61"/>
+    <mergeCell ref="M60:M61"/>
+    <mergeCell ref="M64:M65"/>
+    <mergeCell ref="C64:J65"/>
+    <mergeCell ref="C66:J67"/>
+    <mergeCell ref="K66:K67"/>
+    <mergeCell ref="M66:M67"/>
+    <mergeCell ref="C62:J63"/>
+    <mergeCell ref="K62:K63"/>
+    <mergeCell ref="M62:M63"/>
+    <mergeCell ref="L64:L65"/>
+    <mergeCell ref="L60:L61"/>
+    <mergeCell ref="K64:K65"/>
+    <mergeCell ref="M40:M41"/>
+    <mergeCell ref="C44:J45"/>
+    <mergeCell ref="K44:K45"/>
+    <mergeCell ref="M44:M45"/>
+    <mergeCell ref="L40:L41"/>
+    <mergeCell ref="C42:J43"/>
+    <mergeCell ref="K42:K43"/>
+    <mergeCell ref="M42:M43"/>
+    <mergeCell ref="L42:L43"/>
+    <mergeCell ref="N40:N41"/>
+    <mergeCell ref="N42:N43"/>
+    <mergeCell ref="N44:N45"/>
+    <mergeCell ref="N46:N47"/>
+    <mergeCell ref="N25:N27"/>
+    <mergeCell ref="N30:N31"/>
+    <mergeCell ref="N32:N33"/>
+    <mergeCell ref="N34:N35"/>
+    <mergeCell ref="N36:N37"/>
+    <mergeCell ref="N58:N59"/>
+    <mergeCell ref="N60:N61"/>
+    <mergeCell ref="N62:N63"/>
+    <mergeCell ref="N64:N65"/>
+    <mergeCell ref="N66:N67"/>
+    <mergeCell ref="N48:N49"/>
+    <mergeCell ref="N50:N51"/>
+    <mergeCell ref="N52:N53"/>
+    <mergeCell ref="N54:N55"/>
+    <mergeCell ref="N56:N57"/>
+    <mergeCell ref="O40:O41"/>
+    <mergeCell ref="O42:O43"/>
+    <mergeCell ref="O44:O45"/>
+    <mergeCell ref="O46:O47"/>
+    <mergeCell ref="O48:O49"/>
+    <mergeCell ref="O30:O31"/>
+    <mergeCell ref="O32:O33"/>
+    <mergeCell ref="O34:O35"/>
+    <mergeCell ref="O36:O37"/>
+    <mergeCell ref="O38:O39"/>
+    <mergeCell ref="O60:O61"/>
+    <mergeCell ref="O62:O63"/>
+    <mergeCell ref="O64:O65"/>
+    <mergeCell ref="O66:O67"/>
+    <mergeCell ref="O50:O51"/>
+    <mergeCell ref="O52:O53"/>
+    <mergeCell ref="O54:O55"/>
+    <mergeCell ref="O56:O57"/>
+    <mergeCell ref="O58:O59"/>
   </mergeCells>
   <phoneticPr fontId="7"/>
   <dataValidations count="1">
@@ -17387,8 +17383,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="B23:CK47"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M51" sqref="M51"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.875" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
@@ -17558,13 +17554,13 @@
       <c r="H25" s="100"/>
       <c r="I25" s="100"/>
       <c r="J25" s="100"/>
-      <c r="K25" s="356" t="s">
+      <c r="K25" s="367" t="s">
         <v>3</v>
       </c>
-      <c r="L25" s="362" t="s">
+      <c r="L25" s="364" t="s">
         <v>52</v>
       </c>
-      <c r="M25" s="362" t="s">
+      <c r="M25" s="364" t="s">
         <v>47</v>
       </c>
       <c r="N25" s="101">
@@ -17656,9 +17652,9 @@
       <c r="H26" s="171"/>
       <c r="I26" s="171"/>
       <c r="J26" s="171"/>
-      <c r="K26" s="357"/>
-      <c r="L26" s="363"/>
-      <c r="M26" s="363"/>
+      <c r="K26" s="368"/>
+      <c r="L26" s="365"/>
+      <c r="M26" s="365"/>
       <c r="N26" s="170" t="s">
         <v>118</v>
       </c>
@@ -17748,9 +17744,9 @@
       <c r="H27" s="90"/>
       <c r="I27" s="90"/>
       <c r="J27" s="90"/>
-      <c r="K27" s="358"/>
-      <c r="L27" s="364"/>
-      <c r="M27" s="364"/>
+      <c r="K27" s="369"/>
+      <c r="L27" s="366"/>
+      <c r="M27" s="366"/>
       <c r="N27" s="84">
         <v>21</v>
       </c>
@@ -17945,17 +17941,17 @@
       <c r="C29" s="370" t="s">
         <v>87</v>
       </c>
-      <c r="D29" s="338"/>
-      <c r="E29" s="338"/>
-      <c r="F29" s="338"/>
-      <c r="G29" s="338"/>
-      <c r="H29" s="338"/>
-      <c r="I29" s="338"/>
-      <c r="J29" s="350"/>
+      <c r="D29" s="336"/>
+      <c r="E29" s="336"/>
+      <c r="F29" s="336"/>
+      <c r="G29" s="336"/>
+      <c r="H29" s="336"/>
+      <c r="I29" s="336"/>
+      <c r="J29" s="337"/>
       <c r="K29" s="314" t="s">
         <v>58</v>
       </c>
-      <c r="L29" s="318">
+      <c r="L29" s="324">
         <v>1</v>
       </c>
       <c r="M29" s="80" t="s">
@@ -18040,14 +18036,14 @@
     </row>
     <row r="30" spans="2:89" x14ac:dyDescent="0.15">
       <c r="B30" s="3"/>
-      <c r="C30" s="339"/>
-      <c r="D30" s="340"/>
-      <c r="E30" s="340"/>
-      <c r="F30" s="340"/>
-      <c r="G30" s="340"/>
-      <c r="H30" s="340"/>
-      <c r="I30" s="340"/>
-      <c r="J30" s="351"/>
+      <c r="C30" s="338"/>
+      <c r="D30" s="339"/>
+      <c r="E30" s="339"/>
+      <c r="F30" s="339"/>
+      <c r="G30" s="339"/>
+      <c r="H30" s="339"/>
+      <c r="I30" s="339"/>
+      <c r="J30" s="340"/>
       <c r="K30" s="315"/>
       <c r="L30" s="315"/>
       <c r="M30" s="81" t="s">
@@ -18135,17 +18131,17 @@
       <c r="C31" s="370" t="s">
         <v>88</v>
       </c>
-      <c r="D31" s="338"/>
-      <c r="E31" s="338"/>
-      <c r="F31" s="338"/>
-      <c r="G31" s="338"/>
-      <c r="H31" s="338"/>
-      <c r="I31" s="338"/>
-      <c r="J31" s="350"/>
+      <c r="D31" s="336"/>
+      <c r="E31" s="336"/>
+      <c r="F31" s="336"/>
+      <c r="G31" s="336"/>
+      <c r="H31" s="336"/>
+      <c r="I31" s="336"/>
+      <c r="J31" s="337"/>
       <c r="K31" s="314" t="s">
         <v>58</v>
       </c>
-      <c r="L31" s="318">
+      <c r="L31" s="324">
         <v>1</v>
       </c>
       <c r="M31" s="80" t="s">
@@ -18230,14 +18226,14 @@
     </row>
     <row r="32" spans="2:89" x14ac:dyDescent="0.15">
       <c r="B32" s="3"/>
-      <c r="C32" s="339"/>
-      <c r="D32" s="340"/>
-      <c r="E32" s="340"/>
-      <c r="F32" s="340"/>
-      <c r="G32" s="340"/>
-      <c r="H32" s="340"/>
-      <c r="I32" s="340"/>
-      <c r="J32" s="351"/>
+      <c r="C32" s="338"/>
+      <c r="D32" s="339"/>
+      <c r="E32" s="339"/>
+      <c r="F32" s="339"/>
+      <c r="G32" s="339"/>
+      <c r="H32" s="339"/>
+      <c r="I32" s="339"/>
+      <c r="J32" s="340"/>
       <c r="K32" s="315"/>
       <c r="L32" s="315" t="s">
         <v>39</v>
@@ -18327,17 +18323,17 @@
       <c r="C33" s="370" t="s">
         <v>90</v>
       </c>
-      <c r="D33" s="338"/>
-      <c r="E33" s="338"/>
-      <c r="F33" s="338"/>
-      <c r="G33" s="338"/>
-      <c r="H33" s="338"/>
-      <c r="I33" s="338"/>
-      <c r="J33" s="350"/>
+      <c r="D33" s="336"/>
+      <c r="E33" s="336"/>
+      <c r="F33" s="336"/>
+      <c r="G33" s="336"/>
+      <c r="H33" s="336"/>
+      <c r="I33" s="336"/>
+      <c r="J33" s="337"/>
       <c r="K33" s="314" t="s">
         <v>58</v>
       </c>
-      <c r="L33" s="318">
+      <c r="L33" s="324">
         <v>1</v>
       </c>
       <c r="M33" s="80" t="s">
@@ -18422,14 +18418,14 @@
     </row>
     <row r="34" spans="2:89" x14ac:dyDescent="0.15">
       <c r="B34" s="3"/>
-      <c r="C34" s="339"/>
-      <c r="D34" s="340"/>
-      <c r="E34" s="340"/>
-      <c r="F34" s="340"/>
-      <c r="G34" s="340"/>
-      <c r="H34" s="340"/>
-      <c r="I34" s="340"/>
-      <c r="J34" s="351"/>
+      <c r="C34" s="338"/>
+      <c r="D34" s="339"/>
+      <c r="E34" s="339"/>
+      <c r="F34" s="339"/>
+      <c r="G34" s="339"/>
+      <c r="H34" s="339"/>
+      <c r="I34" s="339"/>
+      <c r="J34" s="340"/>
       <c r="K34" s="315"/>
       <c r="L34" s="315" t="s">
         <v>39</v>
@@ -18519,17 +18515,17 @@
       <c r="C35" s="370" t="s">
         <v>91</v>
       </c>
-      <c r="D35" s="338"/>
-      <c r="E35" s="338"/>
-      <c r="F35" s="338"/>
-      <c r="G35" s="338"/>
-      <c r="H35" s="338"/>
-      <c r="I35" s="338"/>
-      <c r="J35" s="350"/>
+      <c r="D35" s="336"/>
+      <c r="E35" s="336"/>
+      <c r="F35" s="336"/>
+      <c r="G35" s="336"/>
+      <c r="H35" s="336"/>
+      <c r="I35" s="336"/>
+      <c r="J35" s="337"/>
       <c r="K35" s="314" t="s">
         <v>58</v>
       </c>
-      <c r="L35" s="318">
+      <c r="L35" s="324">
         <v>1</v>
       </c>
       <c r="M35" s="80" t="s">
@@ -18614,14 +18610,14 @@
     </row>
     <row r="36" spans="2:89" x14ac:dyDescent="0.15">
       <c r="B36" s="3"/>
-      <c r="C36" s="339"/>
-      <c r="D36" s="340"/>
-      <c r="E36" s="340"/>
-      <c r="F36" s="340"/>
-      <c r="G36" s="340"/>
-      <c r="H36" s="340"/>
-      <c r="I36" s="340"/>
-      <c r="J36" s="351"/>
+      <c r="C36" s="338"/>
+      <c r="D36" s="339"/>
+      <c r="E36" s="339"/>
+      <c r="F36" s="339"/>
+      <c r="G36" s="339"/>
+      <c r="H36" s="339"/>
+      <c r="I36" s="339"/>
+      <c r="J36" s="340"/>
       <c r="K36" s="315"/>
       <c r="L36" s="315" t="s">
         <v>39</v>
@@ -18711,17 +18707,17 @@
       <c r="C37" s="370" t="s">
         <v>92</v>
       </c>
-      <c r="D37" s="338"/>
-      <c r="E37" s="338"/>
-      <c r="F37" s="338"/>
-      <c r="G37" s="338"/>
-      <c r="H37" s="338"/>
-      <c r="I37" s="338"/>
-      <c r="J37" s="350"/>
+      <c r="D37" s="336"/>
+      <c r="E37" s="336"/>
+      <c r="F37" s="336"/>
+      <c r="G37" s="336"/>
+      <c r="H37" s="336"/>
+      <c r="I37" s="336"/>
+      <c r="J37" s="337"/>
       <c r="K37" s="314" t="s">
         <v>59</v>
       </c>
-      <c r="L37" s="318">
+      <c r="L37" s="324">
         <v>0.7</v>
       </c>
       <c r="M37" s="80" t="s">
@@ -18806,14 +18802,14 @@
     </row>
     <row r="38" spans="2:89" x14ac:dyDescent="0.15">
       <c r="B38" s="3"/>
-      <c r="C38" s="339"/>
-      <c r="D38" s="340"/>
-      <c r="E38" s="340"/>
-      <c r="F38" s="340"/>
-      <c r="G38" s="340"/>
-      <c r="H38" s="340"/>
-      <c r="I38" s="340"/>
-      <c r="J38" s="351"/>
+      <c r="C38" s="338"/>
+      <c r="D38" s="339"/>
+      <c r="E38" s="339"/>
+      <c r="F38" s="339"/>
+      <c r="G38" s="339"/>
+      <c r="H38" s="339"/>
+      <c r="I38" s="339"/>
+      <c r="J38" s="340"/>
       <c r="K38" s="315" t="s">
         <v>15</v>
       </c>
@@ -18905,17 +18901,17 @@
       <c r="C39" s="370" t="s">
         <v>93</v>
       </c>
-      <c r="D39" s="338"/>
-      <c r="E39" s="338"/>
-      <c r="F39" s="338"/>
-      <c r="G39" s="338"/>
-      <c r="H39" s="338"/>
-      <c r="I39" s="338"/>
-      <c r="J39" s="350"/>
+      <c r="D39" s="336"/>
+      <c r="E39" s="336"/>
+      <c r="F39" s="336"/>
+      <c r="G39" s="336"/>
+      <c r="H39" s="336"/>
+      <c r="I39" s="336"/>
+      <c r="J39" s="337"/>
       <c r="K39" s="314" t="s">
         <v>59</v>
       </c>
-      <c r="L39" s="318">
+      <c r="L39" s="324">
         <v>1</v>
       </c>
       <c r="M39" s="80" t="s">
@@ -19000,14 +18996,14 @@
     </row>
     <row r="40" spans="2:89" x14ac:dyDescent="0.15">
       <c r="B40" s="3"/>
-      <c r="C40" s="339"/>
-      <c r="D40" s="340"/>
-      <c r="E40" s="340"/>
-      <c r="F40" s="340"/>
-      <c r="G40" s="340"/>
-      <c r="H40" s="340"/>
-      <c r="I40" s="340"/>
-      <c r="J40" s="351"/>
+      <c r="C40" s="338"/>
+      <c r="D40" s="339"/>
+      <c r="E40" s="339"/>
+      <c r="F40" s="339"/>
+      <c r="G40" s="339"/>
+      <c r="H40" s="339"/>
+      <c r="I40" s="339"/>
+      <c r="J40" s="340"/>
       <c r="K40" s="315" t="s">
         <v>15</v>
       </c>
@@ -19099,17 +19095,17 @@
       <c r="C41" s="370" t="s">
         <v>94</v>
       </c>
-      <c r="D41" s="338"/>
-      <c r="E41" s="338"/>
-      <c r="F41" s="338"/>
-      <c r="G41" s="338"/>
-      <c r="H41" s="338"/>
-      <c r="I41" s="338"/>
-      <c r="J41" s="350"/>
+      <c r="D41" s="336"/>
+      <c r="E41" s="336"/>
+      <c r="F41" s="336"/>
+      <c r="G41" s="336"/>
+      <c r="H41" s="336"/>
+      <c r="I41" s="336"/>
+      <c r="J41" s="337"/>
       <c r="K41" s="314" t="s">
         <v>59</v>
       </c>
-      <c r="L41" s="318">
+      <c r="L41" s="324">
         <v>1</v>
       </c>
       <c r="M41" s="80" t="s">
@@ -19194,14 +19190,14 @@
     </row>
     <row r="42" spans="2:89" x14ac:dyDescent="0.15">
       <c r="B42" s="3"/>
-      <c r="C42" s="339"/>
-      <c r="D42" s="340"/>
-      <c r="E42" s="340"/>
-      <c r="F42" s="340"/>
-      <c r="G42" s="340"/>
-      <c r="H42" s="340"/>
-      <c r="I42" s="340"/>
-      <c r="J42" s="351"/>
+      <c r="C42" s="338"/>
+      <c r="D42" s="339"/>
+      <c r="E42" s="339"/>
+      <c r="F42" s="339"/>
+      <c r="G42" s="339"/>
+      <c r="H42" s="339"/>
+      <c r="I42" s="339"/>
+      <c r="J42" s="340"/>
       <c r="K42" s="315" t="s">
         <v>15</v>
       </c>
@@ -19293,17 +19289,17 @@
       <c r="C43" s="370" t="s">
         <v>95</v>
       </c>
-      <c r="D43" s="338"/>
-      <c r="E43" s="338"/>
-      <c r="F43" s="338"/>
-      <c r="G43" s="338"/>
-      <c r="H43" s="338"/>
-      <c r="I43" s="338"/>
-      <c r="J43" s="350"/>
+      <c r="D43" s="336"/>
+      <c r="E43" s="336"/>
+      <c r="F43" s="336"/>
+      <c r="G43" s="336"/>
+      <c r="H43" s="336"/>
+      <c r="I43" s="336"/>
+      <c r="J43" s="337"/>
       <c r="K43" s="314" t="s">
         <v>59</v>
       </c>
-      <c r="L43" s="318">
+      <c r="L43" s="324">
         <v>1</v>
       </c>
       <c r="M43" s="80" t="s">
@@ -19388,14 +19384,14 @@
     </row>
     <row r="44" spans="2:89" x14ac:dyDescent="0.15">
       <c r="B44" s="3"/>
-      <c r="C44" s="339"/>
-      <c r="D44" s="340"/>
-      <c r="E44" s="340"/>
-      <c r="F44" s="340"/>
-      <c r="G44" s="340"/>
-      <c r="H44" s="340"/>
-      <c r="I44" s="340"/>
-      <c r="J44" s="351"/>
+      <c r="C44" s="338"/>
+      <c r="D44" s="339"/>
+      <c r="E44" s="339"/>
+      <c r="F44" s="339"/>
+      <c r="G44" s="339"/>
+      <c r="H44" s="339"/>
+      <c r="I44" s="339"/>
+      <c r="J44" s="340"/>
       <c r="K44" s="315" t="s">
         <v>15</v>
       </c>
@@ -19712,6 +19708,24 @@
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="K25:K27"/>
+    <mergeCell ref="L25:L27"/>
+    <mergeCell ref="M25:M27"/>
+    <mergeCell ref="C29:J30"/>
+    <mergeCell ref="K29:K30"/>
+    <mergeCell ref="L29:L30"/>
+    <mergeCell ref="C31:J32"/>
+    <mergeCell ref="K31:K32"/>
+    <mergeCell ref="L31:L32"/>
+    <mergeCell ref="C33:J34"/>
+    <mergeCell ref="K33:K34"/>
+    <mergeCell ref="L33:L34"/>
+    <mergeCell ref="C35:J36"/>
+    <mergeCell ref="K35:K36"/>
+    <mergeCell ref="L35:L36"/>
+    <mergeCell ref="C37:J38"/>
+    <mergeCell ref="K37:K38"/>
+    <mergeCell ref="L37:L38"/>
     <mergeCell ref="C43:J44"/>
     <mergeCell ref="K43:K44"/>
     <mergeCell ref="L43:L44"/>
@@ -19721,24 +19735,6 @@
     <mergeCell ref="C41:J42"/>
     <mergeCell ref="K41:K42"/>
     <mergeCell ref="L41:L42"/>
-    <mergeCell ref="C35:J36"/>
-    <mergeCell ref="K35:K36"/>
-    <mergeCell ref="L35:L36"/>
-    <mergeCell ref="C37:J38"/>
-    <mergeCell ref="K37:K38"/>
-    <mergeCell ref="L37:L38"/>
-    <mergeCell ref="C31:J32"/>
-    <mergeCell ref="K31:K32"/>
-    <mergeCell ref="L31:L32"/>
-    <mergeCell ref="C33:J34"/>
-    <mergeCell ref="K33:K34"/>
-    <mergeCell ref="L33:L34"/>
-    <mergeCell ref="K25:K27"/>
-    <mergeCell ref="L25:L27"/>
-    <mergeCell ref="M25:M27"/>
-    <mergeCell ref="C29:J30"/>
-    <mergeCell ref="K29:K30"/>
-    <mergeCell ref="L29:L30"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations disablePrompts="1" count="1">
@@ -19972,20 +19968,20 @@
     </row>
     <row r="30" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B30" s="3"/>
-      <c r="C30" s="329" t="s">
+      <c r="C30" s="318" t="s">
         <v>87</v>
       </c>
-      <c r="D30" s="330"/>
-      <c r="E30" s="330" t="s">
+      <c r="D30" s="319"/>
+      <c r="E30" s="319" t="s">
         <v>30</v>
       </c>
-      <c r="F30" s="330" t="s">
+      <c r="F30" s="319" t="s">
         <v>17</v>
       </c>
-      <c r="G30" s="330"/>
-      <c r="H30" s="330"/>
-      <c r="I30" s="330"/>
-      <c r="J30" s="331"/>
+      <c r="G30" s="319"/>
+      <c r="H30" s="319"/>
+      <c r="I30" s="319"/>
+      <c r="J30" s="320"/>
       <c r="K30" s="314" t="s">
         <v>11</v>
       </c>
@@ -20013,14 +20009,14 @@
     </row>
     <row r="31" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B31" s="3"/>
-      <c r="C31" s="332"/>
-      <c r="D31" s="333"/>
-      <c r="E31" s="333"/>
-      <c r="F31" s="333"/>
-      <c r="G31" s="333"/>
-      <c r="H31" s="333"/>
-      <c r="I31" s="333"/>
-      <c r="J31" s="334"/>
+      <c r="C31" s="321"/>
+      <c r="D31" s="322"/>
+      <c r="E31" s="322"/>
+      <c r="F31" s="322"/>
+      <c r="G31" s="322"/>
+      <c r="H31" s="322"/>
+      <c r="I31" s="322"/>
+      <c r="J31" s="323"/>
       <c r="K31" s="315"/>
       <c r="L31" s="317"/>
       <c r="M31" s="44" t="s">
@@ -20044,20 +20040,20 @@
     </row>
     <row r="32" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B32" s="3"/>
-      <c r="C32" s="329" t="s">
+      <c r="C32" s="318" t="s">
         <v>102</v>
       </c>
-      <c r="D32" s="330"/>
-      <c r="E32" s="330" t="s">
+      <c r="D32" s="319"/>
+      <c r="E32" s="319" t="s">
         <v>31</v>
       </c>
-      <c r="F32" s="330" t="s">
+      <c r="F32" s="319" t="s">
         <v>18</v>
       </c>
-      <c r="G32" s="330"/>
-      <c r="H32" s="330"/>
-      <c r="I32" s="330"/>
-      <c r="J32" s="331"/>
+      <c r="G32" s="319"/>
+      <c r="H32" s="319"/>
+      <c r="I32" s="319"/>
+      <c r="J32" s="320"/>
       <c r="K32" s="314" t="s">
         <v>15</v>
       </c>
@@ -20085,14 +20081,14 @@
     </row>
     <row r="33" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B33" s="3"/>
-      <c r="C33" s="332"/>
-      <c r="D33" s="333"/>
-      <c r="E33" s="333"/>
-      <c r="F33" s="333"/>
-      <c r="G33" s="333"/>
-      <c r="H33" s="333"/>
-      <c r="I33" s="333"/>
-      <c r="J33" s="334"/>
+      <c r="C33" s="321"/>
+      <c r="D33" s="322"/>
+      <c r="E33" s="322"/>
+      <c r="F33" s="322"/>
+      <c r="G33" s="322"/>
+      <c r="H33" s="322"/>
+      <c r="I33" s="322"/>
+      <c r="J33" s="323"/>
       <c r="K33" s="315"/>
       <c r="L33" s="317"/>
       <c r="M33" s="44" t="s">
@@ -20116,20 +20112,20 @@
     </row>
     <row r="34" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B34" s="3"/>
-      <c r="C34" s="329" t="s">
+      <c r="C34" s="318" t="s">
         <v>101</v>
       </c>
-      <c r="D34" s="330"/>
-      <c r="E34" s="330" t="s">
+      <c r="D34" s="319"/>
+      <c r="E34" s="319" t="s">
         <v>32</v>
       </c>
-      <c r="F34" s="330" t="s">
+      <c r="F34" s="319" t="s">
         <v>19</v>
       </c>
-      <c r="G34" s="330"/>
-      <c r="H34" s="330"/>
-      <c r="I34" s="330"/>
-      <c r="J34" s="331"/>
+      <c r="G34" s="319"/>
+      <c r="H34" s="319"/>
+      <c r="I34" s="319"/>
+      <c r="J34" s="320"/>
       <c r="K34" s="314" t="s">
         <v>15</v>
       </c>
@@ -20157,14 +20153,14 @@
     </row>
     <row r="35" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B35" s="3"/>
-      <c r="C35" s="332"/>
-      <c r="D35" s="333"/>
-      <c r="E35" s="333"/>
-      <c r="F35" s="333"/>
-      <c r="G35" s="333"/>
-      <c r="H35" s="333"/>
-      <c r="I35" s="333"/>
-      <c r="J35" s="334"/>
+      <c r="C35" s="321"/>
+      <c r="D35" s="322"/>
+      <c r="E35" s="322"/>
+      <c r="F35" s="322"/>
+      <c r="G35" s="322"/>
+      <c r="H35" s="322"/>
+      <c r="I35" s="322"/>
+      <c r="J35" s="323"/>
       <c r="K35" s="315"/>
       <c r="L35" s="317"/>
       <c r="M35" s="44" t="s">
@@ -20191,17 +20187,17 @@
       <c r="C36" s="371" t="s">
         <v>100</v>
       </c>
-      <c r="D36" s="330"/>
-      <c r="E36" s="330" t="s">
+      <c r="D36" s="319"/>
+      <c r="E36" s="319" t="s">
         <v>33</v>
       </c>
-      <c r="F36" s="330" t="s">
+      <c r="F36" s="319" t="s">
         <v>20</v>
       </c>
-      <c r="G36" s="330"/>
-      <c r="H36" s="330"/>
-      <c r="I36" s="330"/>
-      <c r="J36" s="331"/>
+      <c r="G36" s="319"/>
+      <c r="H36" s="319"/>
+      <c r="I36" s="319"/>
+      <c r="J36" s="320"/>
       <c r="K36" s="314" t="s">
         <v>15</v>
       </c>
@@ -20229,14 +20225,14 @@
     </row>
     <row r="37" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B37" s="3"/>
-      <c r="C37" s="332"/>
-      <c r="D37" s="333"/>
-      <c r="E37" s="333"/>
-      <c r="F37" s="333"/>
-      <c r="G37" s="333"/>
-      <c r="H37" s="333"/>
-      <c r="I37" s="333"/>
-      <c r="J37" s="334"/>
+      <c r="C37" s="321"/>
+      <c r="D37" s="322"/>
+      <c r="E37" s="322"/>
+      <c r="F37" s="322"/>
+      <c r="G37" s="322"/>
+      <c r="H37" s="322"/>
+      <c r="I37" s="322"/>
+      <c r="J37" s="323"/>
       <c r="K37" s="315"/>
       <c r="L37" s="317"/>
       <c r="M37" s="44" t="s">
@@ -20260,20 +20256,20 @@
     </row>
     <row r="38" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B38" s="3"/>
-      <c r="C38" s="329" t="s">
+      <c r="C38" s="318" t="s">
         <v>99</v>
       </c>
-      <c r="D38" s="330"/>
-      <c r="E38" s="330" t="s">
+      <c r="D38" s="319"/>
+      <c r="E38" s="319" t="s">
         <v>34</v>
       </c>
-      <c r="F38" s="330" t="s">
+      <c r="F38" s="319" t="s">
         <v>24</v>
       </c>
-      <c r="G38" s="330"/>
-      <c r="H38" s="330"/>
-      <c r="I38" s="330"/>
-      <c r="J38" s="331"/>
+      <c r="G38" s="319"/>
+      <c r="H38" s="319"/>
+      <c r="I38" s="319"/>
+      <c r="J38" s="320"/>
       <c r="K38" s="314" t="s">
         <v>16</v>
       </c>
@@ -20301,14 +20297,14 @@
     </row>
     <row r="39" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B39" s="3"/>
-      <c r="C39" s="332"/>
-      <c r="D39" s="333"/>
-      <c r="E39" s="333"/>
-      <c r="F39" s="333"/>
-      <c r="G39" s="333"/>
-      <c r="H39" s="333"/>
-      <c r="I39" s="333"/>
-      <c r="J39" s="334"/>
+      <c r="C39" s="321"/>
+      <c r="D39" s="322"/>
+      <c r="E39" s="322"/>
+      <c r="F39" s="322"/>
+      <c r="G39" s="322"/>
+      <c r="H39" s="322"/>
+      <c r="I39" s="322"/>
+      <c r="J39" s="323"/>
       <c r="K39" s="315"/>
       <c r="L39" s="317"/>
       <c r="M39" s="44" t="s">
@@ -20332,20 +20328,20 @@
     </row>
     <row r="40" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B40" s="3"/>
-      <c r="C40" s="329" t="s">
+      <c r="C40" s="318" t="s">
         <v>98</v>
       </c>
-      <c r="D40" s="330"/>
-      <c r="E40" s="330" t="s">
+      <c r="D40" s="319"/>
+      <c r="E40" s="319" t="s">
         <v>35</v>
       </c>
-      <c r="F40" s="330" t="s">
+      <c r="F40" s="319" t="s">
         <v>25</v>
       </c>
-      <c r="G40" s="330"/>
-      <c r="H40" s="330"/>
-      <c r="I40" s="330"/>
-      <c r="J40" s="331"/>
+      <c r="G40" s="319"/>
+      <c r="H40" s="319"/>
+      <c r="I40" s="319"/>
+      <c r="J40" s="320"/>
       <c r="K40" s="314" t="s">
         <v>16</v>
       </c>
@@ -20373,14 +20369,14 @@
     </row>
     <row r="41" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B41" s="3"/>
-      <c r="C41" s="332"/>
-      <c r="D41" s="333"/>
-      <c r="E41" s="333"/>
-      <c r="F41" s="333"/>
-      <c r="G41" s="333"/>
-      <c r="H41" s="333"/>
-      <c r="I41" s="333"/>
-      <c r="J41" s="334"/>
+      <c r="C41" s="321"/>
+      <c r="D41" s="322"/>
+      <c r="E41" s="322"/>
+      <c r="F41" s="322"/>
+      <c r="G41" s="322"/>
+      <c r="H41" s="322"/>
+      <c r="I41" s="322"/>
+      <c r="J41" s="323"/>
       <c r="K41" s="315"/>
       <c r="L41" s="317"/>
       <c r="M41" s="44" t="s">
@@ -20404,20 +20400,20 @@
     </row>
     <row r="42" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B42" s="3"/>
-      <c r="C42" s="329" t="s">
+      <c r="C42" s="318" t="s">
         <v>97</v>
       </c>
-      <c r="D42" s="330"/>
-      <c r="E42" s="330" t="s">
+      <c r="D42" s="319"/>
+      <c r="E42" s="319" t="s">
         <v>36</v>
       </c>
-      <c r="F42" s="330" t="s">
+      <c r="F42" s="319" t="s">
         <v>26</v>
       </c>
-      <c r="G42" s="330"/>
-      <c r="H42" s="330"/>
-      <c r="I42" s="330"/>
-      <c r="J42" s="331"/>
+      <c r="G42" s="319"/>
+      <c r="H42" s="319"/>
+      <c r="I42" s="319"/>
+      <c r="J42" s="320"/>
       <c r="K42" s="314" t="s">
         <v>16</v>
       </c>
@@ -20445,14 +20441,14 @@
     </row>
     <row r="43" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B43" s="3"/>
-      <c r="C43" s="332"/>
-      <c r="D43" s="333"/>
-      <c r="E43" s="333"/>
-      <c r="F43" s="333"/>
-      <c r="G43" s="333"/>
-      <c r="H43" s="333"/>
-      <c r="I43" s="333"/>
-      <c r="J43" s="334"/>
+      <c r="C43" s="321"/>
+      <c r="D43" s="322"/>
+      <c r="E43" s="322"/>
+      <c r="F43" s="322"/>
+      <c r="G43" s="322"/>
+      <c r="H43" s="322"/>
+      <c r="I43" s="322"/>
+      <c r="J43" s="323"/>
       <c r="K43" s="315"/>
       <c r="L43" s="317"/>
       <c r="M43" s="44" t="s">
@@ -20476,20 +20472,20 @@
     </row>
     <row r="44" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B44" s="3"/>
-      <c r="C44" s="329" t="s">
+      <c r="C44" s="318" t="s">
         <v>96</v>
       </c>
-      <c r="D44" s="330"/>
-      <c r="E44" s="330" t="s">
+      <c r="D44" s="319"/>
+      <c r="E44" s="319" t="s">
         <v>37</v>
       </c>
-      <c r="F44" s="330" t="s">
+      <c r="F44" s="319" t="s">
         <v>27</v>
       </c>
-      <c r="G44" s="330"/>
-      <c r="H44" s="330"/>
-      <c r="I44" s="330"/>
-      <c r="J44" s="331"/>
+      <c r="G44" s="319"/>
+      <c r="H44" s="319"/>
+      <c r="I44" s="319"/>
+      <c r="J44" s="320"/>
       <c r="K44" s="314" t="s">
         <v>22</v>
       </c>
@@ -20517,14 +20513,14 @@
     </row>
     <row r="45" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B45" s="3"/>
-      <c r="C45" s="332"/>
-      <c r="D45" s="333"/>
-      <c r="E45" s="333"/>
-      <c r="F45" s="333"/>
-      <c r="G45" s="333"/>
-      <c r="H45" s="333"/>
-      <c r="I45" s="333"/>
-      <c r="J45" s="334"/>
+      <c r="C45" s="321"/>
+      <c r="D45" s="322"/>
+      <c r="E45" s="322"/>
+      <c r="F45" s="322"/>
+      <c r="G45" s="322"/>
+      <c r="H45" s="322"/>
+      <c r="I45" s="322"/>
+      <c r="J45" s="323"/>
       <c r="K45" s="315"/>
       <c r="L45" s="317"/>
       <c r="M45" s="44" t="s">
@@ -20581,20 +20577,20 @@
     </row>
     <row r="47" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B47" s="3"/>
-      <c r="C47" s="329" t="s">
+      <c r="C47" s="318" t="s">
         <v>87</v>
       </c>
-      <c r="D47" s="330"/>
-      <c r="E47" s="330" t="s">
+      <c r="D47" s="319"/>
+      <c r="E47" s="319" t="s">
         <v>30</v>
       </c>
-      <c r="F47" s="330" t="s">
+      <c r="F47" s="319" t="s">
         <v>17</v>
       </c>
-      <c r="G47" s="330"/>
-      <c r="H47" s="330"/>
-      <c r="I47" s="330"/>
-      <c r="J47" s="331"/>
+      <c r="G47" s="319"/>
+      <c r="H47" s="319"/>
+      <c r="I47" s="319"/>
+      <c r="J47" s="320"/>
       <c r="K47" s="314" t="s">
         <v>15</v>
       </c>
@@ -20622,14 +20618,14 @@
     </row>
     <row r="48" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B48" s="3"/>
-      <c r="C48" s="332"/>
-      <c r="D48" s="333"/>
-      <c r="E48" s="333"/>
-      <c r="F48" s="333"/>
-      <c r="G48" s="333"/>
-      <c r="H48" s="333"/>
-      <c r="I48" s="333"/>
-      <c r="J48" s="334"/>
+      <c r="C48" s="321"/>
+      <c r="D48" s="322"/>
+      <c r="E48" s="322"/>
+      <c r="F48" s="322"/>
+      <c r="G48" s="322"/>
+      <c r="H48" s="322"/>
+      <c r="I48" s="322"/>
+      <c r="J48" s="323"/>
       <c r="K48" s="315"/>
       <c r="L48" s="317"/>
       <c r="M48" s="44" t="s">
@@ -20653,20 +20649,20 @@
     </row>
     <row r="49" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B49" s="3"/>
-      <c r="C49" s="329" t="s">
+      <c r="C49" s="318" t="s">
         <v>102</v>
       </c>
-      <c r="D49" s="330"/>
-      <c r="E49" s="330" t="s">
+      <c r="D49" s="319"/>
+      <c r="E49" s="319" t="s">
         <v>31</v>
       </c>
-      <c r="F49" s="330" t="s">
+      <c r="F49" s="319" t="s">
         <v>18</v>
       </c>
-      <c r="G49" s="330"/>
-      <c r="H49" s="330"/>
-      <c r="I49" s="330"/>
-      <c r="J49" s="331"/>
+      <c r="G49" s="319"/>
+      <c r="H49" s="319"/>
+      <c r="I49" s="319"/>
+      <c r="J49" s="320"/>
       <c r="K49" s="314" t="s">
         <v>16</v>
       </c>
@@ -20694,14 +20690,14 @@
     </row>
     <row r="50" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B50" s="3"/>
-      <c r="C50" s="332"/>
-      <c r="D50" s="333"/>
-      <c r="E50" s="333"/>
-      <c r="F50" s="333"/>
-      <c r="G50" s="333"/>
-      <c r="H50" s="333"/>
-      <c r="I50" s="333"/>
-      <c r="J50" s="334"/>
+      <c r="C50" s="321"/>
+      <c r="D50" s="322"/>
+      <c r="E50" s="322"/>
+      <c r="F50" s="322"/>
+      <c r="G50" s="322"/>
+      <c r="H50" s="322"/>
+      <c r="I50" s="322"/>
+      <c r="J50" s="323"/>
       <c r="K50" s="315"/>
       <c r="L50" s="317"/>
       <c r="M50" s="44" t="s">
@@ -20725,20 +20721,20 @@
     </row>
     <row r="51" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B51" s="3"/>
-      <c r="C51" s="329" t="s">
+      <c r="C51" s="318" t="s">
         <v>101</v>
       </c>
-      <c r="D51" s="330"/>
-      <c r="E51" s="330" t="s">
+      <c r="D51" s="319"/>
+      <c r="E51" s="319" t="s">
         <v>32</v>
       </c>
-      <c r="F51" s="330" t="s">
+      <c r="F51" s="319" t="s">
         <v>19</v>
       </c>
-      <c r="G51" s="330"/>
-      <c r="H51" s="330"/>
-      <c r="I51" s="330"/>
-      <c r="J51" s="331"/>
+      <c r="G51" s="319"/>
+      <c r="H51" s="319"/>
+      <c r="I51" s="319"/>
+      <c r="J51" s="320"/>
       <c r="K51" s="314" t="s">
         <v>16</v>
       </c>
@@ -20766,14 +20762,14 @@
     </row>
     <row r="52" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B52" s="3"/>
-      <c r="C52" s="332"/>
-      <c r="D52" s="333"/>
-      <c r="E52" s="333"/>
-      <c r="F52" s="333"/>
-      <c r="G52" s="333"/>
-      <c r="H52" s="333"/>
-      <c r="I52" s="333"/>
-      <c r="J52" s="334"/>
+      <c r="C52" s="321"/>
+      <c r="D52" s="322"/>
+      <c r="E52" s="322"/>
+      <c r="F52" s="322"/>
+      <c r="G52" s="322"/>
+      <c r="H52" s="322"/>
+      <c r="I52" s="322"/>
+      <c r="J52" s="323"/>
       <c r="K52" s="315"/>
       <c r="L52" s="317"/>
       <c r="M52" s="44" t="s">
@@ -20800,17 +20796,17 @@
       <c r="C53" s="371" t="s">
         <v>100</v>
       </c>
-      <c r="D53" s="330"/>
-      <c r="E53" s="330" t="s">
+      <c r="D53" s="319"/>
+      <c r="E53" s="319" t="s">
         <v>33</v>
       </c>
-      <c r="F53" s="330" t="s">
+      <c r="F53" s="319" t="s">
         <v>20</v>
       </c>
-      <c r="G53" s="330"/>
-      <c r="H53" s="330"/>
-      <c r="I53" s="330"/>
-      <c r="J53" s="331"/>
+      <c r="G53" s="319"/>
+      <c r="H53" s="319"/>
+      <c r="I53" s="319"/>
+      <c r="J53" s="320"/>
       <c r="K53" s="314" t="s">
         <v>16</v>
       </c>
@@ -20838,14 +20834,14 @@
     </row>
     <row r="54" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B54" s="3"/>
-      <c r="C54" s="332"/>
-      <c r="D54" s="333"/>
-      <c r="E54" s="333"/>
-      <c r="F54" s="333"/>
-      <c r="G54" s="333"/>
-      <c r="H54" s="333"/>
-      <c r="I54" s="333"/>
-      <c r="J54" s="334"/>
+      <c r="C54" s="321"/>
+      <c r="D54" s="322"/>
+      <c r="E54" s="322"/>
+      <c r="F54" s="322"/>
+      <c r="G54" s="322"/>
+      <c r="H54" s="322"/>
+      <c r="I54" s="322"/>
+      <c r="J54" s="323"/>
       <c r="K54" s="315"/>
       <c r="L54" s="317"/>
       <c r="M54" s="44" t="s">
@@ -20869,20 +20865,20 @@
     </row>
     <row r="55" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B55" s="3"/>
-      <c r="C55" s="329" t="s">
+      <c r="C55" s="318" t="s">
         <v>99</v>
       </c>
-      <c r="D55" s="330"/>
-      <c r="E55" s="330" t="s">
+      <c r="D55" s="319"/>
+      <c r="E55" s="319" t="s">
         <v>34</v>
       </c>
-      <c r="F55" s="330" t="s">
+      <c r="F55" s="319" t="s">
         <v>24</v>
       </c>
-      <c r="G55" s="330"/>
-      <c r="H55" s="330"/>
-      <c r="I55" s="330"/>
-      <c r="J55" s="331"/>
+      <c r="G55" s="319"/>
+      <c r="H55" s="319"/>
+      <c r="I55" s="319"/>
+      <c r="J55" s="320"/>
       <c r="K55" s="314" t="s">
         <v>22</v>
       </c>
@@ -20910,14 +20906,14 @@
     </row>
     <row r="56" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B56" s="3"/>
-      <c r="C56" s="332"/>
-      <c r="D56" s="333"/>
-      <c r="E56" s="333"/>
-      <c r="F56" s="333"/>
-      <c r="G56" s="333"/>
-      <c r="H56" s="333"/>
-      <c r="I56" s="333"/>
-      <c r="J56" s="334"/>
+      <c r="C56" s="321"/>
+      <c r="D56" s="322"/>
+      <c r="E56" s="322"/>
+      <c r="F56" s="322"/>
+      <c r="G56" s="322"/>
+      <c r="H56" s="322"/>
+      <c r="I56" s="322"/>
+      <c r="J56" s="323"/>
       <c r="K56" s="315"/>
       <c r="L56" s="317"/>
       <c r="M56" s="44" t="s">
@@ -20941,20 +20937,20 @@
     </row>
     <row r="57" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B57" s="3"/>
-      <c r="C57" s="329" t="s">
+      <c r="C57" s="318" t="s">
         <v>98</v>
       </c>
-      <c r="D57" s="330"/>
-      <c r="E57" s="330" t="s">
+      <c r="D57" s="319"/>
+      <c r="E57" s="319" t="s">
         <v>35</v>
       </c>
-      <c r="F57" s="330" t="s">
+      <c r="F57" s="319" t="s">
         <v>25</v>
       </c>
-      <c r="G57" s="330"/>
-      <c r="H57" s="330"/>
-      <c r="I57" s="330"/>
-      <c r="J57" s="331"/>
+      <c r="G57" s="319"/>
+      <c r="H57" s="319"/>
+      <c r="I57" s="319"/>
+      <c r="J57" s="320"/>
       <c r="K57" s="314" t="s">
         <v>22</v>
       </c>
@@ -20982,14 +20978,14 @@
     </row>
     <row r="58" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B58" s="3"/>
-      <c r="C58" s="332"/>
-      <c r="D58" s="333"/>
-      <c r="E58" s="333"/>
-      <c r="F58" s="333"/>
-      <c r="G58" s="333"/>
-      <c r="H58" s="333"/>
-      <c r="I58" s="333"/>
-      <c r="J58" s="334"/>
+      <c r="C58" s="321"/>
+      <c r="D58" s="322"/>
+      <c r="E58" s="322"/>
+      <c r="F58" s="322"/>
+      <c r="G58" s="322"/>
+      <c r="H58" s="322"/>
+      <c r="I58" s="322"/>
+      <c r="J58" s="323"/>
       <c r="K58" s="315"/>
       <c r="L58" s="317"/>
       <c r="M58" s="44" t="s">
@@ -21013,20 +21009,20 @@
     </row>
     <row r="59" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B59" s="3"/>
-      <c r="C59" s="329" t="s">
+      <c r="C59" s="318" t="s">
         <v>97</v>
       </c>
-      <c r="D59" s="330"/>
-      <c r="E59" s="330" t="s">
+      <c r="D59" s="319"/>
+      <c r="E59" s="319" t="s">
         <v>36</v>
       </c>
-      <c r="F59" s="330" t="s">
+      <c r="F59" s="319" t="s">
         <v>26</v>
       </c>
-      <c r="G59" s="330"/>
-      <c r="H59" s="330"/>
-      <c r="I59" s="330"/>
-      <c r="J59" s="331"/>
+      <c r="G59" s="319"/>
+      <c r="H59" s="319"/>
+      <c r="I59" s="319"/>
+      <c r="J59" s="320"/>
       <c r="K59" s="314" t="s">
         <v>22</v>
       </c>
@@ -21054,14 +21050,14 @@
     </row>
     <row r="60" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B60" s="3"/>
-      <c r="C60" s="332"/>
-      <c r="D60" s="333"/>
-      <c r="E60" s="333"/>
-      <c r="F60" s="333"/>
-      <c r="G60" s="333"/>
-      <c r="H60" s="333"/>
-      <c r="I60" s="333"/>
-      <c r="J60" s="334"/>
+      <c r="C60" s="321"/>
+      <c r="D60" s="322"/>
+      <c r="E60" s="322"/>
+      <c r="F60" s="322"/>
+      <c r="G60" s="322"/>
+      <c r="H60" s="322"/>
+      <c r="I60" s="322"/>
+      <c r="J60" s="323"/>
       <c r="K60" s="315"/>
       <c r="L60" s="317"/>
       <c r="M60" s="44" t="s">
@@ -21085,20 +21081,20 @@
     </row>
     <row r="61" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B61" s="3"/>
-      <c r="C61" s="329" t="s">
+      <c r="C61" s="318" t="s">
         <v>96</v>
       </c>
-      <c r="D61" s="330"/>
-      <c r="E61" s="330" t="s">
+      <c r="D61" s="319"/>
+      <c r="E61" s="319" t="s">
         <v>37</v>
       </c>
-      <c r="F61" s="330" t="s">
+      <c r="F61" s="319" t="s">
         <v>27</v>
       </c>
-      <c r="G61" s="330"/>
-      <c r="H61" s="330"/>
-      <c r="I61" s="330"/>
-      <c r="J61" s="331"/>
+      <c r="G61" s="319"/>
+      <c r="H61" s="319"/>
+      <c r="I61" s="319"/>
+      <c r="J61" s="320"/>
       <c r="K61" s="314" t="s">
         <v>23</v>
       </c>
@@ -21126,14 +21122,14 @@
     </row>
     <row r="62" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B62" s="3"/>
-      <c r="C62" s="332"/>
-      <c r="D62" s="333"/>
-      <c r="E62" s="333"/>
-      <c r="F62" s="333"/>
-      <c r="G62" s="333"/>
-      <c r="H62" s="333"/>
-      <c r="I62" s="333"/>
-      <c r="J62" s="334"/>
+      <c r="C62" s="321"/>
+      <c r="D62" s="322"/>
+      <c r="E62" s="322"/>
+      <c r="F62" s="322"/>
+      <c r="G62" s="322"/>
+      <c r="H62" s="322"/>
+      <c r="I62" s="322"/>
+      <c r="J62" s="323"/>
       <c r="K62" s="315"/>
       <c r="L62" s="317"/>
       <c r="M62" s="44" t="s">
@@ -21186,6 +21182,38 @@
     </row>
   </sheetData>
   <mergeCells count="48">
+    <mergeCell ref="C30:J31"/>
+    <mergeCell ref="K30:K31"/>
+    <mergeCell ref="L30:L31"/>
+    <mergeCell ref="C32:J33"/>
+    <mergeCell ref="K32:K33"/>
+    <mergeCell ref="L32:L33"/>
+    <mergeCell ref="C34:J35"/>
+    <mergeCell ref="K34:K35"/>
+    <mergeCell ref="L34:L35"/>
+    <mergeCell ref="C40:J41"/>
+    <mergeCell ref="K40:K41"/>
+    <mergeCell ref="L40:L41"/>
+    <mergeCell ref="C36:J37"/>
+    <mergeCell ref="K36:K37"/>
+    <mergeCell ref="L36:L37"/>
+    <mergeCell ref="C38:J39"/>
+    <mergeCell ref="K38:K39"/>
+    <mergeCell ref="L38:L39"/>
+    <mergeCell ref="K49:K50"/>
+    <mergeCell ref="L49:L50"/>
+    <mergeCell ref="C44:J45"/>
+    <mergeCell ref="K44:K45"/>
+    <mergeCell ref="L44:L45"/>
+    <mergeCell ref="C61:J62"/>
+    <mergeCell ref="K61:K62"/>
+    <mergeCell ref="L61:L62"/>
+    <mergeCell ref="C55:J56"/>
+    <mergeCell ref="K55:K56"/>
+    <mergeCell ref="L55:L56"/>
+    <mergeCell ref="C57:J58"/>
+    <mergeCell ref="K57:K58"/>
+    <mergeCell ref="L57:L58"/>
     <mergeCell ref="L42:L43"/>
     <mergeCell ref="K42:K43"/>
     <mergeCell ref="C42:J43"/>
@@ -21202,38 +21230,6 @@
     <mergeCell ref="K47:K48"/>
     <mergeCell ref="L47:L48"/>
     <mergeCell ref="C49:J50"/>
-    <mergeCell ref="C61:J62"/>
-    <mergeCell ref="K61:K62"/>
-    <mergeCell ref="L61:L62"/>
-    <mergeCell ref="C55:J56"/>
-    <mergeCell ref="K55:K56"/>
-    <mergeCell ref="L55:L56"/>
-    <mergeCell ref="C57:J58"/>
-    <mergeCell ref="K57:K58"/>
-    <mergeCell ref="L57:L58"/>
-    <mergeCell ref="K49:K50"/>
-    <mergeCell ref="L49:L50"/>
-    <mergeCell ref="C44:J45"/>
-    <mergeCell ref="K44:K45"/>
-    <mergeCell ref="L44:L45"/>
-    <mergeCell ref="C34:J35"/>
-    <mergeCell ref="K34:K35"/>
-    <mergeCell ref="L34:L35"/>
-    <mergeCell ref="C40:J41"/>
-    <mergeCell ref="K40:K41"/>
-    <mergeCell ref="L40:L41"/>
-    <mergeCell ref="C36:J37"/>
-    <mergeCell ref="K36:K37"/>
-    <mergeCell ref="L36:L37"/>
-    <mergeCell ref="C38:J39"/>
-    <mergeCell ref="K38:K39"/>
-    <mergeCell ref="L38:L39"/>
-    <mergeCell ref="C30:J31"/>
-    <mergeCell ref="K30:K31"/>
-    <mergeCell ref="L30:L31"/>
-    <mergeCell ref="C32:J33"/>
-    <mergeCell ref="K32:K33"/>
-    <mergeCell ref="L32:L33"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">

--- a/グループ開発スケジュール.xlsx
+++ b/グループ開発スケジュール.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\D-group\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88586DF3-F505-4D97-A682-8314867D09D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB548C7C-4EF4-47CB-8BA4-B1222FDD8E24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="560" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="560" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="マイルストーン" sheetId="7" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="184">
   <si>
     <t>No.</t>
   </si>
@@ -9521,7 +9521,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6151F9F-0C3C-493F-A15D-BD44D6274607}">
   <dimension ref="C19:AN38"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
+    <sheetView showGridLines="0" topLeftCell="A17" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -10151,8 +10153,12 @@
       </c>
       <c r="O32" s="275"/>
       <c r="P32" s="258">
-        <f>N32*0.65</f>
-        <v>0.22749999999999998</v>
+        <f>N32*0.76</f>
+        <v>0.26599999999999996</v>
+      </c>
+      <c r="Q32">
+        <f>23+12+15+27</f>
+        <v>77</v>
       </c>
       <c r="S32" s="260">
         <f>7.8*4</f>
@@ -10413,8 +10419,8 @@
       <c r="J37" s="200"/>
       <c r="K37" s="201"/>
       <c r="L37" s="298">
-        <f>SUM(L27:M31)/L36</f>
-        <v>0.5</v>
+        <f>SUM(L27:M32)/L36</f>
+        <v>0.84615384615384615</v>
       </c>
       <c r="M37" s="267"/>
       <c r="O37" s="252">
@@ -11061,8 +11067,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B23:AA43"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P30" sqref="P30"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P1" sqref="P1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.875" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
@@ -11766,8 +11772,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B23:AD47"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView showGridLines="0" topLeftCell="A71" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E54" sqref="E54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.875" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
@@ -12658,7 +12664,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B23:CN68"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A27" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A30" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="AI30" sqref="AI30"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.875" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
   <cols>
@@ -13280,7 +13288,7 @@
       <c r="AH29" s="96"/>
       <c r="AI29" s="96">
         <f>SUM(O30:O67)</f>
-        <v>1235</v>
+        <v>1440</v>
       </c>
       <c r="AJ29" s="96"/>
       <c r="AK29" s="96"/>
@@ -13389,8 +13397,8 @@
       <c r="AG30" s="96"/>
       <c r="AH30" s="96"/>
       <c r="AI30" s="257">
-        <f>SUM(O30:O67)/1900</f>
-        <v>0.65</v>
+        <f>1440/1900</f>
+        <v>0.75789473684210529</v>
       </c>
       <c r="AJ30" s="96"/>
       <c r="AK30" s="96"/>
@@ -14974,11 +14982,15 @@
       <c r="K46" s="353" t="s">
         <v>158</v>
       </c>
-      <c r="L46" s="314"/>
+      <c r="L46" s="314" t="s">
+        <v>160</v>
+      </c>
       <c r="M46" s="324" t="s">
         <v>40</v>
       </c>
-      <c r="N46" s="324"/>
+      <c r="N46" s="324" t="s">
+        <v>39</v>
+      </c>
       <c r="O46" s="353"/>
       <c r="P46" s="145" t="s">
         <v>48</v>
@@ -15170,11 +15182,15 @@
       <c r="K48" s="353" t="s">
         <v>156</v>
       </c>
-      <c r="L48" s="314"/>
+      <c r="L48" s="314" t="s">
+        <v>160</v>
+      </c>
       <c r="M48" s="324" t="s">
         <v>40</v>
       </c>
-      <c r="N48" s="324"/>
+      <c r="N48" s="324" t="s">
+        <v>39</v>
+      </c>
       <c r="O48" s="353"/>
       <c r="P48" s="145" t="s">
         <v>48</v>
@@ -15574,8 +15590,12 @@
       <c r="M52" s="324" t="s">
         <v>40</v>
       </c>
-      <c r="N52" s="324"/>
-      <c r="O52" s="353"/>
+      <c r="N52" s="324" t="s">
+        <v>174</v>
+      </c>
+      <c r="O52" s="353">
+        <v>20</v>
+      </c>
       <c r="P52" s="145" t="s">
         <v>48</v>
       </c>
@@ -16372,12 +16392,18 @@
       <c r="K60" s="314" t="s">
         <v>159</v>
       </c>
-      <c r="L60" s="314"/>
+      <c r="L60" s="353" t="s">
+        <v>157</v>
+      </c>
       <c r="M60" s="324" t="s">
         <v>40</v>
       </c>
-      <c r="N60" s="324"/>
-      <c r="O60" s="353"/>
+      <c r="N60" s="324" t="s">
+        <v>174</v>
+      </c>
+      <c r="O60" s="353">
+        <v>70</v>
+      </c>
       <c r="P60" s="145" t="s">
         <v>48</v>
       </c>
@@ -16469,7 +16495,7 @@
       <c r="I61" s="339"/>
       <c r="J61" s="340"/>
       <c r="K61" s="315"/>
-      <c r="L61" s="315"/>
+      <c r="L61" s="354"/>
       <c r="M61" s="315"/>
       <c r="N61" s="315"/>
       <c r="O61" s="354"/>
@@ -16578,7 +16604,7 @@
         <v>174</v>
       </c>
       <c r="O62" s="353">
-        <v>35</v>
+        <v>100</v>
       </c>
       <c r="P62" s="145" t="s">
         <v>48</v>
@@ -16770,12 +16796,18 @@
       <c r="K64" s="314" t="s">
         <v>159</v>
       </c>
-      <c r="L64" s="314"/>
+      <c r="L64" s="314" t="s">
+        <v>158</v>
+      </c>
       <c r="M64" s="324" t="s">
         <v>40</v>
       </c>
-      <c r="N64" s="324"/>
-      <c r="O64" s="353"/>
+      <c r="N64" s="324" t="s">
+        <v>174</v>
+      </c>
+      <c r="O64" s="353">
+        <v>50</v>
+      </c>
       <c r="P64" s="145" t="s">
         <v>48</v>
       </c>
@@ -17374,8 +17406,8 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -17383,8 +17415,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="B23:CK47"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M22" sqref="M22"/>
+    <sheetView showGridLines="0" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M51" sqref="M51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.875" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
